--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15691200</v>
+        <v>14665300</v>
       </c>
       <c r="E8" s="3">
-        <v>12829800</v>
+        <v>15147100</v>
       </c>
       <c r="F8" s="3">
-        <v>8285200</v>
+        <v>12385000</v>
       </c>
       <c r="G8" s="3">
-        <v>8678900</v>
+        <v>7998000</v>
       </c>
       <c r="H8" s="3">
-        <v>14786300</v>
+        <v>8378000</v>
       </c>
       <c r="I8" s="3">
-        <v>14044800</v>
+        <v>14273600</v>
       </c>
       <c r="J8" s="3">
+        <v>13557900</v>
+      </c>
+      <c r="K8" s="3">
         <v>12678500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12058100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6583100</v>
+        <v>6124500</v>
       </c>
       <c r="E9" s="3">
-        <v>6047900</v>
+        <v>6354900</v>
       </c>
       <c r="F9" s="3">
-        <v>5253000</v>
+        <v>5838200</v>
       </c>
       <c r="G9" s="3">
-        <v>5551800</v>
+        <v>5070800</v>
       </c>
       <c r="H9" s="3">
-        <v>8281400</v>
+        <v>5359300</v>
       </c>
       <c r="I9" s="3">
-        <v>7854600</v>
+        <v>7994300</v>
       </c>
       <c r="J9" s="3">
+        <v>7582300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6970800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9108000</v>
+        <v>8540800</v>
       </c>
       <c r="E10" s="3">
-        <v>6781900</v>
+        <v>8792200</v>
       </c>
       <c r="F10" s="3">
-        <v>3032200</v>
+        <v>6546800</v>
       </c>
       <c r="G10" s="3">
-        <v>3127100</v>
+        <v>2927100</v>
       </c>
       <c r="H10" s="3">
-        <v>6504900</v>
+        <v>3018700</v>
       </c>
       <c r="I10" s="3">
-        <v>6190200</v>
+        <v>6279300</v>
       </c>
       <c r="J10" s="3">
+        <v>5975600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5707700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12030500</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1617000</v>
+        <v>74100</v>
       </c>
       <c r="E12" s="3">
-        <v>695600</v>
+        <v>1560900</v>
       </c>
       <c r="F12" s="3">
-        <v>28600</v>
+        <v>671500</v>
       </c>
       <c r="G12" s="3">
-        <v>70800</v>
+        <v>27600</v>
       </c>
       <c r="H12" s="3">
-        <v>76000</v>
+        <v>68300</v>
       </c>
       <c r="I12" s="3">
-        <v>103900</v>
+        <v>73400</v>
       </c>
       <c r="J12" s="3">
+        <v>100300</v>
+      </c>
+      <c r="K12" s="3">
         <v>62500</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>626300</v>
+        <v>26900</v>
       </c>
       <c r="E14" s="3">
-        <v>15100</v>
+        <v>604600</v>
       </c>
       <c r="F14" s="3">
-        <v>36100</v>
+        <v>14500</v>
       </c>
       <c r="G14" s="3">
-        <v>-1768300</v>
+        <v>34900</v>
       </c>
       <c r="H14" s="3">
-        <v>374100</v>
+        <v>-1707000</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>361200</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>295800</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1623800</v>
+        <v>1610300</v>
       </c>
       <c r="E15" s="3">
-        <v>1383600</v>
+        <v>1567500</v>
       </c>
       <c r="F15" s="3">
-        <v>1811200</v>
+        <v>1335700</v>
       </c>
       <c r="G15" s="3">
-        <v>747500</v>
+        <v>1748400</v>
       </c>
       <c r="H15" s="3">
-        <v>1464900</v>
+        <v>721600</v>
       </c>
       <c r="I15" s="3">
-        <v>1379900</v>
+        <v>1414100</v>
       </c>
       <c r="J15" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1193200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>994900</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17316400</v>
+        <v>13467700</v>
       </c>
       <c r="E17" s="3">
-        <v>12582900</v>
+        <v>16716100</v>
       </c>
       <c r="F17" s="3">
-        <v>8481700</v>
+        <v>12146600</v>
       </c>
       <c r="G17" s="3">
-        <v>7153000</v>
+        <v>8187600</v>
       </c>
       <c r="H17" s="3">
-        <v>13883000</v>
+        <v>6905000</v>
       </c>
       <c r="I17" s="3">
-        <v>12517400</v>
+        <v>13401600</v>
       </c>
       <c r="J17" s="3">
+        <v>12083400</v>
+      </c>
+      <c r="K17" s="3">
         <v>11390500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10710700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1625300</v>
+        <v>1197600</v>
       </c>
       <c r="E18" s="3">
-        <v>246900</v>
+        <v>-1568900</v>
       </c>
       <c r="F18" s="3">
-        <v>-196500</v>
+        <v>238400</v>
       </c>
       <c r="G18" s="3">
-        <v>1525900</v>
+        <v>-189700</v>
       </c>
       <c r="H18" s="3">
-        <v>903300</v>
+        <v>1473000</v>
       </c>
       <c r="I18" s="3">
-        <v>1527400</v>
+        <v>872000</v>
       </c>
       <c r="J18" s="3">
+        <v>1474500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1288000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1347500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-928900</v>
+        <v>173000</v>
       </c>
       <c r="E20" s="3">
-        <v>1851100</v>
+        <v>-896700</v>
       </c>
       <c r="F20" s="3">
-        <v>-150600</v>
+        <v>1786900</v>
       </c>
       <c r="G20" s="3">
-        <v>-609000</v>
+        <v>-145300</v>
       </c>
       <c r="H20" s="3">
-        <v>227300</v>
+        <v>-587900</v>
       </c>
       <c r="I20" s="3">
-        <v>-401200</v>
+        <v>219500</v>
       </c>
       <c r="J20" s="3">
+        <v>-387300</v>
+      </c>
+      <c r="K20" s="3">
         <v>312400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>348000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-949300</v>
+        <v>3006200</v>
       </c>
       <c r="E21" s="3">
-        <v>3626900</v>
+        <v>-915800</v>
       </c>
       <c r="F21" s="3">
-        <v>781200</v>
+        <v>3501600</v>
       </c>
       <c r="G21" s="3">
-        <v>2509000</v>
+        <v>754400</v>
       </c>
       <c r="H21" s="3">
-        <v>2596300</v>
+        <v>2422600</v>
       </c>
       <c r="I21" s="3">
-        <v>2506700</v>
+        <v>2506800</v>
       </c>
       <c r="J21" s="3">
+        <v>2420200</v>
+      </c>
+      <c r="K21" s="3">
         <v>2794100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2695100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>401200</v>
+        <v>355400</v>
       </c>
       <c r="E22" s="3">
-        <v>429800</v>
+        <v>387300</v>
       </c>
       <c r="F22" s="3">
-        <v>256700</v>
+        <v>414900</v>
       </c>
       <c r="G22" s="3">
-        <v>246900</v>
+        <v>247800</v>
       </c>
       <c r="H22" s="3">
-        <v>231100</v>
+        <v>238400</v>
       </c>
       <c r="I22" s="3">
-        <v>302600</v>
+        <v>223100</v>
       </c>
       <c r="J22" s="3">
+        <v>292100</v>
+      </c>
+      <c r="K22" s="3">
         <v>262000</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2955500</v>
+        <v>1015200</v>
       </c>
       <c r="E23" s="3">
-        <v>1668200</v>
+        <v>-2853000</v>
       </c>
       <c r="F23" s="3">
-        <v>-603700</v>
+        <v>1610300</v>
       </c>
       <c r="G23" s="3">
-        <v>670000</v>
+        <v>-582800</v>
       </c>
       <c r="H23" s="3">
-        <v>899600</v>
+        <v>646800</v>
       </c>
       <c r="I23" s="3">
-        <v>823600</v>
+        <v>868400</v>
       </c>
       <c r="J23" s="3">
+        <v>795000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1338500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1695500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-760300</v>
+        <v>-579200</v>
       </c>
       <c r="E24" s="3">
-        <v>-39100</v>
+        <v>-734000</v>
       </c>
       <c r="F24" s="3">
-        <v>-258200</v>
+        <v>-37800</v>
       </c>
       <c r="G24" s="3">
-        <v>-18100</v>
+        <v>-249300</v>
       </c>
       <c r="H24" s="3">
-        <v>339500</v>
+        <v>-17400</v>
       </c>
       <c r="I24" s="3">
-        <v>325200</v>
+        <v>327700</v>
       </c>
       <c r="J24" s="3">
+        <v>313900</v>
+      </c>
+      <c r="K24" s="3">
         <v>589400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>560000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2195100</v>
+        <v>1594400</v>
       </c>
       <c r="E26" s="3">
-        <v>1707300</v>
+        <v>-2119000</v>
       </c>
       <c r="F26" s="3">
-        <v>-345500</v>
+        <v>1648100</v>
       </c>
       <c r="G26" s="3">
-        <v>688100</v>
+        <v>-333600</v>
       </c>
       <c r="H26" s="3">
-        <v>560100</v>
+        <v>664200</v>
       </c>
       <c r="I26" s="3">
-        <v>498300</v>
+        <v>540700</v>
       </c>
       <c r="J26" s="3">
+        <v>481100</v>
+      </c>
+      <c r="K26" s="3">
         <v>749000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1135400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2195100</v>
+        <v>1594400</v>
       </c>
       <c r="E27" s="3">
-        <v>1707300</v>
+        <v>-2119000</v>
       </c>
       <c r="F27" s="3">
-        <v>-345500</v>
+        <v>1648100</v>
       </c>
       <c r="G27" s="3">
-        <v>688100</v>
+        <v>-333600</v>
       </c>
       <c r="H27" s="3">
-        <v>560100</v>
+        <v>664200</v>
       </c>
       <c r="I27" s="3">
-        <v>498300</v>
+        <v>540700</v>
       </c>
       <c r="J27" s="3">
+        <v>481100</v>
+      </c>
+      <c r="K27" s="3">
         <v>749000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1135400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,26 +1343,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>185900</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>826600</v>
+        <v>179500</v>
       </c>
       <c r="F29" s="3">
-        <v>-64700</v>
+        <v>797900</v>
       </c>
       <c r="G29" s="3">
-        <v>-222800</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>-62500</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-215100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>928900</v>
+        <v>-173000</v>
       </c>
       <c r="E32" s="3">
-        <v>-1851100</v>
+        <v>896700</v>
       </c>
       <c r="F32" s="3">
-        <v>150600</v>
+        <v>-1786900</v>
       </c>
       <c r="G32" s="3">
-        <v>609000</v>
+        <v>145300</v>
       </c>
       <c r="H32" s="3">
-        <v>-227300</v>
+        <v>587900</v>
       </c>
       <c r="I32" s="3">
-        <v>401200</v>
+        <v>-219500</v>
       </c>
       <c r="J32" s="3">
+        <v>387300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-312400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-348000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2009200</v>
+        <v>1594400</v>
       </c>
       <c r="E33" s="3">
-        <v>2533900</v>
+        <v>-1939500</v>
       </c>
       <c r="F33" s="3">
-        <v>-410300</v>
+        <v>2446000</v>
       </c>
       <c r="G33" s="3">
-        <v>465200</v>
+        <v>-396000</v>
       </c>
       <c r="H33" s="3">
-        <v>560100</v>
+        <v>449100</v>
       </c>
       <c r="I33" s="3">
-        <v>498300</v>
+        <v>540700</v>
       </c>
       <c r="J33" s="3">
+        <v>481100</v>
+      </c>
+      <c r="K33" s="3">
         <v>749000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1135400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2009200</v>
+        <v>1594400</v>
       </c>
       <c r="E35" s="3">
-        <v>2533900</v>
+        <v>-1939500</v>
       </c>
       <c r="F35" s="3">
-        <v>-410300</v>
+        <v>2446000</v>
       </c>
       <c r="G35" s="3">
-        <v>465200</v>
+        <v>-396000</v>
       </c>
       <c r="H35" s="3">
-        <v>560100</v>
+        <v>449100</v>
       </c>
       <c r="I35" s="3">
-        <v>498300</v>
+        <v>540700</v>
       </c>
       <c r="J35" s="3">
+        <v>481100</v>
+      </c>
+      <c r="K35" s="3">
         <v>749000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1135400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>116700</v>
+        <v>78400</v>
       </c>
       <c r="E41" s="3">
-        <v>411800</v>
+        <v>112600</v>
       </c>
       <c r="F41" s="3">
-        <v>408000</v>
+        <v>397300</v>
       </c>
       <c r="G41" s="3">
-        <v>243200</v>
+        <v>393600</v>
       </c>
       <c r="H41" s="3">
-        <v>344800</v>
+        <v>234600</v>
       </c>
       <c r="I41" s="3">
-        <v>1845800</v>
+        <v>332600</v>
       </c>
       <c r="J41" s="3">
+        <v>1780800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1128400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>178200</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>471200</v>
+        <v>56600</v>
       </c>
       <c r="E42" s="3">
-        <v>47400</v>
+        <v>454600</v>
       </c>
       <c r="F42" s="3">
-        <v>2392400</v>
+        <v>45800</v>
       </c>
       <c r="G42" s="3">
-        <v>2847100</v>
+        <v>2308100</v>
       </c>
       <c r="H42" s="3">
-        <v>319900</v>
-      </c>
-      <c r="I42" s="3" t="s">
+        <v>2746800</v>
+      </c>
+      <c r="I42" s="3">
+        <v>308700</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>618000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>202000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>898100</v>
+        <v>1094500</v>
       </c>
       <c r="E43" s="3">
-        <v>1380600</v>
+        <v>866400</v>
       </c>
       <c r="F43" s="3">
-        <v>1292500</v>
+        <v>1332000</v>
       </c>
       <c r="G43" s="3">
-        <v>892800</v>
+        <v>1247000</v>
       </c>
       <c r="H43" s="3">
-        <v>1212000</v>
+        <v>861400</v>
       </c>
       <c r="I43" s="3">
-        <v>1422000</v>
+        <v>1169300</v>
       </c>
       <c r="J43" s="3">
+        <v>1371900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2459400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1053200</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>762600</v>
+        <v>1112600</v>
       </c>
       <c r="E44" s="3">
-        <v>1045600</v>
+        <v>735700</v>
       </c>
       <c r="F44" s="3">
-        <v>931200</v>
+        <v>1008800</v>
       </c>
       <c r="G44" s="3">
-        <v>609800</v>
+        <v>898400</v>
       </c>
       <c r="H44" s="3">
-        <v>921400</v>
+        <v>588300</v>
       </c>
       <c r="I44" s="3">
-        <v>947800</v>
+        <v>889000</v>
       </c>
       <c r="J44" s="3">
+        <v>914400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1917400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>991800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>156600</v>
+        <v>42800</v>
       </c>
       <c r="E45" s="3">
-        <v>884500</v>
+        <v>151100</v>
       </c>
       <c r="F45" s="3">
-        <v>111400</v>
+        <v>853400</v>
       </c>
       <c r="G45" s="3">
-        <v>280000</v>
+        <v>107500</v>
       </c>
       <c r="H45" s="3">
-        <v>359800</v>
+        <v>270200</v>
       </c>
       <c r="I45" s="3">
-        <v>7500</v>
+        <v>347200</v>
       </c>
       <c r="J45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K45" s="3">
         <v>536000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>579200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2405200</v>
+        <v>2385100</v>
       </c>
       <c r="E46" s="3">
-        <v>3770000</v>
+        <v>2320400</v>
       </c>
       <c r="F46" s="3">
-        <v>5135500</v>
+        <v>3637200</v>
       </c>
       <c r="G46" s="3">
-        <v>4872800</v>
+        <v>4954600</v>
       </c>
       <c r="H46" s="3">
-        <v>3158000</v>
+        <v>4701100</v>
       </c>
       <c r="I46" s="3">
-        <v>4223200</v>
+        <v>3046700</v>
       </c>
       <c r="J46" s="3">
+        <v>4074400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3447000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3004500</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>158100</v>
+        <v>74800</v>
       </c>
       <c r="E47" s="3">
-        <v>270300</v>
+        <v>152500</v>
       </c>
       <c r="F47" s="3">
-        <v>131000</v>
+        <v>260700</v>
       </c>
       <c r="G47" s="3">
-        <v>103100</v>
-      </c>
-      <c r="H47" s="3" t="s">
+        <v>126400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>99500</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>1069000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1413500</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22194500</v>
+        <v>21748900</v>
       </c>
       <c r="E48" s="3">
-        <v>25044600</v>
+        <v>21412600</v>
       </c>
       <c r="F48" s="3">
-        <v>13558500</v>
+        <v>24162300</v>
       </c>
       <c r="G48" s="3">
-        <v>14235300</v>
+        <v>13080800</v>
       </c>
       <c r="H48" s="3">
-        <v>15197300</v>
+        <v>13733800</v>
       </c>
       <c r="I48" s="3">
-        <v>14157700</v>
+        <v>14661900</v>
       </c>
       <c r="J48" s="3">
+        <v>13659000</v>
+      </c>
+      <c r="K48" s="3">
         <v>26252800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11680200</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1710300</v>
+        <v>1723400</v>
       </c>
       <c r="E49" s="3">
-        <v>1710300</v>
+        <v>1650100</v>
       </c>
       <c r="F49" s="3">
-        <v>182200</v>
+        <v>1650100</v>
       </c>
       <c r="G49" s="3">
-        <v>182200</v>
+        <v>175800</v>
       </c>
       <c r="H49" s="3">
-        <v>182200</v>
+        <v>175800</v>
       </c>
       <c r="I49" s="3">
+        <v>175800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>536700</v>
+      </c>
+      <c r="K49" s="3">
         <v>556300</v>
       </c>
-      <c r="J49" s="3">
-        <v>556300</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>869600</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10500</v>
+        <v>5100</v>
       </c>
       <c r="E52" s="3">
-        <v>18800</v>
+        <v>10200</v>
       </c>
       <c r="F52" s="3">
-        <v>6800</v>
+        <v>18200</v>
       </c>
       <c r="G52" s="3">
-        <v>21800</v>
+        <v>6500</v>
       </c>
       <c r="H52" s="3">
-        <v>52700</v>
+        <v>21100</v>
       </c>
       <c r="I52" s="3">
-        <v>51200</v>
+        <v>50800</v>
       </c>
       <c r="J52" s="3">
+        <v>49400</v>
+      </c>
+      <c r="K52" s="3">
         <v>53400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26478600</v>
+        <v>25937300</v>
       </c>
       <c r="E54" s="3">
-        <v>30814000</v>
+        <v>25545800</v>
       </c>
       <c r="F54" s="3">
-        <v>19014000</v>
+        <v>29728400</v>
       </c>
       <c r="G54" s="3">
-        <v>19415200</v>
+        <v>18344100</v>
       </c>
       <c r="H54" s="3">
-        <v>18590100</v>
+        <v>18731200</v>
       </c>
       <c r="I54" s="3">
-        <v>18988400</v>
+        <v>17935200</v>
       </c>
       <c r="J54" s="3">
+        <v>18319400</v>
+      </c>
+      <c r="K54" s="3">
         <v>18229600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17050100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>577400</v>
+        <v>682000</v>
       </c>
       <c r="E57" s="3">
-        <v>253700</v>
+        <v>557000</v>
       </c>
       <c r="F57" s="3">
-        <v>79000</v>
+        <v>244800</v>
       </c>
       <c r="G57" s="3">
-        <v>51200</v>
+        <v>76300</v>
       </c>
       <c r="H57" s="3">
-        <v>38400</v>
+        <v>49400</v>
       </c>
       <c r="I57" s="3">
-        <v>76800</v>
+        <v>37000</v>
       </c>
       <c r="J57" s="3">
+        <v>74100</v>
+      </c>
+      <c r="K57" s="3">
         <v>609000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>606100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>513400</v>
-      </c>
-      <c r="E58" s="3" t="s">
+        <v>142300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>495300</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
-        <v>329700</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>318100</v>
+      </c>
+      <c r="K58" s="3">
         <v>290600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>285800</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>866500</v>
+        <v>1006600</v>
       </c>
       <c r="E59" s="3">
-        <v>3085700</v>
+        <v>835900</v>
       </c>
       <c r="F59" s="3">
-        <v>1931700</v>
+        <v>2977000</v>
       </c>
       <c r="G59" s="3">
-        <v>1347500</v>
+        <v>1863600</v>
       </c>
       <c r="H59" s="3">
-        <v>2187600</v>
+        <v>1300000</v>
       </c>
       <c r="I59" s="3">
-        <v>2438300</v>
+        <v>2110500</v>
       </c>
       <c r="J59" s="3">
+        <v>2352400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3556900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1710800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1957300</v>
+        <v>1830900</v>
       </c>
       <c r="E60" s="3">
-        <v>3339400</v>
+        <v>1888300</v>
       </c>
       <c r="F60" s="3">
-        <v>2010700</v>
+        <v>3221700</v>
       </c>
       <c r="G60" s="3">
-        <v>1398700</v>
+        <v>1939900</v>
       </c>
       <c r="H60" s="3">
-        <v>2226000</v>
+        <v>1349400</v>
       </c>
       <c r="I60" s="3">
-        <v>2844800</v>
+        <v>2147600</v>
       </c>
       <c r="J60" s="3">
+        <v>2744600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2461600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2602800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6385200</v>
+        <v>6114500</v>
       </c>
       <c r="E61" s="3">
-        <v>7161300</v>
+        <v>6160200</v>
       </c>
       <c r="F61" s="3">
-        <v>4766700</v>
+        <v>6909000</v>
       </c>
       <c r="G61" s="3">
-        <v>4912000</v>
+        <v>4598700</v>
       </c>
       <c r="H61" s="3">
-        <v>4108700</v>
+        <v>4738900</v>
       </c>
       <c r="I61" s="3">
-        <v>4580000</v>
+        <v>3964000</v>
       </c>
       <c r="J61" s="3">
+        <v>4418600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4595800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4133100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4986500</v>
+        <v>4046800</v>
       </c>
       <c r="E62" s="3">
-        <v>5271800</v>
+        <v>4810800</v>
       </c>
       <c r="F62" s="3">
-        <v>3511800</v>
+        <v>5086100</v>
       </c>
       <c r="G62" s="3">
-        <v>3776700</v>
+        <v>3388000</v>
       </c>
       <c r="H62" s="3">
-        <v>4587500</v>
+        <v>3643700</v>
       </c>
       <c r="I62" s="3">
-        <v>4076400</v>
+        <v>4425900</v>
       </c>
       <c r="J62" s="3">
+        <v>3932800</v>
+      </c>
+      <c r="K62" s="3">
         <v>5643700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3088300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13328900</v>
+        <v>11992200</v>
       </c>
       <c r="E66" s="3">
-        <v>15772500</v>
+        <v>12859300</v>
       </c>
       <c r="F66" s="3">
-        <v>10289100</v>
+        <v>15216800</v>
       </c>
       <c r="G66" s="3">
-        <v>10087400</v>
+        <v>9926700</v>
       </c>
       <c r="H66" s="3">
-        <v>10922200</v>
+        <v>9732000</v>
       </c>
       <c r="I66" s="3">
-        <v>11501100</v>
+        <v>10537500</v>
       </c>
       <c r="J66" s="3">
+        <v>11096000</v>
+      </c>
+      <c r="K66" s="3">
         <v>10865800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9824100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>770100</v>
+        <v>2147600</v>
       </c>
       <c r="E72" s="3">
-        <v>2963700</v>
+        <v>743000</v>
       </c>
       <c r="F72" s="3">
-        <v>599200</v>
+        <v>2859300</v>
       </c>
       <c r="G72" s="3">
-        <v>1134500</v>
+        <v>578100</v>
       </c>
       <c r="H72" s="3">
-        <v>1203700</v>
+        <v>1094500</v>
       </c>
       <c r="I72" s="3">
-        <v>1249600</v>
+        <v>1161300</v>
       </c>
       <c r="J72" s="3">
+        <v>1205600</v>
+      </c>
+      <c r="K72" s="3">
         <v>2603100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1075500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13149700</v>
+        <v>13945100</v>
       </c>
       <c r="E76" s="3">
-        <v>15041500</v>
+        <v>12686500</v>
       </c>
       <c r="F76" s="3">
-        <v>8724800</v>
+        <v>14511600</v>
       </c>
       <c r="G76" s="3">
-        <v>9327800</v>
+        <v>8417500</v>
       </c>
       <c r="H76" s="3">
-        <v>7667900</v>
+        <v>8999200</v>
       </c>
       <c r="I76" s="3">
-        <v>7487200</v>
+        <v>7397800</v>
       </c>
       <c r="J76" s="3">
+        <v>7223500</v>
+      </c>
+      <c r="K76" s="3">
         <v>7363800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7226000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2009200</v>
+        <v>1594400</v>
       </c>
       <c r="E81" s="3">
-        <v>2533900</v>
+        <v>-1939500</v>
       </c>
       <c r="F81" s="3">
-        <v>-410300</v>
+        <v>2446000</v>
       </c>
       <c r="G81" s="3">
-        <v>465200</v>
+        <v>-396000</v>
       </c>
       <c r="H81" s="3">
-        <v>560100</v>
+        <v>449100</v>
       </c>
       <c r="I81" s="3">
-        <v>498300</v>
+        <v>540700</v>
       </c>
       <c r="J81" s="3">
+        <v>481100</v>
+      </c>
+      <c r="K81" s="3">
         <v>749000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1135400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1604200</v>
+        <v>1634300</v>
       </c>
       <c r="E83" s="3">
-        <v>1528200</v>
+        <v>1548600</v>
       </c>
       <c r="F83" s="3">
-        <v>1127700</v>
+        <v>1475200</v>
       </c>
       <c r="G83" s="3">
-        <v>1591400</v>
+        <v>1088600</v>
       </c>
       <c r="H83" s="3">
-        <v>1464900</v>
+        <v>1536200</v>
       </c>
       <c r="I83" s="3">
-        <v>1379900</v>
+        <v>1414100</v>
       </c>
       <c r="J83" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1193200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>994900</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1621500</v>
+        <v>2387200</v>
       </c>
       <c r="E89" s="3">
-        <v>2302800</v>
+        <v>1565300</v>
       </c>
       <c r="F89" s="3">
-        <v>648200</v>
+        <v>2222900</v>
       </c>
       <c r="G89" s="3">
-        <v>1109600</v>
+        <v>625700</v>
       </c>
       <c r="H89" s="3">
-        <v>2654300</v>
+        <v>1071100</v>
       </c>
       <c r="I89" s="3">
-        <v>2664100</v>
+        <v>2562300</v>
       </c>
       <c r="J89" s="3">
+        <v>2571800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2574500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2514400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1036600</v>
+        <v>-859700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1257200</v>
+        <v>-1000700</v>
       </c>
       <c r="F91" s="3">
-        <v>-778400</v>
+        <v>-1213600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1290300</v>
+        <v>-751400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2302000</v>
+        <v>-1245500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2460900</v>
+        <v>-2222200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2375500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2596400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2144900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-461500</v>
+        <v>-1040600</v>
       </c>
       <c r="E94" s="3">
-        <v>-9685400</v>
+        <v>-445500</v>
       </c>
       <c r="F94" s="3">
-        <v>-812300</v>
+        <v>-9349600</v>
       </c>
       <c r="G94" s="3">
-        <v>668500</v>
+        <v>-784100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3274600</v>
+        <v>645300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1143500</v>
+        <v>-3161100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1103800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2511300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1943600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-184400</v>
+        <v>-188900</v>
       </c>
       <c r="E96" s="3">
-        <v>-169400</v>
+        <v>-178000</v>
       </c>
       <c r="F96" s="3">
-        <v>-125000</v>
+        <v>-163500</v>
       </c>
       <c r="G96" s="3">
-        <v>-397500</v>
+        <v>-120600</v>
       </c>
       <c r="H96" s="3">
-        <v>-606000</v>
+        <v>-383700</v>
       </c>
       <c r="I96" s="3">
-        <v>-551000</v>
+        <v>-585000</v>
       </c>
       <c r="J96" s="3">
+        <v>-531900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-500600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-463200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1061400</v>
+        <v>-1753500</v>
       </c>
       <c r="E100" s="3">
-        <v>4904400</v>
+        <v>-1024600</v>
       </c>
       <c r="F100" s="3">
-        <v>-126500</v>
+        <v>4734400</v>
       </c>
       <c r="G100" s="3">
-        <v>673000</v>
+        <v>-122100</v>
       </c>
       <c r="H100" s="3">
-        <v>-600000</v>
+        <v>649700</v>
       </c>
       <c r="I100" s="3">
-        <v>-546500</v>
+        <v>-579200</v>
       </c>
       <c r="J100" s="3">
+        <v>-527600</v>
+      </c>
+      <c r="K100" s="3">
         <v>445700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-428700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>30100</v>
+        <v>-25400</v>
       </c>
       <c r="E101" s="3">
-        <v>137000</v>
+        <v>29100</v>
       </c>
       <c r="F101" s="3">
-        <v>800</v>
+        <v>132300</v>
       </c>
       <c r="G101" s="3">
-        <v>-25600</v>
+        <v>700</v>
       </c>
       <c r="H101" s="3">
-        <v>39100</v>
+        <v>-24700</v>
       </c>
       <c r="I101" s="3">
+        <v>37800</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-8300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>128700</v>
+        <v>-432400</v>
       </c>
       <c r="E102" s="3">
-        <v>-2341200</v>
+        <v>124300</v>
       </c>
       <c r="F102" s="3">
-        <v>-289800</v>
+        <v>-2260000</v>
       </c>
       <c r="G102" s="3">
-        <v>2425500</v>
+        <v>-279800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1181100</v>
+        <v>2341400</v>
       </c>
       <c r="I102" s="3">
-        <v>972600</v>
+        <v>-1140200</v>
       </c>
       <c r="J102" s="3">
+        <v>938900</v>
+      </c>
+      <c r="K102" s="3">
         <v>500600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>149800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14665300</v>
+        <v>15359600</v>
       </c>
       <c r="E8" s="3">
-        <v>15147100</v>
+        <v>15864200</v>
       </c>
       <c r="F8" s="3">
-        <v>12385000</v>
+        <v>12971300</v>
       </c>
       <c r="G8" s="3">
-        <v>7998000</v>
+        <v>8376600</v>
       </c>
       <c r="H8" s="3">
-        <v>8378000</v>
+        <v>8774600</v>
       </c>
       <c r="I8" s="3">
-        <v>14273600</v>
+        <v>14949300</v>
       </c>
       <c r="J8" s="3">
-        <v>13557900</v>
+        <v>14199700</v>
       </c>
       <c r="K8" s="3">
         <v>12678500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6124500</v>
+        <v>6414500</v>
       </c>
       <c r="E9" s="3">
-        <v>6354900</v>
+        <v>6655700</v>
       </c>
       <c r="F9" s="3">
-        <v>5838200</v>
+        <v>6114600</v>
       </c>
       <c r="G9" s="3">
-        <v>5070800</v>
+        <v>5310900</v>
       </c>
       <c r="H9" s="3">
-        <v>5359300</v>
+        <v>5613000</v>
       </c>
       <c r="I9" s="3">
-        <v>7994300</v>
+        <v>8372800</v>
       </c>
       <c r="J9" s="3">
-        <v>7582300</v>
+        <v>7941200</v>
       </c>
       <c r="K9" s="3">
         <v>6970800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8540800</v>
+        <v>8945100</v>
       </c>
       <c r="E10" s="3">
-        <v>8792200</v>
+        <v>9208400</v>
       </c>
       <c r="F10" s="3">
-        <v>6546800</v>
+        <v>6856700</v>
       </c>
       <c r="G10" s="3">
-        <v>2927100</v>
+        <v>3065700</v>
       </c>
       <c r="H10" s="3">
-        <v>3018700</v>
+        <v>3161600</v>
       </c>
       <c r="I10" s="3">
-        <v>6279300</v>
+        <v>6576600</v>
       </c>
       <c r="J10" s="3">
-        <v>5975600</v>
+        <v>6258400</v>
       </c>
       <c r="K10" s="3">
         <v>5707700</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>74100</v>
+        <v>77600</v>
       </c>
       <c r="E12" s="3">
-        <v>1560900</v>
+        <v>1634800</v>
       </c>
       <c r="F12" s="3">
-        <v>671500</v>
+        <v>703200</v>
       </c>
       <c r="G12" s="3">
-        <v>27600</v>
+        <v>28900</v>
       </c>
       <c r="H12" s="3">
-        <v>68300</v>
+        <v>71500</v>
       </c>
       <c r="I12" s="3">
-        <v>73400</v>
+        <v>76900</v>
       </c>
       <c r="J12" s="3">
-        <v>100300</v>
+        <v>105000</v>
       </c>
       <c r="K12" s="3">
         <v>62500</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26900</v>
+        <v>28200</v>
       </c>
       <c r="E14" s="3">
-        <v>604600</v>
+        <v>633200</v>
       </c>
       <c r="F14" s="3">
-        <v>14500</v>
+        <v>15200</v>
       </c>
       <c r="G14" s="3">
-        <v>34900</v>
+        <v>36500</v>
       </c>
       <c r="H14" s="3">
-        <v>-1707000</v>
+        <v>-1787800</v>
       </c>
       <c r="I14" s="3">
-        <v>361200</v>
+        <v>378300</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1610300</v>
+        <v>1686600</v>
       </c>
       <c r="E15" s="3">
-        <v>1567500</v>
+        <v>1641700</v>
       </c>
       <c r="F15" s="3">
-        <v>1335700</v>
+        <v>1398900</v>
       </c>
       <c r="G15" s="3">
-        <v>1748400</v>
+        <v>1831200</v>
       </c>
       <c r="H15" s="3">
-        <v>721600</v>
+        <v>755800</v>
       </c>
       <c r="I15" s="3">
-        <v>1414100</v>
+        <v>1481100</v>
       </c>
       <c r="J15" s="3">
-        <v>1332000</v>
+        <v>1395100</v>
       </c>
       <c r="K15" s="3">
         <v>1193200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13467700</v>
+        <v>14105300</v>
       </c>
       <c r="E17" s="3">
-        <v>16716100</v>
+        <v>17507400</v>
       </c>
       <c r="F17" s="3">
-        <v>12146600</v>
+        <v>12721600</v>
       </c>
       <c r="G17" s="3">
-        <v>8187600</v>
+        <v>8575200</v>
       </c>
       <c r="H17" s="3">
-        <v>6905000</v>
+        <v>7231900</v>
       </c>
       <c r="I17" s="3">
-        <v>13401600</v>
+        <v>14036000</v>
       </c>
       <c r="J17" s="3">
-        <v>12083400</v>
+        <v>12655400</v>
       </c>
       <c r="K17" s="3">
         <v>11390500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1197600</v>
+        <v>1254300</v>
       </c>
       <c r="E18" s="3">
-        <v>-1568900</v>
+        <v>-1643200</v>
       </c>
       <c r="F18" s="3">
-        <v>238400</v>
+        <v>249600</v>
       </c>
       <c r="G18" s="3">
-        <v>-189700</v>
+        <v>-198600</v>
       </c>
       <c r="H18" s="3">
-        <v>1473000</v>
+        <v>1542700</v>
       </c>
       <c r="I18" s="3">
-        <v>872000</v>
+        <v>913300</v>
       </c>
       <c r="J18" s="3">
-        <v>1474500</v>
+        <v>1544300</v>
       </c>
       <c r="K18" s="3">
         <v>1288000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>173000</v>
+        <v>181100</v>
       </c>
       <c r="E20" s="3">
-        <v>-896700</v>
+        <v>-939200</v>
       </c>
       <c r="F20" s="3">
-        <v>1786900</v>
+        <v>1871500</v>
       </c>
       <c r="G20" s="3">
-        <v>-145300</v>
+        <v>-152200</v>
       </c>
       <c r="H20" s="3">
-        <v>-587900</v>
+        <v>-615700</v>
       </c>
       <c r="I20" s="3">
-        <v>219500</v>
+        <v>229800</v>
       </c>
       <c r="J20" s="3">
-        <v>-387300</v>
+        <v>-405700</v>
       </c>
       <c r="K20" s="3">
         <v>312400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3006200</v>
+        <v>3143400</v>
       </c>
       <c r="E21" s="3">
-        <v>-915800</v>
+        <v>-964100</v>
       </c>
       <c r="F21" s="3">
-        <v>3501600</v>
+        <v>3662800</v>
       </c>
       <c r="G21" s="3">
-        <v>754400</v>
+        <v>786700</v>
       </c>
       <c r="H21" s="3">
-        <v>2422600</v>
+        <v>2532400</v>
       </c>
       <c r="I21" s="3">
-        <v>2506800</v>
+        <v>2621000</v>
       </c>
       <c r="J21" s="3">
-        <v>2420200</v>
+        <v>2530600</v>
       </c>
       <c r="K21" s="3">
         <v>2794100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>355400</v>
+        <v>372200</v>
       </c>
       <c r="E22" s="3">
-        <v>387300</v>
+        <v>405700</v>
       </c>
       <c r="F22" s="3">
-        <v>414900</v>
+        <v>434600</v>
       </c>
       <c r="G22" s="3">
-        <v>247800</v>
+        <v>259500</v>
       </c>
       <c r="H22" s="3">
-        <v>238400</v>
+        <v>249600</v>
       </c>
       <c r="I22" s="3">
-        <v>223100</v>
+        <v>233700</v>
       </c>
       <c r="J22" s="3">
-        <v>292100</v>
+        <v>306000</v>
       </c>
       <c r="K22" s="3">
         <v>262000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1015200</v>
+        <v>1063200</v>
       </c>
       <c r="E23" s="3">
-        <v>-2853000</v>
+        <v>-2988000</v>
       </c>
       <c r="F23" s="3">
-        <v>1610300</v>
+        <v>1686600</v>
       </c>
       <c r="G23" s="3">
-        <v>-582800</v>
+        <v>-610400</v>
       </c>
       <c r="H23" s="3">
-        <v>646800</v>
+        <v>677400</v>
       </c>
       <c r="I23" s="3">
-        <v>868400</v>
+        <v>909500</v>
       </c>
       <c r="J23" s="3">
-        <v>795000</v>
+        <v>832600</v>
       </c>
       <c r="K23" s="3">
         <v>1338500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-579200</v>
+        <v>-606600</v>
       </c>
       <c r="E24" s="3">
-        <v>-734000</v>
+        <v>-768700</v>
       </c>
       <c r="F24" s="3">
-        <v>-37800</v>
+        <v>-39600</v>
       </c>
       <c r="G24" s="3">
-        <v>-249300</v>
+        <v>-261100</v>
       </c>
       <c r="H24" s="3">
-        <v>-17400</v>
+        <v>-18300</v>
       </c>
       <c r="I24" s="3">
-        <v>327700</v>
+        <v>343300</v>
       </c>
       <c r="J24" s="3">
-        <v>313900</v>
+        <v>328800</v>
       </c>
       <c r="K24" s="3">
         <v>589400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1594400</v>
+        <v>1669800</v>
       </c>
       <c r="E26" s="3">
-        <v>-2119000</v>
+        <v>-2219300</v>
       </c>
       <c r="F26" s="3">
-        <v>1648100</v>
+        <v>1726200</v>
       </c>
       <c r="G26" s="3">
-        <v>-333600</v>
+        <v>-349300</v>
       </c>
       <c r="H26" s="3">
-        <v>664200</v>
+        <v>695600</v>
       </c>
       <c r="I26" s="3">
-        <v>540700</v>
+        <v>566300</v>
       </c>
       <c r="J26" s="3">
-        <v>481100</v>
+        <v>503800</v>
       </c>
       <c r="K26" s="3">
         <v>749000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1594400</v>
+        <v>1669800</v>
       </c>
       <c r="E27" s="3">
-        <v>-2119000</v>
+        <v>-2219300</v>
       </c>
       <c r="F27" s="3">
-        <v>1648100</v>
+        <v>1726200</v>
       </c>
       <c r="G27" s="3">
-        <v>-333600</v>
+        <v>-349300</v>
       </c>
       <c r="H27" s="3">
-        <v>664200</v>
+        <v>695600</v>
       </c>
       <c r="I27" s="3">
-        <v>540700</v>
+        <v>566300</v>
       </c>
       <c r="J27" s="3">
-        <v>481100</v>
+        <v>503800</v>
       </c>
       <c r="K27" s="3">
         <v>749000</v>
@@ -1356,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>179500</v>
+        <v>188000</v>
       </c>
       <c r="F29" s="3">
-        <v>797900</v>
+        <v>835700</v>
       </c>
       <c r="G29" s="3">
-        <v>-62500</v>
+        <v>-65500</v>
       </c>
       <c r="H29" s="3">
-        <v>-215100</v>
+        <v>-225300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-173000</v>
+        <v>-181100</v>
       </c>
       <c r="E32" s="3">
-        <v>896700</v>
+        <v>939200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1786900</v>
+        <v>-1871500</v>
       </c>
       <c r="G32" s="3">
-        <v>145300</v>
+        <v>152200</v>
       </c>
       <c r="H32" s="3">
-        <v>587900</v>
+        <v>615700</v>
       </c>
       <c r="I32" s="3">
-        <v>-219500</v>
+        <v>-229800</v>
       </c>
       <c r="J32" s="3">
-        <v>387300</v>
+        <v>405700</v>
       </c>
       <c r="K32" s="3">
         <v>-312400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1594400</v>
+        <v>1669800</v>
       </c>
       <c r="E33" s="3">
-        <v>-1939500</v>
+        <v>-2031300</v>
       </c>
       <c r="F33" s="3">
-        <v>2446000</v>
+        <v>2561800</v>
       </c>
       <c r="G33" s="3">
-        <v>-396000</v>
+        <v>-414800</v>
       </c>
       <c r="H33" s="3">
-        <v>449100</v>
+        <v>470400</v>
       </c>
       <c r="I33" s="3">
-        <v>540700</v>
+        <v>566300</v>
       </c>
       <c r="J33" s="3">
-        <v>481100</v>
+        <v>503800</v>
       </c>
       <c r="K33" s="3">
         <v>749000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1594400</v>
+        <v>1669800</v>
       </c>
       <c r="E35" s="3">
-        <v>-1939500</v>
+        <v>-2031300</v>
       </c>
       <c r="F35" s="3">
-        <v>2446000</v>
+        <v>2561800</v>
       </c>
       <c r="G35" s="3">
-        <v>-396000</v>
+        <v>-414800</v>
       </c>
       <c r="H35" s="3">
-        <v>449100</v>
+        <v>470400</v>
       </c>
       <c r="I35" s="3">
-        <v>540700</v>
+        <v>566300</v>
       </c>
       <c r="J35" s="3">
-        <v>481100</v>
+        <v>503800</v>
       </c>
       <c r="K35" s="3">
         <v>749000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>78400</v>
+        <v>82200</v>
       </c>
       <c r="E41" s="3">
-        <v>112600</v>
+        <v>118000</v>
       </c>
       <c r="F41" s="3">
-        <v>397300</v>
+        <v>416300</v>
       </c>
       <c r="G41" s="3">
-        <v>393600</v>
+        <v>412500</v>
       </c>
       <c r="H41" s="3">
-        <v>234600</v>
+        <v>245800</v>
       </c>
       <c r="I41" s="3">
-        <v>332600</v>
+        <v>348600</v>
       </c>
       <c r="J41" s="3">
-        <v>1780800</v>
+        <v>1866200</v>
       </c>
       <c r="K41" s="3">
         <v>1128400</v>
@@ -1685,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>56600</v>
+        <v>59400</v>
       </c>
       <c r="E42" s="3">
-        <v>454600</v>
+        <v>476400</v>
       </c>
       <c r="F42" s="3">
-        <v>45800</v>
+        <v>47900</v>
       </c>
       <c r="G42" s="3">
-        <v>2308100</v>
+        <v>2418700</v>
       </c>
       <c r="H42" s="3">
-        <v>2746800</v>
+        <v>2878400</v>
       </c>
       <c r="I42" s="3">
-        <v>308700</v>
+        <v>323500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1094500</v>
+        <v>1147000</v>
       </c>
       <c r="E43" s="3">
-        <v>866400</v>
+        <v>908000</v>
       </c>
       <c r="F43" s="3">
-        <v>1332000</v>
+        <v>1395800</v>
       </c>
       <c r="G43" s="3">
-        <v>1247000</v>
+        <v>1306800</v>
       </c>
       <c r="H43" s="3">
-        <v>861400</v>
+        <v>902700</v>
       </c>
       <c r="I43" s="3">
-        <v>1169300</v>
+        <v>1225400</v>
       </c>
       <c r="J43" s="3">
-        <v>1371900</v>
+        <v>1437700</v>
       </c>
       <c r="K43" s="3">
         <v>2459400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1112600</v>
+        <v>1166000</v>
       </c>
       <c r="E44" s="3">
-        <v>735700</v>
+        <v>771000</v>
       </c>
       <c r="F44" s="3">
-        <v>1008800</v>
+        <v>1057200</v>
       </c>
       <c r="G44" s="3">
-        <v>898400</v>
+        <v>941500</v>
       </c>
       <c r="H44" s="3">
-        <v>588300</v>
+        <v>616500</v>
       </c>
       <c r="I44" s="3">
-        <v>889000</v>
+        <v>931600</v>
       </c>
       <c r="J44" s="3">
-        <v>914400</v>
+        <v>958200</v>
       </c>
       <c r="K44" s="3">
         <v>1917400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>42800</v>
+        <v>44900</v>
       </c>
       <c r="E45" s="3">
-        <v>151100</v>
+        <v>158300</v>
       </c>
       <c r="F45" s="3">
-        <v>853400</v>
+        <v>894300</v>
       </c>
       <c r="G45" s="3">
-        <v>107500</v>
+        <v>112600</v>
       </c>
       <c r="H45" s="3">
-        <v>270200</v>
+        <v>283100</v>
       </c>
       <c r="I45" s="3">
-        <v>347200</v>
+        <v>363800</v>
       </c>
       <c r="J45" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="K45" s="3">
         <v>536000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2385100</v>
+        <v>2499400</v>
       </c>
       <c r="E46" s="3">
-        <v>2320400</v>
+        <v>2431700</v>
       </c>
       <c r="F46" s="3">
-        <v>3637200</v>
+        <v>3811500</v>
       </c>
       <c r="G46" s="3">
-        <v>4954600</v>
+        <v>5192200</v>
       </c>
       <c r="H46" s="3">
-        <v>4701100</v>
+        <v>4926500</v>
       </c>
       <c r="I46" s="3">
-        <v>3046700</v>
+        <v>3192800</v>
       </c>
       <c r="J46" s="3">
-        <v>4074400</v>
+        <v>4269700</v>
       </c>
       <c r="K46" s="3">
         <v>3447000</v>
@@ -1850,19 +1850,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>74800</v>
+        <v>78400</v>
       </c>
       <c r="E47" s="3">
-        <v>152500</v>
+        <v>159800</v>
       </c>
       <c r="F47" s="3">
-        <v>260700</v>
+        <v>273200</v>
       </c>
       <c r="G47" s="3">
-        <v>126400</v>
+        <v>132400</v>
       </c>
       <c r="H47" s="3">
-        <v>99500</v>
+        <v>104300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21748900</v>
+        <v>22791600</v>
       </c>
       <c r="E48" s="3">
-        <v>21412600</v>
+        <v>22439200</v>
       </c>
       <c r="F48" s="3">
-        <v>24162300</v>
+        <v>25320700</v>
       </c>
       <c r="G48" s="3">
-        <v>13080800</v>
+        <v>13708000</v>
       </c>
       <c r="H48" s="3">
-        <v>13733800</v>
+        <v>14392200</v>
       </c>
       <c r="I48" s="3">
-        <v>14661900</v>
+        <v>15364900</v>
       </c>
       <c r="J48" s="3">
-        <v>13659000</v>
+        <v>14313800</v>
       </c>
       <c r="K48" s="3">
         <v>26252800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1723400</v>
+        <v>1806100</v>
       </c>
       <c r="E49" s="3">
-        <v>1650100</v>
+        <v>1729200</v>
       </c>
       <c r="F49" s="3">
-        <v>1650100</v>
+        <v>1729200</v>
       </c>
       <c r="G49" s="3">
-        <v>175800</v>
+        <v>184200</v>
       </c>
       <c r="H49" s="3">
-        <v>175800</v>
+        <v>184200</v>
       </c>
       <c r="I49" s="3">
-        <v>175800</v>
+        <v>184200</v>
       </c>
       <c r="J49" s="3">
-        <v>536700</v>
+        <v>562400</v>
       </c>
       <c r="K49" s="3">
         <v>556300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E52" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="F52" s="3">
-        <v>18200</v>
+        <v>19000</v>
       </c>
       <c r="G52" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="H52" s="3">
-        <v>21100</v>
+        <v>22100</v>
       </c>
       <c r="I52" s="3">
-        <v>50800</v>
+        <v>53300</v>
       </c>
       <c r="J52" s="3">
-        <v>49400</v>
+        <v>51800</v>
       </c>
       <c r="K52" s="3">
         <v>53400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25937300</v>
+        <v>27180800</v>
       </c>
       <c r="E54" s="3">
-        <v>25545800</v>
+        <v>26770600</v>
       </c>
       <c r="F54" s="3">
-        <v>29728400</v>
+        <v>31153700</v>
       </c>
       <c r="G54" s="3">
-        <v>18344100</v>
+        <v>19223600</v>
       </c>
       <c r="H54" s="3">
-        <v>18731200</v>
+        <v>19629300</v>
       </c>
       <c r="I54" s="3">
-        <v>17935200</v>
+        <v>18795100</v>
       </c>
       <c r="J54" s="3">
-        <v>18319400</v>
+        <v>19197700</v>
       </c>
       <c r="K54" s="3">
         <v>18229600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>682000</v>
+        <v>714700</v>
       </c>
       <c r="E57" s="3">
-        <v>557000</v>
+        <v>583800</v>
       </c>
       <c r="F57" s="3">
-        <v>244800</v>
+        <v>256500</v>
       </c>
       <c r="G57" s="3">
-        <v>76300</v>
+        <v>79900</v>
       </c>
       <c r="H57" s="3">
-        <v>49400</v>
+        <v>51800</v>
       </c>
       <c r="I57" s="3">
-        <v>37000</v>
+        <v>38800</v>
       </c>
       <c r="J57" s="3">
-        <v>74100</v>
+        <v>77600</v>
       </c>
       <c r="K57" s="3">
         <v>609000</v>
@@ -2177,10 +2177,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>142300</v>
+        <v>149200</v>
       </c>
       <c r="E58" s="3">
-        <v>495300</v>
+        <v>519100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>318100</v>
+        <v>333400</v>
       </c>
       <c r="K58" s="3">
         <v>290600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1006600</v>
+        <v>1054900</v>
       </c>
       <c r="E59" s="3">
-        <v>835900</v>
+        <v>876000</v>
       </c>
       <c r="F59" s="3">
-        <v>2977000</v>
+        <v>3119700</v>
       </c>
       <c r="G59" s="3">
-        <v>1863600</v>
+        <v>1953000</v>
       </c>
       <c r="H59" s="3">
-        <v>1300000</v>
+        <v>1362400</v>
       </c>
       <c r="I59" s="3">
-        <v>2110500</v>
+        <v>2211700</v>
       </c>
       <c r="J59" s="3">
-        <v>2352400</v>
+        <v>2465200</v>
       </c>
       <c r="K59" s="3">
         <v>3556900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1830900</v>
+        <v>1918700</v>
       </c>
       <c r="E60" s="3">
-        <v>1888300</v>
+        <v>1978800</v>
       </c>
       <c r="F60" s="3">
-        <v>3221700</v>
+        <v>3376200</v>
       </c>
       <c r="G60" s="3">
-        <v>1939900</v>
+        <v>2032900</v>
       </c>
       <c r="H60" s="3">
-        <v>1349400</v>
+        <v>1414100</v>
       </c>
       <c r="I60" s="3">
-        <v>2147600</v>
+        <v>2250500</v>
       </c>
       <c r="J60" s="3">
-        <v>2744600</v>
+        <v>2876200</v>
       </c>
       <c r="K60" s="3">
         <v>2461600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6114500</v>
+        <v>6407600</v>
       </c>
       <c r="E61" s="3">
-        <v>6160200</v>
+        <v>6455600</v>
       </c>
       <c r="F61" s="3">
-        <v>6909000</v>
+        <v>7240200</v>
       </c>
       <c r="G61" s="3">
-        <v>4598700</v>
+        <v>4819200</v>
       </c>
       <c r="H61" s="3">
-        <v>4738900</v>
+        <v>4966100</v>
       </c>
       <c r="I61" s="3">
-        <v>3964000</v>
+        <v>4154000</v>
       </c>
       <c r="J61" s="3">
-        <v>4418600</v>
+        <v>4630500</v>
       </c>
       <c r="K61" s="3">
         <v>4595800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4046800</v>
+        <v>4240800</v>
       </c>
       <c r="E62" s="3">
-        <v>4810800</v>
+        <v>5041500</v>
       </c>
       <c r="F62" s="3">
-        <v>5086100</v>
+        <v>5329900</v>
       </c>
       <c r="G62" s="3">
-        <v>3388000</v>
+        <v>3550500</v>
       </c>
       <c r="H62" s="3">
-        <v>3643700</v>
+        <v>3818400</v>
       </c>
       <c r="I62" s="3">
-        <v>4425900</v>
+        <v>4638100</v>
       </c>
       <c r="J62" s="3">
-        <v>3932800</v>
+        <v>4121300</v>
       </c>
       <c r="K62" s="3">
         <v>5643700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11992200</v>
+        <v>12567100</v>
       </c>
       <c r="E66" s="3">
-        <v>12859300</v>
+        <v>13475900</v>
       </c>
       <c r="F66" s="3">
-        <v>15216800</v>
+        <v>15946400</v>
       </c>
       <c r="G66" s="3">
-        <v>9926700</v>
+        <v>10402600</v>
       </c>
       <c r="H66" s="3">
-        <v>9732000</v>
+        <v>10198600</v>
       </c>
       <c r="I66" s="3">
-        <v>10537500</v>
+        <v>11042700</v>
       </c>
       <c r="J66" s="3">
-        <v>11096000</v>
+        <v>11627900</v>
       </c>
       <c r="K66" s="3">
         <v>10865800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2147600</v>
+        <v>2250500</v>
       </c>
       <c r="E72" s="3">
-        <v>743000</v>
+        <v>778600</v>
       </c>
       <c r="F72" s="3">
-        <v>2859300</v>
+        <v>2996400</v>
       </c>
       <c r="G72" s="3">
-        <v>578100</v>
+        <v>605800</v>
       </c>
       <c r="H72" s="3">
-        <v>1094500</v>
+        <v>1147000</v>
       </c>
       <c r="I72" s="3">
-        <v>1161300</v>
+        <v>1217000</v>
       </c>
       <c r="J72" s="3">
-        <v>1205600</v>
+        <v>1263400</v>
       </c>
       <c r="K72" s="3">
         <v>2603100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13945100</v>
+        <v>14613700</v>
       </c>
       <c r="E76" s="3">
-        <v>12686500</v>
+        <v>13294700</v>
       </c>
       <c r="F76" s="3">
-        <v>14511600</v>
+        <v>15207300</v>
       </c>
       <c r="G76" s="3">
-        <v>8417500</v>
+        <v>8821000</v>
       </c>
       <c r="H76" s="3">
-        <v>8999200</v>
+        <v>9430700</v>
       </c>
       <c r="I76" s="3">
-        <v>7397800</v>
+        <v>7752500</v>
       </c>
       <c r="J76" s="3">
-        <v>7223500</v>
+        <v>7569800</v>
       </c>
       <c r="K76" s="3">
         <v>7363800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1594400</v>
+        <v>1669800</v>
       </c>
       <c r="E81" s="3">
-        <v>-1939500</v>
+        <v>-2031300</v>
       </c>
       <c r="F81" s="3">
-        <v>2446000</v>
+        <v>2561800</v>
       </c>
       <c r="G81" s="3">
-        <v>-396000</v>
+        <v>-414800</v>
       </c>
       <c r="H81" s="3">
-        <v>449100</v>
+        <v>470400</v>
       </c>
       <c r="I81" s="3">
-        <v>540700</v>
+        <v>566300</v>
       </c>
       <c r="J81" s="3">
-        <v>481100</v>
+        <v>503800</v>
       </c>
       <c r="K81" s="3">
         <v>749000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1634300</v>
+        <v>1711700</v>
       </c>
       <c r="E83" s="3">
-        <v>1548600</v>
+        <v>1621900</v>
       </c>
       <c r="F83" s="3">
-        <v>1475200</v>
+        <v>1545000</v>
       </c>
       <c r="G83" s="3">
-        <v>1088600</v>
+        <v>1140100</v>
       </c>
       <c r="H83" s="3">
-        <v>1536200</v>
+        <v>1608900</v>
       </c>
       <c r="I83" s="3">
-        <v>1414100</v>
+        <v>1481100</v>
       </c>
       <c r="J83" s="3">
-        <v>1332000</v>
+        <v>1395100</v>
       </c>
       <c r="K83" s="3">
         <v>1193200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2387200</v>
+        <v>2500200</v>
       </c>
       <c r="E89" s="3">
-        <v>1565300</v>
+        <v>1639400</v>
       </c>
       <c r="F89" s="3">
-        <v>2222900</v>
+        <v>2328200</v>
       </c>
       <c r="G89" s="3">
-        <v>625700</v>
+        <v>655300</v>
       </c>
       <c r="H89" s="3">
-        <v>1071100</v>
+        <v>1121800</v>
       </c>
       <c r="I89" s="3">
-        <v>2562300</v>
+        <v>2683600</v>
       </c>
       <c r="J89" s="3">
-        <v>2571800</v>
+        <v>2693500</v>
       </c>
       <c r="K89" s="3">
         <v>2574500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-859700</v>
+        <v>-900400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1000700</v>
+        <v>-1048000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1213600</v>
+        <v>-1271000</v>
       </c>
       <c r="G91" s="3">
-        <v>-751400</v>
+        <v>-787000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1245500</v>
+        <v>-1304500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2222200</v>
+        <v>-2327400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2375500</v>
+        <v>-2488000</v>
       </c>
       <c r="K91" s="3">
         <v>-2596400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1040600</v>
+        <v>-1089900</v>
       </c>
       <c r="E94" s="3">
-        <v>-445500</v>
+        <v>-466500</v>
       </c>
       <c r="F94" s="3">
-        <v>-9349600</v>
+        <v>-9792200</v>
       </c>
       <c r="G94" s="3">
-        <v>-784100</v>
+        <v>-821200</v>
       </c>
       <c r="H94" s="3">
-        <v>645300</v>
+        <v>675800</v>
       </c>
       <c r="I94" s="3">
-        <v>-3161100</v>
+        <v>-3310700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1103800</v>
+        <v>-1156100</v>
       </c>
       <c r="K94" s="3">
         <v>-2511300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-188900</v>
+        <v>-197900</v>
       </c>
       <c r="E96" s="3">
-        <v>-178000</v>
+        <v>-186500</v>
       </c>
       <c r="F96" s="3">
-        <v>-163500</v>
+        <v>-171200</v>
       </c>
       <c r="G96" s="3">
-        <v>-120600</v>
+        <v>-126300</v>
       </c>
       <c r="H96" s="3">
-        <v>-383700</v>
+        <v>-401900</v>
       </c>
       <c r="I96" s="3">
-        <v>-585000</v>
+        <v>-612700</v>
       </c>
       <c r="J96" s="3">
-        <v>-531900</v>
+        <v>-557100</v>
       </c>
       <c r="K96" s="3">
         <v>-500600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1753500</v>
+        <v>-1836500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1024600</v>
+        <v>-1073100</v>
       </c>
       <c r="F100" s="3">
-        <v>4734400</v>
+        <v>4958500</v>
       </c>
       <c r="G100" s="3">
-        <v>-122100</v>
+        <v>-127900</v>
       </c>
       <c r="H100" s="3">
-        <v>649700</v>
+        <v>680400</v>
       </c>
       <c r="I100" s="3">
-        <v>-579200</v>
+        <v>-606600</v>
       </c>
       <c r="J100" s="3">
-        <v>-527600</v>
+        <v>-552600</v>
       </c>
       <c r="K100" s="3">
         <v>445700</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-25400</v>
+        <v>-26600</v>
       </c>
       <c r="E101" s="3">
-        <v>29100</v>
+        <v>30400</v>
       </c>
       <c r="F101" s="3">
-        <v>132300</v>
+        <v>138500</v>
       </c>
       <c r="G101" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>-24700</v>
+        <v>-25900</v>
       </c>
       <c r="I101" s="3">
-        <v>37800</v>
+        <v>39600</v>
       </c>
       <c r="J101" s="3">
         <v>-1500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-432400</v>
+        <v>-452800</v>
       </c>
       <c r="E102" s="3">
-        <v>124300</v>
+        <v>130100</v>
       </c>
       <c r="F102" s="3">
-        <v>-2260000</v>
+        <v>-2367000</v>
       </c>
       <c r="G102" s="3">
-        <v>-279800</v>
+        <v>-293000</v>
       </c>
       <c r="H102" s="3">
-        <v>2341400</v>
+        <v>2452200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1140200</v>
+        <v>-1194200</v>
       </c>
       <c r="J102" s="3">
-        <v>938900</v>
+        <v>983300</v>
       </c>
       <c r="K102" s="3">
         <v>500600</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15359600</v>
+        <v>15535700</v>
       </c>
       <c r="E8" s="3">
-        <v>15864200</v>
+        <v>16046100</v>
       </c>
       <c r="F8" s="3">
-        <v>12971300</v>
+        <v>13120000</v>
       </c>
       <c r="G8" s="3">
-        <v>8376600</v>
+        <v>8472600</v>
       </c>
       <c r="H8" s="3">
-        <v>8774600</v>
+        <v>8875300</v>
       </c>
       <c r="I8" s="3">
-        <v>14949300</v>
+        <v>15120800</v>
       </c>
       <c r="J8" s="3">
-        <v>14199700</v>
+        <v>14362500</v>
       </c>
       <c r="K8" s="3">
         <v>12678500</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6414500</v>
+        <v>6488000</v>
       </c>
       <c r="E9" s="3">
-        <v>6655700</v>
+        <v>6732100</v>
       </c>
       <c r="F9" s="3">
-        <v>6114600</v>
+        <v>6184700</v>
       </c>
       <c r="G9" s="3">
-        <v>5310900</v>
+        <v>5371800</v>
       </c>
       <c r="H9" s="3">
-        <v>5613000</v>
+        <v>5677400</v>
       </c>
       <c r="I9" s="3">
-        <v>8372800</v>
+        <v>8468800</v>
       </c>
       <c r="J9" s="3">
-        <v>7941200</v>
+        <v>8032300</v>
       </c>
       <c r="K9" s="3">
         <v>6970800</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8945100</v>
+        <v>9047700</v>
       </c>
       <c r="E10" s="3">
-        <v>9208400</v>
+        <v>9314100</v>
       </c>
       <c r="F10" s="3">
-        <v>6856700</v>
+        <v>6935300</v>
       </c>
       <c r="G10" s="3">
-        <v>3065700</v>
+        <v>3100800</v>
       </c>
       <c r="H10" s="3">
-        <v>3161600</v>
+        <v>3197800</v>
       </c>
       <c r="I10" s="3">
-        <v>6576600</v>
+        <v>6652000</v>
       </c>
       <c r="J10" s="3">
-        <v>6258400</v>
+        <v>6330200</v>
       </c>
       <c r="K10" s="3">
         <v>5707700</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>77600</v>
+        <v>78500</v>
       </c>
       <c r="E12" s="3">
-        <v>1634800</v>
+        <v>1653600</v>
       </c>
       <c r="F12" s="3">
-        <v>703200</v>
+        <v>711300</v>
       </c>
       <c r="G12" s="3">
-        <v>28900</v>
+        <v>29300</v>
       </c>
       <c r="H12" s="3">
-        <v>71500</v>
+        <v>72400</v>
       </c>
       <c r="I12" s="3">
-        <v>76900</v>
+        <v>77800</v>
       </c>
       <c r="J12" s="3">
-        <v>105000</v>
+        <v>106200</v>
       </c>
       <c r="K12" s="3">
         <v>62500</v>
@@ -897,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28200</v>
+        <v>28500</v>
       </c>
       <c r="E14" s="3">
-        <v>633200</v>
+        <v>640500</v>
       </c>
       <c r="F14" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="G14" s="3">
-        <v>36500</v>
+        <v>37000</v>
       </c>
       <c r="H14" s="3">
-        <v>-1787800</v>
+        <v>-1808300</v>
       </c>
       <c r="I14" s="3">
-        <v>378300</v>
+        <v>382600</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1686600</v>
+        <v>1705900</v>
       </c>
       <c r="E15" s="3">
-        <v>1641700</v>
+        <v>1660500</v>
       </c>
       <c r="F15" s="3">
-        <v>1398900</v>
+        <v>1414900</v>
       </c>
       <c r="G15" s="3">
-        <v>1831200</v>
+        <v>1852200</v>
       </c>
       <c r="H15" s="3">
-        <v>755800</v>
+        <v>764400</v>
       </c>
       <c r="I15" s="3">
-        <v>1481100</v>
+        <v>1498100</v>
       </c>
       <c r="J15" s="3">
-        <v>1395100</v>
+        <v>1411100</v>
       </c>
       <c r="K15" s="3">
         <v>1193200</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14105300</v>
+        <v>14267100</v>
       </c>
       <c r="E17" s="3">
-        <v>17507400</v>
+        <v>17708200</v>
       </c>
       <c r="F17" s="3">
-        <v>12721600</v>
+        <v>12867500</v>
       </c>
       <c r="G17" s="3">
-        <v>8575200</v>
+        <v>8673600</v>
       </c>
       <c r="H17" s="3">
-        <v>7231900</v>
+        <v>7314800</v>
       </c>
       <c r="I17" s="3">
-        <v>14036000</v>
+        <v>14197000</v>
       </c>
       <c r="J17" s="3">
-        <v>12655400</v>
+        <v>12800600</v>
       </c>
       <c r="K17" s="3">
         <v>11390500</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1254300</v>
+        <v>1268700</v>
       </c>
       <c r="E18" s="3">
-        <v>-1643200</v>
+        <v>-1662000</v>
       </c>
       <c r="F18" s="3">
-        <v>249600</v>
+        <v>252500</v>
       </c>
       <c r="G18" s="3">
-        <v>-198600</v>
+        <v>-200900</v>
       </c>
       <c r="H18" s="3">
-        <v>1542700</v>
+        <v>1560400</v>
       </c>
       <c r="I18" s="3">
-        <v>913300</v>
+        <v>923800</v>
       </c>
       <c r="J18" s="3">
-        <v>1544300</v>
+        <v>1562000</v>
       </c>
       <c r="K18" s="3">
         <v>1288000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>181100</v>
+        <v>183200</v>
       </c>
       <c r="E20" s="3">
-        <v>-939200</v>
+        <v>-950000</v>
       </c>
       <c r="F20" s="3">
-        <v>1871500</v>
+        <v>1893000</v>
       </c>
       <c r="G20" s="3">
-        <v>-152200</v>
+        <v>-154000</v>
       </c>
       <c r="H20" s="3">
-        <v>-615700</v>
+        <v>-622800</v>
       </c>
       <c r="I20" s="3">
-        <v>229800</v>
+        <v>232500</v>
       </c>
       <c r="J20" s="3">
-        <v>-405700</v>
+        <v>-410300</v>
       </c>
       <c r="K20" s="3">
         <v>312400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3143400</v>
+        <v>3180100</v>
       </c>
       <c r="E21" s="3">
-        <v>-964100</v>
+        <v>-974400</v>
       </c>
       <c r="F21" s="3">
-        <v>3662800</v>
+        <v>3705500</v>
       </c>
       <c r="G21" s="3">
-        <v>786700</v>
+        <v>796300</v>
       </c>
       <c r="H21" s="3">
-        <v>2532400</v>
+        <v>2562200</v>
       </c>
       <c r="I21" s="3">
-        <v>2621000</v>
+        <v>2651700</v>
       </c>
       <c r="J21" s="3">
-        <v>2530600</v>
+        <v>2560200</v>
       </c>
       <c r="K21" s="3">
         <v>2794100</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>372200</v>
+        <v>376400</v>
       </c>
       <c r="E22" s="3">
-        <v>405700</v>
+        <v>410300</v>
       </c>
       <c r="F22" s="3">
-        <v>434600</v>
+        <v>439600</v>
       </c>
       <c r="G22" s="3">
-        <v>259500</v>
+        <v>262500</v>
       </c>
       <c r="H22" s="3">
-        <v>249600</v>
+        <v>252500</v>
       </c>
       <c r="I22" s="3">
-        <v>233700</v>
+        <v>236300</v>
       </c>
       <c r="J22" s="3">
-        <v>306000</v>
+        <v>309500</v>
       </c>
       <c r="K22" s="3">
         <v>262000</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1063200</v>
+        <v>1075400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2988000</v>
+        <v>-3022300</v>
       </c>
       <c r="F23" s="3">
-        <v>1686600</v>
+        <v>1705900</v>
       </c>
       <c r="G23" s="3">
-        <v>-610400</v>
+        <v>-617400</v>
       </c>
       <c r="H23" s="3">
-        <v>677400</v>
+        <v>685100</v>
       </c>
       <c r="I23" s="3">
-        <v>909500</v>
+        <v>919900</v>
       </c>
       <c r="J23" s="3">
-        <v>832600</v>
+        <v>842200</v>
       </c>
       <c r="K23" s="3">
         <v>1338500</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-606600</v>
+        <v>-613500</v>
       </c>
       <c r="E24" s="3">
-        <v>-768700</v>
+        <v>-777500</v>
       </c>
       <c r="F24" s="3">
-        <v>-39600</v>
+        <v>-40000</v>
       </c>
       <c r="G24" s="3">
-        <v>-261100</v>
+        <v>-264000</v>
       </c>
       <c r="H24" s="3">
-        <v>-18300</v>
+        <v>-18500</v>
       </c>
       <c r="I24" s="3">
-        <v>343300</v>
+        <v>347200</v>
       </c>
       <c r="J24" s="3">
-        <v>328800</v>
+        <v>332600</v>
       </c>
       <c r="K24" s="3">
         <v>589400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1669800</v>
+        <v>1689000</v>
       </c>
       <c r="E26" s="3">
-        <v>-2219300</v>
+        <v>-2244800</v>
       </c>
       <c r="F26" s="3">
-        <v>1726200</v>
+        <v>1746000</v>
       </c>
       <c r="G26" s="3">
-        <v>-349300</v>
+        <v>-353300</v>
       </c>
       <c r="H26" s="3">
-        <v>695600</v>
+        <v>703600</v>
       </c>
       <c r="I26" s="3">
-        <v>566300</v>
+        <v>572700</v>
       </c>
       <c r="J26" s="3">
-        <v>503800</v>
+        <v>509600</v>
       </c>
       <c r="K26" s="3">
         <v>749000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1669800</v>
+        <v>1689000</v>
       </c>
       <c r="E27" s="3">
-        <v>-2219300</v>
+        <v>-2244800</v>
       </c>
       <c r="F27" s="3">
-        <v>1726200</v>
+        <v>1746000</v>
       </c>
       <c r="G27" s="3">
-        <v>-349300</v>
+        <v>-353300</v>
       </c>
       <c r="H27" s="3">
-        <v>695600</v>
+        <v>703600</v>
       </c>
       <c r="I27" s="3">
-        <v>566300</v>
+        <v>572700</v>
       </c>
       <c r="J27" s="3">
-        <v>503800</v>
+        <v>509600</v>
       </c>
       <c r="K27" s="3">
         <v>749000</v>
@@ -1356,16 +1356,16 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>188000</v>
+        <v>190100</v>
       </c>
       <c r="F29" s="3">
-        <v>835700</v>
+        <v>845300</v>
       </c>
       <c r="G29" s="3">
-        <v>-65500</v>
+        <v>-66200</v>
       </c>
       <c r="H29" s="3">
-        <v>-225300</v>
+        <v>-227900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-181100</v>
+        <v>-183200</v>
       </c>
       <c r="E32" s="3">
-        <v>939200</v>
+        <v>950000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1871500</v>
+        <v>-1893000</v>
       </c>
       <c r="G32" s="3">
-        <v>152200</v>
+        <v>154000</v>
       </c>
       <c r="H32" s="3">
-        <v>615700</v>
+        <v>622800</v>
       </c>
       <c r="I32" s="3">
-        <v>-229800</v>
+        <v>-232500</v>
       </c>
       <c r="J32" s="3">
-        <v>405700</v>
+        <v>410300</v>
       </c>
       <c r="K32" s="3">
         <v>-312400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1669800</v>
+        <v>1689000</v>
       </c>
       <c r="E33" s="3">
-        <v>-2031300</v>
+        <v>-2054600</v>
       </c>
       <c r="F33" s="3">
-        <v>2561800</v>
+        <v>2591200</v>
       </c>
       <c r="G33" s="3">
-        <v>-414800</v>
+        <v>-419600</v>
       </c>
       <c r="H33" s="3">
-        <v>470400</v>
+        <v>475700</v>
       </c>
       <c r="I33" s="3">
-        <v>566300</v>
+        <v>572700</v>
       </c>
       <c r="J33" s="3">
-        <v>503800</v>
+        <v>509600</v>
       </c>
       <c r="K33" s="3">
         <v>749000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1669800</v>
+        <v>1689000</v>
       </c>
       <c r="E35" s="3">
-        <v>-2031300</v>
+        <v>-2054600</v>
       </c>
       <c r="F35" s="3">
-        <v>2561800</v>
+        <v>2591200</v>
       </c>
       <c r="G35" s="3">
-        <v>-414800</v>
+        <v>-419600</v>
       </c>
       <c r="H35" s="3">
-        <v>470400</v>
+        <v>475700</v>
       </c>
       <c r="I35" s="3">
-        <v>566300</v>
+        <v>572700</v>
       </c>
       <c r="J35" s="3">
-        <v>503800</v>
+        <v>509600</v>
       </c>
       <c r="K35" s="3">
         <v>749000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82200</v>
+        <v>83100</v>
       </c>
       <c r="E41" s="3">
-        <v>118000</v>
+        <v>119300</v>
       </c>
       <c r="F41" s="3">
-        <v>416300</v>
+        <v>421100</v>
       </c>
       <c r="G41" s="3">
-        <v>412500</v>
+        <v>417200</v>
       </c>
       <c r="H41" s="3">
-        <v>245800</v>
+        <v>248700</v>
       </c>
       <c r="I41" s="3">
-        <v>348600</v>
+        <v>352600</v>
       </c>
       <c r="J41" s="3">
-        <v>1866200</v>
+        <v>1887600</v>
       </c>
       <c r="K41" s="3">
         <v>1128400</v>
@@ -1685,22 +1685,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>59400</v>
+        <v>60000</v>
       </c>
       <c r="E42" s="3">
-        <v>476400</v>
+        <v>481900</v>
       </c>
       <c r="F42" s="3">
-        <v>47900</v>
+        <v>48500</v>
       </c>
       <c r="G42" s="3">
-        <v>2418700</v>
+        <v>2446500</v>
       </c>
       <c r="H42" s="3">
-        <v>2878400</v>
+        <v>2911500</v>
       </c>
       <c r="I42" s="3">
-        <v>323500</v>
+        <v>327200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1147000</v>
+        <v>1160100</v>
       </c>
       <c r="E43" s="3">
-        <v>908000</v>
+        <v>918400</v>
       </c>
       <c r="F43" s="3">
-        <v>1395800</v>
+        <v>1411800</v>
       </c>
       <c r="G43" s="3">
-        <v>1306800</v>
+        <v>1321800</v>
       </c>
       <c r="H43" s="3">
-        <v>902700</v>
+        <v>913000</v>
       </c>
       <c r="I43" s="3">
-        <v>1225400</v>
+        <v>1239400</v>
       </c>
       <c r="J43" s="3">
-        <v>1437700</v>
+        <v>1454200</v>
       </c>
       <c r="K43" s="3">
         <v>2459400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1166000</v>
+        <v>1179400</v>
       </c>
       <c r="E44" s="3">
-        <v>771000</v>
+        <v>779800</v>
       </c>
       <c r="F44" s="3">
-        <v>1057200</v>
+        <v>1069300</v>
       </c>
       <c r="G44" s="3">
-        <v>941500</v>
+        <v>952300</v>
       </c>
       <c r="H44" s="3">
-        <v>616500</v>
+        <v>623600</v>
       </c>
       <c r="I44" s="3">
-        <v>931600</v>
+        <v>942300</v>
       </c>
       <c r="J44" s="3">
-        <v>958200</v>
+        <v>969200</v>
       </c>
       <c r="K44" s="3">
         <v>1917400</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>44900</v>
+        <v>45400</v>
       </c>
       <c r="E45" s="3">
-        <v>158300</v>
+        <v>160100</v>
       </c>
       <c r="F45" s="3">
-        <v>894300</v>
+        <v>904500</v>
       </c>
       <c r="G45" s="3">
-        <v>112600</v>
+        <v>113900</v>
       </c>
       <c r="H45" s="3">
-        <v>283100</v>
+        <v>286400</v>
       </c>
       <c r="I45" s="3">
-        <v>363800</v>
+        <v>368000</v>
       </c>
       <c r="J45" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="K45" s="3">
         <v>536000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2499400</v>
+        <v>2528100</v>
       </c>
       <c r="E46" s="3">
-        <v>2431700</v>
+        <v>2459600</v>
       </c>
       <c r="F46" s="3">
-        <v>3811500</v>
+        <v>3855300</v>
       </c>
       <c r="G46" s="3">
-        <v>5192200</v>
+        <v>5251700</v>
       </c>
       <c r="H46" s="3">
-        <v>4926500</v>
+        <v>4983000</v>
       </c>
       <c r="I46" s="3">
-        <v>3192800</v>
+        <v>3229400</v>
       </c>
       <c r="J46" s="3">
-        <v>4269700</v>
+        <v>4318700</v>
       </c>
       <c r="K46" s="3">
         <v>3447000</v>
@@ -1850,19 +1850,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78400</v>
+        <v>79300</v>
       </c>
       <c r="E47" s="3">
-        <v>159800</v>
+        <v>161700</v>
       </c>
       <c r="F47" s="3">
-        <v>273200</v>
+        <v>276400</v>
       </c>
       <c r="G47" s="3">
-        <v>132400</v>
+        <v>133900</v>
       </c>
       <c r="H47" s="3">
-        <v>104300</v>
+        <v>105500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22791600</v>
+        <v>23053000</v>
       </c>
       <c r="E48" s="3">
-        <v>22439200</v>
+        <v>22696600</v>
       </c>
       <c r="F48" s="3">
-        <v>25320700</v>
+        <v>25611100</v>
       </c>
       <c r="G48" s="3">
-        <v>13708000</v>
+        <v>13865200</v>
       </c>
       <c r="H48" s="3">
-        <v>14392200</v>
+        <v>14557300</v>
       </c>
       <c r="I48" s="3">
-        <v>15364900</v>
+        <v>15541100</v>
       </c>
       <c r="J48" s="3">
-        <v>14313800</v>
+        <v>14478000</v>
       </c>
       <c r="K48" s="3">
         <v>26252800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1806100</v>
+        <v>1826800</v>
       </c>
       <c r="E49" s="3">
-        <v>1729200</v>
+        <v>1749000</v>
       </c>
       <c r="F49" s="3">
-        <v>1729200</v>
+        <v>1749000</v>
       </c>
       <c r="G49" s="3">
-        <v>184200</v>
+        <v>186300</v>
       </c>
       <c r="H49" s="3">
-        <v>184200</v>
+        <v>186300</v>
       </c>
       <c r="I49" s="3">
-        <v>184200</v>
+        <v>186300</v>
       </c>
       <c r="J49" s="3">
-        <v>562400</v>
+        <v>568900</v>
       </c>
       <c r="K49" s="3">
         <v>556300</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="F52" s="3">
-        <v>19000</v>
+        <v>19200</v>
       </c>
       <c r="G52" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="H52" s="3">
-        <v>22100</v>
+        <v>22300</v>
       </c>
       <c r="I52" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="J52" s="3">
-        <v>51800</v>
+        <v>52300</v>
       </c>
       <c r="K52" s="3">
         <v>53400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27180800</v>
+        <v>27492600</v>
       </c>
       <c r="E54" s="3">
-        <v>26770600</v>
+        <v>27077600</v>
       </c>
       <c r="F54" s="3">
-        <v>31153700</v>
+        <v>31511000</v>
       </c>
       <c r="G54" s="3">
-        <v>19223600</v>
+        <v>19444100</v>
       </c>
       <c r="H54" s="3">
-        <v>19629300</v>
+        <v>19854400</v>
       </c>
       <c r="I54" s="3">
-        <v>18795100</v>
+        <v>19010700</v>
       </c>
       <c r="J54" s="3">
-        <v>19197700</v>
+        <v>19417900</v>
       </c>
       <c r="K54" s="3">
         <v>18229600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>714700</v>
+        <v>722900</v>
       </c>
       <c r="E57" s="3">
-        <v>583800</v>
+        <v>590500</v>
       </c>
       <c r="F57" s="3">
-        <v>256500</v>
+        <v>259400</v>
       </c>
       <c r="G57" s="3">
-        <v>79900</v>
+        <v>80800</v>
       </c>
       <c r="H57" s="3">
-        <v>51800</v>
+        <v>52300</v>
       </c>
       <c r="I57" s="3">
-        <v>38800</v>
+        <v>39300</v>
       </c>
       <c r="J57" s="3">
-        <v>77600</v>
+        <v>78500</v>
       </c>
       <c r="K57" s="3">
         <v>609000</v>
@@ -2177,10 +2177,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>149200</v>
+        <v>150900</v>
       </c>
       <c r="E58" s="3">
-        <v>519100</v>
+        <v>525000</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>333400</v>
+        <v>337200</v>
       </c>
       <c r="K58" s="3">
         <v>290600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1054900</v>
+        <v>1067000</v>
       </c>
       <c r="E59" s="3">
-        <v>876000</v>
+        <v>886100</v>
       </c>
       <c r="F59" s="3">
-        <v>3119700</v>
+        <v>3155500</v>
       </c>
       <c r="G59" s="3">
-        <v>1953000</v>
+        <v>1975400</v>
       </c>
       <c r="H59" s="3">
-        <v>1362400</v>
+        <v>1378000</v>
       </c>
       <c r="I59" s="3">
-        <v>2211700</v>
+        <v>2237100</v>
       </c>
       <c r="J59" s="3">
-        <v>2465200</v>
+        <v>2493400</v>
       </c>
       <c r="K59" s="3">
         <v>3556900</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1918700</v>
+        <v>1940700</v>
       </c>
       <c r="E60" s="3">
-        <v>1978800</v>
+        <v>2001500</v>
       </c>
       <c r="F60" s="3">
-        <v>3376200</v>
+        <v>3414900</v>
       </c>
       <c r="G60" s="3">
-        <v>2032900</v>
+        <v>2056200</v>
       </c>
       <c r="H60" s="3">
-        <v>1414100</v>
+        <v>1430300</v>
       </c>
       <c r="I60" s="3">
-        <v>2250500</v>
+        <v>2276400</v>
       </c>
       <c r="J60" s="3">
-        <v>2876200</v>
+        <v>2909100</v>
       </c>
       <c r="K60" s="3">
         <v>2461600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6407600</v>
+        <v>6481100</v>
       </c>
       <c r="E61" s="3">
-        <v>6455600</v>
+        <v>6529600</v>
       </c>
       <c r="F61" s="3">
-        <v>7240200</v>
+        <v>7323300</v>
       </c>
       <c r="G61" s="3">
-        <v>4819200</v>
+        <v>4874500</v>
       </c>
       <c r="H61" s="3">
-        <v>4966100</v>
+        <v>5023100</v>
       </c>
       <c r="I61" s="3">
-        <v>4154000</v>
+        <v>4201700</v>
       </c>
       <c r="J61" s="3">
-        <v>4630500</v>
+        <v>4683600</v>
       </c>
       <c r="K61" s="3">
         <v>4595800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4240800</v>
+        <v>4289400</v>
       </c>
       <c r="E62" s="3">
-        <v>5041500</v>
+        <v>5099300</v>
       </c>
       <c r="F62" s="3">
-        <v>5329900</v>
+        <v>5391000</v>
       </c>
       <c r="G62" s="3">
-        <v>3550500</v>
+        <v>3591200</v>
       </c>
       <c r="H62" s="3">
-        <v>3818400</v>
+        <v>3862200</v>
       </c>
       <c r="I62" s="3">
-        <v>4638100</v>
+        <v>4691300</v>
       </c>
       <c r="J62" s="3">
-        <v>4121300</v>
+        <v>4168600</v>
       </c>
       <c r="K62" s="3">
         <v>5643700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12567100</v>
+        <v>12711300</v>
       </c>
       <c r="E66" s="3">
-        <v>13475900</v>
+        <v>13630400</v>
       </c>
       <c r="F66" s="3">
-        <v>15946400</v>
+        <v>16129300</v>
       </c>
       <c r="G66" s="3">
-        <v>10402600</v>
+        <v>10521900</v>
       </c>
       <c r="H66" s="3">
-        <v>10198600</v>
+        <v>10315600</v>
       </c>
       <c r="I66" s="3">
-        <v>11042700</v>
+        <v>11169300</v>
       </c>
       <c r="J66" s="3">
-        <v>11627900</v>
+        <v>11761300</v>
       </c>
       <c r="K66" s="3">
         <v>10865800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2250500</v>
+        <v>2276400</v>
       </c>
       <c r="E72" s="3">
-        <v>778600</v>
+        <v>787500</v>
       </c>
       <c r="F72" s="3">
-        <v>2996400</v>
+        <v>3030800</v>
       </c>
       <c r="G72" s="3">
-        <v>605800</v>
+        <v>612800</v>
       </c>
       <c r="H72" s="3">
-        <v>1147000</v>
+        <v>1160100</v>
       </c>
       <c r="I72" s="3">
-        <v>1217000</v>
+        <v>1230900</v>
       </c>
       <c r="J72" s="3">
-        <v>1263400</v>
+        <v>1277900</v>
       </c>
       <c r="K72" s="3">
         <v>2603100</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14613700</v>
+        <v>14781300</v>
       </c>
       <c r="E76" s="3">
-        <v>13294700</v>
+        <v>13447200</v>
       </c>
       <c r="F76" s="3">
-        <v>15207300</v>
+        <v>15381800</v>
       </c>
       <c r="G76" s="3">
-        <v>8821000</v>
+        <v>8922200</v>
       </c>
       <c r="H76" s="3">
-        <v>9430700</v>
+        <v>9538800</v>
       </c>
       <c r="I76" s="3">
-        <v>7752500</v>
+        <v>7841400</v>
       </c>
       <c r="J76" s="3">
-        <v>7569800</v>
+        <v>7656600</v>
       </c>
       <c r="K76" s="3">
         <v>7363800</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1669800</v>
+        <v>1689000</v>
       </c>
       <c r="E81" s="3">
-        <v>-2031300</v>
+        <v>-2054600</v>
       </c>
       <c r="F81" s="3">
-        <v>2561800</v>
+        <v>2591200</v>
       </c>
       <c r="G81" s="3">
-        <v>-414800</v>
+        <v>-419600</v>
       </c>
       <c r="H81" s="3">
-        <v>470400</v>
+        <v>475700</v>
       </c>
       <c r="I81" s="3">
-        <v>566300</v>
+        <v>572700</v>
       </c>
       <c r="J81" s="3">
-        <v>503800</v>
+        <v>509600</v>
       </c>
       <c r="K81" s="3">
         <v>749000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1711700</v>
+        <v>1731300</v>
       </c>
       <c r="E83" s="3">
-        <v>1621900</v>
+        <v>1640500</v>
       </c>
       <c r="F83" s="3">
-        <v>1545000</v>
+        <v>1562700</v>
       </c>
       <c r="G83" s="3">
-        <v>1140100</v>
+        <v>1153200</v>
       </c>
       <c r="H83" s="3">
-        <v>1608900</v>
+        <v>1627400</v>
       </c>
       <c r="I83" s="3">
-        <v>1481100</v>
+        <v>1498100</v>
       </c>
       <c r="J83" s="3">
-        <v>1395100</v>
+        <v>1411100</v>
       </c>
       <c r="K83" s="3">
         <v>1193200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2500200</v>
+        <v>2528900</v>
       </c>
       <c r="E89" s="3">
-        <v>1639400</v>
+        <v>1658200</v>
       </c>
       <c r="F89" s="3">
-        <v>2328200</v>
+        <v>2354900</v>
       </c>
       <c r="G89" s="3">
-        <v>655300</v>
+        <v>662800</v>
       </c>
       <c r="H89" s="3">
-        <v>1121800</v>
+        <v>1134700</v>
       </c>
       <c r="I89" s="3">
-        <v>2683600</v>
+        <v>2714400</v>
       </c>
       <c r="J89" s="3">
-        <v>2693500</v>
+        <v>2724400</v>
       </c>
       <c r="K89" s="3">
         <v>2574500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-900400</v>
+        <v>-910700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1048000</v>
+        <v>-1060000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1271000</v>
+        <v>-1285600</v>
       </c>
       <c r="G91" s="3">
-        <v>-787000</v>
+        <v>-796000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1304500</v>
+        <v>-1319500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2327400</v>
+        <v>-2354100</v>
       </c>
       <c r="J91" s="3">
-        <v>-2488000</v>
+        <v>-2516500</v>
       </c>
       <c r="K91" s="3">
         <v>-2596400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1089900</v>
+        <v>-1102400</v>
       </c>
       <c r="E94" s="3">
-        <v>-466500</v>
+        <v>-471900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9792200</v>
+        <v>-9904500</v>
       </c>
       <c r="G94" s="3">
-        <v>-821200</v>
+        <v>-830600</v>
       </c>
       <c r="H94" s="3">
-        <v>675800</v>
+        <v>683600</v>
       </c>
       <c r="I94" s="3">
-        <v>-3310700</v>
+        <v>-3348700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1156100</v>
+        <v>-1169400</v>
       </c>
       <c r="K94" s="3">
         <v>-2511300</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-197900</v>
+        <v>-200200</v>
       </c>
       <c r="E96" s="3">
-        <v>-186500</v>
+        <v>-188600</v>
       </c>
       <c r="F96" s="3">
-        <v>-171200</v>
+        <v>-173200</v>
       </c>
       <c r="G96" s="3">
-        <v>-126300</v>
+        <v>-127800</v>
       </c>
       <c r="H96" s="3">
-        <v>-401900</v>
+        <v>-406500</v>
       </c>
       <c r="I96" s="3">
-        <v>-612700</v>
+        <v>-619700</v>
       </c>
       <c r="J96" s="3">
-        <v>-557100</v>
+        <v>-563500</v>
       </c>
       <c r="K96" s="3">
         <v>-500600</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1836500</v>
+        <v>-1857600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1073100</v>
+        <v>-1085400</v>
       </c>
       <c r="F100" s="3">
-        <v>4958500</v>
+        <v>5015400</v>
       </c>
       <c r="G100" s="3">
-        <v>-127900</v>
+        <v>-129300</v>
       </c>
       <c r="H100" s="3">
-        <v>680400</v>
+        <v>688200</v>
       </c>
       <c r="I100" s="3">
-        <v>-606600</v>
+        <v>-613500</v>
       </c>
       <c r="J100" s="3">
-        <v>-552600</v>
+        <v>-558900</v>
       </c>
       <c r="K100" s="3">
         <v>445700</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26600</v>
+        <v>-26900</v>
       </c>
       <c r="E101" s="3">
-        <v>30400</v>
+        <v>30800</v>
       </c>
       <c r="F101" s="3">
-        <v>138500</v>
+        <v>140100</v>
       </c>
       <c r="G101" s="3">
         <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>-25900</v>
+        <v>-26200</v>
       </c>
       <c r="I101" s="3">
-        <v>39600</v>
+        <v>40000</v>
       </c>
       <c r="J101" s="3">
         <v>-1500</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-452800</v>
+        <v>-458000</v>
       </c>
       <c r="E102" s="3">
-        <v>130100</v>
+        <v>131600</v>
       </c>
       <c r="F102" s="3">
-        <v>-2367000</v>
+        <v>-2394100</v>
       </c>
       <c r="G102" s="3">
-        <v>-293000</v>
+        <v>-296400</v>
       </c>
       <c r="H102" s="3">
-        <v>2452200</v>
+        <v>2480400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1194200</v>
+        <v>-1207800</v>
       </c>
       <c r="J102" s="3">
-        <v>983300</v>
+        <v>994600</v>
       </c>
       <c r="K102" s="3">
         <v>500600</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>CVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,167 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15535700</v>
+        <v>10489300</v>
       </c>
       <c r="E8" s="3">
-        <v>16046100</v>
+        <v>16003900</v>
       </c>
       <c r="F8" s="3">
-        <v>13120000</v>
+        <v>16529700</v>
       </c>
       <c r="G8" s="3">
-        <v>8472600</v>
+        <v>13515400</v>
       </c>
       <c r="H8" s="3">
-        <v>8875300</v>
+        <v>8728000</v>
       </c>
       <c r="I8" s="3">
-        <v>15120800</v>
+        <v>9142700</v>
       </c>
       <c r="J8" s="3">
+        <v>15576500</v>
+      </c>
+      <c r="K8" s="3">
         <v>14362500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12678500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12058100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6488000</v>
+        <v>4499600</v>
       </c>
       <c r="E9" s="3">
-        <v>6732100</v>
+        <v>6683600</v>
       </c>
       <c r="F9" s="3">
-        <v>6184700</v>
+        <v>6935000</v>
       </c>
       <c r="G9" s="3">
-        <v>5371800</v>
+        <v>6371100</v>
       </c>
       <c r="H9" s="3">
-        <v>5677400</v>
+        <v>5533700</v>
       </c>
       <c r="I9" s="3">
-        <v>8468800</v>
+        <v>5848500</v>
       </c>
       <c r="J9" s="3">
+        <v>8724000</v>
+      </c>
+      <c r="K9" s="3">
         <v>8032300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6970800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9047700</v>
+        <v>5989700</v>
       </c>
       <c r="E10" s="3">
-        <v>9314100</v>
+        <v>9320400</v>
       </c>
       <c r="F10" s="3">
-        <v>6935300</v>
+        <v>9594700</v>
       </c>
       <c r="G10" s="3">
-        <v>3100800</v>
+        <v>7144300</v>
       </c>
       <c r="H10" s="3">
-        <v>3197800</v>
+        <v>3194300</v>
       </c>
       <c r="I10" s="3">
-        <v>6652000</v>
+        <v>3294200</v>
       </c>
       <c r="J10" s="3">
+        <v>6852500</v>
+      </c>
+      <c r="K10" s="3">
         <v>6330200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5707700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12030500</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>78500</v>
+        <v>72200</v>
       </c>
       <c r="E12" s="3">
-        <v>1653600</v>
+        <v>80900</v>
       </c>
       <c r="F12" s="3">
-        <v>711300</v>
+        <v>1703400</v>
       </c>
       <c r="G12" s="3">
-        <v>29300</v>
+        <v>732800</v>
       </c>
       <c r="H12" s="3">
-        <v>72400</v>
+        <v>30100</v>
       </c>
       <c r="I12" s="3">
-        <v>77800</v>
+        <v>74500</v>
       </c>
       <c r="J12" s="3">
+        <v>80100</v>
+      </c>
+      <c r="K12" s="3">
         <v>106200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>62500</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>28500</v>
+        <v>808900</v>
       </c>
       <c r="E14" s="3">
-        <v>640500</v>
+        <v>29300</v>
       </c>
       <c r="F14" s="3">
-        <v>15400</v>
+        <v>659800</v>
       </c>
       <c r="G14" s="3">
-        <v>37000</v>
+        <v>15900</v>
       </c>
       <c r="H14" s="3">
-        <v>-1808300</v>
+        <v>38100</v>
       </c>
       <c r="I14" s="3">
-        <v>382600</v>
+        <v>-1862800</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>394100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>295800</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1705900</v>
+        <v>1865200</v>
       </c>
       <c r="E15" s="3">
-        <v>1660500</v>
+        <v>1757300</v>
       </c>
       <c r="F15" s="3">
-        <v>1414900</v>
+        <v>1710500</v>
       </c>
       <c r="G15" s="3">
-        <v>1852200</v>
+        <v>1457600</v>
       </c>
       <c r="H15" s="3">
-        <v>764400</v>
+        <v>1908000</v>
       </c>
       <c r="I15" s="3">
-        <v>1498100</v>
+        <v>787500</v>
       </c>
       <c r="J15" s="3">
+        <v>1543200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1411100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1193200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>994900</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14267100</v>
+        <v>12532100</v>
       </c>
       <c r="E17" s="3">
-        <v>17708200</v>
+        <v>14697000</v>
       </c>
       <c r="F17" s="3">
-        <v>12867500</v>
+        <v>18241800</v>
       </c>
       <c r="G17" s="3">
-        <v>8673600</v>
+        <v>13255300</v>
       </c>
       <c r="H17" s="3">
-        <v>7314800</v>
+        <v>8935000</v>
       </c>
       <c r="I17" s="3">
-        <v>14197000</v>
+        <v>7535300</v>
       </c>
       <c r="J17" s="3">
+        <v>14624900</v>
+      </c>
+      <c r="K17" s="3">
         <v>12800600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11390500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10710700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1268700</v>
+        <v>-2042800</v>
       </c>
       <c r="E18" s="3">
-        <v>-1662000</v>
+        <v>1306900</v>
       </c>
       <c r="F18" s="3">
-        <v>252500</v>
+        <v>-1712100</v>
       </c>
       <c r="G18" s="3">
-        <v>-200900</v>
+        <v>260100</v>
       </c>
       <c r="H18" s="3">
-        <v>1560400</v>
+        <v>-207000</v>
       </c>
       <c r="I18" s="3">
-        <v>923800</v>
+        <v>1607500</v>
       </c>
       <c r="J18" s="3">
+        <v>951600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1562000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1288000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1347500</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>183200</v>
+        <v>-138800</v>
       </c>
       <c r="E20" s="3">
-        <v>-950000</v>
+        <v>188700</v>
       </c>
       <c r="F20" s="3">
-        <v>1893000</v>
+        <v>-978600</v>
       </c>
       <c r="G20" s="3">
-        <v>-154000</v>
+        <v>1950000</v>
       </c>
       <c r="H20" s="3">
-        <v>-622800</v>
+        <v>-158600</v>
       </c>
       <c r="I20" s="3">
-        <v>232500</v>
+        <v>-641600</v>
       </c>
       <c r="J20" s="3">
+        <v>239500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-410300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>312400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>348000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3180100</v>
+        <v>573100</v>
       </c>
       <c r="E21" s="3">
-        <v>-974400</v>
+        <v>3284100</v>
       </c>
       <c r="F21" s="3">
-        <v>3705500</v>
+        <v>-996100</v>
       </c>
       <c r="G21" s="3">
-        <v>796300</v>
+        <v>3824500</v>
       </c>
       <c r="H21" s="3">
-        <v>2562200</v>
+        <v>825700</v>
       </c>
       <c r="I21" s="3">
-        <v>2651700</v>
+        <v>2647000</v>
       </c>
       <c r="J21" s="3">
+        <v>2738600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2560200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2794100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2695100</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>376400</v>
+        <v>379900</v>
       </c>
       <c r="E22" s="3">
-        <v>410300</v>
+        <v>387800</v>
       </c>
       <c r="F22" s="3">
-        <v>439600</v>
+        <v>422700</v>
       </c>
       <c r="G22" s="3">
-        <v>262500</v>
+        <v>452800</v>
       </c>
       <c r="H22" s="3">
-        <v>252500</v>
+        <v>270400</v>
       </c>
       <c r="I22" s="3">
-        <v>236300</v>
+        <v>260100</v>
       </c>
       <c r="J22" s="3">
+        <v>243500</v>
+      </c>
+      <c r="K22" s="3">
         <v>309500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>262000</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1075400</v>
+        <v>-2561500</v>
       </c>
       <c r="E23" s="3">
-        <v>-3022300</v>
+        <v>1107800</v>
       </c>
       <c r="F23" s="3">
-        <v>1705900</v>
+        <v>-3113400</v>
       </c>
       <c r="G23" s="3">
-        <v>-617400</v>
+        <v>1757300</v>
       </c>
       <c r="H23" s="3">
-        <v>685100</v>
+        <v>-636000</v>
       </c>
       <c r="I23" s="3">
-        <v>919900</v>
+        <v>705800</v>
       </c>
       <c r="J23" s="3">
+        <v>947700</v>
+      </c>
+      <c r="K23" s="3">
         <v>842200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1338500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1695500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-613500</v>
+        <v>-674900</v>
       </c>
       <c r="E24" s="3">
-        <v>-777500</v>
+        <v>-632000</v>
       </c>
       <c r="F24" s="3">
-        <v>-40000</v>
+        <v>-801000</v>
       </c>
       <c r="G24" s="3">
-        <v>-264000</v>
+        <v>-41200</v>
       </c>
       <c r="H24" s="3">
-        <v>-18500</v>
+        <v>-272000</v>
       </c>
       <c r="I24" s="3">
-        <v>347200</v>
+        <v>-19000</v>
       </c>
       <c r="J24" s="3">
+        <v>357700</v>
+      </c>
+      <c r="K24" s="3">
         <v>332600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>589400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>560000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1689000</v>
+        <v>-1886600</v>
       </c>
       <c r="E26" s="3">
-        <v>-2244800</v>
+        <v>1739900</v>
       </c>
       <c r="F26" s="3">
-        <v>1746000</v>
+        <v>-2312400</v>
       </c>
       <c r="G26" s="3">
-        <v>-353300</v>
+        <v>1798600</v>
       </c>
       <c r="H26" s="3">
-        <v>703600</v>
+        <v>-364000</v>
       </c>
       <c r="I26" s="3">
-        <v>572700</v>
+        <v>724800</v>
       </c>
       <c r="J26" s="3">
+        <v>590000</v>
+      </c>
+      <c r="K26" s="3">
         <v>509600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>749000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1135400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1689000</v>
+        <v>-1886600</v>
       </c>
       <c r="E27" s="3">
-        <v>-2244800</v>
+        <v>1739900</v>
       </c>
       <c r="F27" s="3">
-        <v>1746000</v>
+        <v>-2312400</v>
       </c>
       <c r="G27" s="3">
-        <v>-353300</v>
+        <v>1798600</v>
       </c>
       <c r="H27" s="3">
-        <v>703600</v>
+        <v>-364000</v>
       </c>
       <c r="I27" s="3">
-        <v>572700</v>
+        <v>724800</v>
       </c>
       <c r="J27" s="3">
+        <v>590000</v>
+      </c>
+      <c r="K27" s="3">
         <v>509600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>749000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1135400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,29 +1405,32 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>190100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>845300</v>
+        <v>195900</v>
       </c>
       <c r="G29" s="3">
-        <v>-66200</v>
+        <v>870700</v>
       </c>
       <c r="H29" s="3">
-        <v>-227900</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>-68200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-234700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-183200</v>
+        <v>138800</v>
       </c>
       <c r="E32" s="3">
-        <v>950000</v>
+        <v>-188700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1893000</v>
+        <v>978600</v>
       </c>
       <c r="G32" s="3">
-        <v>154000</v>
+        <v>-1950000</v>
       </c>
       <c r="H32" s="3">
-        <v>622800</v>
+        <v>158600</v>
       </c>
       <c r="I32" s="3">
-        <v>-232500</v>
+        <v>641600</v>
       </c>
       <c r="J32" s="3">
+        <v>-239500</v>
+      </c>
+      <c r="K32" s="3">
         <v>410300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-312400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-348000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1689000</v>
+        <v>-1886600</v>
       </c>
       <c r="E33" s="3">
-        <v>-2054600</v>
+        <v>1739900</v>
       </c>
       <c r="F33" s="3">
-        <v>2591200</v>
+        <v>-2116600</v>
       </c>
       <c r="G33" s="3">
-        <v>-419600</v>
+        <v>2669300</v>
       </c>
       <c r="H33" s="3">
-        <v>475700</v>
+        <v>-432200</v>
       </c>
       <c r="I33" s="3">
-        <v>572700</v>
+        <v>490100</v>
       </c>
       <c r="J33" s="3">
+        <v>590000</v>
+      </c>
+      <c r="K33" s="3">
         <v>509600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>749000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1135400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1689000</v>
+        <v>-1886600</v>
       </c>
       <c r="E35" s="3">
-        <v>-2054600</v>
+        <v>1739900</v>
       </c>
       <c r="F35" s="3">
-        <v>2591200</v>
+        <v>-2116600</v>
       </c>
       <c r="G35" s="3">
-        <v>-419600</v>
+        <v>2669300</v>
       </c>
       <c r="H35" s="3">
-        <v>475700</v>
+        <v>-432200</v>
       </c>
       <c r="I35" s="3">
-        <v>572700</v>
+        <v>490100</v>
       </c>
       <c r="J35" s="3">
+        <v>590000</v>
+      </c>
+      <c r="K35" s="3">
         <v>509600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>749000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1135400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1733,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>83100</v>
+        <v>291800</v>
       </c>
       <c r="E41" s="3">
-        <v>119300</v>
+        <v>85600</v>
       </c>
       <c r="F41" s="3">
-        <v>421100</v>
+        <v>122900</v>
       </c>
       <c r="G41" s="3">
-        <v>417200</v>
+        <v>433800</v>
       </c>
       <c r="H41" s="3">
-        <v>248700</v>
+        <v>429800</v>
       </c>
       <c r="I41" s="3">
-        <v>352600</v>
+        <v>256100</v>
       </c>
       <c r="J41" s="3">
+        <v>363200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1887600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1128400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>178200</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60000</v>
+        <v>7900</v>
       </c>
       <c r="E42" s="3">
-        <v>481900</v>
+        <v>61900</v>
       </c>
       <c r="F42" s="3">
-        <v>48500</v>
+        <v>496400</v>
       </c>
       <c r="G42" s="3">
-        <v>2446500</v>
+        <v>50000</v>
       </c>
       <c r="H42" s="3">
-        <v>2911500</v>
+        <v>2520200</v>
       </c>
       <c r="I42" s="3">
-        <v>327200</v>
-      </c>
-      <c r="J42" s="3" t="s">
+        <v>2999200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>337000</v>
+      </c>
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>618000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>202000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1160100</v>
+        <v>1100700</v>
       </c>
       <c r="E43" s="3">
-        <v>918400</v>
+        <v>1195100</v>
       </c>
       <c r="F43" s="3">
-        <v>1411800</v>
+        <v>946100</v>
       </c>
       <c r="G43" s="3">
-        <v>1321800</v>
+        <v>1454400</v>
       </c>
       <c r="H43" s="3">
-        <v>913000</v>
+        <v>1361600</v>
       </c>
       <c r="I43" s="3">
-        <v>1239400</v>
+        <v>940500</v>
       </c>
       <c r="J43" s="3">
+        <v>1276800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1454200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2459400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1053200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1179400</v>
+        <v>863600</v>
       </c>
       <c r="E44" s="3">
-        <v>779800</v>
+        <v>1214900</v>
       </c>
       <c r="F44" s="3">
-        <v>1069300</v>
+        <v>803300</v>
       </c>
       <c r="G44" s="3">
-        <v>952300</v>
+        <v>1101500</v>
       </c>
       <c r="H44" s="3">
-        <v>623600</v>
+        <v>981000</v>
       </c>
       <c r="I44" s="3">
-        <v>942300</v>
+        <v>642300</v>
       </c>
       <c r="J44" s="3">
+        <v>970700</v>
+      </c>
+      <c r="K44" s="3">
         <v>969200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1917400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>991800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>45400</v>
+        <v>96000</v>
       </c>
       <c r="E45" s="3">
-        <v>160100</v>
+        <v>46800</v>
       </c>
       <c r="F45" s="3">
-        <v>904500</v>
+        <v>164900</v>
       </c>
       <c r="G45" s="3">
-        <v>113900</v>
+        <v>931800</v>
       </c>
       <c r="H45" s="3">
-        <v>286400</v>
+        <v>117400</v>
       </c>
       <c r="I45" s="3">
-        <v>368000</v>
+        <v>295000</v>
       </c>
       <c r="J45" s="3">
+        <v>379100</v>
+      </c>
+      <c r="K45" s="3">
         <v>7700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>536000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>579200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2528100</v>
+        <v>2360000</v>
       </c>
       <c r="E46" s="3">
-        <v>2459600</v>
+        <v>2604300</v>
       </c>
       <c r="F46" s="3">
-        <v>3855300</v>
+        <v>2533700</v>
       </c>
       <c r="G46" s="3">
-        <v>5251700</v>
+        <v>3971400</v>
       </c>
       <c r="H46" s="3">
-        <v>4983000</v>
+        <v>5410000</v>
       </c>
       <c r="I46" s="3">
-        <v>3229400</v>
+        <v>5133200</v>
       </c>
       <c r="J46" s="3">
+        <v>3326700</v>
+      </c>
+      <c r="K46" s="3">
         <v>4318700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3447000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3004500</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79300</v>
+        <v>168100</v>
       </c>
       <c r="E47" s="3">
-        <v>161700</v>
+        <v>81700</v>
       </c>
       <c r="F47" s="3">
-        <v>276400</v>
+        <v>166500</v>
       </c>
       <c r="G47" s="3">
-        <v>133900</v>
+        <v>284700</v>
       </c>
       <c r="H47" s="3">
-        <v>105500</v>
-      </c>
-      <c r="I47" s="3" t="s">
+        <v>138000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>108600</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>1069000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1413500</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23053000</v>
+        <v>21548700</v>
       </c>
       <c r="E48" s="3">
-        <v>22696600</v>
+        <v>23747800</v>
       </c>
       <c r="F48" s="3">
-        <v>25611100</v>
+        <v>23380600</v>
       </c>
       <c r="G48" s="3">
-        <v>13865200</v>
+        <v>26383000</v>
       </c>
       <c r="H48" s="3">
-        <v>14557300</v>
+        <v>14283100</v>
       </c>
       <c r="I48" s="3">
-        <v>15541100</v>
+        <v>14996000</v>
       </c>
       <c r="J48" s="3">
+        <v>16009500</v>
+      </c>
+      <c r="K48" s="3">
         <v>14478000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26252800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11680200</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1826800</v>
+        <v>1872300</v>
       </c>
       <c r="E49" s="3">
-        <v>1749000</v>
+        <v>1881800</v>
       </c>
       <c r="F49" s="3">
-        <v>1749000</v>
+        <v>1801700</v>
       </c>
       <c r="G49" s="3">
-        <v>186300</v>
+        <v>1801700</v>
       </c>
       <c r="H49" s="3">
-        <v>186300</v>
+        <v>191900</v>
       </c>
       <c r="I49" s="3">
-        <v>186300</v>
+        <v>191900</v>
       </c>
       <c r="J49" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K49" s="3">
         <v>568900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>556300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>869600</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5400</v>
+        <v>38100</v>
       </c>
       <c r="E52" s="3">
-        <v>10800</v>
+        <v>5600</v>
       </c>
       <c r="F52" s="3">
-        <v>19200</v>
+        <v>11100</v>
       </c>
       <c r="G52" s="3">
-        <v>6900</v>
+        <v>19800</v>
       </c>
       <c r="H52" s="3">
-        <v>22300</v>
+        <v>7100</v>
       </c>
       <c r="I52" s="3">
-        <v>53900</v>
+        <v>23000</v>
       </c>
       <c r="J52" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K52" s="3">
         <v>52300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>53400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>82200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27492600</v>
+        <v>25987300</v>
       </c>
       <c r="E54" s="3">
-        <v>27077600</v>
+        <v>28321100</v>
       </c>
       <c r="F54" s="3">
-        <v>31511000</v>
+        <v>27893700</v>
       </c>
       <c r="G54" s="3">
-        <v>19444100</v>
+        <v>32460700</v>
       </c>
       <c r="H54" s="3">
-        <v>19854400</v>
+        <v>20030100</v>
       </c>
       <c r="I54" s="3">
-        <v>19010700</v>
+        <v>20452800</v>
       </c>
       <c r="J54" s="3">
+        <v>19583600</v>
+      </c>
+      <c r="K54" s="3">
         <v>19417900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18229600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17050100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2269,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>722900</v>
+        <v>482200</v>
       </c>
       <c r="E57" s="3">
-        <v>590500</v>
+        <v>744600</v>
       </c>
       <c r="F57" s="3">
-        <v>259400</v>
+        <v>608200</v>
       </c>
       <c r="G57" s="3">
-        <v>80800</v>
+        <v>267200</v>
       </c>
       <c r="H57" s="3">
-        <v>52300</v>
+        <v>83300</v>
       </c>
       <c r="I57" s="3">
-        <v>39300</v>
+        <v>53900</v>
       </c>
       <c r="J57" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K57" s="3">
         <v>78500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>609000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>606100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>150900</v>
+        <v>241900</v>
       </c>
       <c r="E58" s="3">
-        <v>525000</v>
-      </c>
-      <c r="F58" s="3" t="s">
+        <v>155400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>540800</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>337200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>290600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>285800</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1067000</v>
+        <v>1146700</v>
       </c>
       <c r="E59" s="3">
-        <v>886100</v>
+        <v>1099100</v>
       </c>
       <c r="F59" s="3">
-        <v>3155500</v>
+        <v>912800</v>
       </c>
       <c r="G59" s="3">
-        <v>1975400</v>
+        <v>3250600</v>
       </c>
       <c r="H59" s="3">
-        <v>1378000</v>
+        <v>2034900</v>
       </c>
       <c r="I59" s="3">
-        <v>2237100</v>
+        <v>1419500</v>
       </c>
       <c r="J59" s="3">
+        <v>2304500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2493400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3556900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1710800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1940700</v>
+        <v>1870700</v>
       </c>
       <c r="E60" s="3">
-        <v>2001500</v>
+        <v>1999200</v>
       </c>
       <c r="F60" s="3">
-        <v>3414900</v>
+        <v>2061900</v>
       </c>
       <c r="G60" s="3">
-        <v>2056200</v>
+        <v>3517800</v>
       </c>
       <c r="H60" s="3">
-        <v>1430300</v>
+        <v>2118200</v>
       </c>
       <c r="I60" s="3">
-        <v>2276400</v>
+        <v>1473400</v>
       </c>
       <c r="J60" s="3">
+        <v>2345000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2909100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2461600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2602800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6481100</v>
+        <v>7148300</v>
       </c>
       <c r="E61" s="3">
-        <v>6529600</v>
+        <v>6676400</v>
       </c>
       <c r="F61" s="3">
-        <v>7323300</v>
+        <v>6726400</v>
       </c>
       <c r="G61" s="3">
-        <v>4874500</v>
+        <v>7544000</v>
       </c>
       <c r="H61" s="3">
-        <v>5023100</v>
+        <v>5021400</v>
       </c>
       <c r="I61" s="3">
-        <v>4201700</v>
+        <v>5174500</v>
       </c>
       <c r="J61" s="3">
+        <v>4328300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4683600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4595800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4133100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4289400</v>
+        <v>3719300</v>
       </c>
       <c r="E62" s="3">
-        <v>5099300</v>
+        <v>4418700</v>
       </c>
       <c r="F62" s="3">
-        <v>5391000</v>
+        <v>5253000</v>
       </c>
       <c r="G62" s="3">
-        <v>3591200</v>
+        <v>5553500</v>
       </c>
       <c r="H62" s="3">
-        <v>3862200</v>
+        <v>3699400</v>
       </c>
       <c r="I62" s="3">
-        <v>4691300</v>
+        <v>3978600</v>
       </c>
       <c r="J62" s="3">
+        <v>4832700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4168600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5643700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3088300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12711300</v>
+        <v>12738300</v>
       </c>
       <c r="E66" s="3">
-        <v>13630400</v>
+        <v>13094300</v>
       </c>
       <c r="F66" s="3">
-        <v>16129300</v>
+        <v>14041200</v>
       </c>
       <c r="G66" s="3">
-        <v>10521900</v>
+        <v>16615400</v>
       </c>
       <c r="H66" s="3">
-        <v>10315600</v>
+        <v>10839000</v>
       </c>
       <c r="I66" s="3">
-        <v>11169300</v>
+        <v>10626500</v>
       </c>
       <c r="J66" s="3">
+        <v>11505900</v>
+      </c>
+      <c r="K66" s="3">
         <v>11761300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10865800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9824100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2276400</v>
+        <v>397300</v>
       </c>
       <c r="E72" s="3">
-        <v>787500</v>
+        <v>2345000</v>
       </c>
       <c r="F72" s="3">
-        <v>3030800</v>
+        <v>811300</v>
       </c>
       <c r="G72" s="3">
-        <v>612800</v>
+        <v>3122100</v>
       </c>
       <c r="H72" s="3">
-        <v>1160100</v>
+        <v>631200</v>
       </c>
       <c r="I72" s="3">
-        <v>1230900</v>
+        <v>1195100</v>
       </c>
       <c r="J72" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1277900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2603100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1075500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14781300</v>
+        <v>13249000</v>
       </c>
       <c r="E76" s="3">
-        <v>13447200</v>
+        <v>15226800</v>
       </c>
       <c r="F76" s="3">
-        <v>15381800</v>
+        <v>13852500</v>
       </c>
       <c r="G76" s="3">
-        <v>8922200</v>
+        <v>15845300</v>
       </c>
       <c r="H76" s="3">
-        <v>9538800</v>
+        <v>9191100</v>
       </c>
       <c r="I76" s="3">
-        <v>7841400</v>
+        <v>9826300</v>
       </c>
       <c r="J76" s="3">
+        <v>8077700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7656600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7363800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7226000</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1689000</v>
+        <v>-1886600</v>
       </c>
       <c r="E81" s="3">
-        <v>-2054600</v>
+        <v>1739900</v>
       </c>
       <c r="F81" s="3">
-        <v>2591200</v>
+        <v>-2116600</v>
       </c>
       <c r="G81" s="3">
-        <v>-419600</v>
+        <v>2669300</v>
       </c>
       <c r="H81" s="3">
-        <v>475700</v>
+        <v>-432200</v>
       </c>
       <c r="I81" s="3">
-        <v>572700</v>
+        <v>490100</v>
       </c>
       <c r="J81" s="3">
+        <v>590000</v>
+      </c>
+      <c r="K81" s="3">
         <v>509600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>749000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1135400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1731300</v>
+        <v>2747000</v>
       </c>
       <c r="E83" s="3">
-        <v>1640500</v>
+        <v>1783500</v>
       </c>
       <c r="F83" s="3">
-        <v>1562700</v>
+        <v>1689900</v>
       </c>
       <c r="G83" s="3">
-        <v>1153200</v>
+        <v>1609800</v>
       </c>
       <c r="H83" s="3">
-        <v>1627400</v>
+        <v>1187900</v>
       </c>
       <c r="I83" s="3">
-        <v>1498100</v>
+        <v>1676400</v>
       </c>
       <c r="J83" s="3">
+        <v>1543200</v>
+      </c>
+      <c r="K83" s="3">
         <v>1411100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1193200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>994900</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2528900</v>
+        <v>216500</v>
       </c>
       <c r="E89" s="3">
-        <v>1658200</v>
+        <v>2605100</v>
       </c>
       <c r="F89" s="3">
-        <v>2354900</v>
+        <v>1708200</v>
       </c>
       <c r="G89" s="3">
-        <v>662800</v>
+        <v>2425800</v>
       </c>
       <c r="H89" s="3">
-        <v>1134700</v>
+        <v>682800</v>
       </c>
       <c r="I89" s="3">
-        <v>2714400</v>
+        <v>1168900</v>
       </c>
       <c r="J89" s="3">
+        <v>2796200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2724400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2574500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2514400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-910700</v>
+        <v>-681200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1060000</v>
+        <v>-938100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1285600</v>
+        <v>-1092000</v>
       </c>
       <c r="G91" s="3">
-        <v>-796000</v>
+        <v>-1324300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1319500</v>
+        <v>-820000</v>
       </c>
       <c r="I91" s="3">
-        <v>-2354100</v>
+        <v>-1359200</v>
       </c>
       <c r="J91" s="3">
+        <v>-2425100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2516500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2596400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2144900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1102400</v>
+        <v>-684400</v>
       </c>
       <c r="E94" s="3">
-        <v>-471900</v>
+        <v>-1135600</v>
       </c>
       <c r="F94" s="3">
-        <v>-9904500</v>
+        <v>-486100</v>
       </c>
       <c r="G94" s="3">
-        <v>-830600</v>
+        <v>-10203000</v>
       </c>
       <c r="H94" s="3">
-        <v>683600</v>
+        <v>-855700</v>
       </c>
       <c r="I94" s="3">
-        <v>-3348700</v>
+        <v>704200</v>
       </c>
       <c r="J94" s="3">
+        <v>-3449600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1169400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2511300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1943600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-200200</v>
+        <v>-61100</v>
       </c>
       <c r="E96" s="3">
-        <v>-188600</v>
+        <v>-206200</v>
       </c>
       <c r="F96" s="3">
-        <v>-173200</v>
+        <v>-194300</v>
       </c>
       <c r="G96" s="3">
-        <v>-127800</v>
+        <v>-178400</v>
       </c>
       <c r="H96" s="3">
-        <v>-406500</v>
+        <v>-131600</v>
       </c>
       <c r="I96" s="3">
-        <v>-619700</v>
+        <v>-418700</v>
       </c>
       <c r="J96" s="3">
+        <v>-638400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-563500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-500600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-463200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1857600</v>
+        <v>663800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1085400</v>
+        <v>-1913600</v>
       </c>
       <c r="F100" s="3">
-        <v>5015400</v>
+        <v>-1118200</v>
       </c>
       <c r="G100" s="3">
-        <v>-129300</v>
+        <v>5166500</v>
       </c>
       <c r="H100" s="3">
-        <v>688200</v>
+        <v>-133200</v>
       </c>
       <c r="I100" s="3">
-        <v>-613500</v>
+        <v>709000</v>
       </c>
       <c r="J100" s="3">
+        <v>-632000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-558900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>445700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-428700</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-26900</v>
+        <v>-43600</v>
       </c>
       <c r="E101" s="3">
-        <v>30800</v>
+        <v>-27800</v>
       </c>
       <c r="F101" s="3">
-        <v>140100</v>
+        <v>31700</v>
       </c>
       <c r="G101" s="3">
+        <v>144300</v>
+      </c>
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>-26200</v>
-      </c>
       <c r="I101" s="3">
-        <v>40000</v>
+        <v>-27000</v>
       </c>
       <c r="J101" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7700</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-458000</v>
+        <v>152300</v>
       </c>
       <c r="E102" s="3">
-        <v>131600</v>
+        <v>-471800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2394100</v>
+        <v>135600</v>
       </c>
       <c r="G102" s="3">
-        <v>-296400</v>
+        <v>-2466300</v>
       </c>
       <c r="H102" s="3">
-        <v>2480400</v>
+        <v>-305300</v>
       </c>
       <c r="I102" s="3">
-        <v>-1207800</v>
+        <v>2555100</v>
       </c>
       <c r="J102" s="3">
+        <v>-1244200</v>
+      </c>
+      <c r="K102" s="3">
         <v>994600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>500600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>149800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10489300</v>
+        <v>10965800</v>
       </c>
       <c r="E8" s="3">
-        <v>16003900</v>
+        <v>16731100</v>
       </c>
       <c r="F8" s="3">
-        <v>16529700</v>
+        <v>17280700</v>
       </c>
       <c r="G8" s="3">
-        <v>13515400</v>
+        <v>14129500</v>
       </c>
       <c r="H8" s="3">
-        <v>8728000</v>
+        <v>9124500</v>
       </c>
       <c r="I8" s="3">
-        <v>9142700</v>
+        <v>9558100</v>
       </c>
       <c r="J8" s="3">
-        <v>15576500</v>
+        <v>16284200</v>
       </c>
       <c r="K8" s="3">
         <v>14362500</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4499600</v>
+        <v>4243900</v>
       </c>
       <c r="E9" s="3">
-        <v>6683600</v>
+        <v>6987200</v>
       </c>
       <c r="F9" s="3">
-        <v>6935000</v>
+        <v>7250000</v>
       </c>
       <c r="G9" s="3">
-        <v>6371100</v>
+        <v>6660600</v>
       </c>
       <c r="H9" s="3">
-        <v>5533700</v>
+        <v>5785100</v>
       </c>
       <c r="I9" s="3">
-        <v>5848500</v>
+        <v>6114200</v>
       </c>
       <c r="J9" s="3">
-        <v>8724000</v>
+        <v>9120400</v>
       </c>
       <c r="K9" s="3">
         <v>8032300</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5989700</v>
+        <v>6721900</v>
       </c>
       <c r="E10" s="3">
-        <v>9320400</v>
+        <v>9743800</v>
       </c>
       <c r="F10" s="3">
-        <v>9594700</v>
+        <v>10030700</v>
       </c>
       <c r="G10" s="3">
-        <v>7144300</v>
+        <v>7468900</v>
       </c>
       <c r="H10" s="3">
-        <v>3194300</v>
+        <v>3339400</v>
       </c>
       <c r="I10" s="3">
-        <v>3294200</v>
+        <v>3443900</v>
       </c>
       <c r="J10" s="3">
-        <v>6852500</v>
+        <v>7163800</v>
       </c>
       <c r="K10" s="3">
         <v>6330200</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>72200</v>
+        <v>75400</v>
       </c>
       <c r="E12" s="3">
-        <v>80900</v>
+        <v>84600</v>
       </c>
       <c r="F12" s="3">
-        <v>1703400</v>
+        <v>1780800</v>
       </c>
       <c r="G12" s="3">
-        <v>732800</v>
+        <v>766000</v>
       </c>
       <c r="H12" s="3">
-        <v>30100</v>
+        <v>31500</v>
       </c>
       <c r="I12" s="3">
-        <v>74500</v>
+        <v>77900</v>
       </c>
       <c r="J12" s="3">
-        <v>80100</v>
+        <v>83700</v>
       </c>
       <c r="K12" s="3">
         <v>106200</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>808900</v>
+        <v>1305800</v>
       </c>
       <c r="E14" s="3">
-        <v>29300</v>
+        <v>30700</v>
       </c>
       <c r="F14" s="3">
-        <v>659800</v>
+        <v>689800</v>
       </c>
       <c r="G14" s="3">
-        <v>15900</v>
+        <v>16600</v>
       </c>
       <c r="H14" s="3">
-        <v>38100</v>
+        <v>39800</v>
       </c>
       <c r="I14" s="3">
-        <v>-1862800</v>
+        <v>-1947400</v>
       </c>
       <c r="J14" s="3">
-        <v>394100</v>
+        <v>412000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1865200</v>
+        <v>1949900</v>
       </c>
       <c r="E15" s="3">
-        <v>1757300</v>
+        <v>1837200</v>
       </c>
       <c r="F15" s="3">
-        <v>1710500</v>
+        <v>1788300</v>
       </c>
       <c r="G15" s="3">
-        <v>1457600</v>
+        <v>1523800</v>
       </c>
       <c r="H15" s="3">
-        <v>1908000</v>
+        <v>1994700</v>
       </c>
       <c r="I15" s="3">
-        <v>787500</v>
+        <v>823200</v>
       </c>
       <c r="J15" s="3">
-        <v>1543200</v>
+        <v>1613300</v>
       </c>
       <c r="K15" s="3">
         <v>1411100</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12532100</v>
+        <v>13101500</v>
       </c>
       <c r="E17" s="3">
-        <v>14697000</v>
+        <v>15364800</v>
       </c>
       <c r="F17" s="3">
-        <v>18241800</v>
+        <v>19070600</v>
       </c>
       <c r="G17" s="3">
-        <v>13255300</v>
+        <v>13857600</v>
       </c>
       <c r="H17" s="3">
-        <v>8935000</v>
+        <v>9340900</v>
       </c>
       <c r="I17" s="3">
-        <v>7535300</v>
+        <v>7877600</v>
       </c>
       <c r="J17" s="3">
-        <v>14624900</v>
+        <v>15289300</v>
       </c>
       <c r="K17" s="3">
         <v>12800600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2042800</v>
+        <v>-2135600</v>
       </c>
       <c r="E18" s="3">
-        <v>1306900</v>
+        <v>1366300</v>
       </c>
       <c r="F18" s="3">
-        <v>-1712100</v>
+        <v>-1789900</v>
       </c>
       <c r="G18" s="3">
-        <v>260100</v>
+        <v>271900</v>
       </c>
       <c r="H18" s="3">
-        <v>-207000</v>
+        <v>-216400</v>
       </c>
       <c r="I18" s="3">
-        <v>1607500</v>
+        <v>1680500</v>
       </c>
       <c r="J18" s="3">
-        <v>951600</v>
+        <v>994900</v>
       </c>
       <c r="K18" s="3">
         <v>1562000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-138800</v>
+        <v>-145100</v>
       </c>
       <c r="E20" s="3">
-        <v>188700</v>
+        <v>197300</v>
       </c>
       <c r="F20" s="3">
-        <v>-978600</v>
+        <v>-1023000</v>
       </c>
       <c r="G20" s="3">
-        <v>1950000</v>
+        <v>2038600</v>
       </c>
       <c r="H20" s="3">
-        <v>-158600</v>
+        <v>-165800</v>
       </c>
       <c r="I20" s="3">
-        <v>-641600</v>
+        <v>-670700</v>
       </c>
       <c r="J20" s="3">
-        <v>239500</v>
+        <v>250400</v>
       </c>
       <c r="K20" s="3">
         <v>-410300</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>573100</v>
+        <v>596600</v>
       </c>
       <c r="E21" s="3">
-        <v>3284100</v>
+        <v>3431700</v>
       </c>
       <c r="F21" s="3">
-        <v>-996100</v>
+        <v>-1042900</v>
       </c>
       <c r="G21" s="3">
-        <v>3824500</v>
+        <v>3996700</v>
       </c>
       <c r="H21" s="3">
-        <v>825700</v>
+        <v>862100</v>
       </c>
       <c r="I21" s="3">
-        <v>2647000</v>
+        <v>2765700</v>
       </c>
       <c r="J21" s="3">
-        <v>2738600</v>
+        <v>2861600</v>
       </c>
       <c r="K21" s="3">
         <v>2560200</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>379900</v>
+        <v>397100</v>
       </c>
       <c r="E22" s="3">
-        <v>387800</v>
+        <v>405400</v>
       </c>
       <c r="F22" s="3">
-        <v>422700</v>
+        <v>441900</v>
       </c>
       <c r="G22" s="3">
-        <v>452800</v>
+        <v>473400</v>
       </c>
       <c r="H22" s="3">
-        <v>270400</v>
+        <v>282700</v>
       </c>
       <c r="I22" s="3">
-        <v>260100</v>
+        <v>271900</v>
       </c>
       <c r="J22" s="3">
-        <v>243500</v>
+        <v>254500</v>
       </c>
       <c r="K22" s="3">
         <v>309500</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2561500</v>
+        <v>-2677800</v>
       </c>
       <c r="E23" s="3">
-        <v>1107800</v>
+        <v>1158200</v>
       </c>
       <c r="F23" s="3">
-        <v>-3113400</v>
+        <v>-3254900</v>
       </c>
       <c r="G23" s="3">
-        <v>1757300</v>
+        <v>1837200</v>
       </c>
       <c r="H23" s="3">
-        <v>-636000</v>
+        <v>-664900</v>
       </c>
       <c r="I23" s="3">
-        <v>705800</v>
+        <v>737900</v>
       </c>
       <c r="J23" s="3">
-        <v>947700</v>
+        <v>990700</v>
       </c>
       <c r="K23" s="3">
         <v>842200</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-674900</v>
+        <v>-705500</v>
       </c>
       <c r="E24" s="3">
-        <v>-632000</v>
+        <v>-660800</v>
       </c>
       <c r="F24" s="3">
-        <v>-801000</v>
+        <v>-837300</v>
       </c>
       <c r="G24" s="3">
-        <v>-41200</v>
+        <v>-43100</v>
       </c>
       <c r="H24" s="3">
-        <v>-272000</v>
+        <v>-284400</v>
       </c>
       <c r="I24" s="3">
-        <v>-19000</v>
+        <v>-19900</v>
       </c>
       <c r="J24" s="3">
-        <v>357700</v>
+        <v>373900</v>
       </c>
       <c r="K24" s="3">
         <v>332600</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1886600</v>
+        <v>-1972300</v>
       </c>
       <c r="E26" s="3">
-        <v>1739900</v>
+        <v>1818900</v>
       </c>
       <c r="F26" s="3">
-        <v>-2312400</v>
+        <v>-2417500</v>
       </c>
       <c r="G26" s="3">
-        <v>1798600</v>
+        <v>1880300</v>
       </c>
       <c r="H26" s="3">
-        <v>-364000</v>
+        <v>-380500</v>
       </c>
       <c r="I26" s="3">
-        <v>724800</v>
+        <v>757800</v>
       </c>
       <c r="J26" s="3">
-        <v>590000</v>
+        <v>616800</v>
       </c>
       <c r="K26" s="3">
         <v>509600</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1886600</v>
+        <v>-1972300</v>
       </c>
       <c r="E27" s="3">
-        <v>1739900</v>
+        <v>1818900</v>
       </c>
       <c r="F27" s="3">
-        <v>-2312400</v>
+        <v>-2417500</v>
       </c>
       <c r="G27" s="3">
-        <v>1798600</v>
+        <v>1880300</v>
       </c>
       <c r="H27" s="3">
-        <v>-364000</v>
+        <v>-380500</v>
       </c>
       <c r="I27" s="3">
-        <v>724800</v>
+        <v>757800</v>
       </c>
       <c r="J27" s="3">
-        <v>590000</v>
+        <v>616800</v>
       </c>
       <c r="K27" s="3">
         <v>509600</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>195900</v>
+        <v>204800</v>
       </c>
       <c r="G29" s="3">
-        <v>870700</v>
+        <v>910300</v>
       </c>
       <c r="H29" s="3">
-        <v>-68200</v>
+        <v>-71300</v>
       </c>
       <c r="I29" s="3">
-        <v>-234700</v>
+        <v>-245400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>138800</v>
+        <v>145100</v>
       </c>
       <c r="E32" s="3">
-        <v>-188700</v>
+        <v>-197300</v>
       </c>
       <c r="F32" s="3">
-        <v>978600</v>
+        <v>1023000</v>
       </c>
       <c r="G32" s="3">
-        <v>-1950000</v>
+        <v>-2038600</v>
       </c>
       <c r="H32" s="3">
-        <v>158600</v>
+        <v>165800</v>
       </c>
       <c r="I32" s="3">
-        <v>641600</v>
+        <v>670700</v>
       </c>
       <c r="J32" s="3">
-        <v>-239500</v>
+        <v>-250400</v>
       </c>
       <c r="K32" s="3">
         <v>410300</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1886600</v>
+        <v>-1972300</v>
       </c>
       <c r="E33" s="3">
-        <v>1739900</v>
+        <v>1818900</v>
       </c>
       <c r="F33" s="3">
-        <v>-2116600</v>
+        <v>-2212700</v>
       </c>
       <c r="G33" s="3">
-        <v>2669300</v>
+        <v>2790600</v>
       </c>
       <c r="H33" s="3">
-        <v>-432200</v>
+        <v>-451800</v>
       </c>
       <c r="I33" s="3">
-        <v>490100</v>
+        <v>512400</v>
       </c>
       <c r="J33" s="3">
-        <v>590000</v>
+        <v>616800</v>
       </c>
       <c r="K33" s="3">
         <v>509600</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1886600</v>
+        <v>-1972300</v>
       </c>
       <c r="E35" s="3">
-        <v>1739900</v>
+        <v>1818900</v>
       </c>
       <c r="F35" s="3">
-        <v>-2116600</v>
+        <v>-2212700</v>
       </c>
       <c r="G35" s="3">
-        <v>2669300</v>
+        <v>2790600</v>
       </c>
       <c r="H35" s="3">
-        <v>-432200</v>
+        <v>-451800</v>
       </c>
       <c r="I35" s="3">
-        <v>490100</v>
+        <v>512400</v>
       </c>
       <c r="J35" s="3">
-        <v>590000</v>
+        <v>616800</v>
       </c>
       <c r="K35" s="3">
         <v>509600</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>291800</v>
+        <v>305100</v>
       </c>
       <c r="E41" s="3">
-        <v>85600</v>
+        <v>89500</v>
       </c>
       <c r="F41" s="3">
-        <v>122900</v>
+        <v>128500</v>
       </c>
       <c r="G41" s="3">
-        <v>433800</v>
+        <v>453500</v>
       </c>
       <c r="H41" s="3">
-        <v>429800</v>
+        <v>449300</v>
       </c>
       <c r="I41" s="3">
-        <v>256100</v>
+        <v>267800</v>
       </c>
       <c r="J41" s="3">
-        <v>363200</v>
+        <v>379700</v>
       </c>
       <c r="K41" s="3">
         <v>1887600</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7900</v>
+        <v>8300</v>
       </c>
       <c r="E42" s="3">
-        <v>61900</v>
+        <v>64700</v>
       </c>
       <c r="F42" s="3">
-        <v>496400</v>
+        <v>519000</v>
       </c>
       <c r="G42" s="3">
-        <v>50000</v>
+        <v>52200</v>
       </c>
       <c r="H42" s="3">
-        <v>2520200</v>
+        <v>2634700</v>
       </c>
       <c r="I42" s="3">
-        <v>2999200</v>
+        <v>3135500</v>
       </c>
       <c r="J42" s="3">
-        <v>337000</v>
+        <v>352300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100700</v>
+        <v>1150700</v>
       </c>
       <c r="E43" s="3">
-        <v>1195100</v>
+        <v>1249400</v>
       </c>
       <c r="F43" s="3">
-        <v>946100</v>
+        <v>989100</v>
       </c>
       <c r="G43" s="3">
-        <v>1454400</v>
+        <v>1520500</v>
       </c>
       <c r="H43" s="3">
-        <v>1361600</v>
+        <v>1423500</v>
       </c>
       <c r="I43" s="3">
-        <v>940500</v>
+        <v>983300</v>
       </c>
       <c r="J43" s="3">
-        <v>1276800</v>
+        <v>1334800</v>
       </c>
       <c r="K43" s="3">
         <v>1454200</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>863600</v>
+        <v>902800</v>
       </c>
       <c r="E44" s="3">
-        <v>1214900</v>
+        <v>1270100</v>
       </c>
       <c r="F44" s="3">
-        <v>803300</v>
+        <v>839800</v>
       </c>
       <c r="G44" s="3">
-        <v>1101500</v>
+        <v>1151600</v>
       </c>
       <c r="H44" s="3">
-        <v>981000</v>
+        <v>1025500</v>
       </c>
       <c r="I44" s="3">
-        <v>642300</v>
+        <v>671500</v>
       </c>
       <c r="J44" s="3">
-        <v>970700</v>
+        <v>1014800</v>
       </c>
       <c r="K44" s="3">
         <v>969200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>96000</v>
+        <v>100300</v>
       </c>
       <c r="E45" s="3">
-        <v>46800</v>
+        <v>48900</v>
       </c>
       <c r="F45" s="3">
-        <v>164900</v>
+        <v>172400</v>
       </c>
       <c r="G45" s="3">
-        <v>931800</v>
+        <v>974100</v>
       </c>
       <c r="H45" s="3">
-        <v>117400</v>
+        <v>122700</v>
       </c>
       <c r="I45" s="3">
-        <v>295000</v>
+        <v>308400</v>
       </c>
       <c r="J45" s="3">
-        <v>379100</v>
+        <v>396300</v>
       </c>
       <c r="K45" s="3">
         <v>7700</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2360000</v>
+        <v>2467300</v>
       </c>
       <c r="E46" s="3">
-        <v>2604300</v>
+        <v>2722600</v>
       </c>
       <c r="F46" s="3">
-        <v>2533700</v>
+        <v>2648800</v>
       </c>
       <c r="G46" s="3">
-        <v>3971400</v>
+        <v>4151900</v>
       </c>
       <c r="H46" s="3">
-        <v>5410000</v>
+        <v>5655800</v>
       </c>
       <c r="I46" s="3">
-        <v>5133200</v>
+        <v>5366400</v>
       </c>
       <c r="J46" s="3">
-        <v>3326700</v>
+        <v>3477900</v>
       </c>
       <c r="K46" s="3">
         <v>4318700</v>
@@ -1956,22 +1956,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>168100</v>
+        <v>175800</v>
       </c>
       <c r="E47" s="3">
-        <v>81700</v>
+        <v>85400</v>
       </c>
       <c r="F47" s="3">
-        <v>166500</v>
+        <v>174100</v>
       </c>
       <c r="G47" s="3">
-        <v>284700</v>
+        <v>297600</v>
       </c>
       <c r="H47" s="3">
-        <v>138000</v>
+        <v>144300</v>
       </c>
       <c r="I47" s="3">
-        <v>108600</v>
+        <v>113600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21548700</v>
+        <v>22527800</v>
       </c>
       <c r="E48" s="3">
-        <v>23747800</v>
+        <v>24826700</v>
       </c>
       <c r="F48" s="3">
-        <v>23380600</v>
+        <v>24442900</v>
       </c>
       <c r="G48" s="3">
-        <v>26383000</v>
+        <v>27581700</v>
       </c>
       <c r="H48" s="3">
-        <v>14283100</v>
+        <v>14932000</v>
       </c>
       <c r="I48" s="3">
-        <v>14996000</v>
+        <v>15677300</v>
       </c>
       <c r="J48" s="3">
-        <v>16009500</v>
+        <v>16736900</v>
       </c>
       <c r="K48" s="3">
         <v>14478000</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1872300</v>
+        <v>1957400</v>
       </c>
       <c r="E49" s="3">
-        <v>1881800</v>
+        <v>1967300</v>
       </c>
       <c r="F49" s="3">
-        <v>1801700</v>
+        <v>1883600</v>
       </c>
       <c r="G49" s="3">
-        <v>1801700</v>
+        <v>1883600</v>
       </c>
       <c r="H49" s="3">
-        <v>191900</v>
+        <v>200600</v>
       </c>
       <c r="I49" s="3">
-        <v>191900</v>
+        <v>200600</v>
       </c>
       <c r="J49" s="3">
-        <v>191900</v>
+        <v>200600</v>
       </c>
       <c r="K49" s="3">
         <v>568900</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>38100</v>
+        <v>39800</v>
       </c>
       <c r="E52" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="F52" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="G52" s="3">
-        <v>19800</v>
+        <v>20700</v>
       </c>
       <c r="H52" s="3">
-        <v>7100</v>
+        <v>7500</v>
       </c>
       <c r="I52" s="3">
-        <v>23000</v>
+        <v>24000</v>
       </c>
       <c r="J52" s="3">
-        <v>55500</v>
+        <v>58000</v>
       </c>
       <c r="K52" s="3">
         <v>52300</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25987300</v>
+        <v>27168000</v>
       </c>
       <c r="E54" s="3">
-        <v>28321100</v>
+        <v>29607900</v>
       </c>
       <c r="F54" s="3">
-        <v>27893700</v>
+        <v>29161000</v>
       </c>
       <c r="G54" s="3">
-        <v>32460700</v>
+        <v>33935500</v>
       </c>
       <c r="H54" s="3">
-        <v>20030100</v>
+        <v>20940100</v>
       </c>
       <c r="I54" s="3">
-        <v>20452800</v>
+        <v>21382000</v>
       </c>
       <c r="J54" s="3">
-        <v>19583600</v>
+        <v>20473400</v>
       </c>
       <c r="K54" s="3">
         <v>19417900</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>482200</v>
+        <v>504100</v>
       </c>
       <c r="E57" s="3">
-        <v>744600</v>
+        <v>778500</v>
       </c>
       <c r="F57" s="3">
-        <v>608200</v>
+        <v>635900</v>
       </c>
       <c r="G57" s="3">
-        <v>267200</v>
+        <v>279400</v>
       </c>
       <c r="H57" s="3">
-        <v>83300</v>
+        <v>87100</v>
       </c>
       <c r="I57" s="3">
-        <v>53900</v>
+        <v>56400</v>
       </c>
       <c r="J57" s="3">
-        <v>40400</v>
+        <v>42300</v>
       </c>
       <c r="K57" s="3">
         <v>78500</v>
@@ -2312,13 +2312,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>241900</v>
+        <v>252900</v>
       </c>
       <c r="E58" s="3">
-        <v>155400</v>
+        <v>162500</v>
       </c>
       <c r="F58" s="3">
-        <v>540800</v>
+        <v>565400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1146700</v>
+        <v>1198800</v>
       </c>
       <c r="E59" s="3">
-        <v>1099100</v>
+        <v>1149100</v>
       </c>
       <c r="F59" s="3">
-        <v>912800</v>
+        <v>954200</v>
       </c>
       <c r="G59" s="3">
-        <v>3250600</v>
+        <v>3398300</v>
       </c>
       <c r="H59" s="3">
-        <v>2034900</v>
+        <v>2127300</v>
       </c>
       <c r="I59" s="3">
-        <v>1419500</v>
+        <v>1484000</v>
       </c>
       <c r="J59" s="3">
-        <v>2304500</v>
+        <v>2409200</v>
       </c>
       <c r="K59" s="3">
         <v>2493400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1870700</v>
+        <v>1955700</v>
       </c>
       <c r="E60" s="3">
-        <v>1999200</v>
+        <v>2090000</v>
       </c>
       <c r="F60" s="3">
-        <v>2061900</v>
+        <v>2155500</v>
       </c>
       <c r="G60" s="3">
-        <v>3517800</v>
+        <v>3677700</v>
       </c>
       <c r="H60" s="3">
-        <v>2118200</v>
+        <v>2214400</v>
       </c>
       <c r="I60" s="3">
-        <v>1473400</v>
+        <v>1540400</v>
       </c>
       <c r="J60" s="3">
-        <v>2345000</v>
+        <v>2451500</v>
       </c>
       <c r="K60" s="3">
         <v>2909100</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7148300</v>
+        <v>7473100</v>
       </c>
       <c r="E61" s="3">
-        <v>6676400</v>
+        <v>6979800</v>
       </c>
       <c r="F61" s="3">
-        <v>6726400</v>
+        <v>7032000</v>
       </c>
       <c r="G61" s="3">
-        <v>7544000</v>
+        <v>7886800</v>
       </c>
       <c r="H61" s="3">
-        <v>5021400</v>
+        <v>5249500</v>
       </c>
       <c r="I61" s="3">
-        <v>5174500</v>
+        <v>5409600</v>
       </c>
       <c r="J61" s="3">
-        <v>4328300</v>
+        <v>4525000</v>
       </c>
       <c r="K61" s="3">
         <v>4683600</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3719300</v>
+        <v>3888200</v>
       </c>
       <c r="E62" s="3">
-        <v>4418700</v>
+        <v>4619500</v>
       </c>
       <c r="F62" s="3">
-        <v>5253000</v>
+        <v>5491600</v>
       </c>
       <c r="G62" s="3">
-        <v>5553500</v>
+        <v>5805800</v>
       </c>
       <c r="H62" s="3">
-        <v>3699400</v>
+        <v>3867500</v>
       </c>
       <c r="I62" s="3">
-        <v>3978600</v>
+        <v>4159300</v>
       </c>
       <c r="J62" s="3">
-        <v>4832700</v>
+        <v>5052200</v>
       </c>
       <c r="K62" s="3">
         <v>4168600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12738300</v>
+        <v>13317000</v>
       </c>
       <c r="E66" s="3">
-        <v>13094300</v>
+        <v>13689300</v>
       </c>
       <c r="F66" s="3">
-        <v>14041200</v>
+        <v>14679200</v>
       </c>
       <c r="G66" s="3">
-        <v>16615400</v>
+        <v>17370300</v>
       </c>
       <c r="H66" s="3">
-        <v>10839000</v>
+        <v>11331500</v>
       </c>
       <c r="I66" s="3">
-        <v>10626500</v>
+        <v>11109300</v>
       </c>
       <c r="J66" s="3">
-        <v>11505900</v>
+        <v>12028700</v>
       </c>
       <c r="K66" s="3">
         <v>11761300</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>397300</v>
+        <v>415400</v>
       </c>
       <c r="E72" s="3">
-        <v>2345000</v>
+        <v>2451500</v>
       </c>
       <c r="F72" s="3">
-        <v>811300</v>
+        <v>848100</v>
       </c>
       <c r="G72" s="3">
-        <v>3122100</v>
+        <v>3264000</v>
       </c>
       <c r="H72" s="3">
-        <v>631200</v>
+        <v>659900</v>
       </c>
       <c r="I72" s="3">
-        <v>1195100</v>
+        <v>1249400</v>
       </c>
       <c r="J72" s="3">
-        <v>1268000</v>
+        <v>1325700</v>
       </c>
       <c r="K72" s="3">
         <v>1277900</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13249000</v>
+        <v>13850900</v>
       </c>
       <c r="E76" s="3">
-        <v>15226800</v>
+        <v>15918600</v>
       </c>
       <c r="F76" s="3">
-        <v>13852500</v>
+        <v>14481800</v>
       </c>
       <c r="G76" s="3">
-        <v>15845300</v>
+        <v>16565200</v>
       </c>
       <c r="H76" s="3">
-        <v>9191100</v>
+        <v>9608700</v>
       </c>
       <c r="I76" s="3">
-        <v>9826300</v>
+        <v>10272800</v>
       </c>
       <c r="J76" s="3">
-        <v>8077700</v>
+        <v>8444700</v>
       </c>
       <c r="K76" s="3">
         <v>7656600</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1886600</v>
+        <v>-1972300</v>
       </c>
       <c r="E81" s="3">
-        <v>1739900</v>
+        <v>1818900</v>
       </c>
       <c r="F81" s="3">
-        <v>-2116600</v>
+        <v>-2212700</v>
       </c>
       <c r="G81" s="3">
-        <v>2669300</v>
+        <v>2790600</v>
       </c>
       <c r="H81" s="3">
-        <v>-432200</v>
+        <v>-451800</v>
       </c>
       <c r="I81" s="3">
-        <v>490100</v>
+        <v>512400</v>
       </c>
       <c r="J81" s="3">
-        <v>590000</v>
+        <v>616800</v>
       </c>
       <c r="K81" s="3">
         <v>509600</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2747000</v>
+        <v>2871800</v>
       </c>
       <c r="E83" s="3">
-        <v>1783500</v>
+        <v>1864500</v>
       </c>
       <c r="F83" s="3">
-        <v>1689900</v>
+        <v>1766700</v>
       </c>
       <c r="G83" s="3">
-        <v>1609800</v>
+        <v>1683000</v>
       </c>
       <c r="H83" s="3">
-        <v>1187900</v>
+        <v>1241900</v>
       </c>
       <c r="I83" s="3">
-        <v>1676400</v>
+        <v>1752600</v>
       </c>
       <c r="J83" s="3">
-        <v>1543200</v>
+        <v>1613300</v>
       </c>
       <c r="K83" s="3">
         <v>1411100</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>216500</v>
+        <v>226300</v>
       </c>
       <c r="E89" s="3">
-        <v>2605100</v>
+        <v>2723400</v>
       </c>
       <c r="F89" s="3">
-        <v>1708200</v>
+        <v>1785800</v>
       </c>
       <c r="G89" s="3">
-        <v>2425800</v>
+        <v>2536100</v>
       </c>
       <c r="H89" s="3">
-        <v>682800</v>
+        <v>713800</v>
       </c>
       <c r="I89" s="3">
-        <v>1168900</v>
+        <v>1222000</v>
       </c>
       <c r="J89" s="3">
-        <v>2796200</v>
+        <v>2923200</v>
       </c>
       <c r="K89" s="3">
         <v>2724400</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-681200</v>
+        <v>-712200</v>
       </c>
       <c r="E91" s="3">
-        <v>-938100</v>
+        <v>-980800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1092000</v>
+        <v>-1141600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1324300</v>
+        <v>-1384500</v>
       </c>
       <c r="H91" s="3">
-        <v>-820000</v>
+        <v>-857200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1359200</v>
+        <v>-1421000</v>
       </c>
       <c r="J91" s="3">
-        <v>-2425100</v>
+        <v>-2535200</v>
       </c>
       <c r="K91" s="3">
         <v>-2516500</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-684400</v>
+        <v>-715500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1135600</v>
+        <v>-1187200</v>
       </c>
       <c r="F94" s="3">
-        <v>-486100</v>
+        <v>-508200</v>
       </c>
       <c r="G94" s="3">
-        <v>-10203000</v>
+        <v>-10666600</v>
       </c>
       <c r="H94" s="3">
-        <v>-855700</v>
+        <v>-894500</v>
       </c>
       <c r="I94" s="3">
-        <v>704200</v>
+        <v>736200</v>
       </c>
       <c r="J94" s="3">
-        <v>-3449600</v>
+        <v>-3606400</v>
       </c>
       <c r="K94" s="3">
         <v>-1169400</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-61100</v>
+        <v>-63800</v>
       </c>
       <c r="E96" s="3">
-        <v>-206200</v>
+        <v>-215600</v>
       </c>
       <c r="F96" s="3">
-        <v>-194300</v>
+        <v>-203100</v>
       </c>
       <c r="G96" s="3">
-        <v>-178400</v>
+        <v>-186500</v>
       </c>
       <c r="H96" s="3">
-        <v>-131600</v>
+        <v>-137600</v>
       </c>
       <c r="I96" s="3">
-        <v>-418700</v>
+        <v>-437700</v>
       </c>
       <c r="J96" s="3">
-        <v>-638400</v>
+        <v>-667400</v>
       </c>
       <c r="K96" s="3">
         <v>-563500</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>663800</v>
+        <v>693900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1913600</v>
+        <v>-2000500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1118200</v>
+        <v>-1169000</v>
       </c>
       <c r="G100" s="3">
-        <v>5166500</v>
+        <v>5401300</v>
       </c>
       <c r="H100" s="3">
-        <v>-133200</v>
+        <v>-139300</v>
       </c>
       <c r="I100" s="3">
-        <v>709000</v>
+        <v>741200</v>
       </c>
       <c r="J100" s="3">
-        <v>-632000</v>
+        <v>-660800</v>
       </c>
       <c r="K100" s="3">
         <v>-558900</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-43600</v>
+        <v>-45600</v>
       </c>
       <c r="E101" s="3">
-        <v>-27800</v>
+        <v>-29000</v>
       </c>
       <c r="F101" s="3">
-        <v>31700</v>
+        <v>33200</v>
       </c>
       <c r="G101" s="3">
-        <v>144300</v>
+        <v>150900</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>-27000</v>
+        <v>-28200</v>
       </c>
       <c r="J101" s="3">
-        <v>41200</v>
+        <v>43100</v>
       </c>
       <c r="K101" s="3">
         <v>-1500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>152300</v>
+        <v>159200</v>
       </c>
       <c r="E102" s="3">
-        <v>-471800</v>
+        <v>-493300</v>
       </c>
       <c r="F102" s="3">
-        <v>135600</v>
+        <v>141800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2466300</v>
+        <v>-2578300</v>
       </c>
       <c r="H102" s="3">
-        <v>-305300</v>
+        <v>-319200</v>
       </c>
       <c r="I102" s="3">
-        <v>2555100</v>
+        <v>2671200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1244200</v>
+        <v>-1300800</v>
       </c>
       <c r="K102" s="3">
         <v>994600</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10965800</v>
+        <v>10312700</v>
       </c>
       <c r="E8" s="3">
-        <v>16731100</v>
+        <v>15734500</v>
       </c>
       <c r="F8" s="3">
-        <v>17280700</v>
+        <v>16251400</v>
       </c>
       <c r="G8" s="3">
-        <v>14129500</v>
+        <v>13287900</v>
       </c>
       <c r="H8" s="3">
-        <v>9124500</v>
+        <v>8581000</v>
       </c>
       <c r="I8" s="3">
-        <v>9558100</v>
+        <v>8988800</v>
       </c>
       <c r="J8" s="3">
-        <v>16284200</v>
+        <v>15314300</v>
       </c>
       <c r="K8" s="3">
         <v>14362500</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4243900</v>
+        <v>3991100</v>
       </c>
       <c r="E9" s="3">
-        <v>6987200</v>
+        <v>6571100</v>
       </c>
       <c r="F9" s="3">
-        <v>7250000</v>
+        <v>6818200</v>
       </c>
       <c r="G9" s="3">
-        <v>6660600</v>
+        <v>6263900</v>
       </c>
       <c r="H9" s="3">
-        <v>5785100</v>
+        <v>5440500</v>
       </c>
       <c r="I9" s="3">
-        <v>6114200</v>
+        <v>5750100</v>
       </c>
       <c r="J9" s="3">
-        <v>9120400</v>
+        <v>8577100</v>
       </c>
       <c r="K9" s="3">
         <v>8032300</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6721900</v>
+        <v>6321600</v>
       </c>
       <c r="E10" s="3">
-        <v>9743800</v>
+        <v>9163500</v>
       </c>
       <c r="F10" s="3">
-        <v>10030700</v>
+        <v>9433200</v>
       </c>
       <c r="G10" s="3">
-        <v>7468900</v>
+        <v>7024000</v>
       </c>
       <c r="H10" s="3">
-        <v>3339400</v>
+        <v>3140500</v>
       </c>
       <c r="I10" s="3">
-        <v>3443900</v>
+        <v>3238700</v>
       </c>
       <c r="J10" s="3">
-        <v>7163800</v>
+        <v>6737100</v>
       </c>
       <c r="K10" s="3">
         <v>6330200</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>75400</v>
+        <v>70900</v>
       </c>
       <c r="E12" s="3">
-        <v>84600</v>
+        <v>79500</v>
       </c>
       <c r="F12" s="3">
-        <v>1780800</v>
+        <v>1674700</v>
       </c>
       <c r="G12" s="3">
-        <v>766000</v>
+        <v>720400</v>
       </c>
       <c r="H12" s="3">
-        <v>31500</v>
+        <v>29600</v>
       </c>
       <c r="I12" s="3">
-        <v>77900</v>
+        <v>73300</v>
       </c>
       <c r="J12" s="3">
-        <v>83700</v>
+        <v>78700</v>
       </c>
       <c r="K12" s="3">
         <v>106200</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1305800</v>
+        <v>1228000</v>
       </c>
       <c r="E14" s="3">
-        <v>30700</v>
+        <v>28800</v>
       </c>
       <c r="F14" s="3">
-        <v>689800</v>
+        <v>648700</v>
       </c>
       <c r="G14" s="3">
-        <v>16600</v>
+        <v>15600</v>
       </c>
       <c r="H14" s="3">
-        <v>39800</v>
+        <v>37400</v>
       </c>
       <c r="I14" s="3">
-        <v>-1947400</v>
+        <v>-1831400</v>
       </c>
       <c r="J14" s="3">
-        <v>412000</v>
+        <v>387500</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1949900</v>
+        <v>1833800</v>
       </c>
       <c r="E15" s="3">
-        <v>1837200</v>
+        <v>1727700</v>
       </c>
       <c r="F15" s="3">
-        <v>1788300</v>
+        <v>1681700</v>
       </c>
       <c r="G15" s="3">
-        <v>1523800</v>
+        <v>1433000</v>
       </c>
       <c r="H15" s="3">
-        <v>1994700</v>
+        <v>1875900</v>
       </c>
       <c r="I15" s="3">
-        <v>823200</v>
+        <v>774200</v>
       </c>
       <c r="J15" s="3">
-        <v>1613300</v>
+        <v>1517200</v>
       </c>
       <c r="K15" s="3">
         <v>1411100</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13101500</v>
+        <v>12321100</v>
       </c>
       <c r="E17" s="3">
-        <v>15364800</v>
+        <v>14449600</v>
       </c>
       <c r="F17" s="3">
-        <v>19070600</v>
+        <v>17934700</v>
       </c>
       <c r="G17" s="3">
-        <v>13857600</v>
+        <v>13032200</v>
       </c>
       <c r="H17" s="3">
-        <v>9340900</v>
+        <v>8784500</v>
       </c>
       <c r="I17" s="3">
-        <v>7877600</v>
+        <v>7408400</v>
       </c>
       <c r="J17" s="3">
-        <v>15289300</v>
+        <v>14378700</v>
       </c>
       <c r="K17" s="3">
         <v>12800600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2135600</v>
+        <v>-2008400</v>
       </c>
       <c r="E18" s="3">
-        <v>1366300</v>
+        <v>1284900</v>
       </c>
       <c r="F18" s="3">
-        <v>-1789900</v>
+        <v>-1683300</v>
       </c>
       <c r="G18" s="3">
-        <v>271900</v>
+        <v>255700</v>
       </c>
       <c r="H18" s="3">
-        <v>-216400</v>
+        <v>-203500</v>
       </c>
       <c r="I18" s="3">
-        <v>1680500</v>
+        <v>1580400</v>
       </c>
       <c r="J18" s="3">
-        <v>994900</v>
+        <v>935600</v>
       </c>
       <c r="K18" s="3">
         <v>1562000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-145100</v>
+        <v>-136400</v>
       </c>
       <c r="E20" s="3">
-        <v>197300</v>
+        <v>185600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1023000</v>
+        <v>-962100</v>
       </c>
       <c r="G20" s="3">
-        <v>2038600</v>
+        <v>1917200</v>
       </c>
       <c r="H20" s="3">
-        <v>-165800</v>
+        <v>-155900</v>
       </c>
       <c r="I20" s="3">
-        <v>-670700</v>
+        <v>-630800</v>
       </c>
       <c r="J20" s="3">
-        <v>250400</v>
+        <v>235500</v>
       </c>
       <c r="K20" s="3">
         <v>-410300</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>596600</v>
+        <v>592400</v>
       </c>
       <c r="E21" s="3">
-        <v>3431700</v>
+        <v>3247600</v>
       </c>
       <c r="F21" s="3">
-        <v>-1042900</v>
+        <v>-961500</v>
       </c>
       <c r="G21" s="3">
-        <v>3996700</v>
+        <v>3777000</v>
       </c>
       <c r="H21" s="3">
-        <v>862100</v>
+        <v>824300</v>
       </c>
       <c r="I21" s="3">
-        <v>2765700</v>
+        <v>2620100</v>
       </c>
       <c r="J21" s="3">
-        <v>2861600</v>
+        <v>2708800</v>
       </c>
       <c r="K21" s="3">
         <v>2560200</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>397100</v>
+        <v>373500</v>
       </c>
       <c r="E22" s="3">
-        <v>405400</v>
+        <v>381300</v>
       </c>
       <c r="F22" s="3">
-        <v>441900</v>
+        <v>415600</v>
       </c>
       <c r="G22" s="3">
-        <v>473400</v>
+        <v>445200</v>
       </c>
       <c r="H22" s="3">
-        <v>282700</v>
+        <v>265900</v>
       </c>
       <c r="I22" s="3">
-        <v>271900</v>
+        <v>255700</v>
       </c>
       <c r="J22" s="3">
-        <v>254500</v>
+        <v>239400</v>
       </c>
       <c r="K22" s="3">
         <v>309500</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2677800</v>
+        <v>-2518300</v>
       </c>
       <c r="E23" s="3">
-        <v>1158200</v>
+        <v>1089200</v>
       </c>
       <c r="F23" s="3">
-        <v>-3254900</v>
+        <v>-3061000</v>
       </c>
       <c r="G23" s="3">
-        <v>1837200</v>
+        <v>1727700</v>
       </c>
       <c r="H23" s="3">
-        <v>-664900</v>
+        <v>-625300</v>
       </c>
       <c r="I23" s="3">
-        <v>737900</v>
+        <v>693900</v>
       </c>
       <c r="J23" s="3">
-        <v>990700</v>
+        <v>931700</v>
       </c>
       <c r="K23" s="3">
         <v>842200</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-705500</v>
+        <v>-663500</v>
       </c>
       <c r="E24" s="3">
-        <v>-660800</v>
+        <v>-621400</v>
       </c>
       <c r="F24" s="3">
-        <v>-837300</v>
+        <v>-787500</v>
       </c>
       <c r="G24" s="3">
-        <v>-43100</v>
+        <v>-40500</v>
       </c>
       <c r="H24" s="3">
-        <v>-284400</v>
+        <v>-267400</v>
       </c>
       <c r="I24" s="3">
-        <v>-19900</v>
+        <v>-18700</v>
       </c>
       <c r="J24" s="3">
-        <v>373900</v>
+        <v>351600</v>
       </c>
       <c r="K24" s="3">
         <v>332600</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1972300</v>
+        <v>-1854800</v>
       </c>
       <c r="E26" s="3">
-        <v>1818900</v>
+        <v>1710600</v>
       </c>
       <c r="F26" s="3">
-        <v>-2417500</v>
+        <v>-2273500</v>
       </c>
       <c r="G26" s="3">
-        <v>1880300</v>
+        <v>1768300</v>
       </c>
       <c r="H26" s="3">
-        <v>-380500</v>
+        <v>-357900</v>
       </c>
       <c r="I26" s="3">
-        <v>757800</v>
+        <v>712600</v>
       </c>
       <c r="J26" s="3">
-        <v>616800</v>
+        <v>580100</v>
       </c>
       <c r="K26" s="3">
         <v>509600</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1972300</v>
+        <v>-1854800</v>
       </c>
       <c r="E27" s="3">
-        <v>1818900</v>
+        <v>1710600</v>
       </c>
       <c r="F27" s="3">
-        <v>-2417500</v>
+        <v>-2273500</v>
       </c>
       <c r="G27" s="3">
-        <v>1880300</v>
+        <v>1768300</v>
       </c>
       <c r="H27" s="3">
-        <v>-380500</v>
+        <v>-357900</v>
       </c>
       <c r="I27" s="3">
-        <v>757800</v>
+        <v>712600</v>
       </c>
       <c r="J27" s="3">
-        <v>616800</v>
+        <v>580100</v>
       </c>
       <c r="K27" s="3">
         <v>509600</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>204800</v>
+        <v>192600</v>
       </c>
       <c r="G29" s="3">
-        <v>910300</v>
+        <v>856100</v>
       </c>
       <c r="H29" s="3">
-        <v>-71300</v>
+        <v>-67100</v>
       </c>
       <c r="I29" s="3">
-        <v>-245400</v>
+        <v>-230800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>145100</v>
+        <v>136400</v>
       </c>
       <c r="E32" s="3">
-        <v>-197300</v>
+        <v>-185600</v>
       </c>
       <c r="F32" s="3">
-        <v>1023000</v>
+        <v>962100</v>
       </c>
       <c r="G32" s="3">
-        <v>-2038600</v>
+        <v>-1917200</v>
       </c>
       <c r="H32" s="3">
-        <v>165800</v>
+        <v>155900</v>
       </c>
       <c r="I32" s="3">
-        <v>670700</v>
+        <v>630800</v>
       </c>
       <c r="J32" s="3">
-        <v>-250400</v>
+        <v>-235500</v>
       </c>
       <c r="K32" s="3">
         <v>410300</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1972300</v>
+        <v>-1854800</v>
       </c>
       <c r="E33" s="3">
-        <v>1818900</v>
+        <v>1710600</v>
       </c>
       <c r="F33" s="3">
-        <v>-2212700</v>
+        <v>-2080900</v>
       </c>
       <c r="G33" s="3">
-        <v>2790600</v>
+        <v>2624400</v>
       </c>
       <c r="H33" s="3">
-        <v>-451800</v>
+        <v>-424900</v>
       </c>
       <c r="I33" s="3">
-        <v>512400</v>
+        <v>481800</v>
       </c>
       <c r="J33" s="3">
-        <v>616800</v>
+        <v>580100</v>
       </c>
       <c r="K33" s="3">
         <v>509600</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1972300</v>
+        <v>-1854800</v>
       </c>
       <c r="E35" s="3">
-        <v>1818900</v>
+        <v>1710600</v>
       </c>
       <c r="F35" s="3">
-        <v>-2212700</v>
+        <v>-2080900</v>
       </c>
       <c r="G35" s="3">
-        <v>2790600</v>
+        <v>2624400</v>
       </c>
       <c r="H35" s="3">
-        <v>-451800</v>
+        <v>-424900</v>
       </c>
       <c r="I35" s="3">
-        <v>512400</v>
+        <v>481800</v>
       </c>
       <c r="J35" s="3">
-        <v>616800</v>
+        <v>580100</v>
       </c>
       <c r="K35" s="3">
         <v>509600</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>305100</v>
+        <v>286900</v>
       </c>
       <c r="E41" s="3">
-        <v>89500</v>
+        <v>84200</v>
       </c>
       <c r="F41" s="3">
-        <v>128500</v>
+        <v>120800</v>
       </c>
       <c r="G41" s="3">
-        <v>453500</v>
+        <v>426500</v>
       </c>
       <c r="H41" s="3">
-        <v>449300</v>
+        <v>422600</v>
       </c>
       <c r="I41" s="3">
-        <v>267800</v>
+        <v>251800</v>
       </c>
       <c r="J41" s="3">
-        <v>379700</v>
+        <v>357100</v>
       </c>
       <c r="K41" s="3">
         <v>1887600</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8300</v>
+        <v>7800</v>
       </c>
       <c r="E42" s="3">
-        <v>64700</v>
+        <v>60800</v>
       </c>
       <c r="F42" s="3">
-        <v>519000</v>
+        <v>488100</v>
       </c>
       <c r="G42" s="3">
-        <v>52200</v>
+        <v>49100</v>
       </c>
       <c r="H42" s="3">
-        <v>2634700</v>
+        <v>2477800</v>
       </c>
       <c r="I42" s="3">
-        <v>3135500</v>
+        <v>2948700</v>
       </c>
       <c r="J42" s="3">
-        <v>352300</v>
+        <v>331400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1150700</v>
+        <v>1082200</v>
       </c>
       <c r="E43" s="3">
-        <v>1249400</v>
+        <v>1175000</v>
       </c>
       <c r="F43" s="3">
-        <v>989100</v>
+        <v>930100</v>
       </c>
       <c r="G43" s="3">
-        <v>1520500</v>
+        <v>1429900</v>
       </c>
       <c r="H43" s="3">
-        <v>1423500</v>
+        <v>1338700</v>
       </c>
       <c r="I43" s="3">
-        <v>983300</v>
+        <v>924700</v>
       </c>
       <c r="J43" s="3">
-        <v>1334800</v>
+        <v>1255300</v>
       </c>
       <c r="K43" s="3">
         <v>1454200</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>902800</v>
+        <v>849100</v>
       </c>
       <c r="E44" s="3">
-        <v>1270100</v>
+        <v>1194500</v>
       </c>
       <c r="F44" s="3">
-        <v>839800</v>
+        <v>789800</v>
       </c>
       <c r="G44" s="3">
-        <v>1151600</v>
+        <v>1083000</v>
       </c>
       <c r="H44" s="3">
-        <v>1025500</v>
+        <v>964500</v>
       </c>
       <c r="I44" s="3">
-        <v>671500</v>
+        <v>631500</v>
       </c>
       <c r="J44" s="3">
-        <v>1014800</v>
+        <v>954300</v>
       </c>
       <c r="K44" s="3">
         <v>969200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100300</v>
+        <v>94300</v>
       </c>
       <c r="E45" s="3">
-        <v>48900</v>
+        <v>46000</v>
       </c>
       <c r="F45" s="3">
-        <v>172400</v>
+        <v>162200</v>
       </c>
       <c r="G45" s="3">
-        <v>974100</v>
+        <v>916100</v>
       </c>
       <c r="H45" s="3">
-        <v>122700</v>
+        <v>115400</v>
       </c>
       <c r="I45" s="3">
-        <v>308400</v>
+        <v>290000</v>
       </c>
       <c r="J45" s="3">
-        <v>396300</v>
+        <v>372700</v>
       </c>
       <c r="K45" s="3">
         <v>7700</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2467300</v>
+        <v>2320300</v>
       </c>
       <c r="E46" s="3">
-        <v>2722600</v>
+        <v>2560400</v>
       </c>
       <c r="F46" s="3">
-        <v>2648800</v>
+        <v>2491000</v>
       </c>
       <c r="G46" s="3">
-        <v>4151900</v>
+        <v>3904600</v>
       </c>
       <c r="H46" s="3">
-        <v>5655800</v>
+        <v>5318900</v>
       </c>
       <c r="I46" s="3">
-        <v>5366400</v>
+        <v>5046800</v>
       </c>
       <c r="J46" s="3">
-        <v>3477900</v>
+        <v>3270700</v>
       </c>
       <c r="K46" s="3">
         <v>4318700</v>
@@ -1956,22 +1956,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>175800</v>
+        <v>165300</v>
       </c>
       <c r="E47" s="3">
-        <v>85400</v>
+        <v>80300</v>
       </c>
       <c r="F47" s="3">
-        <v>174100</v>
+        <v>163700</v>
       </c>
       <c r="G47" s="3">
-        <v>297600</v>
+        <v>279900</v>
       </c>
       <c r="H47" s="3">
-        <v>144300</v>
+        <v>135700</v>
       </c>
       <c r="I47" s="3">
-        <v>113600</v>
+        <v>106800</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22527800</v>
+        <v>21186000</v>
       </c>
       <c r="E48" s="3">
-        <v>24826700</v>
+        <v>23348000</v>
       </c>
       <c r="F48" s="3">
-        <v>24442900</v>
+        <v>22987000</v>
       </c>
       <c r="G48" s="3">
-        <v>27581700</v>
+        <v>25938800</v>
       </c>
       <c r="H48" s="3">
-        <v>14932000</v>
+        <v>14042600</v>
       </c>
       <c r="I48" s="3">
-        <v>15677300</v>
+        <v>14743600</v>
       </c>
       <c r="J48" s="3">
-        <v>16736900</v>
+        <v>15740000</v>
       </c>
       <c r="K48" s="3">
         <v>14478000</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1957400</v>
+        <v>1840800</v>
       </c>
       <c r="E49" s="3">
-        <v>1967300</v>
+        <v>1850200</v>
       </c>
       <c r="F49" s="3">
-        <v>1883600</v>
+        <v>1771400</v>
       </c>
       <c r="G49" s="3">
-        <v>1883600</v>
+        <v>1771400</v>
       </c>
       <c r="H49" s="3">
-        <v>200600</v>
+        <v>188700</v>
       </c>
       <c r="I49" s="3">
-        <v>200600</v>
+        <v>188700</v>
       </c>
       <c r="J49" s="3">
-        <v>200600</v>
+        <v>188700</v>
       </c>
       <c r="K49" s="3">
         <v>568900</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>39800</v>
+        <v>37400</v>
       </c>
       <c r="E52" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="F52" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="G52" s="3">
-        <v>20700</v>
+        <v>19500</v>
       </c>
       <c r="H52" s="3">
-        <v>7500</v>
+        <v>7000</v>
       </c>
       <c r="I52" s="3">
-        <v>24000</v>
+        <v>22600</v>
       </c>
       <c r="J52" s="3">
-        <v>58000</v>
+        <v>54600</v>
       </c>
       <c r="K52" s="3">
         <v>52300</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27168000</v>
+        <v>25549800</v>
       </c>
       <c r="E54" s="3">
-        <v>29607900</v>
+        <v>27844400</v>
       </c>
       <c r="F54" s="3">
-        <v>29161000</v>
+        <v>27424100</v>
       </c>
       <c r="G54" s="3">
-        <v>33935500</v>
+        <v>31914200</v>
       </c>
       <c r="H54" s="3">
-        <v>20940100</v>
+        <v>19692900</v>
       </c>
       <c r="I54" s="3">
-        <v>21382000</v>
+        <v>20108500</v>
       </c>
       <c r="J54" s="3">
-        <v>20473400</v>
+        <v>19254000</v>
       </c>
       <c r="K54" s="3">
         <v>19417900</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>504100</v>
+        <v>474000</v>
       </c>
       <c r="E57" s="3">
-        <v>778500</v>
+        <v>732100</v>
       </c>
       <c r="F57" s="3">
-        <v>635900</v>
+        <v>598000</v>
       </c>
       <c r="G57" s="3">
-        <v>279400</v>
+        <v>262700</v>
       </c>
       <c r="H57" s="3">
-        <v>87100</v>
+        <v>81900</v>
       </c>
       <c r="I57" s="3">
-        <v>56400</v>
+        <v>53000</v>
       </c>
       <c r="J57" s="3">
-        <v>42300</v>
+        <v>39800</v>
       </c>
       <c r="K57" s="3">
         <v>78500</v>
@@ -2312,13 +2312,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>252900</v>
+        <v>237800</v>
       </c>
       <c r="E58" s="3">
-        <v>162500</v>
+        <v>152800</v>
       </c>
       <c r="F58" s="3">
-        <v>565400</v>
+        <v>531700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1198800</v>
+        <v>1127400</v>
       </c>
       <c r="E59" s="3">
-        <v>1149100</v>
+        <v>1080600</v>
       </c>
       <c r="F59" s="3">
-        <v>954200</v>
+        <v>897400</v>
       </c>
       <c r="G59" s="3">
-        <v>3398300</v>
+        <v>3195900</v>
       </c>
       <c r="H59" s="3">
-        <v>2127300</v>
+        <v>2000600</v>
       </c>
       <c r="I59" s="3">
-        <v>1484000</v>
+        <v>1395600</v>
       </c>
       <c r="J59" s="3">
-        <v>2409200</v>
+        <v>2265700</v>
       </c>
       <c r="K59" s="3">
         <v>2493400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1955700</v>
+        <v>1839200</v>
       </c>
       <c r="E60" s="3">
-        <v>2090000</v>
+        <v>1965500</v>
       </c>
       <c r="F60" s="3">
-        <v>2155500</v>
+        <v>2027100</v>
       </c>
       <c r="G60" s="3">
-        <v>3677700</v>
+        <v>3458600</v>
       </c>
       <c r="H60" s="3">
-        <v>2214400</v>
+        <v>2082500</v>
       </c>
       <c r="I60" s="3">
-        <v>1540400</v>
+        <v>1448600</v>
       </c>
       <c r="J60" s="3">
-        <v>2451500</v>
+        <v>2305500</v>
       </c>
       <c r="K60" s="3">
         <v>2909100</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7473100</v>
+        <v>7027900</v>
       </c>
       <c r="E61" s="3">
-        <v>6979800</v>
+        <v>6564000</v>
       </c>
       <c r="F61" s="3">
-        <v>7032000</v>
+        <v>6613200</v>
       </c>
       <c r="G61" s="3">
-        <v>7886800</v>
+        <v>7417000</v>
       </c>
       <c r="H61" s="3">
-        <v>5249500</v>
+        <v>4936900</v>
       </c>
       <c r="I61" s="3">
-        <v>5409600</v>
+        <v>5087300</v>
       </c>
       <c r="J61" s="3">
-        <v>4525000</v>
+        <v>4255400</v>
       </c>
       <c r="K61" s="3">
         <v>4683600</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3888200</v>
+        <v>3656700</v>
       </c>
       <c r="E62" s="3">
-        <v>4619500</v>
+        <v>4344300</v>
       </c>
       <c r="F62" s="3">
-        <v>5491600</v>
+        <v>5164500</v>
       </c>
       <c r="G62" s="3">
-        <v>5805800</v>
+        <v>5460000</v>
       </c>
       <c r="H62" s="3">
-        <v>3867500</v>
+        <v>3637200</v>
       </c>
       <c r="I62" s="3">
-        <v>4159300</v>
+        <v>3911600</v>
       </c>
       <c r="J62" s="3">
-        <v>5052200</v>
+        <v>4751300</v>
       </c>
       <c r="K62" s="3">
         <v>4168600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13317000</v>
+        <v>12523800</v>
       </c>
       <c r="E66" s="3">
-        <v>13689300</v>
+        <v>12873900</v>
       </c>
       <c r="F66" s="3">
-        <v>14679200</v>
+        <v>13804800</v>
       </c>
       <c r="G66" s="3">
-        <v>17370300</v>
+        <v>16335600</v>
       </c>
       <c r="H66" s="3">
-        <v>11331500</v>
+        <v>10656500</v>
       </c>
       <c r="I66" s="3">
-        <v>11109300</v>
+        <v>10447600</v>
       </c>
       <c r="J66" s="3">
-        <v>12028700</v>
+        <v>11312200</v>
       </c>
       <c r="K66" s="3">
         <v>11761300</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>415400</v>
+        <v>390600</v>
       </c>
       <c r="E72" s="3">
-        <v>2451500</v>
+        <v>2305500</v>
       </c>
       <c r="F72" s="3">
-        <v>848100</v>
+        <v>797600</v>
       </c>
       <c r="G72" s="3">
-        <v>3264000</v>
+        <v>3069600</v>
       </c>
       <c r="H72" s="3">
-        <v>659900</v>
+        <v>620600</v>
       </c>
       <c r="I72" s="3">
-        <v>1249400</v>
+        <v>1175000</v>
       </c>
       <c r="J72" s="3">
-        <v>1325700</v>
+        <v>1246700</v>
       </c>
       <c r="K72" s="3">
         <v>1277900</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13850900</v>
+        <v>13025900</v>
       </c>
       <c r="E76" s="3">
-        <v>15918600</v>
+        <v>14970400</v>
       </c>
       <c r="F76" s="3">
-        <v>14481800</v>
+        <v>13619300</v>
       </c>
       <c r="G76" s="3">
-        <v>16565200</v>
+        <v>15578600</v>
       </c>
       <c r="H76" s="3">
-        <v>9608700</v>
+        <v>9036400</v>
       </c>
       <c r="I76" s="3">
-        <v>10272800</v>
+        <v>9660900</v>
       </c>
       <c r="J76" s="3">
-        <v>8444700</v>
+        <v>7941700</v>
       </c>
       <c r="K76" s="3">
         <v>7656600</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1972300</v>
+        <v>-1854800</v>
       </c>
       <c r="E81" s="3">
-        <v>1818900</v>
+        <v>1710600</v>
       </c>
       <c r="F81" s="3">
-        <v>-2212700</v>
+        <v>-2080900</v>
       </c>
       <c r="G81" s="3">
-        <v>2790600</v>
+        <v>2624400</v>
       </c>
       <c r="H81" s="3">
-        <v>-451800</v>
+        <v>-424900</v>
       </c>
       <c r="I81" s="3">
-        <v>512400</v>
+        <v>481800</v>
       </c>
       <c r="J81" s="3">
-        <v>616800</v>
+        <v>580100</v>
       </c>
       <c r="K81" s="3">
         <v>509600</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2871800</v>
+        <v>2700800</v>
       </c>
       <c r="E83" s="3">
-        <v>1864500</v>
+        <v>1753500</v>
       </c>
       <c r="F83" s="3">
-        <v>1766700</v>
+        <v>1661500</v>
       </c>
       <c r="G83" s="3">
-        <v>1683000</v>
+        <v>1582700</v>
       </c>
       <c r="H83" s="3">
-        <v>1241900</v>
+        <v>1167900</v>
       </c>
       <c r="I83" s="3">
-        <v>1752600</v>
+        <v>1648200</v>
       </c>
       <c r="J83" s="3">
-        <v>1613300</v>
+        <v>1517200</v>
       </c>
       <c r="K83" s="3">
         <v>1411100</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>226300</v>
+        <v>212800</v>
       </c>
       <c r="E89" s="3">
-        <v>2723400</v>
+        <v>2561200</v>
       </c>
       <c r="F89" s="3">
-        <v>1785800</v>
+        <v>1679400</v>
       </c>
       <c r="G89" s="3">
-        <v>2536100</v>
+        <v>2385000</v>
       </c>
       <c r="H89" s="3">
-        <v>713800</v>
+        <v>671300</v>
       </c>
       <c r="I89" s="3">
-        <v>1222000</v>
+        <v>1149200</v>
       </c>
       <c r="J89" s="3">
-        <v>2923200</v>
+        <v>2749100</v>
       </c>
       <c r="K89" s="3">
         <v>2724400</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-712200</v>
+        <v>-669700</v>
       </c>
       <c r="E91" s="3">
-        <v>-980800</v>
+        <v>-922300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1141600</v>
+        <v>-1073600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1384500</v>
+        <v>-1302000</v>
       </c>
       <c r="H91" s="3">
-        <v>-857200</v>
+        <v>-806200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1421000</v>
+        <v>-1336400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2535200</v>
+        <v>-2384200</v>
       </c>
       <c r="K91" s="3">
         <v>-2516500</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-715500</v>
+        <v>-672900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1187200</v>
+        <v>-1116500</v>
       </c>
       <c r="F94" s="3">
-        <v>-508200</v>
+        <v>-477900</v>
       </c>
       <c r="G94" s="3">
-        <v>-10666600</v>
+        <v>-10031200</v>
       </c>
       <c r="H94" s="3">
-        <v>-894500</v>
+        <v>-841300</v>
       </c>
       <c r="I94" s="3">
-        <v>736200</v>
+        <v>692300</v>
       </c>
       <c r="J94" s="3">
-        <v>-3606400</v>
+        <v>-3391600</v>
       </c>
       <c r="K94" s="3">
         <v>-1169400</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-63800</v>
+        <v>-60000</v>
       </c>
       <c r="E96" s="3">
-        <v>-215600</v>
+        <v>-202700</v>
       </c>
       <c r="F96" s="3">
-        <v>-203100</v>
+        <v>-191000</v>
       </c>
       <c r="G96" s="3">
-        <v>-186500</v>
+        <v>-175400</v>
       </c>
       <c r="H96" s="3">
-        <v>-137600</v>
+        <v>-129400</v>
       </c>
       <c r="I96" s="3">
-        <v>-437700</v>
+        <v>-411700</v>
       </c>
       <c r="J96" s="3">
-        <v>-667400</v>
+        <v>-627600</v>
       </c>
       <c r="K96" s="3">
         <v>-563500</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>693900</v>
+        <v>652600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2000500</v>
+        <v>-1881300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1169000</v>
+        <v>-1099300</v>
       </c>
       <c r="G100" s="3">
-        <v>5401300</v>
+        <v>5079600</v>
       </c>
       <c r="H100" s="3">
-        <v>-139300</v>
+        <v>-131000</v>
       </c>
       <c r="I100" s="3">
-        <v>741200</v>
+        <v>697000</v>
       </c>
       <c r="J100" s="3">
-        <v>-660800</v>
+        <v>-621400</v>
       </c>
       <c r="K100" s="3">
         <v>-558900</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-45600</v>
+        <v>-42900</v>
       </c>
       <c r="E101" s="3">
-        <v>-29000</v>
+        <v>-27300</v>
       </c>
       <c r="F101" s="3">
-        <v>33200</v>
+        <v>31200</v>
       </c>
       <c r="G101" s="3">
-        <v>150900</v>
+        <v>141900</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>-28200</v>
+        <v>-26500</v>
       </c>
       <c r="J101" s="3">
-        <v>43100</v>
+        <v>40500</v>
       </c>
       <c r="K101" s="3">
         <v>-1500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>159200</v>
+        <v>149700</v>
       </c>
       <c r="E102" s="3">
-        <v>-493300</v>
+        <v>-463900</v>
       </c>
       <c r="F102" s="3">
-        <v>141800</v>
+        <v>133300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2578300</v>
+        <v>-2424800</v>
       </c>
       <c r="H102" s="3">
-        <v>-319200</v>
+        <v>-300200</v>
       </c>
       <c r="I102" s="3">
-        <v>2671200</v>
+        <v>2512100</v>
       </c>
       <c r="J102" s="3">
-        <v>-1300800</v>
+        <v>-1223300</v>
       </c>
       <c r="K102" s="3">
         <v>994600</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -722,25 +722,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10312700</v>
+        <v>10383900</v>
       </c>
       <c r="E8" s="3">
-        <v>15734500</v>
+        <v>15843100</v>
       </c>
       <c r="F8" s="3">
-        <v>16251400</v>
+        <v>16363600</v>
       </c>
       <c r="G8" s="3">
-        <v>13287900</v>
+        <v>13379600</v>
       </c>
       <c r="H8" s="3">
-        <v>8581000</v>
+        <v>8640300</v>
       </c>
       <c r="I8" s="3">
-        <v>8988800</v>
+        <v>9050800</v>
       </c>
       <c r="J8" s="3">
-        <v>15314300</v>
+        <v>15420000</v>
       </c>
       <c r="K8" s="3">
         <v>14362500</v>
@@ -758,25 +758,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3991100</v>
+        <v>4018700</v>
       </c>
       <c r="E9" s="3">
-        <v>6571100</v>
+        <v>6616400</v>
       </c>
       <c r="F9" s="3">
-        <v>6818200</v>
+        <v>6865300</v>
       </c>
       <c r="G9" s="3">
-        <v>6263900</v>
+        <v>6307100</v>
       </c>
       <c r="H9" s="3">
-        <v>5440500</v>
+        <v>5478100</v>
       </c>
       <c r="I9" s="3">
-        <v>5750100</v>
+        <v>5789700</v>
       </c>
       <c r="J9" s="3">
-        <v>8577100</v>
+        <v>8636300</v>
       </c>
       <c r="K9" s="3">
         <v>8032300</v>
@@ -794,25 +794,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6321600</v>
+        <v>6365200</v>
       </c>
       <c r="E10" s="3">
-        <v>9163500</v>
+        <v>9226700</v>
       </c>
       <c r="F10" s="3">
-        <v>9433200</v>
+        <v>9498300</v>
       </c>
       <c r="G10" s="3">
-        <v>7024000</v>
+        <v>7072500</v>
       </c>
       <c r="H10" s="3">
-        <v>3140500</v>
+        <v>3162200</v>
       </c>
       <c r="I10" s="3">
-        <v>3238700</v>
+        <v>3261100</v>
       </c>
       <c r="J10" s="3">
-        <v>6737100</v>
+        <v>6783600</v>
       </c>
       <c r="K10" s="3">
         <v>6330200</v>
@@ -846,25 +846,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>70900</v>
+        <v>71400</v>
       </c>
       <c r="E12" s="3">
-        <v>79500</v>
+        <v>80100</v>
       </c>
       <c r="F12" s="3">
-        <v>1674700</v>
+        <v>1686300</v>
       </c>
       <c r="G12" s="3">
-        <v>720400</v>
+        <v>725400</v>
       </c>
       <c r="H12" s="3">
-        <v>29600</v>
+        <v>29800</v>
       </c>
       <c r="I12" s="3">
-        <v>73300</v>
+        <v>73800</v>
       </c>
       <c r="J12" s="3">
-        <v>78700</v>
+        <v>79300</v>
       </c>
       <c r="K12" s="3">
         <v>106200</v>
@@ -918,25 +918,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1228000</v>
+        <v>1236500</v>
       </c>
       <c r="E14" s="3">
-        <v>28800</v>
+        <v>29000</v>
       </c>
       <c r="F14" s="3">
-        <v>648700</v>
+        <v>653200</v>
       </c>
       <c r="G14" s="3">
-        <v>15600</v>
+        <v>15700</v>
       </c>
       <c r="H14" s="3">
-        <v>37400</v>
+        <v>37700</v>
       </c>
       <c r="I14" s="3">
-        <v>-1831400</v>
+        <v>-1844100</v>
       </c>
       <c r="J14" s="3">
-        <v>387500</v>
+        <v>390200</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1833800</v>
+        <v>1846400</v>
       </c>
       <c r="E15" s="3">
-        <v>1727700</v>
+        <v>1739700</v>
       </c>
       <c r="F15" s="3">
-        <v>1681700</v>
+        <v>1693400</v>
       </c>
       <c r="G15" s="3">
-        <v>1433000</v>
+        <v>1442900</v>
       </c>
       <c r="H15" s="3">
-        <v>1875900</v>
+        <v>1888800</v>
       </c>
       <c r="I15" s="3">
-        <v>774200</v>
+        <v>779600</v>
       </c>
       <c r="J15" s="3">
-        <v>1517200</v>
+        <v>1527700</v>
       </c>
       <c r="K15" s="3">
         <v>1411100</v>
@@ -1003,25 +1003,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12321100</v>
+        <v>12406100</v>
       </c>
       <c r="E17" s="3">
-        <v>14449600</v>
+        <v>14549300</v>
       </c>
       <c r="F17" s="3">
-        <v>17934700</v>
+        <v>18058500</v>
       </c>
       <c r="G17" s="3">
-        <v>13032200</v>
+        <v>13122100</v>
       </c>
       <c r="H17" s="3">
-        <v>8784500</v>
+        <v>8845200</v>
       </c>
       <c r="I17" s="3">
-        <v>7408400</v>
+        <v>7459500</v>
       </c>
       <c r="J17" s="3">
-        <v>14378700</v>
+        <v>14477900</v>
       </c>
       <c r="K17" s="3">
         <v>12800600</v>
@@ -1039,25 +1039,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2008400</v>
+        <v>-2022300</v>
       </c>
       <c r="E18" s="3">
-        <v>1284900</v>
+        <v>1293800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1683300</v>
+        <v>-1694900</v>
       </c>
       <c r="G18" s="3">
-        <v>255700</v>
+        <v>257500</v>
       </c>
       <c r="H18" s="3">
-        <v>-203500</v>
+        <v>-204900</v>
       </c>
       <c r="I18" s="3">
-        <v>1580400</v>
+        <v>1591300</v>
       </c>
       <c r="J18" s="3">
-        <v>935600</v>
+        <v>942100</v>
       </c>
       <c r="K18" s="3">
         <v>1562000</v>
@@ -1091,25 +1091,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-136400</v>
+        <v>-137400</v>
       </c>
       <c r="E20" s="3">
-        <v>185600</v>
+        <v>186800</v>
       </c>
       <c r="F20" s="3">
-        <v>-962100</v>
+        <v>-968800</v>
       </c>
       <c r="G20" s="3">
-        <v>1917200</v>
+        <v>1930400</v>
       </c>
       <c r="H20" s="3">
-        <v>-155900</v>
+        <v>-157000</v>
       </c>
       <c r="I20" s="3">
-        <v>-630800</v>
+        <v>-635100</v>
       </c>
       <c r="J20" s="3">
-        <v>235500</v>
+        <v>237100</v>
       </c>
       <c r="K20" s="3">
         <v>-410300</v>
@@ -1127,25 +1127,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>592400</v>
+        <v>549600</v>
       </c>
       <c r="E21" s="3">
-        <v>3247600</v>
+        <v>3239600</v>
       </c>
       <c r="F21" s="3">
-        <v>-961500</v>
+        <v>-997000</v>
       </c>
       <c r="G21" s="3">
-        <v>3777000</v>
+        <v>3775600</v>
       </c>
       <c r="H21" s="3">
-        <v>824300</v>
+        <v>809700</v>
       </c>
       <c r="I21" s="3">
-        <v>2620100</v>
+        <v>2609600</v>
       </c>
       <c r="J21" s="3">
-        <v>2708800</v>
+        <v>2701100</v>
       </c>
       <c r="K21" s="3">
         <v>2560200</v>
@@ -1163,25 +1163,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>373500</v>
+        <v>376000</v>
       </c>
       <c r="E22" s="3">
-        <v>381300</v>
+        <v>383900</v>
       </c>
       <c r="F22" s="3">
-        <v>415600</v>
+        <v>418400</v>
       </c>
       <c r="G22" s="3">
-        <v>445200</v>
+        <v>448300</v>
       </c>
       <c r="H22" s="3">
-        <v>265900</v>
+        <v>267700</v>
       </c>
       <c r="I22" s="3">
-        <v>255700</v>
+        <v>257500</v>
       </c>
       <c r="J22" s="3">
-        <v>239400</v>
+        <v>241000</v>
       </c>
       <c r="K22" s="3">
         <v>309500</v>
@@ -1199,25 +1199,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2518300</v>
+        <v>-2535700</v>
       </c>
       <c r="E23" s="3">
-        <v>1089200</v>
+        <v>1096700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3061000</v>
+        <v>-3082100</v>
       </c>
       <c r="G23" s="3">
-        <v>1727700</v>
+        <v>1739700</v>
       </c>
       <c r="H23" s="3">
-        <v>-625300</v>
+        <v>-629600</v>
       </c>
       <c r="I23" s="3">
-        <v>693900</v>
+        <v>698700</v>
       </c>
       <c r="J23" s="3">
-        <v>931700</v>
+        <v>938100</v>
       </c>
       <c r="K23" s="3">
         <v>842200</v>
@@ -1235,25 +1235,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-663500</v>
+        <v>-668100</v>
       </c>
       <c r="E24" s="3">
-        <v>-621400</v>
+        <v>-625700</v>
       </c>
       <c r="F24" s="3">
-        <v>-787500</v>
+        <v>-792900</v>
       </c>
       <c r="G24" s="3">
-        <v>-40500</v>
+        <v>-40800</v>
       </c>
       <c r="H24" s="3">
-        <v>-267400</v>
+        <v>-269300</v>
       </c>
       <c r="I24" s="3">
-        <v>-18700</v>
+        <v>-18800</v>
       </c>
       <c r="J24" s="3">
-        <v>351600</v>
+        <v>354100</v>
       </c>
       <c r="K24" s="3">
         <v>332600</v>
@@ -1307,25 +1307,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1854800</v>
+        <v>-1867600</v>
       </c>
       <c r="E26" s="3">
-        <v>1710600</v>
+        <v>1722400</v>
       </c>
       <c r="F26" s="3">
-        <v>-2273500</v>
+        <v>-2289200</v>
       </c>
       <c r="G26" s="3">
-        <v>1768300</v>
+        <v>1780500</v>
       </c>
       <c r="H26" s="3">
-        <v>-357900</v>
+        <v>-360300</v>
       </c>
       <c r="I26" s="3">
-        <v>712600</v>
+        <v>717500</v>
       </c>
       <c r="J26" s="3">
-        <v>580100</v>
+        <v>584100</v>
       </c>
       <c r="K26" s="3">
         <v>509600</v>
@@ -1343,25 +1343,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1854800</v>
+        <v>-1867600</v>
       </c>
       <c r="E27" s="3">
-        <v>1710600</v>
+        <v>1722400</v>
       </c>
       <c r="F27" s="3">
-        <v>-2273500</v>
+        <v>-2289200</v>
       </c>
       <c r="G27" s="3">
-        <v>1768300</v>
+        <v>1780500</v>
       </c>
       <c r="H27" s="3">
-        <v>-357900</v>
+        <v>-360300</v>
       </c>
       <c r="I27" s="3">
-        <v>712600</v>
+        <v>717500</v>
       </c>
       <c r="J27" s="3">
-        <v>580100</v>
+        <v>584100</v>
       </c>
       <c r="K27" s="3">
         <v>509600</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>192600</v>
+        <v>193900</v>
       </c>
       <c r="G29" s="3">
-        <v>856100</v>
+        <v>862000</v>
       </c>
       <c r="H29" s="3">
-        <v>-67100</v>
+        <v>-67500</v>
       </c>
       <c r="I29" s="3">
-        <v>-230800</v>
+        <v>-232400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1523,25 +1523,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>136400</v>
+        <v>137400</v>
       </c>
       <c r="E32" s="3">
-        <v>-185600</v>
+        <v>-186800</v>
       </c>
       <c r="F32" s="3">
-        <v>962100</v>
+        <v>968800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1917200</v>
+        <v>-1930400</v>
       </c>
       <c r="H32" s="3">
-        <v>155900</v>
+        <v>157000</v>
       </c>
       <c r="I32" s="3">
-        <v>630800</v>
+        <v>635100</v>
       </c>
       <c r="J32" s="3">
-        <v>-235500</v>
+        <v>-237100</v>
       </c>
       <c r="K32" s="3">
         <v>410300</v>
@@ -1559,25 +1559,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1854800</v>
+        <v>-1867600</v>
       </c>
       <c r="E33" s="3">
-        <v>1710600</v>
+        <v>1722400</v>
       </c>
       <c r="F33" s="3">
-        <v>-2080900</v>
+        <v>-2095300</v>
       </c>
       <c r="G33" s="3">
-        <v>2624400</v>
+        <v>2642500</v>
       </c>
       <c r="H33" s="3">
-        <v>-424900</v>
+        <v>-427900</v>
       </c>
       <c r="I33" s="3">
-        <v>481800</v>
+        <v>485200</v>
       </c>
       <c r="J33" s="3">
-        <v>580100</v>
+        <v>584100</v>
       </c>
       <c r="K33" s="3">
         <v>509600</v>
@@ -1631,25 +1631,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1854800</v>
+        <v>-1867600</v>
       </c>
       <c r="E35" s="3">
-        <v>1710600</v>
+        <v>1722400</v>
       </c>
       <c r="F35" s="3">
-        <v>-2080900</v>
+        <v>-2095300</v>
       </c>
       <c r="G35" s="3">
-        <v>2624400</v>
+        <v>2642500</v>
       </c>
       <c r="H35" s="3">
-        <v>-424900</v>
+        <v>-427900</v>
       </c>
       <c r="I35" s="3">
-        <v>481800</v>
+        <v>485200</v>
       </c>
       <c r="J35" s="3">
-        <v>580100</v>
+        <v>584100</v>
       </c>
       <c r="K35" s="3">
         <v>509600</v>
@@ -1740,25 +1740,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>286900</v>
+        <v>288900</v>
       </c>
       <c r="E41" s="3">
-        <v>84200</v>
+        <v>84800</v>
       </c>
       <c r="F41" s="3">
-        <v>120800</v>
+        <v>121700</v>
       </c>
       <c r="G41" s="3">
-        <v>426500</v>
+        <v>429400</v>
       </c>
       <c r="H41" s="3">
-        <v>422600</v>
+        <v>425500</v>
       </c>
       <c r="I41" s="3">
-        <v>251800</v>
+        <v>253600</v>
       </c>
       <c r="J41" s="3">
-        <v>357100</v>
+        <v>359600</v>
       </c>
       <c r="K41" s="3">
         <v>1887600</v>
@@ -1776,25 +1776,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E42" s="3">
-        <v>60800</v>
+        <v>61200</v>
       </c>
       <c r="F42" s="3">
-        <v>488100</v>
+        <v>491400</v>
       </c>
       <c r="G42" s="3">
-        <v>49100</v>
+        <v>49500</v>
       </c>
       <c r="H42" s="3">
-        <v>2477800</v>
+        <v>2494900</v>
       </c>
       <c r="I42" s="3">
-        <v>2948700</v>
+        <v>2969100</v>
       </c>
       <c r="J42" s="3">
-        <v>331400</v>
+        <v>333600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1812,25 +1812,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1082200</v>
+        <v>1089600</v>
       </c>
       <c r="E43" s="3">
-        <v>1175000</v>
+        <v>1183100</v>
       </c>
       <c r="F43" s="3">
-        <v>930100</v>
+        <v>936600</v>
       </c>
       <c r="G43" s="3">
-        <v>1429900</v>
+        <v>1439800</v>
       </c>
       <c r="H43" s="3">
-        <v>1338700</v>
+        <v>1347900</v>
       </c>
       <c r="I43" s="3">
-        <v>924700</v>
+        <v>931100</v>
       </c>
       <c r="J43" s="3">
-        <v>1255300</v>
+        <v>1263900</v>
       </c>
       <c r="K43" s="3">
         <v>1454200</v>
@@ -1848,25 +1848,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>849100</v>
+        <v>854900</v>
       </c>
       <c r="E44" s="3">
-        <v>1194500</v>
+        <v>1202700</v>
       </c>
       <c r="F44" s="3">
-        <v>789800</v>
+        <v>795300</v>
       </c>
       <c r="G44" s="3">
-        <v>1083000</v>
+        <v>1090400</v>
       </c>
       <c r="H44" s="3">
-        <v>964500</v>
+        <v>971100</v>
       </c>
       <c r="I44" s="3">
-        <v>631500</v>
+        <v>635900</v>
       </c>
       <c r="J44" s="3">
-        <v>954300</v>
+        <v>960900</v>
       </c>
       <c r="K44" s="3">
         <v>969200</v>
@@ -1884,25 +1884,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>94300</v>
+        <v>95000</v>
       </c>
       <c r="E45" s="3">
-        <v>46000</v>
+        <v>46300</v>
       </c>
       <c r="F45" s="3">
-        <v>162200</v>
+        <v>163300</v>
       </c>
       <c r="G45" s="3">
-        <v>916100</v>
+        <v>922400</v>
       </c>
       <c r="H45" s="3">
-        <v>115400</v>
+        <v>116200</v>
       </c>
       <c r="I45" s="3">
-        <v>290000</v>
+        <v>292000</v>
       </c>
       <c r="J45" s="3">
-        <v>372700</v>
+        <v>375300</v>
       </c>
       <c r="K45" s="3">
         <v>7700</v>
@@ -1920,25 +1920,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2320300</v>
+        <v>2336300</v>
       </c>
       <c r="E46" s="3">
-        <v>2560400</v>
+        <v>2578100</v>
       </c>
       <c r="F46" s="3">
-        <v>2491000</v>
+        <v>2508200</v>
       </c>
       <c r="G46" s="3">
-        <v>3904600</v>
+        <v>3931500</v>
       </c>
       <c r="H46" s="3">
-        <v>5318900</v>
+        <v>5355600</v>
       </c>
       <c r="I46" s="3">
-        <v>5046800</v>
+        <v>5081600</v>
       </c>
       <c r="J46" s="3">
-        <v>3270700</v>
+        <v>3293300</v>
       </c>
       <c r="K46" s="3">
         <v>4318700</v>
@@ -1956,22 +1956,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>165300</v>
+        <v>166400</v>
       </c>
       <c r="E47" s="3">
-        <v>80300</v>
+        <v>80900</v>
       </c>
       <c r="F47" s="3">
-        <v>163700</v>
+        <v>164900</v>
       </c>
       <c r="G47" s="3">
-        <v>279900</v>
+        <v>281800</v>
       </c>
       <c r="H47" s="3">
-        <v>135700</v>
+        <v>136600</v>
       </c>
       <c r="I47" s="3">
-        <v>106800</v>
+        <v>107600</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>8</v>
@@ -1992,25 +1992,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21186000</v>
+        <v>21332200</v>
       </c>
       <c r="E48" s="3">
-        <v>23348000</v>
+        <v>23509100</v>
       </c>
       <c r="F48" s="3">
-        <v>22987000</v>
+        <v>23145600</v>
       </c>
       <c r="G48" s="3">
-        <v>25938800</v>
+        <v>26117800</v>
       </c>
       <c r="H48" s="3">
-        <v>14042600</v>
+        <v>14139500</v>
       </c>
       <c r="I48" s="3">
-        <v>14743600</v>
+        <v>14845300</v>
       </c>
       <c r="J48" s="3">
-        <v>15740000</v>
+        <v>15848600</v>
       </c>
       <c r="K48" s="3">
         <v>14478000</v>
@@ -2028,25 +2028,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1840800</v>
+        <v>1853500</v>
       </c>
       <c r="E49" s="3">
-        <v>1850200</v>
+        <v>1862900</v>
       </c>
       <c r="F49" s="3">
-        <v>1771400</v>
+        <v>1783600</v>
       </c>
       <c r="G49" s="3">
-        <v>1771400</v>
+        <v>1783600</v>
       </c>
       <c r="H49" s="3">
-        <v>188700</v>
+        <v>190000</v>
       </c>
       <c r="I49" s="3">
-        <v>188700</v>
+        <v>190000</v>
       </c>
       <c r="J49" s="3">
-        <v>188700</v>
+        <v>190000</v>
       </c>
       <c r="K49" s="3">
         <v>568900</v>
@@ -2136,25 +2136,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>37400</v>
+        <v>37700</v>
       </c>
       <c r="E52" s="3">
         <v>5500</v>
       </c>
       <c r="F52" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="G52" s="3">
-        <v>19500</v>
+        <v>19600</v>
       </c>
       <c r="H52" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="I52" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="J52" s="3">
-        <v>54600</v>
+        <v>55000</v>
       </c>
       <c r="K52" s="3">
         <v>52300</v>
@@ -2208,25 +2208,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25549800</v>
+        <v>25726100</v>
       </c>
       <c r="E54" s="3">
-        <v>27844400</v>
+        <v>28036500</v>
       </c>
       <c r="F54" s="3">
-        <v>27424100</v>
+        <v>27613300</v>
       </c>
       <c r="G54" s="3">
-        <v>31914200</v>
+        <v>32134500</v>
       </c>
       <c r="H54" s="3">
-        <v>19692900</v>
+        <v>19828800</v>
       </c>
       <c r="I54" s="3">
-        <v>20108500</v>
+        <v>20247200</v>
       </c>
       <c r="J54" s="3">
-        <v>19254000</v>
+        <v>19386800</v>
       </c>
       <c r="K54" s="3">
         <v>19417900</v>
@@ -2276,25 +2276,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>474000</v>
+        <v>477300</v>
       </c>
       <c r="E57" s="3">
-        <v>732100</v>
+        <v>737200</v>
       </c>
       <c r="F57" s="3">
-        <v>598000</v>
+        <v>602100</v>
       </c>
       <c r="G57" s="3">
-        <v>262700</v>
+        <v>264600</v>
       </c>
       <c r="H57" s="3">
-        <v>81900</v>
+        <v>82400</v>
       </c>
       <c r="I57" s="3">
-        <v>53000</v>
+        <v>53400</v>
       </c>
       <c r="J57" s="3">
-        <v>39800</v>
+        <v>40000</v>
       </c>
       <c r="K57" s="3">
         <v>78500</v>
@@ -2312,13 +2312,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>237800</v>
+        <v>239400</v>
       </c>
       <c r="E58" s="3">
-        <v>152800</v>
+        <v>153900</v>
       </c>
       <c r="F58" s="3">
-        <v>531700</v>
+        <v>535400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
@@ -2348,25 +2348,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1127400</v>
+        <v>1135200</v>
       </c>
       <c r="E59" s="3">
-        <v>1080600</v>
+        <v>1088100</v>
       </c>
       <c r="F59" s="3">
-        <v>897400</v>
+        <v>903600</v>
       </c>
       <c r="G59" s="3">
-        <v>3195900</v>
+        <v>3217900</v>
       </c>
       <c r="H59" s="3">
-        <v>2000600</v>
+        <v>2014400</v>
       </c>
       <c r="I59" s="3">
-        <v>1395600</v>
+        <v>1405200</v>
       </c>
       <c r="J59" s="3">
-        <v>2265700</v>
+        <v>2281400</v>
       </c>
       <c r="K59" s="3">
         <v>2493400</v>
@@ -2384,25 +2384,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1839200</v>
+        <v>1851900</v>
       </c>
       <c r="E60" s="3">
-        <v>1965500</v>
+        <v>1979100</v>
       </c>
       <c r="F60" s="3">
-        <v>2027100</v>
+        <v>2041100</v>
       </c>
       <c r="G60" s="3">
-        <v>3458600</v>
+        <v>3482500</v>
       </c>
       <c r="H60" s="3">
-        <v>2082500</v>
+        <v>2096900</v>
       </c>
       <c r="I60" s="3">
-        <v>1448600</v>
+        <v>1458600</v>
       </c>
       <c r="J60" s="3">
-        <v>2305500</v>
+        <v>2321400</v>
       </c>
       <c r="K60" s="3">
         <v>2909100</v>
@@ -2420,25 +2420,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7027900</v>
+        <v>7076400</v>
       </c>
       <c r="E61" s="3">
-        <v>6564000</v>
+        <v>6609300</v>
       </c>
       <c r="F61" s="3">
-        <v>6613200</v>
+        <v>6658800</v>
       </c>
       <c r="G61" s="3">
-        <v>7417000</v>
+        <v>7468200</v>
       </c>
       <c r="H61" s="3">
-        <v>4936900</v>
+        <v>4970900</v>
       </c>
       <c r="I61" s="3">
-        <v>5087300</v>
+        <v>5122500</v>
       </c>
       <c r="J61" s="3">
-        <v>4255400</v>
+        <v>4284800</v>
       </c>
       <c r="K61" s="3">
         <v>4683600</v>
@@ -2456,25 +2456,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3656700</v>
+        <v>3681900</v>
       </c>
       <c r="E62" s="3">
-        <v>4344300</v>
+        <v>4374300</v>
       </c>
       <c r="F62" s="3">
-        <v>5164500</v>
+        <v>5200200</v>
       </c>
       <c r="G62" s="3">
-        <v>5460000</v>
+        <v>5497700</v>
       </c>
       <c r="H62" s="3">
-        <v>3637200</v>
+        <v>3662300</v>
       </c>
       <c r="I62" s="3">
-        <v>3911600</v>
+        <v>3938600</v>
       </c>
       <c r="J62" s="3">
-        <v>4751300</v>
+        <v>4784100</v>
       </c>
       <c r="K62" s="3">
         <v>4168600</v>
@@ -2600,25 +2600,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12523800</v>
+        <v>12610300</v>
       </c>
       <c r="E66" s="3">
-        <v>12873900</v>
+        <v>12962700</v>
       </c>
       <c r="F66" s="3">
-        <v>13804800</v>
+        <v>13900100</v>
       </c>
       <c r="G66" s="3">
-        <v>16335600</v>
+        <v>16448400</v>
       </c>
       <c r="H66" s="3">
-        <v>10656500</v>
+        <v>10730100</v>
       </c>
       <c r="I66" s="3">
-        <v>10447600</v>
+        <v>10519700</v>
       </c>
       <c r="J66" s="3">
-        <v>11312200</v>
+        <v>11390300</v>
       </c>
       <c r="K66" s="3">
         <v>11761300</v>
@@ -2796,25 +2796,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>390600</v>
+        <v>393300</v>
       </c>
       <c r="E72" s="3">
-        <v>2305500</v>
+        <v>2321400</v>
       </c>
       <c r="F72" s="3">
-        <v>797600</v>
+        <v>803100</v>
       </c>
       <c r="G72" s="3">
-        <v>3069600</v>
+        <v>3090700</v>
       </c>
       <c r="H72" s="3">
-        <v>620600</v>
+        <v>624900</v>
       </c>
       <c r="I72" s="3">
-        <v>1175000</v>
+        <v>1183100</v>
       </c>
       <c r="J72" s="3">
-        <v>1246700</v>
+        <v>1255300</v>
       </c>
       <c r="K72" s="3">
         <v>1277900</v>
@@ -2940,25 +2940,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13025900</v>
+        <v>13115800</v>
       </c>
       <c r="E76" s="3">
-        <v>14970400</v>
+        <v>15073700</v>
       </c>
       <c r="F76" s="3">
-        <v>13619300</v>
+        <v>13713300</v>
       </c>
       <c r="G76" s="3">
-        <v>15578600</v>
+        <v>15686100</v>
       </c>
       <c r="H76" s="3">
-        <v>9036400</v>
+        <v>9098700</v>
       </c>
       <c r="I76" s="3">
-        <v>9660900</v>
+        <v>9727600</v>
       </c>
       <c r="J76" s="3">
-        <v>7941700</v>
+        <v>7996500</v>
       </c>
       <c r="K76" s="3">
         <v>7656600</v>
@@ -3053,25 +3053,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1854800</v>
+        <v>-1867600</v>
       </c>
       <c r="E81" s="3">
-        <v>1710600</v>
+        <v>1722400</v>
       </c>
       <c r="F81" s="3">
-        <v>-2080900</v>
+        <v>-2095300</v>
       </c>
       <c r="G81" s="3">
-        <v>2624400</v>
+        <v>2642500</v>
       </c>
       <c r="H81" s="3">
-        <v>-424900</v>
+        <v>-427900</v>
       </c>
       <c r="I81" s="3">
-        <v>481800</v>
+        <v>485200</v>
       </c>
       <c r="J81" s="3">
-        <v>580100</v>
+        <v>584100</v>
       </c>
       <c r="K81" s="3">
         <v>509600</v>
@@ -3105,25 +3105,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2700800</v>
+        <v>2719400</v>
       </c>
       <c r="E83" s="3">
-        <v>1753500</v>
+        <v>1765600</v>
       </c>
       <c r="F83" s="3">
-        <v>1661500</v>
+        <v>1672900</v>
       </c>
       <c r="G83" s="3">
-        <v>1582700</v>
+        <v>1593700</v>
       </c>
       <c r="H83" s="3">
-        <v>1167900</v>
+        <v>1176000</v>
       </c>
       <c r="I83" s="3">
-        <v>1648200</v>
+        <v>1659600</v>
       </c>
       <c r="J83" s="3">
-        <v>1517200</v>
+        <v>1527700</v>
       </c>
       <c r="K83" s="3">
         <v>1411100</v>
@@ -3321,25 +3321,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>212800</v>
+        <v>214300</v>
       </c>
       <c r="E89" s="3">
-        <v>2561200</v>
+        <v>2578900</v>
       </c>
       <c r="F89" s="3">
-        <v>1679400</v>
+        <v>1691000</v>
       </c>
       <c r="G89" s="3">
-        <v>2385000</v>
+        <v>2401500</v>
       </c>
       <c r="H89" s="3">
-        <v>671300</v>
+        <v>675900</v>
       </c>
       <c r="I89" s="3">
-        <v>1149200</v>
+        <v>1157200</v>
       </c>
       <c r="J89" s="3">
-        <v>2749100</v>
+        <v>2768100</v>
       </c>
       <c r="K89" s="3">
         <v>2724400</v>
@@ -3373,25 +3373,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-669700</v>
+        <v>-674400</v>
       </c>
       <c r="E91" s="3">
-        <v>-922300</v>
+        <v>-928700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1073600</v>
+        <v>-1081000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1302000</v>
+        <v>-1311000</v>
       </c>
       <c r="H91" s="3">
-        <v>-806200</v>
+        <v>-811700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1336400</v>
+        <v>-1345600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2384200</v>
+        <v>-2400700</v>
       </c>
       <c r="K91" s="3">
         <v>-2516500</v>
@@ -3481,25 +3481,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-672900</v>
+        <v>-677500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1116500</v>
+        <v>-1124200</v>
       </c>
       <c r="F94" s="3">
-        <v>-477900</v>
+        <v>-481200</v>
       </c>
       <c r="G94" s="3">
-        <v>-10031200</v>
+        <v>-10100500</v>
       </c>
       <c r="H94" s="3">
-        <v>-841300</v>
+        <v>-847100</v>
       </c>
       <c r="I94" s="3">
-        <v>692300</v>
+        <v>697100</v>
       </c>
       <c r="J94" s="3">
-        <v>-3391600</v>
+        <v>-3415000</v>
       </c>
       <c r="K94" s="3">
         <v>-1169400</v>
@@ -3533,25 +3533,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-60000</v>
+        <v>-60400</v>
       </c>
       <c r="E96" s="3">
-        <v>-202700</v>
+        <v>-204100</v>
       </c>
       <c r="F96" s="3">
-        <v>-191000</v>
+        <v>-192300</v>
       </c>
       <c r="G96" s="3">
-        <v>-175400</v>
+        <v>-176600</v>
       </c>
       <c r="H96" s="3">
-        <v>-129400</v>
+        <v>-130300</v>
       </c>
       <c r="I96" s="3">
-        <v>-411700</v>
+        <v>-414500</v>
       </c>
       <c r="J96" s="3">
-        <v>-627600</v>
+        <v>-632000</v>
       </c>
       <c r="K96" s="3">
         <v>-563500</v>
@@ -3677,25 +3677,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>652600</v>
+        <v>657100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1881300</v>
+        <v>-1894300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1099300</v>
+        <v>-1106900</v>
       </c>
       <c r="G100" s="3">
-        <v>5079600</v>
+        <v>5114600</v>
       </c>
       <c r="H100" s="3">
-        <v>-131000</v>
+        <v>-131900</v>
       </c>
       <c r="I100" s="3">
-        <v>697000</v>
+        <v>701800</v>
       </c>
       <c r="J100" s="3">
-        <v>-621400</v>
+        <v>-625700</v>
       </c>
       <c r="K100" s="3">
         <v>-558900</v>
@@ -3713,25 +3713,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-42900</v>
+        <v>-43200</v>
       </c>
       <c r="E101" s="3">
-        <v>-27300</v>
+        <v>-27500</v>
       </c>
       <c r="F101" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="G101" s="3">
-        <v>141900</v>
+        <v>142900</v>
       </c>
       <c r="H101" s="3">
         <v>800</v>
       </c>
       <c r="I101" s="3">
-        <v>-26500</v>
+        <v>-26700</v>
       </c>
       <c r="J101" s="3">
-        <v>40500</v>
+        <v>40800</v>
       </c>
       <c r="K101" s="3">
         <v>-1500</v>
@@ -3749,25 +3749,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="E102" s="3">
-        <v>-463900</v>
+        <v>-467100</v>
       </c>
       <c r="F102" s="3">
-        <v>133300</v>
+        <v>134200</v>
       </c>
       <c r="G102" s="3">
-        <v>-2424800</v>
+        <v>-2441500</v>
       </c>
       <c r="H102" s="3">
-        <v>-300200</v>
+        <v>-302200</v>
       </c>
       <c r="I102" s="3">
-        <v>2512100</v>
+        <v>2529400</v>
       </c>
       <c r="J102" s="3">
-        <v>-1223300</v>
+        <v>-1231700</v>
       </c>
       <c r="K102" s="3">
         <v>994600</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>CVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10383900</v>
+        <v>36378200</v>
       </c>
       <c r="E8" s="3">
-        <v>15843100</v>
+        <v>10379800</v>
       </c>
       <c r="F8" s="3">
-        <v>16363600</v>
+        <v>15836800</v>
       </c>
       <c r="G8" s="3">
-        <v>13379600</v>
+        <v>16357100</v>
       </c>
       <c r="H8" s="3">
-        <v>8640300</v>
+        <v>13374300</v>
       </c>
       <c r="I8" s="3">
-        <v>9050800</v>
+        <v>8636800</v>
       </c>
       <c r="J8" s="3">
+        <v>9047300</v>
+      </c>
+      <c r="K8" s="3">
         <v>15420000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14362500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12678500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12058100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4018700</v>
+        <v>18426500</v>
       </c>
       <c r="E9" s="3">
-        <v>6616400</v>
+        <v>4017100</v>
       </c>
       <c r="F9" s="3">
-        <v>6865300</v>
+        <v>6613800</v>
       </c>
       <c r="G9" s="3">
-        <v>6307100</v>
+        <v>6862600</v>
       </c>
       <c r="H9" s="3">
-        <v>5478100</v>
+        <v>6304600</v>
       </c>
       <c r="I9" s="3">
-        <v>5789700</v>
+        <v>5475900</v>
       </c>
       <c r="J9" s="3">
+        <v>5787500</v>
+      </c>
+      <c r="K9" s="3">
         <v>8636300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8032300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6970800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6365200</v>
+        <v>17951700</v>
       </c>
       <c r="E10" s="3">
-        <v>9226700</v>
+        <v>6362700</v>
       </c>
       <c r="F10" s="3">
-        <v>9498300</v>
+        <v>9223000</v>
       </c>
       <c r="G10" s="3">
-        <v>7072500</v>
+        <v>9494600</v>
       </c>
       <c r="H10" s="3">
-        <v>3162200</v>
+        <v>7069700</v>
       </c>
       <c r="I10" s="3">
-        <v>3261100</v>
+        <v>3160900</v>
       </c>
       <c r="J10" s="3">
+        <v>3259800</v>
+      </c>
+      <c r="K10" s="3">
         <v>6783600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6330200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5707700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12030500</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +852,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E12" s="3">
         <v>71400</v>
       </c>
-      <c r="E12" s="3">
-        <v>80100</v>
-      </c>
       <c r="F12" s="3">
-        <v>1686300</v>
+        <v>80000</v>
       </c>
       <c r="G12" s="3">
-        <v>725400</v>
+        <v>1685600</v>
       </c>
       <c r="H12" s="3">
+        <v>725100</v>
+      </c>
+      <c r="I12" s="3">
         <v>29800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>73800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>79300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>106200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>62500</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1236500</v>
+        <v>1321500</v>
       </c>
       <c r="E14" s="3">
+        <v>1236000</v>
+      </c>
+      <c r="F14" s="3">
         <v>29000</v>
       </c>
-      <c r="F14" s="3">
-        <v>653200</v>
-      </c>
       <c r="G14" s="3">
+        <v>652900</v>
+      </c>
+      <c r="H14" s="3">
         <v>15700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>37700</v>
       </c>
-      <c r="I14" s="3">
-        <v>-1844100</v>
-      </c>
       <c r="J14" s="3">
+        <v>-1843400</v>
+      </c>
+      <c r="K14" s="3">
         <v>390200</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>295800</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1846400</v>
+        <v>3391600</v>
       </c>
       <c r="E15" s="3">
-        <v>1739700</v>
+        <v>1845700</v>
       </c>
       <c r="F15" s="3">
-        <v>1693400</v>
+        <v>1739000</v>
       </c>
       <c r="G15" s="3">
-        <v>1442900</v>
+        <v>1692700</v>
       </c>
       <c r="H15" s="3">
-        <v>1888800</v>
+        <v>1442400</v>
       </c>
       <c r="I15" s="3">
-        <v>779600</v>
+        <v>1888100</v>
       </c>
       <c r="J15" s="3">
+        <v>779200</v>
+      </c>
+      <c r="K15" s="3">
         <v>1527700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1411100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1193200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>994900</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12406100</v>
+        <v>33915700</v>
       </c>
       <c r="E17" s="3">
-        <v>14549300</v>
+        <v>12401200</v>
       </c>
       <c r="F17" s="3">
-        <v>18058500</v>
+        <v>14543600</v>
       </c>
       <c r="G17" s="3">
-        <v>13122100</v>
+        <v>18051400</v>
       </c>
       <c r="H17" s="3">
-        <v>8845200</v>
+        <v>13116900</v>
       </c>
       <c r="I17" s="3">
-        <v>7459500</v>
+        <v>8841700</v>
       </c>
       <c r="J17" s="3">
+        <v>7456600</v>
+      </c>
+      <c r="K17" s="3">
         <v>14477900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12800600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11390500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10710700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2022300</v>
+        <v>2462500</v>
       </c>
       <c r="E18" s="3">
-        <v>1293800</v>
+        <v>-2021500</v>
       </c>
       <c r="F18" s="3">
-        <v>-1694900</v>
+        <v>1293300</v>
       </c>
       <c r="G18" s="3">
-        <v>257500</v>
+        <v>-1694300</v>
       </c>
       <c r="H18" s="3">
-        <v>-204900</v>
+        <v>257400</v>
       </c>
       <c r="I18" s="3">
-        <v>1591300</v>
+        <v>-204800</v>
       </c>
       <c r="J18" s="3">
+        <v>1590700</v>
+      </c>
+      <c r="K18" s="3">
         <v>942100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1562000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1288000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1347500</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-137400</v>
+        <v>-859300</v>
       </c>
       <c r="E20" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="F20" s="3">
         <v>186800</v>
       </c>
-      <c r="F20" s="3">
-        <v>-968800</v>
-      </c>
       <c r="G20" s="3">
-        <v>1930400</v>
+        <v>-968400</v>
       </c>
       <c r="H20" s="3">
-        <v>-157000</v>
+        <v>1929700</v>
       </c>
       <c r="I20" s="3">
-        <v>-635100</v>
+        <v>-156900</v>
       </c>
       <c r="J20" s="3">
+        <v>-634900</v>
+      </c>
+      <c r="K20" s="3">
         <v>237100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-410300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>312400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>348000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>549600</v>
+        <v>6200200</v>
       </c>
       <c r="E21" s="3">
-        <v>3239600</v>
+        <v>546600</v>
       </c>
       <c r="F21" s="3">
-        <v>-997000</v>
+        <v>3236500</v>
       </c>
       <c r="G21" s="3">
-        <v>3775600</v>
+        <v>-998300</v>
       </c>
       <c r="H21" s="3">
-        <v>809700</v>
+        <v>3772500</v>
       </c>
       <c r="I21" s="3">
-        <v>2609600</v>
+        <v>808200</v>
       </c>
       <c r="J21" s="3">
+        <v>2606900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2701100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2560200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2794100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2695100</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>376000</v>
+        <v>571300</v>
       </c>
       <c r="E22" s="3">
-        <v>383900</v>
+        <v>375900</v>
       </c>
       <c r="F22" s="3">
-        <v>418400</v>
+        <v>383700</v>
       </c>
       <c r="G22" s="3">
-        <v>448300</v>
+        <v>418300</v>
       </c>
       <c r="H22" s="3">
-        <v>267700</v>
+        <v>448100</v>
       </c>
       <c r="I22" s="3">
-        <v>257500</v>
+        <v>267600</v>
       </c>
       <c r="J22" s="3">
+        <v>257400</v>
+      </c>
+      <c r="K22" s="3">
         <v>241000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>309500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>262000</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2535700</v>
+        <v>1031900</v>
       </c>
       <c r="E23" s="3">
-        <v>1096700</v>
+        <v>-2534700</v>
       </c>
       <c r="F23" s="3">
-        <v>-3082100</v>
+        <v>1096300</v>
       </c>
       <c r="G23" s="3">
-        <v>1739700</v>
+        <v>-3080900</v>
       </c>
       <c r="H23" s="3">
-        <v>-629600</v>
+        <v>1739000</v>
       </c>
       <c r="I23" s="3">
-        <v>698700</v>
+        <v>-629400</v>
       </c>
       <c r="J23" s="3">
+        <v>698400</v>
+      </c>
+      <c r="K23" s="3">
         <v>938100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>842200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1338500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1695500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-668100</v>
+        <v>571300</v>
       </c>
       <c r="E24" s="3">
-        <v>-625700</v>
+        <v>-667800</v>
       </c>
       <c r="F24" s="3">
-        <v>-792900</v>
+        <v>-625400</v>
       </c>
       <c r="G24" s="3">
+        <v>-792600</v>
+      </c>
+      <c r="H24" s="3">
         <v>-40800</v>
       </c>
-      <c r="H24" s="3">
-        <v>-269300</v>
-      </c>
       <c r="I24" s="3">
+        <v>-269200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-18800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>354100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>332600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>589400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>560000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1867600</v>
+        <v>460600</v>
       </c>
       <c r="E26" s="3">
-        <v>1722400</v>
+        <v>-1866900</v>
       </c>
       <c r="F26" s="3">
-        <v>-2289200</v>
+        <v>1721700</v>
       </c>
       <c r="G26" s="3">
-        <v>1780500</v>
+        <v>-2288300</v>
       </c>
       <c r="H26" s="3">
-        <v>-360300</v>
+        <v>1779800</v>
       </c>
       <c r="I26" s="3">
-        <v>717500</v>
+        <v>-360200</v>
       </c>
       <c r="J26" s="3">
+        <v>717300</v>
+      </c>
+      <c r="K26" s="3">
         <v>584100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>509600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>749000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1135400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1867600</v>
+        <v>434000</v>
       </c>
       <c r="E27" s="3">
-        <v>1722400</v>
+        <v>-1866900</v>
       </c>
       <c r="F27" s="3">
-        <v>-2289200</v>
+        <v>1721700</v>
       </c>
       <c r="G27" s="3">
-        <v>1780500</v>
+        <v>-2288300</v>
       </c>
       <c r="H27" s="3">
-        <v>-360300</v>
+        <v>1779800</v>
       </c>
       <c r="I27" s="3">
-        <v>717500</v>
+        <v>-360200</v>
       </c>
       <c r="J27" s="3">
+        <v>717300</v>
+      </c>
+      <c r="K27" s="3">
         <v>584100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>509600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>749000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1135400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,32 +1465,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>193900</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>862000</v>
+        <v>193800</v>
       </c>
       <c r="H29" s="3">
+        <v>861600</v>
+      </c>
+      <c r="I29" s="3">
         <v>-67500</v>
       </c>
-      <c r="I29" s="3">
-        <v>-232400</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>-232300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>137400</v>
+        <v>859300</v>
       </c>
       <c r="E32" s="3">
+        <v>137300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-186800</v>
       </c>
-      <c r="F32" s="3">
-        <v>968800</v>
-      </c>
       <c r="G32" s="3">
-        <v>-1930400</v>
+        <v>968400</v>
       </c>
       <c r="H32" s="3">
-        <v>157000</v>
+        <v>-1929700</v>
       </c>
       <c r="I32" s="3">
-        <v>635100</v>
+        <v>156900</v>
       </c>
       <c r="J32" s="3">
+        <v>634900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-237100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>410300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-312400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-348000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1867600</v>
+        <v>434000</v>
       </c>
       <c r="E33" s="3">
-        <v>1722400</v>
+        <v>-1866900</v>
       </c>
       <c r="F33" s="3">
-        <v>-2095300</v>
+        <v>1721700</v>
       </c>
       <c r="G33" s="3">
-        <v>2642500</v>
+        <v>-2094500</v>
       </c>
       <c r="H33" s="3">
-        <v>-427900</v>
+        <v>2641400</v>
       </c>
       <c r="I33" s="3">
-        <v>485200</v>
+        <v>-427700</v>
       </c>
       <c r="J33" s="3">
+        <v>485000</v>
+      </c>
+      <c r="K33" s="3">
         <v>584100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>509600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>749000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1135400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1867600</v>
+        <v>434000</v>
       </c>
       <c r="E35" s="3">
-        <v>1722400</v>
+        <v>-1866900</v>
       </c>
       <c r="F35" s="3">
-        <v>-2095300</v>
+        <v>1721700</v>
       </c>
       <c r="G35" s="3">
-        <v>2642500</v>
+        <v>-2094500</v>
       </c>
       <c r="H35" s="3">
-        <v>-427900</v>
+        <v>2641400</v>
       </c>
       <c r="I35" s="3">
-        <v>485200</v>
+        <v>-427700</v>
       </c>
       <c r="J35" s="3">
+        <v>485000</v>
+      </c>
+      <c r="K35" s="3">
         <v>584100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>509600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>749000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1135400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,332 +1819,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>288900</v>
+        <v>1856700</v>
       </c>
       <c r="E41" s="3">
+        <v>288800</v>
+      </c>
+      <c r="F41" s="3">
         <v>84800</v>
       </c>
-      <c r="F41" s="3">
-        <v>121700</v>
-      </c>
       <c r="G41" s="3">
-        <v>429400</v>
+        <v>121600</v>
       </c>
       <c r="H41" s="3">
-        <v>425500</v>
+        <v>429300</v>
       </c>
       <c r="I41" s="3">
-        <v>253600</v>
+        <v>425300</v>
       </c>
       <c r="J41" s="3">
+        <v>253500</v>
+      </c>
+      <c r="K41" s="3">
         <v>359600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1887600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1128400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>178200</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7900</v>
+        <v>397900</v>
       </c>
       <c r="E42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F42" s="3">
         <v>61200</v>
       </c>
-      <c r="F42" s="3">
-        <v>491400</v>
-      </c>
       <c r="G42" s="3">
-        <v>49500</v>
+        <v>491200</v>
       </c>
       <c r="H42" s="3">
-        <v>2494900</v>
+        <v>49400</v>
       </c>
       <c r="I42" s="3">
-        <v>2969100</v>
+        <v>2493900</v>
       </c>
       <c r="J42" s="3">
+        <v>2967900</v>
+      </c>
+      <c r="K42" s="3">
         <v>333600</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>618000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>202000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1089600</v>
+        <v>2672800</v>
       </c>
       <c r="E43" s="3">
-        <v>1183100</v>
+        <v>1089200</v>
       </c>
       <c r="F43" s="3">
-        <v>936600</v>
+        <v>1182600</v>
       </c>
       <c r="G43" s="3">
-        <v>1439800</v>
+        <v>936200</v>
       </c>
       <c r="H43" s="3">
-        <v>1347900</v>
+        <v>1439200</v>
       </c>
       <c r="I43" s="3">
-        <v>931100</v>
+        <v>1347400</v>
       </c>
       <c r="J43" s="3">
+        <v>930700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1263900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1454200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2459400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1053200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>854900</v>
+        <v>3075400</v>
       </c>
       <c r="E44" s="3">
-        <v>1202700</v>
+        <v>854600</v>
       </c>
       <c r="F44" s="3">
-        <v>795300</v>
+        <v>1202200</v>
       </c>
       <c r="G44" s="3">
-        <v>1090400</v>
+        <v>794900</v>
       </c>
       <c r="H44" s="3">
-        <v>971100</v>
+        <v>1090000</v>
       </c>
       <c r="I44" s="3">
-        <v>635900</v>
+        <v>970700</v>
       </c>
       <c r="J44" s="3">
+        <v>635600</v>
+      </c>
+      <c r="K44" s="3">
         <v>960900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>969200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1917400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>991800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1404700</v>
+      </c>
+      <c r="E45" s="3">
         <v>95000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46300</v>
       </c>
-      <c r="F45" s="3">
-        <v>163300</v>
-      </c>
       <c r="G45" s="3">
-        <v>922400</v>
+        <v>163200</v>
       </c>
       <c r="H45" s="3">
-        <v>116200</v>
+        <v>922100</v>
       </c>
       <c r="I45" s="3">
-        <v>292000</v>
+        <v>116100</v>
       </c>
       <c r="J45" s="3">
+        <v>291900</v>
+      </c>
+      <c r="K45" s="3">
         <v>375300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>536000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>579200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2336300</v>
+        <v>9407500</v>
       </c>
       <c r="E46" s="3">
-        <v>2578100</v>
+        <v>2335400</v>
       </c>
       <c r="F46" s="3">
-        <v>2508200</v>
+        <v>2577100</v>
       </c>
       <c r="G46" s="3">
-        <v>3931500</v>
+        <v>2507200</v>
       </c>
       <c r="H46" s="3">
-        <v>5355600</v>
+        <v>3930000</v>
       </c>
       <c r="I46" s="3">
-        <v>5081600</v>
+        <v>5353500</v>
       </c>
       <c r="J46" s="3">
+        <v>5079600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3293300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4318700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3447000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3004500</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>444900</v>
+      </c>
+      <c r="E47" s="3">
         <v>166400</v>
       </c>
-      <c r="E47" s="3">
-        <v>80900</v>
-      </c>
       <c r="F47" s="3">
-        <v>164900</v>
+        <v>80800</v>
       </c>
       <c r="G47" s="3">
-        <v>281800</v>
+        <v>164800</v>
       </c>
       <c r="H47" s="3">
-        <v>136600</v>
+        <v>281700</v>
       </c>
       <c r="I47" s="3">
-        <v>107600</v>
-      </c>
-      <c r="J47" s="3" t="s">
+        <v>136500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>107500</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>1069000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1413500</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21332200</v>
+        <v>29000100</v>
       </c>
       <c r="E48" s="3">
-        <v>23509100</v>
+        <v>21323700</v>
       </c>
       <c r="F48" s="3">
-        <v>23145600</v>
+        <v>23499800</v>
       </c>
       <c r="G48" s="3">
-        <v>26117800</v>
+        <v>23136500</v>
       </c>
       <c r="H48" s="3">
-        <v>14139500</v>
+        <v>26107500</v>
       </c>
       <c r="I48" s="3">
-        <v>14845300</v>
+        <v>14134000</v>
       </c>
       <c r="J48" s="3">
+        <v>14839400</v>
+      </c>
+      <c r="K48" s="3">
         <v>15848600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14478000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26252800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11680200</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1853500</v>
+        <v>2786600</v>
       </c>
       <c r="E49" s="3">
-        <v>1862900</v>
+        <v>1852800</v>
       </c>
       <c r="F49" s="3">
-        <v>1783600</v>
+        <v>1862200</v>
       </c>
       <c r="G49" s="3">
-        <v>1783600</v>
+        <v>1782900</v>
       </c>
       <c r="H49" s="3">
+        <v>1782900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>189900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>189900</v>
+      </c>
+      <c r="K49" s="3">
         <v>190000</v>
       </c>
-      <c r="I49" s="3">
-        <v>190000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>190000</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>568900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>556300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>869600</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>818500</v>
+      </c>
+      <c r="E52" s="3">
         <v>37700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>22800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>55000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>53400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>82200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25726100</v>
+        <v>42457600</v>
       </c>
       <c r="E54" s="3">
-        <v>28036500</v>
+        <v>25715900</v>
       </c>
       <c r="F54" s="3">
-        <v>27613300</v>
+        <v>28025400</v>
       </c>
       <c r="G54" s="3">
-        <v>32134500</v>
+        <v>27602400</v>
       </c>
       <c r="H54" s="3">
-        <v>19828800</v>
+        <v>32121800</v>
       </c>
       <c r="I54" s="3">
-        <v>20247200</v>
+        <v>19821000</v>
       </c>
       <c r="J54" s="3">
+        <v>20239200</v>
+      </c>
+      <c r="K54" s="3">
         <v>19386800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19417900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18229600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17050100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,224 +2399,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>477300</v>
+        <v>2004200</v>
       </c>
       <c r="E57" s="3">
-        <v>737200</v>
+        <v>477100</v>
       </c>
       <c r="F57" s="3">
-        <v>602100</v>
+        <v>736900</v>
       </c>
       <c r="G57" s="3">
-        <v>264600</v>
+        <v>601900</v>
       </c>
       <c r="H57" s="3">
+        <v>264500</v>
+      </c>
+      <c r="I57" s="3">
         <v>82400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>78500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>609000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>606100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>239400</v>
+        <v>275400</v>
       </c>
       <c r="E58" s="3">
-        <v>153900</v>
+        <v>239300</v>
       </c>
       <c r="F58" s="3">
-        <v>535400</v>
-      </c>
-      <c r="G58" s="3" t="s">
+        <v>153800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>535200</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>337200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>290600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>285800</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1135200</v>
+        <v>3452900</v>
       </c>
       <c r="E59" s="3">
-        <v>1088100</v>
+        <v>1134700</v>
       </c>
       <c r="F59" s="3">
-        <v>903600</v>
+        <v>1087600</v>
       </c>
       <c r="G59" s="3">
-        <v>3217900</v>
+        <v>903200</v>
       </c>
       <c r="H59" s="3">
-        <v>2014400</v>
+        <v>3216600</v>
       </c>
       <c r="I59" s="3">
-        <v>1405200</v>
+        <v>2013600</v>
       </c>
       <c r="J59" s="3">
+        <v>1404700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2281400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2493400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3556900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1710800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1851900</v>
+        <v>5732500</v>
       </c>
       <c r="E60" s="3">
-        <v>1979100</v>
+        <v>1851200</v>
       </c>
       <c r="F60" s="3">
-        <v>2041100</v>
+        <v>1978300</v>
       </c>
       <c r="G60" s="3">
-        <v>3482500</v>
+        <v>2040300</v>
       </c>
       <c r="H60" s="3">
-        <v>2096900</v>
+        <v>3481100</v>
       </c>
       <c r="I60" s="3">
-        <v>1458600</v>
+        <v>2096000</v>
       </c>
       <c r="J60" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2321400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2909100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2461600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2602800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7076400</v>
+        <v>11826000</v>
       </c>
       <c r="E61" s="3">
-        <v>6609300</v>
+        <v>7073600</v>
       </c>
       <c r="F61" s="3">
-        <v>6658800</v>
+        <v>6606700</v>
       </c>
       <c r="G61" s="3">
-        <v>7468200</v>
+        <v>6656200</v>
       </c>
       <c r="H61" s="3">
-        <v>4970900</v>
+        <v>7465200</v>
       </c>
       <c r="I61" s="3">
-        <v>5122500</v>
+        <v>4969000</v>
       </c>
       <c r="J61" s="3">
+        <v>5120400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4284800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4683600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4595800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4133100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3681900</v>
+        <v>6372900</v>
       </c>
       <c r="E62" s="3">
-        <v>4374300</v>
+        <v>3680400</v>
       </c>
       <c r="F62" s="3">
-        <v>5200200</v>
+        <v>4372600</v>
       </c>
       <c r="G62" s="3">
-        <v>5497700</v>
+        <v>5198100</v>
       </c>
       <c r="H62" s="3">
-        <v>3662300</v>
+        <v>5495500</v>
       </c>
       <c r="I62" s="3">
-        <v>3938600</v>
+        <v>3660800</v>
       </c>
       <c r="J62" s="3">
+        <v>3937000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4784100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4168600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5643700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3088300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12610300</v>
+        <v>23940800</v>
       </c>
       <c r="E66" s="3">
-        <v>12962700</v>
+        <v>12605300</v>
       </c>
       <c r="F66" s="3">
-        <v>13900100</v>
+        <v>12957600</v>
       </c>
       <c r="G66" s="3">
-        <v>16448400</v>
+        <v>13894600</v>
       </c>
       <c r="H66" s="3">
-        <v>10730100</v>
+        <v>16441900</v>
       </c>
       <c r="I66" s="3">
-        <v>10519700</v>
+        <v>10725800</v>
       </c>
       <c r="J66" s="3">
+        <v>10515500</v>
+      </c>
+      <c r="K66" s="3">
         <v>11390300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11761300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10865800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9824100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,14 +2881,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>407300</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>393300</v>
+        <v>857700</v>
       </c>
       <c r="E72" s="3">
-        <v>2321400</v>
+        <v>393200</v>
       </c>
       <c r="F72" s="3">
-        <v>803100</v>
+        <v>2320500</v>
       </c>
       <c r="G72" s="3">
-        <v>3090700</v>
+        <v>802800</v>
       </c>
       <c r="H72" s="3">
-        <v>624900</v>
+        <v>3089500</v>
       </c>
       <c r="I72" s="3">
-        <v>1183100</v>
+        <v>624700</v>
       </c>
       <c r="J72" s="3">
+        <v>1182600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1255300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1277900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2603100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1075500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13115800</v>
+        <v>18109400</v>
       </c>
       <c r="E76" s="3">
-        <v>15073700</v>
+        <v>13110700</v>
       </c>
       <c r="F76" s="3">
-        <v>13713300</v>
+        <v>15067800</v>
       </c>
       <c r="G76" s="3">
-        <v>15686100</v>
+        <v>13707800</v>
       </c>
       <c r="H76" s="3">
-        <v>9098700</v>
+        <v>15679900</v>
       </c>
       <c r="I76" s="3">
-        <v>9727600</v>
+        <v>9095100</v>
       </c>
       <c r="J76" s="3">
+        <v>9723700</v>
+      </c>
+      <c r="K76" s="3">
         <v>7996500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7656600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7363800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7226000</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1867600</v>
+        <v>434000</v>
       </c>
       <c r="E81" s="3">
-        <v>1722400</v>
+        <v>-1866900</v>
       </c>
       <c r="F81" s="3">
-        <v>-2095300</v>
+        <v>1721700</v>
       </c>
       <c r="G81" s="3">
-        <v>2642500</v>
+        <v>-2094500</v>
       </c>
       <c r="H81" s="3">
-        <v>-427900</v>
+        <v>2641400</v>
       </c>
       <c r="I81" s="3">
-        <v>485200</v>
+        <v>-427700</v>
       </c>
       <c r="J81" s="3">
+        <v>485000</v>
+      </c>
+      <c r="K81" s="3">
         <v>584100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>509600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>749000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1135400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2719400</v>
+        <v>4619000</v>
       </c>
       <c r="E83" s="3">
-        <v>1765600</v>
+        <v>2718300</v>
       </c>
       <c r="F83" s="3">
-        <v>1672900</v>
+        <v>1764900</v>
       </c>
       <c r="G83" s="3">
-        <v>1593700</v>
+        <v>1672300</v>
       </c>
       <c r="H83" s="3">
-        <v>1176000</v>
+        <v>1593000</v>
       </c>
       <c r="I83" s="3">
-        <v>1659600</v>
+        <v>1175500</v>
       </c>
       <c r="J83" s="3">
+        <v>1658900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1527700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1411100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1193200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>994900</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>214300</v>
+        <v>4644900</v>
       </c>
       <c r="E89" s="3">
-        <v>2578900</v>
+        <v>214200</v>
       </c>
       <c r="F89" s="3">
-        <v>1691000</v>
+        <v>2577900</v>
       </c>
       <c r="G89" s="3">
-        <v>2401500</v>
+        <v>1690300</v>
       </c>
       <c r="H89" s="3">
-        <v>675900</v>
+        <v>2400500</v>
       </c>
       <c r="I89" s="3">
-        <v>1157200</v>
+        <v>675700</v>
       </c>
       <c r="J89" s="3">
+        <v>1156700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2768100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2724400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2574500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2514400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-674400</v>
+        <v>-2011300</v>
       </c>
       <c r="E91" s="3">
-        <v>-928700</v>
+        <v>-674100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1081000</v>
+        <v>-928300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1311000</v>
+        <v>-1080600</v>
       </c>
       <c r="H91" s="3">
-        <v>-811700</v>
+        <v>-1310500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1345600</v>
+        <v>-811400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1345000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2400700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2516500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2596400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2144900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-677500</v>
+        <v>-739200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1124200</v>
+        <v>-677200</v>
       </c>
       <c r="F94" s="3">
-        <v>-481200</v>
+        <v>-1123700</v>
       </c>
       <c r="G94" s="3">
-        <v>-10100500</v>
+        <v>-481000</v>
       </c>
       <c r="H94" s="3">
-        <v>-847100</v>
+        <v>-10096500</v>
       </c>
       <c r="I94" s="3">
-        <v>697100</v>
+        <v>-846700</v>
       </c>
       <c r="J94" s="3">
+        <v>696800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3415000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1169400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2511300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1943600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-164800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-60400</v>
       </c>
-      <c r="E96" s="3">
-        <v>-204100</v>
-      </c>
       <c r="F96" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-192300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-176600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-130300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-414500</v>
-      </c>
       <c r="J96" s="3">
+        <v>-414300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-632000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-563500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-500600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-463200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>657100</v>
+        <v>-1967300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1894300</v>
+        <v>656800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1106900</v>
+        <v>-1893600</v>
       </c>
       <c r="G100" s="3">
-        <v>5114600</v>
+        <v>-1106500</v>
       </c>
       <c r="H100" s="3">
-        <v>-131900</v>
+        <v>5112600</v>
       </c>
       <c r="I100" s="3">
-        <v>701800</v>
+        <v>-131800</v>
       </c>
       <c r="J100" s="3">
+        <v>701600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-625700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-558900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>445700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-428700</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-43200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-27500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>31400</v>
       </c>
-      <c r="G101" s="3">
-        <v>142900</v>
-      </c>
       <c r="H101" s="3">
+        <v>142800</v>
+      </c>
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-26700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>40800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7700</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1957900</v>
+      </c>
+      <c r="E102" s="3">
         <v>150700</v>
       </c>
-      <c r="E102" s="3">
-        <v>-467100</v>
-      </c>
       <c r="F102" s="3">
+        <v>-466900</v>
+      </c>
+      <c r="G102" s="3">
         <v>134200</v>
       </c>
-      <c r="G102" s="3">
-        <v>-2441500</v>
-      </c>
       <c r="H102" s="3">
-        <v>-302200</v>
+        <v>-2440500</v>
       </c>
       <c r="I102" s="3">
-        <v>2529400</v>
+        <v>-302100</v>
       </c>
       <c r="J102" s="3">
+        <v>2528400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1231700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>994600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>500600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>149800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -665,9 +665,7 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -725,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36378200</v>
+        <v>35539100</v>
       </c>
       <c r="E8" s="3">
-        <v>10379800</v>
+        <v>10140300</v>
       </c>
       <c r="F8" s="3">
-        <v>15836800</v>
+        <v>15471600</v>
       </c>
       <c r="G8" s="3">
-        <v>16357100</v>
+        <v>15979800</v>
       </c>
       <c r="H8" s="3">
-        <v>13374300</v>
+        <v>13065800</v>
       </c>
       <c r="I8" s="3">
-        <v>8636800</v>
+        <v>8437600</v>
       </c>
       <c r="J8" s="3">
-        <v>9047300</v>
+        <v>8838600</v>
       </c>
       <c r="K8" s="3">
         <v>15420000</v>
@@ -764,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18426500</v>
+        <v>18001500</v>
       </c>
       <c r="E9" s="3">
-        <v>4017100</v>
+        <v>3924400</v>
       </c>
       <c r="F9" s="3">
-        <v>6613800</v>
+        <v>6461200</v>
       </c>
       <c r="G9" s="3">
-        <v>6862600</v>
+        <v>6704300</v>
       </c>
       <c r="H9" s="3">
-        <v>6304600</v>
+        <v>6159200</v>
       </c>
       <c r="I9" s="3">
-        <v>5475900</v>
+        <v>5349600</v>
       </c>
       <c r="J9" s="3">
-        <v>5787500</v>
+        <v>5654000</v>
       </c>
       <c r="K9" s="3">
         <v>8636300</v>
@@ -803,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17951700</v>
+        <v>17537700</v>
       </c>
       <c r="E10" s="3">
-        <v>6362700</v>
+        <v>6215900</v>
       </c>
       <c r="F10" s="3">
-        <v>9223000</v>
+        <v>9010300</v>
       </c>
       <c r="G10" s="3">
-        <v>9494600</v>
+        <v>9275600</v>
       </c>
       <c r="H10" s="3">
-        <v>7069700</v>
+        <v>6906700</v>
       </c>
       <c r="I10" s="3">
-        <v>3160900</v>
+        <v>3088000</v>
       </c>
       <c r="J10" s="3">
-        <v>3259800</v>
+        <v>3184600</v>
       </c>
       <c r="K10" s="3">
         <v>6783600</v>
@@ -859,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>14100</v>
+        <v>13800</v>
       </c>
       <c r="E12" s="3">
-        <v>71400</v>
+        <v>69800</v>
       </c>
       <c r="F12" s="3">
-        <v>80000</v>
+        <v>78200</v>
       </c>
       <c r="G12" s="3">
-        <v>1685600</v>
+        <v>1646700</v>
       </c>
       <c r="H12" s="3">
-        <v>725100</v>
+        <v>708400</v>
       </c>
       <c r="I12" s="3">
-        <v>29800</v>
+        <v>29100</v>
       </c>
       <c r="J12" s="3">
-        <v>73800</v>
+        <v>72100</v>
       </c>
       <c r="K12" s="3">
         <v>79300</v>
@@ -937,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1321500</v>
+        <v>1291000</v>
       </c>
       <c r="E14" s="3">
-        <v>1236000</v>
+        <v>1207500</v>
       </c>
       <c r="F14" s="3">
-        <v>29000</v>
+        <v>28400</v>
       </c>
       <c r="G14" s="3">
-        <v>652900</v>
+        <v>637800</v>
       </c>
       <c r="H14" s="3">
-        <v>15700</v>
+        <v>15300</v>
       </c>
       <c r="I14" s="3">
-        <v>37700</v>
+        <v>36800</v>
       </c>
       <c r="J14" s="3">
-        <v>-1843400</v>
+        <v>-1800800</v>
       </c>
       <c r="K14" s="3">
         <v>390200</v>
@@ -976,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3391600</v>
+        <v>3313400</v>
       </c>
       <c r="E15" s="3">
-        <v>1845700</v>
+        <v>1803100</v>
       </c>
       <c r="F15" s="3">
-        <v>1739000</v>
+        <v>1698900</v>
       </c>
       <c r="G15" s="3">
-        <v>1692700</v>
+        <v>1653600</v>
       </c>
       <c r="H15" s="3">
-        <v>1442400</v>
+        <v>1409100</v>
       </c>
       <c r="I15" s="3">
-        <v>1888100</v>
+        <v>1844500</v>
       </c>
       <c r="J15" s="3">
-        <v>779200</v>
+        <v>761300</v>
       </c>
       <c r="K15" s="3">
         <v>1527700</v>
@@ -1029,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33915700</v>
+        <v>33133400</v>
       </c>
       <c r="E17" s="3">
-        <v>12401200</v>
+        <v>12115200</v>
       </c>
       <c r="F17" s="3">
-        <v>14543600</v>
+        <v>14208100</v>
       </c>
       <c r="G17" s="3">
-        <v>18051400</v>
+        <v>17635000</v>
       </c>
       <c r="H17" s="3">
-        <v>13116900</v>
+        <v>12814400</v>
       </c>
       <c r="I17" s="3">
-        <v>8841700</v>
+        <v>8637700</v>
       </c>
       <c r="J17" s="3">
-        <v>7456600</v>
+        <v>7284600</v>
       </c>
       <c r="K17" s="3">
         <v>14477900</v>
@@ -1068,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2462500</v>
+        <v>2405700</v>
       </c>
       <c r="E18" s="3">
-        <v>-2021500</v>
+        <v>-1974900</v>
       </c>
       <c r="F18" s="3">
-        <v>1293300</v>
+        <v>1263400</v>
       </c>
       <c r="G18" s="3">
-        <v>-1694300</v>
+        <v>-1655200</v>
       </c>
       <c r="H18" s="3">
-        <v>257400</v>
+        <v>251500</v>
       </c>
       <c r="I18" s="3">
-        <v>-204800</v>
+        <v>-200100</v>
       </c>
       <c r="J18" s="3">
-        <v>1590700</v>
+        <v>1554000</v>
       </c>
       <c r="K18" s="3">
         <v>942100</v>
@@ -1124,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-859300</v>
+        <v>-839500</v>
       </c>
       <c r="E20" s="3">
-        <v>-137300</v>
+        <v>-134200</v>
       </c>
       <c r="F20" s="3">
-        <v>186800</v>
+        <v>182500</v>
       </c>
       <c r="G20" s="3">
-        <v>-968400</v>
+        <v>-946000</v>
       </c>
       <c r="H20" s="3">
-        <v>1929700</v>
+        <v>1885200</v>
       </c>
       <c r="I20" s="3">
-        <v>-156900</v>
+        <v>-153300</v>
       </c>
       <c r="J20" s="3">
-        <v>-634900</v>
+        <v>-620200</v>
       </c>
       <c r="K20" s="3">
         <v>237100</v>
@@ -1163,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6200200</v>
+        <v>6096400</v>
       </c>
       <c r="E21" s="3">
-        <v>546600</v>
+        <v>557000</v>
       </c>
       <c r="F21" s="3">
-        <v>3236500</v>
+        <v>3176800</v>
       </c>
       <c r="G21" s="3">
-        <v>-998300</v>
+        <v>-961100</v>
       </c>
       <c r="H21" s="3">
-        <v>3772500</v>
+        <v>3699000</v>
       </c>
       <c r="I21" s="3">
-        <v>808200</v>
+        <v>799500</v>
       </c>
       <c r="J21" s="3">
-        <v>2606900</v>
+        <v>2560800</v>
       </c>
       <c r="K21" s="3">
         <v>2701100</v>
@@ -1202,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>571300</v>
+        <v>558100</v>
       </c>
       <c r="E22" s="3">
-        <v>375900</v>
+        <v>367200</v>
       </c>
       <c r="F22" s="3">
-        <v>383700</v>
+        <v>374900</v>
       </c>
       <c r="G22" s="3">
-        <v>418300</v>
+        <v>408600</v>
       </c>
       <c r="H22" s="3">
-        <v>448100</v>
+        <v>437800</v>
       </c>
       <c r="I22" s="3">
-        <v>267600</v>
+        <v>261400</v>
       </c>
       <c r="J22" s="3">
-        <v>257400</v>
+        <v>251500</v>
       </c>
       <c r="K22" s="3">
         <v>241000</v>
@@ -1241,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1031900</v>
+        <v>1008100</v>
       </c>
       <c r="E23" s="3">
-        <v>-2534700</v>
+        <v>-2476200</v>
       </c>
       <c r="F23" s="3">
-        <v>1096300</v>
+        <v>1071000</v>
       </c>
       <c r="G23" s="3">
-        <v>-3080900</v>
+        <v>-3009800</v>
       </c>
       <c r="H23" s="3">
-        <v>1739000</v>
+        <v>1698900</v>
       </c>
       <c r="I23" s="3">
-        <v>-629400</v>
+        <v>-614800</v>
       </c>
       <c r="J23" s="3">
-        <v>698400</v>
+        <v>682300</v>
       </c>
       <c r="K23" s="3">
         <v>938100</v>
@@ -1280,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>571300</v>
+        <v>558100</v>
       </c>
       <c r="E24" s="3">
-        <v>-667800</v>
+        <v>-652400</v>
       </c>
       <c r="F24" s="3">
-        <v>-625400</v>
+        <v>-611000</v>
       </c>
       <c r="G24" s="3">
-        <v>-792600</v>
+        <v>-774300</v>
       </c>
       <c r="H24" s="3">
-        <v>-40800</v>
+        <v>-39900</v>
       </c>
       <c r="I24" s="3">
-        <v>-269200</v>
+        <v>-263000</v>
       </c>
       <c r="J24" s="3">
-        <v>-18800</v>
+        <v>-18400</v>
       </c>
       <c r="K24" s="3">
         <v>354100</v>
@@ -1358,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>460600</v>
+        <v>450000</v>
       </c>
       <c r="E26" s="3">
-        <v>-1866900</v>
+        <v>-1823800</v>
       </c>
       <c r="F26" s="3">
-        <v>1721700</v>
+        <v>1682000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2288300</v>
+        <v>-2235500</v>
       </c>
       <c r="H26" s="3">
-        <v>1779800</v>
+        <v>1738700</v>
       </c>
       <c r="I26" s="3">
-        <v>-360200</v>
+        <v>-351900</v>
       </c>
       <c r="J26" s="3">
-        <v>717300</v>
+        <v>700700</v>
       </c>
       <c r="K26" s="3">
         <v>584100</v>
@@ -1397,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>434000</v>
+        <v>424000</v>
       </c>
       <c r="E27" s="3">
-        <v>-1866900</v>
+        <v>-1823800</v>
       </c>
       <c r="F27" s="3">
-        <v>1721700</v>
+        <v>1682000</v>
       </c>
       <c r="G27" s="3">
-        <v>-2288300</v>
+        <v>-2235500</v>
       </c>
       <c r="H27" s="3">
-        <v>1779800</v>
+        <v>1738700</v>
       </c>
       <c r="I27" s="3">
-        <v>-360200</v>
+        <v>-351900</v>
       </c>
       <c r="J27" s="3">
-        <v>717300</v>
+        <v>700700</v>
       </c>
       <c r="K27" s="3">
         <v>584100</v>
@@ -1484,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>193800</v>
+        <v>189400</v>
       </c>
       <c r="H29" s="3">
-        <v>861600</v>
+        <v>841800</v>
       </c>
       <c r="I29" s="3">
-        <v>-67500</v>
+        <v>-65900</v>
       </c>
       <c r="J29" s="3">
-        <v>-232300</v>
+        <v>-226900</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1592,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>859300</v>
+        <v>839500</v>
       </c>
       <c r="E32" s="3">
-        <v>137300</v>
+        <v>134200</v>
       </c>
       <c r="F32" s="3">
-        <v>-186800</v>
+        <v>-182500</v>
       </c>
       <c r="G32" s="3">
-        <v>968400</v>
+        <v>946000</v>
       </c>
       <c r="H32" s="3">
-        <v>-1929700</v>
+        <v>-1885200</v>
       </c>
       <c r="I32" s="3">
-        <v>156900</v>
+        <v>153300</v>
       </c>
       <c r="J32" s="3">
-        <v>634900</v>
+        <v>620200</v>
       </c>
       <c r="K32" s="3">
         <v>-237100</v>
@@ -1631,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>434000</v>
+        <v>424000</v>
       </c>
       <c r="E33" s="3">
-        <v>-1866900</v>
+        <v>-1823800</v>
       </c>
       <c r="F33" s="3">
-        <v>1721700</v>
+        <v>1682000</v>
       </c>
       <c r="G33" s="3">
-        <v>-2094500</v>
+        <v>-2046200</v>
       </c>
       <c r="H33" s="3">
-        <v>2641400</v>
+        <v>2580500</v>
       </c>
       <c r="I33" s="3">
-        <v>-427700</v>
+        <v>-417800</v>
       </c>
       <c r="J33" s="3">
-        <v>485000</v>
+        <v>473800</v>
       </c>
       <c r="K33" s="3">
         <v>584100</v>
@@ -1709,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>434000</v>
+        <v>424000</v>
       </c>
       <c r="E35" s="3">
-        <v>-1866900</v>
+        <v>-1823800</v>
       </c>
       <c r="F35" s="3">
-        <v>1721700</v>
+        <v>1682000</v>
       </c>
       <c r="G35" s="3">
-        <v>-2094500</v>
+        <v>-2046200</v>
       </c>
       <c r="H35" s="3">
-        <v>2641400</v>
+        <v>2580500</v>
       </c>
       <c r="I35" s="3">
-        <v>-427700</v>
+        <v>-417800</v>
       </c>
       <c r="J35" s="3">
-        <v>485000</v>
+        <v>473800</v>
       </c>
       <c r="K35" s="3">
         <v>584100</v>
@@ -1826,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1856700</v>
+        <v>1813900</v>
       </c>
       <c r="E41" s="3">
-        <v>288800</v>
+        <v>282100</v>
       </c>
       <c r="F41" s="3">
-        <v>84800</v>
+        <v>82800</v>
       </c>
       <c r="G41" s="3">
-        <v>121600</v>
+        <v>118800</v>
       </c>
       <c r="H41" s="3">
-        <v>429300</v>
+        <v>419400</v>
       </c>
       <c r="I41" s="3">
-        <v>425300</v>
+        <v>415500</v>
       </c>
       <c r="J41" s="3">
-        <v>253500</v>
+        <v>247600</v>
       </c>
       <c r="K41" s="3">
         <v>359600</v>
@@ -1865,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>397900</v>
+        <v>388700</v>
       </c>
       <c r="E42" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F42" s="3">
-        <v>61200</v>
+        <v>59800</v>
       </c>
       <c r="G42" s="3">
-        <v>491200</v>
+        <v>479900</v>
       </c>
       <c r="H42" s="3">
-        <v>49400</v>
+        <v>48300</v>
       </c>
       <c r="I42" s="3">
-        <v>2493900</v>
+        <v>2436400</v>
       </c>
       <c r="J42" s="3">
-        <v>2967900</v>
+        <v>2899400</v>
       </c>
       <c r="K42" s="3">
         <v>333600</v>
@@ -1904,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2672800</v>
+        <v>2611200</v>
       </c>
       <c r="E43" s="3">
-        <v>1089200</v>
+        <v>1064100</v>
       </c>
       <c r="F43" s="3">
-        <v>1182600</v>
+        <v>1155300</v>
       </c>
       <c r="G43" s="3">
-        <v>936200</v>
+        <v>914600</v>
       </c>
       <c r="H43" s="3">
-        <v>1439200</v>
+        <v>1406000</v>
       </c>
       <c r="I43" s="3">
-        <v>1347400</v>
+        <v>1316300</v>
       </c>
       <c r="J43" s="3">
-        <v>930700</v>
+        <v>909200</v>
       </c>
       <c r="K43" s="3">
         <v>1263900</v>
@@ -1943,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3075400</v>
+        <v>3004500</v>
       </c>
       <c r="E44" s="3">
-        <v>854600</v>
+        <v>834900</v>
       </c>
       <c r="F44" s="3">
-        <v>1202200</v>
+        <v>1174500</v>
       </c>
       <c r="G44" s="3">
-        <v>794900</v>
+        <v>776600</v>
       </c>
       <c r="H44" s="3">
-        <v>1090000</v>
+        <v>1064900</v>
       </c>
       <c r="I44" s="3">
-        <v>970700</v>
+        <v>948300</v>
       </c>
       <c r="J44" s="3">
-        <v>635600</v>
+        <v>621000</v>
       </c>
       <c r="K44" s="3">
         <v>960900</v>
@@ -1982,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1404700</v>
+        <v>1372300</v>
       </c>
       <c r="E45" s="3">
-        <v>95000</v>
+        <v>92800</v>
       </c>
       <c r="F45" s="3">
-        <v>46300</v>
+        <v>45200</v>
       </c>
       <c r="G45" s="3">
-        <v>163200</v>
+        <v>159500</v>
       </c>
       <c r="H45" s="3">
-        <v>922100</v>
+        <v>900800</v>
       </c>
       <c r="I45" s="3">
-        <v>116100</v>
+        <v>113500</v>
       </c>
       <c r="J45" s="3">
-        <v>291900</v>
+        <v>285200</v>
       </c>
       <c r="K45" s="3">
         <v>375300</v>
@@ -2021,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9407500</v>
+        <v>9190500</v>
       </c>
       <c r="E46" s="3">
-        <v>2335400</v>
+        <v>2281500</v>
       </c>
       <c r="F46" s="3">
-        <v>2577100</v>
+        <v>2517600</v>
       </c>
       <c r="G46" s="3">
-        <v>2507200</v>
+        <v>2449400</v>
       </c>
       <c r="H46" s="3">
-        <v>3930000</v>
+        <v>3839300</v>
       </c>
       <c r="I46" s="3">
-        <v>5353500</v>
+        <v>5230000</v>
       </c>
       <c r="J46" s="3">
-        <v>5079600</v>
+        <v>4962500</v>
       </c>
       <c r="K46" s="3">
         <v>3293300</v>
@@ -2060,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>444900</v>
+        <v>493700</v>
       </c>
       <c r="E47" s="3">
-        <v>166400</v>
+        <v>171700</v>
       </c>
       <c r="F47" s="3">
-        <v>80800</v>
+        <v>79000</v>
       </c>
       <c r="G47" s="3">
-        <v>164800</v>
+        <v>165600</v>
       </c>
       <c r="H47" s="3">
-        <v>281700</v>
+        <v>286000</v>
       </c>
       <c r="I47" s="3">
-        <v>136500</v>
+        <v>134200</v>
       </c>
       <c r="J47" s="3">
-        <v>107500</v>
+        <v>121900</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2099,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29000100</v>
+        <v>28331200</v>
       </c>
       <c r="E48" s="3">
-        <v>21323700</v>
+        <v>20831900</v>
       </c>
       <c r="F48" s="3">
-        <v>23499800</v>
+        <v>22957800</v>
       </c>
       <c r="G48" s="3">
-        <v>23136500</v>
+        <v>22602800</v>
       </c>
       <c r="H48" s="3">
-        <v>26107500</v>
+        <v>25505300</v>
       </c>
       <c r="I48" s="3">
-        <v>14134000</v>
+        <v>13808000</v>
       </c>
       <c r="J48" s="3">
-        <v>14839400</v>
+        <v>14497200</v>
       </c>
       <c r="K48" s="3">
         <v>15848600</v>
@@ -2138,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2786600</v>
+        <v>2722300</v>
       </c>
       <c r="E49" s="3">
-        <v>1852800</v>
+        <v>1810000</v>
       </c>
       <c r="F49" s="3">
-        <v>1862200</v>
+        <v>1819200</v>
       </c>
       <c r="G49" s="3">
-        <v>1782900</v>
+        <v>1741800</v>
       </c>
       <c r="H49" s="3">
-        <v>1782900</v>
+        <v>1741800</v>
       </c>
       <c r="I49" s="3">
-        <v>189900</v>
+        <v>185500</v>
       </c>
       <c r="J49" s="3">
-        <v>189900</v>
+        <v>185500</v>
       </c>
       <c r="K49" s="3">
         <v>190000</v>
@@ -2255,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>818500</v>
+        <v>740600</v>
       </c>
       <c r="E52" s="3">
-        <v>37700</v>
+        <v>27600</v>
       </c>
       <c r="F52" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G52" s="3">
-        <v>11000</v>
+        <v>6100</v>
       </c>
       <c r="H52" s="3">
-        <v>19600</v>
+        <v>8400</v>
       </c>
       <c r="I52" s="3">
-        <v>7100</v>
+        <v>6100</v>
       </c>
       <c r="J52" s="3">
-        <v>22800</v>
+        <v>5400</v>
       </c>
       <c r="K52" s="3">
         <v>55000</v>
@@ -2333,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42457600</v>
+        <v>41478300</v>
       </c>
       <c r="E54" s="3">
-        <v>25715900</v>
+        <v>25122800</v>
       </c>
       <c r="F54" s="3">
-        <v>28025400</v>
+        <v>27379000</v>
       </c>
       <c r="G54" s="3">
-        <v>27602400</v>
+        <v>26965800</v>
       </c>
       <c r="H54" s="3">
-        <v>32121800</v>
+        <v>31380900</v>
       </c>
       <c r="I54" s="3">
-        <v>19821000</v>
+        <v>19363800</v>
       </c>
       <c r="J54" s="3">
-        <v>20239200</v>
+        <v>19772400</v>
       </c>
       <c r="K54" s="3">
         <v>19386800</v>
@@ -2406,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2004200</v>
+        <v>1958000</v>
       </c>
       <c r="E57" s="3">
-        <v>477100</v>
+        <v>466100</v>
       </c>
       <c r="F57" s="3">
-        <v>736900</v>
+        <v>719900</v>
       </c>
       <c r="G57" s="3">
-        <v>601900</v>
+        <v>588000</v>
       </c>
       <c r="H57" s="3">
-        <v>264500</v>
+        <v>258400</v>
       </c>
       <c r="I57" s="3">
-        <v>82400</v>
+        <v>80500</v>
       </c>
       <c r="J57" s="3">
-        <v>53400</v>
+        <v>52100</v>
       </c>
       <c r="K57" s="3">
         <v>40000</v>
@@ -2445,16 +2443,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>275400</v>
+        <v>269100</v>
       </c>
       <c r="E58" s="3">
-        <v>239300</v>
+        <v>233800</v>
       </c>
       <c r="F58" s="3">
-        <v>153800</v>
+        <v>150300</v>
       </c>
       <c r="G58" s="3">
-        <v>535200</v>
+        <v>522800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2484,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3452900</v>
+        <v>3373200</v>
       </c>
       <c r="E59" s="3">
-        <v>1134700</v>
+        <v>1108600</v>
       </c>
       <c r="F59" s="3">
-        <v>1087600</v>
+        <v>1062600</v>
       </c>
       <c r="G59" s="3">
-        <v>903200</v>
+        <v>882400</v>
       </c>
       <c r="H59" s="3">
-        <v>3216600</v>
+        <v>3142500</v>
       </c>
       <c r="I59" s="3">
-        <v>2013600</v>
+        <v>1967200</v>
       </c>
       <c r="J59" s="3">
-        <v>1404700</v>
+        <v>1372300</v>
       </c>
       <c r="K59" s="3">
         <v>2281400</v>
@@ -2523,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5732500</v>
+        <v>5600300</v>
       </c>
       <c r="E60" s="3">
-        <v>1851200</v>
+        <v>1808500</v>
       </c>
       <c r="F60" s="3">
-        <v>1978300</v>
+        <v>1932700</v>
       </c>
       <c r="G60" s="3">
-        <v>2040300</v>
+        <v>1993300</v>
       </c>
       <c r="H60" s="3">
-        <v>3481100</v>
+        <v>3400800</v>
       </c>
       <c r="I60" s="3">
-        <v>2096000</v>
+        <v>2047700</v>
       </c>
       <c r="J60" s="3">
-        <v>1458000</v>
+        <v>1424400</v>
       </c>
       <c r="K60" s="3">
         <v>2321400</v>
@@ -2562,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11826000</v>
+        <v>11553300</v>
       </c>
       <c r="E61" s="3">
-        <v>7073600</v>
+        <v>6910500</v>
       </c>
       <c r="F61" s="3">
-        <v>6606700</v>
+        <v>6454300</v>
       </c>
       <c r="G61" s="3">
-        <v>6656200</v>
+        <v>6502600</v>
       </c>
       <c r="H61" s="3">
-        <v>7465200</v>
+        <v>7293000</v>
       </c>
       <c r="I61" s="3">
-        <v>4969000</v>
+        <v>4854400</v>
       </c>
       <c r="J61" s="3">
-        <v>5120400</v>
+        <v>5002300</v>
       </c>
       <c r="K61" s="3">
         <v>4284800</v>
@@ -2601,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6372900</v>
+        <v>6225900</v>
       </c>
       <c r="E62" s="3">
-        <v>3680400</v>
+        <v>3595500</v>
       </c>
       <c r="F62" s="3">
-        <v>4372600</v>
+        <v>4271700</v>
       </c>
       <c r="G62" s="3">
-        <v>5198100</v>
+        <v>5078200</v>
       </c>
       <c r="H62" s="3">
-        <v>5495500</v>
+        <v>5368800</v>
       </c>
       <c r="I62" s="3">
-        <v>3660800</v>
+        <v>3576400</v>
       </c>
       <c r="J62" s="3">
-        <v>3937000</v>
+        <v>3846200</v>
       </c>
       <c r="K62" s="3">
         <v>4784100</v>
@@ -2757,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23940800</v>
+        <v>23388700</v>
       </c>
       <c r="E66" s="3">
-        <v>12605300</v>
+        <v>12314500</v>
       </c>
       <c r="F66" s="3">
-        <v>12957600</v>
+        <v>12658800</v>
       </c>
       <c r="G66" s="3">
-        <v>13894600</v>
+        <v>13574100</v>
       </c>
       <c r="H66" s="3">
-        <v>16441900</v>
+        <v>16062600</v>
       </c>
       <c r="I66" s="3">
-        <v>10725800</v>
+        <v>10478400</v>
       </c>
       <c r="J66" s="3">
-        <v>10515500</v>
+        <v>10273000</v>
       </c>
       <c r="K66" s="3">
         <v>11390300</v>
@@ -2891,7 +2889,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>407300</v>
+        <v>397900</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2969,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>857700</v>
+        <v>837900</v>
       </c>
       <c r="E72" s="3">
-        <v>393200</v>
+        <v>384100</v>
       </c>
       <c r="F72" s="3">
-        <v>2320500</v>
+        <v>2267000</v>
       </c>
       <c r="G72" s="3">
-        <v>802800</v>
+        <v>784300</v>
       </c>
       <c r="H72" s="3">
-        <v>3089500</v>
+        <v>3018300</v>
       </c>
       <c r="I72" s="3">
-        <v>624700</v>
+        <v>610200</v>
       </c>
       <c r="J72" s="3">
-        <v>1182600</v>
+        <v>1155300</v>
       </c>
       <c r="K72" s="3">
         <v>1255300</v>
@@ -3125,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18109400</v>
+        <v>17691700</v>
       </c>
       <c r="E76" s="3">
-        <v>13110700</v>
+        <v>12808300</v>
       </c>
       <c r="F76" s="3">
-        <v>15067800</v>
+        <v>14720300</v>
       </c>
       <c r="G76" s="3">
-        <v>13707800</v>
+        <v>13391700</v>
       </c>
       <c r="H76" s="3">
-        <v>15679900</v>
+        <v>15318200</v>
       </c>
       <c r="I76" s="3">
-        <v>9095100</v>
+        <v>8885400</v>
       </c>
       <c r="J76" s="3">
-        <v>9723700</v>
+        <v>9499400</v>
       </c>
       <c r="K76" s="3">
         <v>7996500</v>
@@ -3247,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>434000</v>
+        <v>424000</v>
       </c>
       <c r="E81" s="3">
-        <v>-1866900</v>
+        <v>-1823800</v>
       </c>
       <c r="F81" s="3">
-        <v>1721700</v>
+        <v>1682000</v>
       </c>
       <c r="G81" s="3">
-        <v>-2094500</v>
+        <v>-2046200</v>
       </c>
       <c r="H81" s="3">
-        <v>2641400</v>
+        <v>2580500</v>
       </c>
       <c r="I81" s="3">
-        <v>-427700</v>
+        <v>-417800</v>
       </c>
       <c r="J81" s="3">
-        <v>485000</v>
+        <v>473800</v>
       </c>
       <c r="K81" s="3">
         <v>584100</v>
@@ -3303,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4619000</v>
+        <v>4512400</v>
       </c>
       <c r="E83" s="3">
-        <v>2718300</v>
+        <v>2655600</v>
       </c>
       <c r="F83" s="3">
-        <v>1764900</v>
+        <v>1724200</v>
       </c>
       <c r="G83" s="3">
-        <v>1672300</v>
+        <v>1633700</v>
       </c>
       <c r="H83" s="3">
-        <v>1593000</v>
+        <v>1556300</v>
       </c>
       <c r="I83" s="3">
-        <v>1175500</v>
+        <v>1148400</v>
       </c>
       <c r="J83" s="3">
-        <v>1658900</v>
+        <v>1620700</v>
       </c>
       <c r="K83" s="3">
         <v>1527700</v>
@@ -3537,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4644900</v>
+        <v>4537700</v>
       </c>
       <c r="E89" s="3">
-        <v>214200</v>
+        <v>209300</v>
       </c>
       <c r="F89" s="3">
-        <v>2577900</v>
+        <v>2518400</v>
       </c>
       <c r="G89" s="3">
-        <v>1690300</v>
+        <v>1651300</v>
       </c>
       <c r="H89" s="3">
-        <v>2400500</v>
+        <v>2345200</v>
       </c>
       <c r="I89" s="3">
-        <v>675700</v>
+        <v>660100</v>
       </c>
       <c r="J89" s="3">
-        <v>1156700</v>
+        <v>1130000</v>
       </c>
       <c r="K89" s="3">
         <v>2768100</v>
@@ -3593,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2011300</v>
+        <v>-1964900</v>
       </c>
       <c r="E91" s="3">
-        <v>-674100</v>
+        <v>-658500</v>
       </c>
       <c r="F91" s="3">
-        <v>-928300</v>
+        <v>-906900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1080600</v>
+        <v>-1055700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1310500</v>
+        <v>-1280300</v>
       </c>
       <c r="I91" s="3">
-        <v>-811400</v>
+        <v>-792700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1345000</v>
+        <v>-1314000</v>
       </c>
       <c r="K91" s="3">
         <v>-2400700</v>
@@ -3710,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-739200</v>
+        <v>-722200</v>
       </c>
       <c r="E94" s="3">
-        <v>-677200</v>
+        <v>-661600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1123700</v>
+        <v>-1097800</v>
       </c>
       <c r="G94" s="3">
-        <v>-481000</v>
+        <v>-470000</v>
       </c>
       <c r="H94" s="3">
-        <v>-10096500</v>
+        <v>-9863600</v>
       </c>
       <c r="I94" s="3">
-        <v>-846700</v>
+        <v>-827200</v>
       </c>
       <c r="J94" s="3">
-        <v>696800</v>
+        <v>680800</v>
       </c>
       <c r="K94" s="3">
         <v>-3415000</v>
@@ -3766,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-164800</v>
+        <v>-161000</v>
       </c>
       <c r="E96" s="3">
-        <v>-60400</v>
+        <v>-59000</v>
       </c>
       <c r="F96" s="3">
-        <v>-204000</v>
+        <v>-199300</v>
       </c>
       <c r="G96" s="3">
-        <v>-192300</v>
+        <v>-187800</v>
       </c>
       <c r="H96" s="3">
-        <v>-176600</v>
+        <v>-172500</v>
       </c>
       <c r="I96" s="3">
-        <v>-130300</v>
+        <v>-127300</v>
       </c>
       <c r="J96" s="3">
-        <v>-414300</v>
+        <v>-404800</v>
       </c>
       <c r="K96" s="3">
         <v>-632000</v>
@@ -3922,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1967300</v>
+        <v>-1922000</v>
       </c>
       <c r="E100" s="3">
-        <v>656800</v>
+        <v>641700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1893600</v>
+        <v>-1849900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1106500</v>
+        <v>-1081000</v>
       </c>
       <c r="H100" s="3">
-        <v>5112600</v>
+        <v>4994700</v>
       </c>
       <c r="I100" s="3">
-        <v>-131800</v>
+        <v>-128800</v>
       </c>
       <c r="J100" s="3">
-        <v>701600</v>
+        <v>685400</v>
       </c>
       <c r="K100" s="3">
         <v>-625700</v>
@@ -3961,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="E101" s="3">
-        <v>-43200</v>
+        <v>-42200</v>
       </c>
       <c r="F101" s="3">
-        <v>-27500</v>
+        <v>-26800</v>
       </c>
       <c r="G101" s="3">
-        <v>31400</v>
+        <v>30700</v>
       </c>
       <c r="H101" s="3">
-        <v>142800</v>
+        <v>139500</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>-26700</v>
+        <v>-26100</v>
       </c>
       <c r="K101" s="3">
         <v>40800</v>
@@ -4000,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1957900</v>
+        <v>1912800</v>
       </c>
       <c r="E102" s="3">
-        <v>150700</v>
+        <v>147200</v>
       </c>
       <c r="F102" s="3">
-        <v>-466900</v>
+        <v>-456200</v>
       </c>
       <c r="G102" s="3">
-        <v>134200</v>
+        <v>131100</v>
       </c>
       <c r="H102" s="3">
-        <v>-2440500</v>
+        <v>-2384300</v>
       </c>
       <c r="I102" s="3">
-        <v>-302100</v>
+        <v>-295200</v>
       </c>
       <c r="J102" s="3">
-        <v>2528400</v>
+        <v>2470100</v>
       </c>
       <c r="K102" s="3">
         <v>-1231700</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35539100</v>
+        <v>35868700</v>
       </c>
       <c r="E8" s="3">
-        <v>10140300</v>
+        <v>10234400</v>
       </c>
       <c r="F8" s="3">
-        <v>15471600</v>
+        <v>15615000</v>
       </c>
       <c r="G8" s="3">
-        <v>15979800</v>
+        <v>16128000</v>
       </c>
       <c r="H8" s="3">
-        <v>13065800</v>
+        <v>13187000</v>
       </c>
       <c r="I8" s="3">
-        <v>8437600</v>
+        <v>8515900</v>
       </c>
       <c r="J8" s="3">
-        <v>8838600</v>
+        <v>8920600</v>
       </c>
       <c r="K8" s="3">
         <v>15420000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18001500</v>
+        <v>18168400</v>
       </c>
       <c r="E9" s="3">
-        <v>3924400</v>
+        <v>3960800</v>
       </c>
       <c r="F9" s="3">
-        <v>6461200</v>
+        <v>6521200</v>
       </c>
       <c r="G9" s="3">
-        <v>6704300</v>
+        <v>6766400</v>
       </c>
       <c r="H9" s="3">
-        <v>6159200</v>
+        <v>6216300</v>
       </c>
       <c r="I9" s="3">
-        <v>5349600</v>
+        <v>5399200</v>
       </c>
       <c r="J9" s="3">
-        <v>5654000</v>
+        <v>5706400</v>
       </c>
       <c r="K9" s="3">
         <v>8636300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17537700</v>
+        <v>17700300</v>
       </c>
       <c r="E10" s="3">
-        <v>6215900</v>
+        <v>6273600</v>
       </c>
       <c r="F10" s="3">
-        <v>9010300</v>
+        <v>9093900</v>
       </c>
       <c r="G10" s="3">
-        <v>9275600</v>
+        <v>9361600</v>
       </c>
       <c r="H10" s="3">
-        <v>6906700</v>
+        <v>6970700</v>
       </c>
       <c r="I10" s="3">
-        <v>3088000</v>
+        <v>3116700</v>
       </c>
       <c r="J10" s="3">
-        <v>3184600</v>
+        <v>3214200</v>
       </c>
       <c r="K10" s="3">
         <v>6783600</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13800</v>
+        <v>13900</v>
       </c>
       <c r="E12" s="3">
-        <v>69800</v>
+        <v>70400</v>
       </c>
       <c r="F12" s="3">
-        <v>78200</v>
+        <v>78900</v>
       </c>
       <c r="G12" s="3">
-        <v>1646700</v>
+        <v>1662000</v>
       </c>
       <c r="H12" s="3">
-        <v>708400</v>
+        <v>714900</v>
       </c>
       <c r="I12" s="3">
-        <v>29100</v>
+        <v>29400</v>
       </c>
       <c r="J12" s="3">
-        <v>72100</v>
+        <v>72700</v>
       </c>
       <c r="K12" s="3">
         <v>79300</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1291000</v>
+        <v>1303000</v>
       </c>
       <c r="E14" s="3">
-        <v>1207500</v>
+        <v>1218700</v>
       </c>
       <c r="F14" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="G14" s="3">
-        <v>637800</v>
+        <v>643800</v>
       </c>
       <c r="H14" s="3">
-        <v>15300</v>
+        <v>15500</v>
       </c>
       <c r="I14" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="J14" s="3">
-        <v>-1800800</v>
+        <v>-1817500</v>
       </c>
       <c r="K14" s="3">
         <v>390200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3313400</v>
+        <v>3344100</v>
       </c>
       <c r="E15" s="3">
-        <v>1803100</v>
+        <v>1819900</v>
       </c>
       <c r="F15" s="3">
-        <v>1698900</v>
+        <v>1714600</v>
       </c>
       <c r="G15" s="3">
-        <v>1653600</v>
+        <v>1669000</v>
       </c>
       <c r="H15" s="3">
-        <v>1409100</v>
+        <v>1422200</v>
       </c>
       <c r="I15" s="3">
-        <v>1844500</v>
+        <v>1861600</v>
       </c>
       <c r="J15" s="3">
-        <v>761300</v>
+        <v>768300</v>
       </c>
       <c r="K15" s="3">
         <v>1527700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33133400</v>
+        <v>33440700</v>
       </c>
       <c r="E17" s="3">
-        <v>12115200</v>
+        <v>12227600</v>
       </c>
       <c r="F17" s="3">
-        <v>14208100</v>
+        <v>14339900</v>
       </c>
       <c r="G17" s="3">
-        <v>17635000</v>
+        <v>17798600</v>
       </c>
       <c r="H17" s="3">
-        <v>12814400</v>
+        <v>12933200</v>
       </c>
       <c r="I17" s="3">
-        <v>8637700</v>
+        <v>8717800</v>
       </c>
       <c r="J17" s="3">
-        <v>7284600</v>
+        <v>7352200</v>
       </c>
       <c r="K17" s="3">
         <v>14477900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2405700</v>
+        <v>2428000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1974900</v>
+        <v>-1993200</v>
       </c>
       <c r="F18" s="3">
-        <v>1263400</v>
+        <v>1275100</v>
       </c>
       <c r="G18" s="3">
-        <v>-1655200</v>
+        <v>-1670500</v>
       </c>
       <c r="H18" s="3">
-        <v>251500</v>
+        <v>253800</v>
       </c>
       <c r="I18" s="3">
-        <v>-200100</v>
+        <v>-201900</v>
       </c>
       <c r="J18" s="3">
-        <v>1554000</v>
+        <v>1568400</v>
       </c>
       <c r="K18" s="3">
         <v>942100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-839500</v>
+        <v>-847300</v>
       </c>
       <c r="E20" s="3">
-        <v>-134200</v>
+        <v>-135400</v>
       </c>
       <c r="F20" s="3">
-        <v>182500</v>
+        <v>184200</v>
       </c>
       <c r="G20" s="3">
-        <v>-946000</v>
+        <v>-954800</v>
       </c>
       <c r="H20" s="3">
-        <v>1885200</v>
+        <v>1902700</v>
       </c>
       <c r="I20" s="3">
-        <v>-153300</v>
+        <v>-154700</v>
       </c>
       <c r="J20" s="3">
-        <v>-620200</v>
+        <v>-626000</v>
       </c>
       <c r="K20" s="3">
         <v>237100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6096400</v>
+        <v>6120700</v>
       </c>
       <c r="E21" s="3">
-        <v>557000</v>
+        <v>543200</v>
       </c>
       <c r="F21" s="3">
-        <v>3176800</v>
+        <v>3194000</v>
       </c>
       <c r="G21" s="3">
-        <v>-961100</v>
+        <v>-981700</v>
       </c>
       <c r="H21" s="3">
-        <v>3699000</v>
+        <v>3722200</v>
       </c>
       <c r="I21" s="3">
-        <v>799500</v>
+        <v>798700</v>
       </c>
       <c r="J21" s="3">
-        <v>2560800</v>
+        <v>2573000</v>
       </c>
       <c r="K21" s="3">
         <v>2701100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>558100</v>
+        <v>563300</v>
       </c>
       <c r="E22" s="3">
-        <v>367200</v>
+        <v>370600</v>
       </c>
       <c r="F22" s="3">
-        <v>374900</v>
+        <v>378400</v>
       </c>
       <c r="G22" s="3">
-        <v>408600</v>
+        <v>412400</v>
       </c>
       <c r="H22" s="3">
-        <v>437800</v>
+        <v>441800</v>
       </c>
       <c r="I22" s="3">
-        <v>261400</v>
+        <v>263800</v>
       </c>
       <c r="J22" s="3">
-        <v>251500</v>
+        <v>253800</v>
       </c>
       <c r="K22" s="3">
         <v>241000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1008100</v>
+        <v>1017500</v>
       </c>
       <c r="E23" s="3">
-        <v>-2476200</v>
+        <v>-2499200</v>
       </c>
       <c r="F23" s="3">
-        <v>1071000</v>
+        <v>1080900</v>
       </c>
       <c r="G23" s="3">
-        <v>-3009800</v>
+        <v>-3037700</v>
       </c>
       <c r="H23" s="3">
-        <v>1698900</v>
+        <v>1714600</v>
       </c>
       <c r="I23" s="3">
-        <v>-614800</v>
+        <v>-620500</v>
       </c>
       <c r="J23" s="3">
-        <v>682300</v>
+        <v>688600</v>
       </c>
       <c r="K23" s="3">
         <v>938100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>558100</v>
+        <v>563300</v>
       </c>
       <c r="E24" s="3">
-        <v>-652400</v>
+        <v>-658500</v>
       </c>
       <c r="F24" s="3">
-        <v>-611000</v>
+        <v>-616700</v>
       </c>
       <c r="G24" s="3">
-        <v>-774300</v>
+        <v>-781500</v>
       </c>
       <c r="H24" s="3">
-        <v>-39900</v>
+        <v>-40200</v>
       </c>
       <c r="I24" s="3">
-        <v>-263000</v>
+        <v>-265400</v>
       </c>
       <c r="J24" s="3">
-        <v>-18400</v>
+        <v>-18600</v>
       </c>
       <c r="K24" s="3">
         <v>354100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>450000</v>
+        <v>454200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1823800</v>
+        <v>-1840800</v>
       </c>
       <c r="F26" s="3">
-        <v>1682000</v>
+        <v>1697600</v>
       </c>
       <c r="G26" s="3">
-        <v>-2235500</v>
+        <v>-2256300</v>
       </c>
       <c r="H26" s="3">
-        <v>1738700</v>
+        <v>1754900</v>
       </c>
       <c r="I26" s="3">
-        <v>-351900</v>
+        <v>-355200</v>
       </c>
       <c r="J26" s="3">
-        <v>700700</v>
+        <v>707200</v>
       </c>
       <c r="K26" s="3">
         <v>584100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>424000</v>
+        <v>427900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1823800</v>
+        <v>-1840800</v>
       </c>
       <c r="F27" s="3">
-        <v>1682000</v>
+        <v>1697600</v>
       </c>
       <c r="G27" s="3">
-        <v>-2235500</v>
+        <v>-2256300</v>
       </c>
       <c r="H27" s="3">
-        <v>1738700</v>
+        <v>1754900</v>
       </c>
       <c r="I27" s="3">
-        <v>-351900</v>
+        <v>-355200</v>
       </c>
       <c r="J27" s="3">
-        <v>700700</v>
+        <v>707200</v>
       </c>
       <c r="K27" s="3">
         <v>584100</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>189400</v>
+        <v>191100</v>
       </c>
       <c r="H29" s="3">
-        <v>841800</v>
+        <v>849600</v>
       </c>
       <c r="I29" s="3">
-        <v>-65900</v>
+        <v>-66500</v>
       </c>
       <c r="J29" s="3">
-        <v>-226900</v>
+        <v>-229000</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>839500</v>
+        <v>847300</v>
       </c>
       <c r="E32" s="3">
-        <v>134200</v>
+        <v>135400</v>
       </c>
       <c r="F32" s="3">
-        <v>-182500</v>
+        <v>-184200</v>
       </c>
       <c r="G32" s="3">
-        <v>946000</v>
+        <v>954800</v>
       </c>
       <c r="H32" s="3">
-        <v>-1885200</v>
+        <v>-1902700</v>
       </c>
       <c r="I32" s="3">
-        <v>153300</v>
+        <v>154700</v>
       </c>
       <c r="J32" s="3">
-        <v>620200</v>
+        <v>626000</v>
       </c>
       <c r="K32" s="3">
         <v>-237100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>424000</v>
+        <v>427900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1823800</v>
+        <v>-1840800</v>
       </c>
       <c r="F33" s="3">
-        <v>1682000</v>
+        <v>1697600</v>
       </c>
       <c r="G33" s="3">
-        <v>-2046200</v>
+        <v>-2065100</v>
       </c>
       <c r="H33" s="3">
-        <v>2580500</v>
+        <v>2604400</v>
       </c>
       <c r="I33" s="3">
-        <v>-417800</v>
+        <v>-421700</v>
       </c>
       <c r="J33" s="3">
-        <v>473800</v>
+        <v>478200</v>
       </c>
       <c r="K33" s="3">
         <v>584100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>424000</v>
+        <v>427900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1823800</v>
+        <v>-1840800</v>
       </c>
       <c r="F35" s="3">
-        <v>1682000</v>
+        <v>1697600</v>
       </c>
       <c r="G35" s="3">
-        <v>-2046200</v>
+        <v>-2065100</v>
       </c>
       <c r="H35" s="3">
-        <v>2580500</v>
+        <v>2604400</v>
       </c>
       <c r="I35" s="3">
-        <v>-417800</v>
+        <v>-421700</v>
       </c>
       <c r="J35" s="3">
-        <v>473800</v>
+        <v>478200</v>
       </c>
       <c r="K35" s="3">
         <v>584100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1813900</v>
+        <v>1830700</v>
       </c>
       <c r="E41" s="3">
-        <v>282100</v>
+        <v>284700</v>
       </c>
       <c r="F41" s="3">
-        <v>82800</v>
+        <v>83600</v>
       </c>
       <c r="G41" s="3">
-        <v>118800</v>
+        <v>119900</v>
       </c>
       <c r="H41" s="3">
+        <v>423200</v>
+      </c>
+      <c r="I41" s="3">
         <v>419400</v>
       </c>
-      <c r="I41" s="3">
-        <v>415500</v>
-      </c>
       <c r="J41" s="3">
-        <v>247600</v>
+        <v>249900</v>
       </c>
       <c r="K41" s="3">
         <v>359600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>388700</v>
+        <v>392300</v>
       </c>
       <c r="E42" s="3">
         <v>7700</v>
       </c>
       <c r="F42" s="3">
-        <v>59800</v>
+        <v>60400</v>
       </c>
       <c r="G42" s="3">
-        <v>479900</v>
+        <v>484400</v>
       </c>
       <c r="H42" s="3">
-        <v>48300</v>
+        <v>48700</v>
       </c>
       <c r="I42" s="3">
-        <v>2436400</v>
+        <v>2459000</v>
       </c>
       <c r="J42" s="3">
-        <v>2899400</v>
+        <v>2926300</v>
       </c>
       <c r="K42" s="3">
         <v>333600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2611200</v>
+        <v>2635400</v>
       </c>
       <c r="E43" s="3">
-        <v>1064100</v>
+        <v>1074000</v>
       </c>
       <c r="F43" s="3">
-        <v>1155300</v>
+        <v>1166000</v>
       </c>
       <c r="G43" s="3">
-        <v>914600</v>
+        <v>923100</v>
       </c>
       <c r="H43" s="3">
-        <v>1406000</v>
+        <v>1419100</v>
       </c>
       <c r="I43" s="3">
-        <v>1316300</v>
+        <v>1328500</v>
       </c>
       <c r="J43" s="3">
-        <v>909200</v>
+        <v>917700</v>
       </c>
       <c r="K43" s="3">
         <v>1263900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3004500</v>
+        <v>3032300</v>
       </c>
       <c r="E44" s="3">
-        <v>834900</v>
+        <v>842600</v>
       </c>
       <c r="F44" s="3">
-        <v>1174500</v>
+        <v>1185400</v>
       </c>
       <c r="G44" s="3">
-        <v>776600</v>
+        <v>783800</v>
       </c>
       <c r="H44" s="3">
-        <v>1064900</v>
+        <v>1074700</v>
       </c>
       <c r="I44" s="3">
-        <v>948300</v>
+        <v>957100</v>
       </c>
       <c r="J44" s="3">
-        <v>621000</v>
+        <v>626700</v>
       </c>
       <c r="K44" s="3">
         <v>960900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1372300</v>
+        <v>1385000</v>
       </c>
       <c r="E45" s="3">
-        <v>92800</v>
+        <v>93600</v>
       </c>
       <c r="F45" s="3">
-        <v>45200</v>
+        <v>45700</v>
       </c>
       <c r="G45" s="3">
-        <v>159500</v>
+        <v>160900</v>
       </c>
       <c r="H45" s="3">
-        <v>900800</v>
+        <v>909200</v>
       </c>
       <c r="I45" s="3">
-        <v>113500</v>
+        <v>114500</v>
       </c>
       <c r="J45" s="3">
-        <v>285200</v>
+        <v>287800</v>
       </c>
       <c r="K45" s="3">
         <v>375300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9190500</v>
+        <v>9275700</v>
       </c>
       <c r="E46" s="3">
-        <v>2281500</v>
+        <v>2302700</v>
       </c>
       <c r="F46" s="3">
-        <v>2517600</v>
+        <v>2541000</v>
       </c>
       <c r="G46" s="3">
-        <v>2449400</v>
+        <v>2472100</v>
       </c>
       <c r="H46" s="3">
-        <v>3839300</v>
+        <v>3874900</v>
       </c>
       <c r="I46" s="3">
-        <v>5230000</v>
+        <v>5278500</v>
       </c>
       <c r="J46" s="3">
-        <v>4962500</v>
+        <v>5008500</v>
       </c>
       <c r="K46" s="3">
         <v>3293300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>493700</v>
+        <v>498300</v>
       </c>
       <c r="E47" s="3">
-        <v>171700</v>
+        <v>173300</v>
       </c>
       <c r="F47" s="3">
-        <v>79000</v>
+        <v>79700</v>
       </c>
       <c r="G47" s="3">
-        <v>165600</v>
+        <v>167100</v>
       </c>
       <c r="H47" s="3">
-        <v>286000</v>
+        <v>288600</v>
       </c>
       <c r="I47" s="3">
-        <v>134200</v>
+        <v>135400</v>
       </c>
       <c r="J47" s="3">
-        <v>121900</v>
+        <v>123000</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28331200</v>
+        <v>28593900</v>
       </c>
       <c r="E48" s="3">
-        <v>20831900</v>
+        <v>21025100</v>
       </c>
       <c r="F48" s="3">
-        <v>22957800</v>
+        <v>23170700</v>
       </c>
       <c r="G48" s="3">
-        <v>22602800</v>
+        <v>22812500</v>
       </c>
       <c r="H48" s="3">
-        <v>25505300</v>
+        <v>25741900</v>
       </c>
       <c r="I48" s="3">
-        <v>13808000</v>
+        <v>13936000</v>
       </c>
       <c r="J48" s="3">
-        <v>14497200</v>
+        <v>14631600</v>
       </c>
       <c r="K48" s="3">
         <v>15848600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2722300</v>
+        <v>2747600</v>
       </c>
       <c r="E49" s="3">
-        <v>1810000</v>
+        <v>1826800</v>
       </c>
       <c r="F49" s="3">
-        <v>1819200</v>
+        <v>1836100</v>
       </c>
       <c r="G49" s="3">
-        <v>1741800</v>
+        <v>1758000</v>
       </c>
       <c r="H49" s="3">
-        <v>1741800</v>
+        <v>1758000</v>
       </c>
       <c r="I49" s="3">
-        <v>185500</v>
+        <v>187200</v>
       </c>
       <c r="J49" s="3">
-        <v>185500</v>
+        <v>187200</v>
       </c>
       <c r="K49" s="3">
         <v>190000</v>
@@ -2253,22 +2253,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>740600</v>
+        <v>747400</v>
       </c>
       <c r="E52" s="3">
-        <v>27600</v>
+        <v>27900</v>
       </c>
       <c r="F52" s="3">
         <v>5400</v>
       </c>
       <c r="G52" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H52" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="I52" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="J52" s="3">
         <v>5400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41478300</v>
+        <v>41863000</v>
       </c>
       <c r="E54" s="3">
-        <v>25122800</v>
+        <v>25355800</v>
       </c>
       <c r="F54" s="3">
-        <v>27379000</v>
+        <v>27632900</v>
       </c>
       <c r="G54" s="3">
-        <v>26965800</v>
+        <v>27215900</v>
       </c>
       <c r="H54" s="3">
-        <v>31380900</v>
+        <v>31671900</v>
       </c>
       <c r="I54" s="3">
-        <v>19363800</v>
+        <v>19543400</v>
       </c>
       <c r="J54" s="3">
-        <v>19772400</v>
+        <v>19955800</v>
       </c>
       <c r="K54" s="3">
         <v>19386800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1958000</v>
+        <v>1976200</v>
       </c>
       <c r="E57" s="3">
-        <v>466100</v>
+        <v>470400</v>
       </c>
       <c r="F57" s="3">
-        <v>719900</v>
+        <v>726600</v>
       </c>
       <c r="G57" s="3">
-        <v>588000</v>
+        <v>593500</v>
       </c>
       <c r="H57" s="3">
-        <v>258400</v>
+        <v>260800</v>
       </c>
       <c r="I57" s="3">
-        <v>80500</v>
+        <v>81200</v>
       </c>
       <c r="J57" s="3">
-        <v>52100</v>
+        <v>52600</v>
       </c>
       <c r="K57" s="3">
         <v>40000</v>
@@ -2443,16 +2443,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>269100</v>
+        <v>271600</v>
       </c>
       <c r="E58" s="3">
-        <v>233800</v>
+        <v>236000</v>
       </c>
       <c r="F58" s="3">
-        <v>150300</v>
+        <v>151700</v>
       </c>
       <c r="G58" s="3">
-        <v>522800</v>
+        <v>527700</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3373200</v>
+        <v>3404500</v>
       </c>
       <c r="E59" s="3">
-        <v>1108600</v>
+        <v>1118800</v>
       </c>
       <c r="F59" s="3">
-        <v>1062600</v>
+        <v>1072400</v>
       </c>
       <c r="G59" s="3">
-        <v>882400</v>
+        <v>890600</v>
       </c>
       <c r="H59" s="3">
-        <v>3142500</v>
+        <v>3171600</v>
       </c>
       <c r="I59" s="3">
-        <v>1967200</v>
+        <v>1985400</v>
       </c>
       <c r="J59" s="3">
-        <v>1372300</v>
+        <v>1385000</v>
       </c>
       <c r="K59" s="3">
         <v>2281400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5600300</v>
+        <v>5652200</v>
       </c>
       <c r="E60" s="3">
-        <v>1808500</v>
+        <v>1825300</v>
       </c>
       <c r="F60" s="3">
-        <v>1932700</v>
+        <v>1950600</v>
       </c>
       <c r="G60" s="3">
-        <v>1993300</v>
+        <v>2011800</v>
       </c>
       <c r="H60" s="3">
-        <v>3400800</v>
+        <v>3432400</v>
       </c>
       <c r="I60" s="3">
-        <v>2047700</v>
+        <v>2066700</v>
       </c>
       <c r="J60" s="3">
-        <v>1424400</v>
+        <v>1437600</v>
       </c>
       <c r="K60" s="3">
         <v>2321400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11553300</v>
+        <v>11660400</v>
       </c>
       <c r="E61" s="3">
-        <v>6910500</v>
+        <v>6974600</v>
       </c>
       <c r="F61" s="3">
-        <v>6454300</v>
+        <v>6514200</v>
       </c>
       <c r="G61" s="3">
-        <v>6502600</v>
+        <v>6562900</v>
       </c>
       <c r="H61" s="3">
-        <v>7293000</v>
+        <v>7360700</v>
       </c>
       <c r="I61" s="3">
-        <v>4854400</v>
+        <v>4899400</v>
       </c>
       <c r="J61" s="3">
-        <v>5002300</v>
+        <v>5048700</v>
       </c>
       <c r="K61" s="3">
         <v>4284800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6225900</v>
+        <v>6283600</v>
       </c>
       <c r="E62" s="3">
-        <v>3595500</v>
+        <v>3628900</v>
       </c>
       <c r="F62" s="3">
-        <v>4271700</v>
+        <v>4311300</v>
       </c>
       <c r="G62" s="3">
-        <v>5078200</v>
+        <v>5125300</v>
       </c>
       <c r="H62" s="3">
-        <v>5368800</v>
+        <v>5418600</v>
       </c>
       <c r="I62" s="3">
-        <v>3576400</v>
+        <v>3609500</v>
       </c>
       <c r="J62" s="3">
-        <v>3846200</v>
+        <v>3881900</v>
       </c>
       <c r="K62" s="3">
         <v>4784100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23388700</v>
+        <v>23605600</v>
       </c>
       <c r="E66" s="3">
-        <v>12314500</v>
+        <v>12428700</v>
       </c>
       <c r="F66" s="3">
-        <v>12658800</v>
+        <v>12776200</v>
       </c>
       <c r="G66" s="3">
-        <v>13574100</v>
+        <v>13700000</v>
       </c>
       <c r="H66" s="3">
-        <v>16062600</v>
+        <v>16211600</v>
       </c>
       <c r="I66" s="3">
-        <v>10478400</v>
+        <v>10575600</v>
       </c>
       <c r="J66" s="3">
-        <v>10273000</v>
+        <v>10368300</v>
       </c>
       <c r="K66" s="3">
         <v>11390300</v>
@@ -2889,7 +2889,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>397900</v>
+        <v>401600</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>837900</v>
+        <v>845700</v>
       </c>
       <c r="E72" s="3">
-        <v>384100</v>
+        <v>387600</v>
       </c>
       <c r="F72" s="3">
-        <v>2267000</v>
+        <v>2288000</v>
       </c>
       <c r="G72" s="3">
-        <v>784300</v>
+        <v>791500</v>
       </c>
       <c r="H72" s="3">
-        <v>3018300</v>
+        <v>3046300</v>
       </c>
       <c r="I72" s="3">
-        <v>610200</v>
+        <v>615900</v>
       </c>
       <c r="J72" s="3">
-        <v>1155300</v>
+        <v>1166000</v>
       </c>
       <c r="K72" s="3">
         <v>1255300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17691700</v>
+        <v>17855800</v>
       </c>
       <c r="E76" s="3">
-        <v>12808300</v>
+        <v>12927000</v>
       </c>
       <c r="F76" s="3">
-        <v>14720300</v>
+        <v>14856800</v>
       </c>
       <c r="G76" s="3">
-        <v>13391700</v>
+        <v>13515900</v>
       </c>
       <c r="H76" s="3">
-        <v>15318200</v>
+        <v>15460300</v>
       </c>
       <c r="I76" s="3">
-        <v>8885400</v>
+        <v>8967800</v>
       </c>
       <c r="J76" s="3">
-        <v>9499400</v>
+        <v>9587500</v>
       </c>
       <c r="K76" s="3">
         <v>7996500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>424000</v>
+        <v>427900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1823800</v>
+        <v>-1840800</v>
       </c>
       <c r="F81" s="3">
-        <v>1682000</v>
+        <v>1697600</v>
       </c>
       <c r="G81" s="3">
-        <v>-2046200</v>
+        <v>-2065100</v>
       </c>
       <c r="H81" s="3">
-        <v>2580500</v>
+        <v>2604400</v>
       </c>
       <c r="I81" s="3">
-        <v>-417800</v>
+        <v>-421700</v>
       </c>
       <c r="J81" s="3">
-        <v>473800</v>
+        <v>478200</v>
       </c>
       <c r="K81" s="3">
         <v>584100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4512400</v>
+        <v>4554300</v>
       </c>
       <c r="E83" s="3">
-        <v>2655600</v>
+        <v>2680300</v>
       </c>
       <c r="F83" s="3">
-        <v>1724200</v>
+        <v>1740200</v>
       </c>
       <c r="G83" s="3">
-        <v>1633700</v>
+        <v>1648900</v>
       </c>
       <c r="H83" s="3">
-        <v>1556300</v>
+        <v>1570700</v>
       </c>
       <c r="I83" s="3">
-        <v>1148400</v>
+        <v>1159100</v>
       </c>
       <c r="J83" s="3">
-        <v>1620700</v>
+        <v>1635700</v>
       </c>
       <c r="K83" s="3">
         <v>1527700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4537700</v>
+        <v>4579800</v>
       </c>
       <c r="E89" s="3">
-        <v>209300</v>
+        <v>211200</v>
       </c>
       <c r="F89" s="3">
-        <v>2518400</v>
+        <v>2541800</v>
       </c>
       <c r="G89" s="3">
-        <v>1651300</v>
+        <v>1666700</v>
       </c>
       <c r="H89" s="3">
-        <v>2345200</v>
+        <v>2366900</v>
       </c>
       <c r="I89" s="3">
-        <v>660100</v>
+        <v>666200</v>
       </c>
       <c r="J89" s="3">
-        <v>1130000</v>
+        <v>1140500</v>
       </c>
       <c r="K89" s="3">
         <v>2768100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1964900</v>
+        <v>-1983100</v>
       </c>
       <c r="E91" s="3">
-        <v>-658500</v>
+        <v>-664700</v>
       </c>
       <c r="F91" s="3">
-        <v>-906900</v>
+        <v>-915300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1055700</v>
+        <v>-1065500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1280300</v>
+        <v>-1292200</v>
       </c>
       <c r="I91" s="3">
-        <v>-792700</v>
+        <v>-800100</v>
       </c>
       <c r="J91" s="3">
-        <v>-1314000</v>
+        <v>-1326200</v>
       </c>
       <c r="K91" s="3">
         <v>-2400700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-722200</v>
+        <v>-728900</v>
       </c>
       <c r="E94" s="3">
-        <v>-661600</v>
+        <v>-667700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1097800</v>
+        <v>-1108000</v>
       </c>
       <c r="G94" s="3">
-        <v>-470000</v>
+        <v>-474300</v>
       </c>
       <c r="H94" s="3">
-        <v>-9863600</v>
+        <v>-9955100</v>
       </c>
       <c r="I94" s="3">
-        <v>-827200</v>
+        <v>-834900</v>
       </c>
       <c r="J94" s="3">
-        <v>680800</v>
+        <v>687100</v>
       </c>
       <c r="K94" s="3">
         <v>-3415000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-161000</v>
+        <v>-162500</v>
       </c>
       <c r="E96" s="3">
-        <v>-59000</v>
+        <v>-59600</v>
       </c>
       <c r="F96" s="3">
-        <v>-199300</v>
+        <v>-201200</v>
       </c>
       <c r="G96" s="3">
-        <v>-187800</v>
+        <v>-189600</v>
       </c>
       <c r="H96" s="3">
-        <v>-172500</v>
+        <v>-174100</v>
       </c>
       <c r="I96" s="3">
-        <v>-127300</v>
+        <v>-128400</v>
       </c>
       <c r="J96" s="3">
-        <v>-404800</v>
+        <v>-408500</v>
       </c>
       <c r="K96" s="3">
         <v>-632000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1922000</v>
+        <v>-1939800</v>
       </c>
       <c r="E100" s="3">
-        <v>641700</v>
+        <v>647600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1849900</v>
+        <v>-1867100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1081000</v>
+        <v>-1091000</v>
       </c>
       <c r="H100" s="3">
-        <v>4994700</v>
+        <v>5041000</v>
       </c>
       <c r="I100" s="3">
-        <v>-128800</v>
+        <v>-130000</v>
       </c>
       <c r="J100" s="3">
-        <v>685400</v>
+        <v>691700</v>
       </c>
       <c r="K100" s="3">
         <v>-625700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="E101" s="3">
-        <v>-42200</v>
+        <v>-42600</v>
       </c>
       <c r="F101" s="3">
-        <v>-26800</v>
+        <v>-27100</v>
       </c>
       <c r="G101" s="3">
-        <v>30700</v>
+        <v>31000</v>
       </c>
       <c r="H101" s="3">
-        <v>139500</v>
+        <v>140800</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>-26100</v>
+        <v>-26300</v>
       </c>
       <c r="K101" s="3">
         <v>40800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1912800</v>
+        <v>1930500</v>
       </c>
       <c r="E102" s="3">
-        <v>147200</v>
+        <v>148600</v>
       </c>
       <c r="F102" s="3">
-        <v>-456200</v>
+        <v>-460400</v>
       </c>
       <c r="G102" s="3">
-        <v>131100</v>
+        <v>132300</v>
       </c>
       <c r="H102" s="3">
-        <v>-2384300</v>
+        <v>-2406400</v>
       </c>
       <c r="I102" s="3">
-        <v>-295200</v>
+        <v>-297900</v>
       </c>
       <c r="J102" s="3">
-        <v>2470100</v>
+        <v>2493000</v>
       </c>
       <c r="K102" s="3">
         <v>-1231700</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35868700</v>
+        <v>34807600</v>
       </c>
       <c r="E8" s="3">
-        <v>10234400</v>
+        <v>9931600</v>
       </c>
       <c r="F8" s="3">
-        <v>15615000</v>
+        <v>15153100</v>
       </c>
       <c r="G8" s="3">
-        <v>16128000</v>
+        <v>15650900</v>
       </c>
       <c r="H8" s="3">
-        <v>13187000</v>
+        <v>12796900</v>
       </c>
       <c r="I8" s="3">
-        <v>8515900</v>
+        <v>8264000</v>
       </c>
       <c r="J8" s="3">
-        <v>8920600</v>
+        <v>8656700</v>
       </c>
       <c r="K8" s="3">
         <v>15420000</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>18168400</v>
+        <v>17630900</v>
       </c>
       <c r="E9" s="3">
-        <v>3960800</v>
+        <v>3843700</v>
       </c>
       <c r="F9" s="3">
-        <v>6521200</v>
+        <v>6328200</v>
       </c>
       <c r="G9" s="3">
-        <v>6766400</v>
+        <v>6566300</v>
       </c>
       <c r="H9" s="3">
-        <v>6216300</v>
+        <v>6032400</v>
       </c>
       <c r="I9" s="3">
-        <v>5399200</v>
+        <v>5239500</v>
       </c>
       <c r="J9" s="3">
-        <v>5706400</v>
+        <v>5537600</v>
       </c>
       <c r="K9" s="3">
         <v>8636300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17700300</v>
+        <v>17176700</v>
       </c>
       <c r="E10" s="3">
-        <v>6273600</v>
+        <v>6088000</v>
       </c>
       <c r="F10" s="3">
-        <v>9093900</v>
+        <v>8824900</v>
       </c>
       <c r="G10" s="3">
-        <v>9361600</v>
+        <v>9084700</v>
       </c>
       <c r="H10" s="3">
-        <v>6970700</v>
+        <v>6764500</v>
       </c>
       <c r="I10" s="3">
-        <v>3116700</v>
+        <v>3024500</v>
       </c>
       <c r="J10" s="3">
-        <v>3214200</v>
+        <v>3119100</v>
       </c>
       <c r="K10" s="3">
         <v>6783600</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="E12" s="3">
-        <v>70400</v>
+        <v>68300</v>
       </c>
       <c r="F12" s="3">
-        <v>78900</v>
+        <v>76600</v>
       </c>
       <c r="G12" s="3">
-        <v>1662000</v>
+        <v>1612800</v>
       </c>
       <c r="H12" s="3">
-        <v>714900</v>
+        <v>693800</v>
       </c>
       <c r="I12" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="J12" s="3">
-        <v>72700</v>
+        <v>70600</v>
       </c>
       <c r="K12" s="3">
         <v>79300</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1303000</v>
+        <v>1264400</v>
       </c>
       <c r="E14" s="3">
-        <v>1218700</v>
+        <v>1182600</v>
       </c>
       <c r="F14" s="3">
-        <v>28600</v>
+        <v>27800</v>
       </c>
       <c r="G14" s="3">
-        <v>643800</v>
+        <v>624700</v>
       </c>
       <c r="H14" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="I14" s="3">
-        <v>37100</v>
+        <v>36000</v>
       </c>
       <c r="J14" s="3">
-        <v>-1817500</v>
+        <v>-1763800</v>
       </c>
       <c r="K14" s="3">
         <v>390200</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3344100</v>
+        <v>3245200</v>
       </c>
       <c r="E15" s="3">
-        <v>1819900</v>
+        <v>1766000</v>
       </c>
       <c r="F15" s="3">
-        <v>1714600</v>
+        <v>1663900</v>
       </c>
       <c r="G15" s="3">
-        <v>1669000</v>
+        <v>1619600</v>
       </c>
       <c r="H15" s="3">
-        <v>1422200</v>
+        <v>1380100</v>
       </c>
       <c r="I15" s="3">
-        <v>1861600</v>
+        <v>1806600</v>
       </c>
       <c r="J15" s="3">
-        <v>768300</v>
+        <v>745600</v>
       </c>
       <c r="K15" s="3">
         <v>1527700</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>33440700</v>
+        <v>32451400</v>
       </c>
       <c r="E17" s="3">
-        <v>12227600</v>
+        <v>11865800</v>
       </c>
       <c r="F17" s="3">
-        <v>14339900</v>
+        <v>13915700</v>
       </c>
       <c r="G17" s="3">
-        <v>17798600</v>
+        <v>17272000</v>
       </c>
       <c r="H17" s="3">
-        <v>12933200</v>
+        <v>12550600</v>
       </c>
       <c r="I17" s="3">
-        <v>8717800</v>
+        <v>8459900</v>
       </c>
       <c r="J17" s="3">
-        <v>7352200</v>
+        <v>7134700</v>
       </c>
       <c r="K17" s="3">
         <v>14477900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2428000</v>
+        <v>2356200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1993200</v>
+        <v>-1934200</v>
       </c>
       <c r="F18" s="3">
-        <v>1275100</v>
+        <v>1237400</v>
       </c>
       <c r="G18" s="3">
-        <v>-1670500</v>
+        <v>-1621100</v>
       </c>
       <c r="H18" s="3">
-        <v>253800</v>
+        <v>246300</v>
       </c>
       <c r="I18" s="3">
-        <v>-201900</v>
+        <v>-196000</v>
       </c>
       <c r="J18" s="3">
-        <v>1568400</v>
+        <v>1522000</v>
       </c>
       <c r="K18" s="3">
         <v>942100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-847300</v>
+        <v>-822200</v>
       </c>
       <c r="E20" s="3">
-        <v>-135400</v>
+        <v>-131400</v>
       </c>
       <c r="F20" s="3">
-        <v>184200</v>
+        <v>178700</v>
       </c>
       <c r="G20" s="3">
-        <v>-954800</v>
+        <v>-926600</v>
       </c>
       <c r="H20" s="3">
-        <v>1902700</v>
+        <v>1846400</v>
       </c>
       <c r="I20" s="3">
-        <v>-154700</v>
+        <v>-150200</v>
       </c>
       <c r="J20" s="3">
-        <v>-626000</v>
+        <v>-607400</v>
       </c>
       <c r="K20" s="3">
         <v>237100</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>6120700</v>
+        <v>5885600</v>
       </c>
       <c r="E21" s="3">
-        <v>543200</v>
+        <v>495400</v>
       </c>
       <c r="F21" s="3">
-        <v>3194000</v>
+        <v>3078900</v>
       </c>
       <c r="G21" s="3">
-        <v>-981700</v>
+        <v>-972200</v>
       </c>
       <c r="H21" s="3">
-        <v>3722200</v>
+        <v>3593500</v>
       </c>
       <c r="I21" s="3">
-        <v>798700</v>
+        <v>761400</v>
       </c>
       <c r="J21" s="3">
-        <v>2573000</v>
+        <v>2477500</v>
       </c>
       <c r="K21" s="3">
         <v>2701100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>563300</v>
+        <v>546600</v>
       </c>
       <c r="E22" s="3">
-        <v>370600</v>
+        <v>359700</v>
       </c>
       <c r="F22" s="3">
-        <v>378400</v>
+        <v>367200</v>
       </c>
       <c r="G22" s="3">
-        <v>412400</v>
+        <v>400200</v>
       </c>
       <c r="H22" s="3">
-        <v>441800</v>
+        <v>428700</v>
       </c>
       <c r="I22" s="3">
-        <v>263800</v>
+        <v>256000</v>
       </c>
       <c r="J22" s="3">
-        <v>253800</v>
+        <v>246300</v>
       </c>
       <c r="K22" s="3">
         <v>241000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1017500</v>
+        <v>987400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2499200</v>
+        <v>-2425300</v>
       </c>
       <c r="F23" s="3">
-        <v>1080900</v>
+        <v>1049000</v>
       </c>
       <c r="G23" s="3">
-        <v>-3037700</v>
+        <v>-2947900</v>
       </c>
       <c r="H23" s="3">
-        <v>1714600</v>
+        <v>1663900</v>
       </c>
       <c r="I23" s="3">
-        <v>-620500</v>
+        <v>-602200</v>
       </c>
       <c r="J23" s="3">
-        <v>688600</v>
+        <v>668300</v>
       </c>
       <c r="K23" s="3">
         <v>938100</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>563300</v>
+        <v>546600</v>
       </c>
       <c r="E24" s="3">
-        <v>-658500</v>
+        <v>-639000</v>
       </c>
       <c r="F24" s="3">
-        <v>-616700</v>
+        <v>-598400</v>
       </c>
       <c r="G24" s="3">
-        <v>-781500</v>
+        <v>-758400</v>
       </c>
       <c r="H24" s="3">
-        <v>-40200</v>
+        <v>-39000</v>
       </c>
       <c r="I24" s="3">
-        <v>-265400</v>
+        <v>-257500</v>
       </c>
       <c r="J24" s="3">
-        <v>-18600</v>
+        <v>-18000</v>
       </c>
       <c r="K24" s="3">
         <v>354100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>454200</v>
+        <v>440800</v>
       </c>
       <c r="E26" s="3">
-        <v>-1840800</v>
+        <v>-1786300</v>
       </c>
       <c r="F26" s="3">
-        <v>1697600</v>
+        <v>1647400</v>
       </c>
       <c r="G26" s="3">
-        <v>-2256300</v>
+        <v>-2189500</v>
       </c>
       <c r="H26" s="3">
-        <v>1754900</v>
+        <v>1703000</v>
       </c>
       <c r="I26" s="3">
-        <v>-355200</v>
+        <v>-344600</v>
       </c>
       <c r="J26" s="3">
-        <v>707200</v>
+        <v>686300</v>
       </c>
       <c r="K26" s="3">
         <v>584100</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>427900</v>
+        <v>415200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1840800</v>
+        <v>-1786300</v>
       </c>
       <c r="F27" s="3">
-        <v>1697600</v>
+        <v>1647400</v>
       </c>
       <c r="G27" s="3">
-        <v>-2256300</v>
+        <v>-2189500</v>
       </c>
       <c r="H27" s="3">
-        <v>1754900</v>
+        <v>1703000</v>
       </c>
       <c r="I27" s="3">
-        <v>-355200</v>
+        <v>-344600</v>
       </c>
       <c r="J27" s="3">
-        <v>707200</v>
+        <v>686300</v>
       </c>
       <c r="K27" s="3">
         <v>584100</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>191100</v>
+        <v>185500</v>
       </c>
       <c r="H29" s="3">
-        <v>849600</v>
+        <v>824400</v>
       </c>
       <c r="I29" s="3">
-        <v>-66500</v>
+        <v>-64600</v>
       </c>
       <c r="J29" s="3">
-        <v>-229000</v>
+        <v>-222300</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>847300</v>
+        <v>822200</v>
       </c>
       <c r="E32" s="3">
-        <v>135400</v>
+        <v>131400</v>
       </c>
       <c r="F32" s="3">
-        <v>-184200</v>
+        <v>-178700</v>
       </c>
       <c r="G32" s="3">
-        <v>954800</v>
+        <v>926600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1902700</v>
+        <v>-1846400</v>
       </c>
       <c r="I32" s="3">
-        <v>154700</v>
+        <v>150200</v>
       </c>
       <c r="J32" s="3">
-        <v>626000</v>
+        <v>607400</v>
       </c>
       <c r="K32" s="3">
         <v>-237100</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>427900</v>
+        <v>415200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1840800</v>
+        <v>-1786300</v>
       </c>
       <c r="F33" s="3">
-        <v>1697600</v>
+        <v>1647400</v>
       </c>
       <c r="G33" s="3">
-        <v>-2065100</v>
+        <v>-2004000</v>
       </c>
       <c r="H33" s="3">
-        <v>2604400</v>
+        <v>2527400</v>
       </c>
       <c r="I33" s="3">
-        <v>-421700</v>
+        <v>-409200</v>
       </c>
       <c r="J33" s="3">
-        <v>478200</v>
+        <v>464000</v>
       </c>
       <c r="K33" s="3">
         <v>584100</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>427900</v>
+        <v>415200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1840800</v>
+        <v>-1786300</v>
       </c>
       <c r="F35" s="3">
-        <v>1697600</v>
+        <v>1647400</v>
       </c>
       <c r="G35" s="3">
-        <v>-2065100</v>
+        <v>-2004000</v>
       </c>
       <c r="H35" s="3">
-        <v>2604400</v>
+        <v>2527400</v>
       </c>
       <c r="I35" s="3">
-        <v>-421700</v>
+        <v>-409200</v>
       </c>
       <c r="J35" s="3">
-        <v>478200</v>
+        <v>464000</v>
       </c>
       <c r="K35" s="3">
         <v>584100</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1830700</v>
+        <v>1776500</v>
       </c>
       <c r="E41" s="3">
-        <v>284700</v>
+        <v>276300</v>
       </c>
       <c r="F41" s="3">
-        <v>83600</v>
+        <v>81100</v>
       </c>
       <c r="G41" s="3">
-        <v>119900</v>
+        <v>116400</v>
       </c>
       <c r="H41" s="3">
-        <v>423200</v>
+        <v>410700</v>
       </c>
       <c r="I41" s="3">
-        <v>419400</v>
+        <v>407000</v>
       </c>
       <c r="J41" s="3">
-        <v>249900</v>
+        <v>242500</v>
       </c>
       <c r="K41" s="3">
         <v>359600</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>392300</v>
+        <v>380700</v>
       </c>
       <c r="E42" s="3">
-        <v>7700</v>
+        <v>7500</v>
       </c>
       <c r="F42" s="3">
-        <v>60400</v>
+        <v>58600</v>
       </c>
       <c r="G42" s="3">
-        <v>484400</v>
+        <v>470000</v>
       </c>
       <c r="H42" s="3">
-        <v>48700</v>
+        <v>47300</v>
       </c>
       <c r="I42" s="3">
-        <v>2459000</v>
+        <v>2386200</v>
       </c>
       <c r="J42" s="3">
-        <v>2926300</v>
+        <v>2839800</v>
       </c>
       <c r="K42" s="3">
         <v>333600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2635400</v>
+        <v>2557400</v>
       </c>
       <c r="E43" s="3">
-        <v>1074000</v>
+        <v>1042200</v>
       </c>
       <c r="F43" s="3">
-        <v>1166000</v>
+        <v>1131500</v>
       </c>
       <c r="G43" s="3">
-        <v>923100</v>
+        <v>895800</v>
       </c>
       <c r="H43" s="3">
-        <v>1419100</v>
+        <v>1377100</v>
       </c>
       <c r="I43" s="3">
-        <v>1328500</v>
+        <v>1289200</v>
       </c>
       <c r="J43" s="3">
-        <v>917700</v>
+        <v>890500</v>
       </c>
       <c r="K43" s="3">
         <v>1263900</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3032300</v>
+        <v>2942600</v>
       </c>
       <c r="E44" s="3">
-        <v>842600</v>
+        <v>817700</v>
       </c>
       <c r="F44" s="3">
-        <v>1185400</v>
+        <v>1150300</v>
       </c>
       <c r="G44" s="3">
-        <v>783800</v>
+        <v>760600</v>
       </c>
       <c r="H44" s="3">
-        <v>1074700</v>
+        <v>1042900</v>
       </c>
       <c r="I44" s="3">
-        <v>957100</v>
+        <v>928800</v>
       </c>
       <c r="J44" s="3">
-        <v>626700</v>
+        <v>608200</v>
       </c>
       <c r="K44" s="3">
         <v>960900</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1385000</v>
+        <v>1344000</v>
       </c>
       <c r="E45" s="3">
-        <v>93600</v>
+        <v>90900</v>
       </c>
       <c r="F45" s="3">
-        <v>45700</v>
+        <v>44300</v>
       </c>
       <c r="G45" s="3">
-        <v>160900</v>
+        <v>156200</v>
       </c>
       <c r="H45" s="3">
-        <v>909200</v>
+        <v>882300</v>
       </c>
       <c r="I45" s="3">
-        <v>114500</v>
+        <v>111100</v>
       </c>
       <c r="J45" s="3">
-        <v>287800</v>
+        <v>279300</v>
       </c>
       <c r="K45" s="3">
         <v>375300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9275700</v>
+        <v>9001300</v>
       </c>
       <c r="E46" s="3">
-        <v>2302700</v>
+        <v>2234600</v>
       </c>
       <c r="F46" s="3">
-        <v>2541000</v>
+        <v>2465800</v>
       </c>
       <c r="G46" s="3">
-        <v>2472100</v>
+        <v>2399000</v>
       </c>
       <c r="H46" s="3">
-        <v>3874900</v>
+        <v>3760300</v>
       </c>
       <c r="I46" s="3">
-        <v>5278500</v>
+        <v>5122400</v>
       </c>
       <c r="J46" s="3">
-        <v>5008500</v>
+        <v>4860300</v>
       </c>
       <c r="K46" s="3">
         <v>3293300</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>498300</v>
+        <v>483600</v>
       </c>
       <c r="E47" s="3">
-        <v>173300</v>
+        <v>168200</v>
       </c>
       <c r="F47" s="3">
-        <v>79700</v>
+        <v>77300</v>
       </c>
       <c r="G47" s="3">
-        <v>167100</v>
+        <v>162200</v>
       </c>
       <c r="H47" s="3">
-        <v>288600</v>
+        <v>280100</v>
       </c>
       <c r="I47" s="3">
-        <v>135400</v>
+        <v>131400</v>
       </c>
       <c r="J47" s="3">
-        <v>123000</v>
+        <v>119400</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28593900</v>
+        <v>27748000</v>
       </c>
       <c r="E48" s="3">
-        <v>21025100</v>
+        <v>20403100</v>
       </c>
       <c r="F48" s="3">
-        <v>23170700</v>
+        <v>22485300</v>
       </c>
       <c r="G48" s="3">
-        <v>22812500</v>
+        <v>22137600</v>
       </c>
       <c r="H48" s="3">
-        <v>25741900</v>
+        <v>24980400</v>
       </c>
       <c r="I48" s="3">
-        <v>13936000</v>
+        <v>13523700</v>
       </c>
       <c r="J48" s="3">
-        <v>14631600</v>
+        <v>14198800</v>
       </c>
       <c r="K48" s="3">
         <v>15848600</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2747600</v>
+        <v>2666300</v>
       </c>
       <c r="E49" s="3">
-        <v>1826800</v>
+        <v>1772800</v>
       </c>
       <c r="F49" s="3">
-        <v>1836100</v>
+        <v>1781800</v>
       </c>
       <c r="G49" s="3">
-        <v>1758000</v>
+        <v>1706000</v>
       </c>
       <c r="H49" s="3">
-        <v>1758000</v>
+        <v>1706000</v>
       </c>
       <c r="I49" s="3">
-        <v>187200</v>
+        <v>181700</v>
       </c>
       <c r="J49" s="3">
-        <v>187200</v>
+        <v>181700</v>
       </c>
       <c r="K49" s="3">
         <v>190000</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>747400</v>
+        <v>725300</v>
       </c>
       <c r="E52" s="3">
-        <v>27900</v>
+        <v>27000</v>
       </c>
       <c r="F52" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="G52" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="H52" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="I52" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="J52" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="K52" s="3">
         <v>55000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41863000</v>
+        <v>40624500</v>
       </c>
       <c r="E54" s="3">
-        <v>25355800</v>
+        <v>24605700</v>
       </c>
       <c r="F54" s="3">
-        <v>27632900</v>
+        <v>26815500</v>
       </c>
       <c r="G54" s="3">
-        <v>27215900</v>
+        <v>26410700</v>
       </c>
       <c r="H54" s="3">
-        <v>31671900</v>
+        <v>30735000</v>
       </c>
       <c r="I54" s="3">
-        <v>19543400</v>
+        <v>18965200</v>
       </c>
       <c r="J54" s="3">
-        <v>19955800</v>
+        <v>19365400</v>
       </c>
       <c r="K54" s="3">
         <v>19386800</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1976200</v>
+        <v>1917700</v>
       </c>
       <c r="E57" s="3">
-        <v>470400</v>
+        <v>456500</v>
       </c>
       <c r="F57" s="3">
-        <v>726600</v>
+        <v>705100</v>
       </c>
       <c r="G57" s="3">
-        <v>593500</v>
+        <v>575900</v>
       </c>
       <c r="H57" s="3">
-        <v>260800</v>
+        <v>253000</v>
       </c>
       <c r="I57" s="3">
-        <v>81200</v>
+        <v>78800</v>
       </c>
       <c r="J57" s="3">
-        <v>52600</v>
+        <v>51100</v>
       </c>
       <c r="K57" s="3">
         <v>40000</v>
@@ -2443,16 +2443,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>271600</v>
+        <v>263600</v>
       </c>
       <c r="E58" s="3">
-        <v>236000</v>
+        <v>229000</v>
       </c>
       <c r="F58" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="G58" s="3">
-        <v>527700</v>
+        <v>512100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3404500</v>
+        <v>3303800</v>
       </c>
       <c r="E59" s="3">
-        <v>1118800</v>
+        <v>1085700</v>
       </c>
       <c r="F59" s="3">
-        <v>1072400</v>
+        <v>1040700</v>
       </c>
       <c r="G59" s="3">
-        <v>890600</v>
+        <v>864200</v>
       </c>
       <c r="H59" s="3">
-        <v>3171600</v>
+        <v>3077800</v>
       </c>
       <c r="I59" s="3">
-        <v>1985400</v>
+        <v>1926700</v>
       </c>
       <c r="J59" s="3">
-        <v>1385000</v>
+        <v>1344000</v>
       </c>
       <c r="K59" s="3">
         <v>2281400</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5652200</v>
+        <v>5485000</v>
       </c>
       <c r="E60" s="3">
-        <v>1825300</v>
+        <v>1771300</v>
       </c>
       <c r="F60" s="3">
-        <v>1950600</v>
+        <v>1892900</v>
       </c>
       <c r="G60" s="3">
-        <v>2011800</v>
+        <v>1952200</v>
       </c>
       <c r="H60" s="3">
-        <v>3432400</v>
+        <v>3330800</v>
       </c>
       <c r="I60" s="3">
-        <v>2066700</v>
+        <v>2005500</v>
       </c>
       <c r="J60" s="3">
-        <v>1437600</v>
+        <v>1395100</v>
       </c>
       <c r="K60" s="3">
         <v>2321400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11660400</v>
+        <v>11315500</v>
       </c>
       <c r="E61" s="3">
-        <v>6974600</v>
+        <v>6768300</v>
       </c>
       <c r="F61" s="3">
-        <v>6514200</v>
+        <v>6321500</v>
       </c>
       <c r="G61" s="3">
-        <v>6562900</v>
+        <v>6368800</v>
       </c>
       <c r="H61" s="3">
-        <v>7360700</v>
+        <v>7142900</v>
       </c>
       <c r="I61" s="3">
+        <v>4754400</v>
+      </c>
+      <c r="J61" s="3">
         <v>4899400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>5048700</v>
       </c>
       <c r="K61" s="3">
         <v>4284800</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6283600</v>
+        <v>6097700</v>
       </c>
       <c r="E62" s="3">
-        <v>3628900</v>
+        <v>3521500</v>
       </c>
       <c r="F62" s="3">
-        <v>4311300</v>
+        <v>4183800</v>
       </c>
       <c r="G62" s="3">
-        <v>5125300</v>
+        <v>4973700</v>
       </c>
       <c r="H62" s="3">
-        <v>5418600</v>
+        <v>5258300</v>
       </c>
       <c r="I62" s="3">
-        <v>3609500</v>
+        <v>3502800</v>
       </c>
       <c r="J62" s="3">
-        <v>3881900</v>
+        <v>3767100</v>
       </c>
       <c r="K62" s="3">
         <v>4784100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23605600</v>
+        <v>22907200</v>
       </c>
       <c r="E66" s="3">
-        <v>12428700</v>
+        <v>12061100</v>
       </c>
       <c r="F66" s="3">
-        <v>12776200</v>
+        <v>12398200</v>
       </c>
       <c r="G66" s="3">
-        <v>13700000</v>
+        <v>13294700</v>
       </c>
       <c r="H66" s="3">
-        <v>16211600</v>
+        <v>15732000</v>
       </c>
       <c r="I66" s="3">
-        <v>10575600</v>
+        <v>10262800</v>
       </c>
       <c r="J66" s="3">
-        <v>10368300</v>
+        <v>10061500</v>
       </c>
       <c r="K66" s="3">
         <v>11390300</v>
@@ -2889,7 +2889,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>401600</v>
+        <v>389700</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>845700</v>
+        <v>820700</v>
       </c>
       <c r="E72" s="3">
-        <v>387600</v>
+        <v>376200</v>
       </c>
       <c r="F72" s="3">
-        <v>2288000</v>
+        <v>2220300</v>
       </c>
       <c r="G72" s="3">
-        <v>791500</v>
+        <v>768100</v>
       </c>
       <c r="H72" s="3">
-        <v>3046300</v>
+        <v>2956100</v>
       </c>
       <c r="I72" s="3">
-        <v>615900</v>
+        <v>597700</v>
       </c>
       <c r="J72" s="3">
-        <v>1166000</v>
+        <v>1131500</v>
       </c>
       <c r="K72" s="3">
         <v>1255300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17855800</v>
+        <v>17327600</v>
       </c>
       <c r="E76" s="3">
-        <v>12927000</v>
+        <v>12544600</v>
       </c>
       <c r="F76" s="3">
-        <v>14856800</v>
+        <v>14417300</v>
       </c>
       <c r="G76" s="3">
-        <v>13515900</v>
+        <v>13116000</v>
       </c>
       <c r="H76" s="3">
-        <v>15460300</v>
+        <v>15002900</v>
       </c>
       <c r="I76" s="3">
-        <v>8967800</v>
+        <v>8702500</v>
       </c>
       <c r="J76" s="3">
-        <v>9587500</v>
+        <v>9303900</v>
       </c>
       <c r="K76" s="3">
         <v>7996500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>427900</v>
+        <v>415200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1840800</v>
+        <v>-1786300</v>
       </c>
       <c r="F81" s="3">
-        <v>1697600</v>
+        <v>1647400</v>
       </c>
       <c r="G81" s="3">
-        <v>-2065100</v>
+        <v>-2004000</v>
       </c>
       <c r="H81" s="3">
-        <v>2604400</v>
+        <v>2527400</v>
       </c>
       <c r="I81" s="3">
-        <v>-421700</v>
+        <v>-409200</v>
       </c>
       <c r="J81" s="3">
-        <v>478200</v>
+        <v>464000</v>
       </c>
       <c r="K81" s="3">
         <v>584100</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4554300</v>
+        <v>4419600</v>
       </c>
       <c r="E83" s="3">
-        <v>2680300</v>
+        <v>2601000</v>
       </c>
       <c r="F83" s="3">
-        <v>1740200</v>
+        <v>1688700</v>
       </c>
       <c r="G83" s="3">
-        <v>1648900</v>
+        <v>1600100</v>
       </c>
       <c r="H83" s="3">
-        <v>1570700</v>
+        <v>1524200</v>
       </c>
       <c r="I83" s="3">
-        <v>1159100</v>
+        <v>1124800</v>
       </c>
       <c r="J83" s="3">
-        <v>1635700</v>
+        <v>1587300</v>
       </c>
       <c r="K83" s="3">
         <v>1527700</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4579800</v>
+        <v>4444300</v>
       </c>
       <c r="E89" s="3">
-        <v>211200</v>
+        <v>205000</v>
       </c>
       <c r="F89" s="3">
-        <v>2541800</v>
+        <v>2466600</v>
       </c>
       <c r="G89" s="3">
-        <v>1666700</v>
+        <v>1617400</v>
       </c>
       <c r="H89" s="3">
-        <v>2366900</v>
+        <v>2296900</v>
       </c>
       <c r="I89" s="3">
-        <v>666200</v>
+        <v>646500</v>
       </c>
       <c r="J89" s="3">
-        <v>1140500</v>
+        <v>1106800</v>
       </c>
       <c r="K89" s="3">
         <v>2768100</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1983100</v>
+        <v>-1924500</v>
       </c>
       <c r="E91" s="3">
-        <v>-664700</v>
+        <v>-645000</v>
       </c>
       <c r="F91" s="3">
-        <v>-915300</v>
+        <v>-888300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1065500</v>
+        <v>-1033900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1292200</v>
+        <v>-1253900</v>
       </c>
       <c r="I91" s="3">
-        <v>-800100</v>
+        <v>-776400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1326200</v>
+        <v>-1287000</v>
       </c>
       <c r="K91" s="3">
         <v>-2400700</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-728900</v>
+        <v>-707300</v>
       </c>
       <c r="E94" s="3">
-        <v>-667700</v>
+        <v>-648000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1108000</v>
+        <v>-1075200</v>
       </c>
       <c r="G94" s="3">
-        <v>-474300</v>
+        <v>-460300</v>
       </c>
       <c r="H94" s="3">
-        <v>-9955100</v>
+        <v>-9660600</v>
       </c>
       <c r="I94" s="3">
-        <v>-834900</v>
+        <v>-810200</v>
       </c>
       <c r="J94" s="3">
-        <v>687100</v>
+        <v>666800</v>
       </c>
       <c r="K94" s="3">
         <v>-3415000</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-162500</v>
+        <v>-157700</v>
       </c>
       <c r="E96" s="3">
-        <v>-59600</v>
+        <v>-57800</v>
       </c>
       <c r="F96" s="3">
-        <v>-201200</v>
+        <v>-195200</v>
       </c>
       <c r="G96" s="3">
-        <v>-189600</v>
+        <v>-184000</v>
       </c>
       <c r="H96" s="3">
-        <v>-174100</v>
+        <v>-168900</v>
       </c>
       <c r="I96" s="3">
-        <v>-128400</v>
+        <v>-124600</v>
       </c>
       <c r="J96" s="3">
-        <v>-408500</v>
+        <v>-396500</v>
       </c>
       <c r="K96" s="3">
         <v>-632000</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1939800</v>
+        <v>-1882400</v>
       </c>
       <c r="E100" s="3">
-        <v>647600</v>
+        <v>628500</v>
       </c>
       <c r="F100" s="3">
-        <v>-1867100</v>
+        <v>-1811800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1091000</v>
+        <v>-1058700</v>
       </c>
       <c r="H100" s="3">
-        <v>5041000</v>
+        <v>4891900</v>
       </c>
       <c r="I100" s="3">
-        <v>-130000</v>
+        <v>-126100</v>
       </c>
       <c r="J100" s="3">
-        <v>691700</v>
+        <v>671300</v>
       </c>
       <c r="K100" s="3">
         <v>-625700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19300</v>
+        <v>18800</v>
       </c>
       <c r="E101" s="3">
-        <v>-42600</v>
+        <v>-41300</v>
       </c>
       <c r="F101" s="3">
-        <v>-27100</v>
+        <v>-26300</v>
       </c>
       <c r="G101" s="3">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="H101" s="3">
-        <v>140800</v>
+        <v>136700</v>
       </c>
       <c r="I101" s="3">
         <v>800</v>
       </c>
       <c r="J101" s="3">
-        <v>-26300</v>
+        <v>-25500</v>
       </c>
       <c r="K101" s="3">
         <v>40800</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1930500</v>
+        <v>1873400</v>
       </c>
       <c r="E102" s="3">
-        <v>148600</v>
+        <v>144200</v>
       </c>
       <c r="F102" s="3">
-        <v>-460400</v>
+        <v>-446800</v>
       </c>
       <c r="G102" s="3">
-        <v>132300</v>
+        <v>128400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2406400</v>
+        <v>-2335200</v>
       </c>
       <c r="I102" s="3">
-        <v>-297900</v>
+        <v>-289100</v>
       </c>
       <c r="J102" s="3">
-        <v>2493000</v>
+        <v>2419300</v>
       </c>
       <c r="K102" s="3">
         <v>-1231700</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>CVE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>34807600</v>
+        <v>48381200</v>
       </c>
       <c r="E8" s="3">
-        <v>9931600</v>
+        <v>33526300</v>
       </c>
       <c r="F8" s="3">
-        <v>15153100</v>
+        <v>9566000</v>
       </c>
       <c r="G8" s="3">
-        <v>15650900</v>
+        <v>14595300</v>
       </c>
       <c r="H8" s="3">
-        <v>12796900</v>
+        <v>15074800</v>
       </c>
       <c r="I8" s="3">
-        <v>8264000</v>
+        <v>12325800</v>
       </c>
       <c r="J8" s="3">
+        <v>7959800</v>
+      </c>
+      <c r="K8" s="3">
         <v>8656700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15420000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14362500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12678500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12058100</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>17630900</v>
+        <v>24445600</v>
       </c>
       <c r="E9" s="3">
-        <v>3843700</v>
+        <v>16981900</v>
       </c>
       <c r="F9" s="3">
-        <v>6328200</v>
+        <v>3702200</v>
       </c>
       <c r="G9" s="3">
-        <v>6566300</v>
+        <v>6095300</v>
       </c>
       <c r="H9" s="3">
-        <v>6032400</v>
+        <v>6324600</v>
       </c>
       <c r="I9" s="3">
-        <v>5239500</v>
+        <v>5810300</v>
       </c>
       <c r="J9" s="3">
+        <v>5046600</v>
+      </c>
+      <c r="K9" s="3">
         <v>5537600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8636300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8032300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6970800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>27700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>17176700</v>
+        <v>23935700</v>
       </c>
       <c r="E10" s="3">
-        <v>6088000</v>
+        <v>16544400</v>
       </c>
       <c r="F10" s="3">
-        <v>8824900</v>
+        <v>5863900</v>
       </c>
       <c r="G10" s="3">
-        <v>9084700</v>
+        <v>8500000</v>
       </c>
       <c r="H10" s="3">
-        <v>6764500</v>
+        <v>8750200</v>
       </c>
       <c r="I10" s="3">
-        <v>3024500</v>
+        <v>6515500</v>
       </c>
       <c r="J10" s="3">
+        <v>2913100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3119100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6783600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6330200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5707700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>12030500</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>13500</v>
+        <v>73000</v>
       </c>
       <c r="E12" s="3">
-        <v>68300</v>
+        <v>13000</v>
       </c>
       <c r="F12" s="3">
-        <v>76600</v>
+        <v>65800</v>
       </c>
       <c r="G12" s="3">
-        <v>1612800</v>
+        <v>73800</v>
       </c>
       <c r="H12" s="3">
-        <v>693800</v>
+        <v>1553500</v>
       </c>
       <c r="I12" s="3">
-        <v>28500</v>
+        <v>668300</v>
       </c>
       <c r="J12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K12" s="3">
         <v>70600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>79300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>106200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>62500</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1264400</v>
+        <v>109900</v>
       </c>
       <c r="E14" s="3">
-        <v>1182600</v>
+        <v>1217900</v>
       </c>
       <c r="F14" s="3">
-        <v>27800</v>
+        <v>1139100</v>
       </c>
       <c r="G14" s="3">
-        <v>624700</v>
+        <v>26800</v>
       </c>
       <c r="H14" s="3">
-        <v>15000</v>
+        <v>601700</v>
       </c>
       <c r="I14" s="3">
-        <v>36000</v>
+        <v>14500</v>
       </c>
       <c r="J14" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1763800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>390200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>295800</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3245200</v>
+        <v>3156100</v>
       </c>
       <c r="E15" s="3">
-        <v>1766000</v>
+        <v>3125800</v>
       </c>
       <c r="F15" s="3">
-        <v>1663900</v>
+        <v>1701000</v>
       </c>
       <c r="G15" s="3">
-        <v>1619600</v>
+        <v>1602700</v>
       </c>
       <c r="H15" s="3">
-        <v>1380100</v>
+        <v>1560000</v>
       </c>
       <c r="I15" s="3">
-        <v>1806600</v>
+        <v>1329300</v>
       </c>
       <c r="J15" s="3">
+        <v>1740100</v>
+      </c>
+      <c r="K15" s="3">
         <v>745600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1527700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1411100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1193200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>994900</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>32451400</v>
+        <v>40509000</v>
       </c>
       <c r="E17" s="3">
-        <v>11865800</v>
+        <v>31256800</v>
       </c>
       <c r="F17" s="3">
-        <v>13915700</v>
+        <v>11429000</v>
       </c>
       <c r="G17" s="3">
-        <v>17272000</v>
+        <v>13403400</v>
       </c>
       <c r="H17" s="3">
-        <v>12550600</v>
+        <v>16636200</v>
       </c>
       <c r="I17" s="3">
-        <v>8459900</v>
+        <v>12088600</v>
       </c>
       <c r="J17" s="3">
+        <v>8148500</v>
+      </c>
+      <c r="K17" s="3">
         <v>7134700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14477900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12800600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11390500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10710700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2356200</v>
+        <v>7872200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1934200</v>
+        <v>2269500</v>
       </c>
       <c r="F18" s="3">
-        <v>1237400</v>
+        <v>-1863000</v>
       </c>
       <c r="G18" s="3">
-        <v>-1621100</v>
+        <v>1191900</v>
       </c>
       <c r="H18" s="3">
-        <v>246300</v>
+        <v>-1561400</v>
       </c>
       <c r="I18" s="3">
-        <v>-196000</v>
+        <v>237200</v>
       </c>
       <c r="J18" s="3">
+        <v>-188800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1522000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>942100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1562000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1288000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1347500</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-822200</v>
+        <v>-1097800</v>
       </c>
       <c r="E20" s="3">
-        <v>-131400</v>
+        <v>-791900</v>
       </c>
       <c r="F20" s="3">
-        <v>178700</v>
+        <v>-126600</v>
       </c>
       <c r="G20" s="3">
-        <v>-926600</v>
+        <v>172100</v>
       </c>
       <c r="H20" s="3">
-        <v>1846400</v>
+        <v>-892500</v>
       </c>
       <c r="I20" s="3">
-        <v>-150200</v>
+        <v>1778400</v>
       </c>
       <c r="J20" s="3">
+        <v>-144600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-607400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>237100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-410300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>312400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>348000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>5885600</v>
+        <v>10164000</v>
       </c>
       <c r="E21" s="3">
-        <v>495400</v>
+        <v>5741500</v>
       </c>
       <c r="F21" s="3">
-        <v>3078900</v>
+        <v>519800</v>
       </c>
       <c r="G21" s="3">
-        <v>-972200</v>
+        <v>2993200</v>
       </c>
       <c r="H21" s="3">
-        <v>3593500</v>
+        <v>-910100</v>
       </c>
       <c r="I21" s="3">
-        <v>761400</v>
+        <v>3486200</v>
       </c>
       <c r="J21" s="3">
+        <v>751800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2477500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2701100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2560200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2794100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2695100</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>546600</v>
+        <v>460000</v>
       </c>
       <c r="E22" s="3">
-        <v>359700</v>
+        <v>526500</v>
       </c>
       <c r="F22" s="3">
-        <v>367200</v>
+        <v>346400</v>
       </c>
       <c r="G22" s="3">
-        <v>400200</v>
+        <v>353700</v>
       </c>
       <c r="H22" s="3">
-        <v>428700</v>
+        <v>385500</v>
       </c>
       <c r="I22" s="3">
-        <v>256000</v>
+        <v>413000</v>
       </c>
       <c r="J22" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K22" s="3">
         <v>246300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>241000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>309500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>262000</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>987400</v>
+        <v>6314400</v>
       </c>
       <c r="E23" s="3">
-        <v>-2425300</v>
+        <v>951000</v>
       </c>
       <c r="F23" s="3">
-        <v>1049000</v>
+        <v>-2336000</v>
       </c>
       <c r="G23" s="3">
-        <v>-2947900</v>
+        <v>1010300</v>
       </c>
       <c r="H23" s="3">
-        <v>1663900</v>
+        <v>-2839400</v>
       </c>
       <c r="I23" s="3">
-        <v>-602200</v>
+        <v>1602700</v>
       </c>
       <c r="J23" s="3">
+        <v>-580000</v>
+      </c>
+      <c r="K23" s="3">
         <v>668300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>938100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>842200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1338500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1695500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>546600</v>
+        <v>1649700</v>
       </c>
       <c r="E24" s="3">
-        <v>-639000</v>
+        <v>526500</v>
       </c>
       <c r="F24" s="3">
-        <v>-598400</v>
+        <v>-615500</v>
       </c>
       <c r="G24" s="3">
-        <v>-758400</v>
+        <v>-576400</v>
       </c>
       <c r="H24" s="3">
-        <v>-39000</v>
+        <v>-730500</v>
       </c>
       <c r="I24" s="3">
-        <v>-257500</v>
+        <v>-37600</v>
       </c>
       <c r="J24" s="3">
+        <v>-248100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-18000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>354100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>332600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>589400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>560000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>440800</v>
+        <v>4664800</v>
       </c>
       <c r="E26" s="3">
-        <v>-1786300</v>
+        <v>424500</v>
       </c>
       <c r="F26" s="3">
-        <v>1647400</v>
+        <v>-1720500</v>
       </c>
       <c r="G26" s="3">
-        <v>-2189500</v>
+        <v>1586700</v>
       </c>
       <c r="H26" s="3">
-        <v>1703000</v>
+        <v>-2108900</v>
       </c>
       <c r="I26" s="3">
-        <v>-344600</v>
+        <v>1640300</v>
       </c>
       <c r="J26" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="K26" s="3">
         <v>686300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>584100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>509600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>749000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1135400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>415200</v>
+        <v>4639500</v>
       </c>
       <c r="E27" s="3">
-        <v>-1786300</v>
+        <v>399900</v>
       </c>
       <c r="F27" s="3">
-        <v>1647400</v>
+        <v>-1720500</v>
       </c>
       <c r="G27" s="3">
-        <v>-2189500</v>
+        <v>1586700</v>
       </c>
       <c r="H27" s="3">
-        <v>1703000</v>
+        <v>-2108900</v>
       </c>
       <c r="I27" s="3">
-        <v>-344600</v>
+        <v>1640300</v>
       </c>
       <c r="J27" s="3">
+        <v>-332000</v>
+      </c>
+      <c r="K27" s="3">
         <v>686300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>584100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>509600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>749000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1135400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,23 +1538,23 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>185500</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>824400</v>
+        <v>178600</v>
       </c>
       <c r="I29" s="3">
-        <v>-64600</v>
+        <v>794100</v>
       </c>
       <c r="J29" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="K29" s="3">
         <v>-222300</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>822200</v>
+        <v>1097800</v>
       </c>
       <c r="E32" s="3">
-        <v>131400</v>
+        <v>791900</v>
       </c>
       <c r="F32" s="3">
-        <v>-178700</v>
+        <v>126600</v>
       </c>
       <c r="G32" s="3">
-        <v>926600</v>
+        <v>-172100</v>
       </c>
       <c r="H32" s="3">
-        <v>-1846400</v>
+        <v>892500</v>
       </c>
       <c r="I32" s="3">
-        <v>150200</v>
+        <v>-1778400</v>
       </c>
       <c r="J32" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K32" s="3">
         <v>607400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-237100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>410300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-312400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-348000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>415200</v>
+        <v>4639500</v>
       </c>
       <c r="E33" s="3">
-        <v>-1786300</v>
+        <v>399900</v>
       </c>
       <c r="F33" s="3">
-        <v>1647400</v>
+        <v>-1720500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2004000</v>
+        <v>1586700</v>
       </c>
       <c r="H33" s="3">
-        <v>2527400</v>
+        <v>-1930300</v>
       </c>
       <c r="I33" s="3">
-        <v>-409200</v>
+        <v>2434400</v>
       </c>
       <c r="J33" s="3">
+        <v>-394200</v>
+      </c>
+      <c r="K33" s="3">
         <v>464000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>584100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>509600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>749000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1135400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>415200</v>
+        <v>4639500</v>
       </c>
       <c r="E35" s="3">
-        <v>-1786300</v>
+        <v>399900</v>
       </c>
       <c r="F35" s="3">
-        <v>1647400</v>
+        <v>-1720500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2004000</v>
+        <v>1586700</v>
       </c>
       <c r="H35" s="3">
-        <v>2527400</v>
+        <v>-1930300</v>
       </c>
       <c r="I35" s="3">
-        <v>-409200</v>
+        <v>2434400</v>
       </c>
       <c r="J35" s="3">
+        <v>-394200</v>
+      </c>
+      <c r="K35" s="3">
         <v>464000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>584100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>509600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>749000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1135400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1776500</v>
+        <v>2310700</v>
       </c>
       <c r="E41" s="3">
-        <v>276300</v>
+        <v>1711100</v>
       </c>
       <c r="F41" s="3">
-        <v>81100</v>
+        <v>266100</v>
       </c>
       <c r="G41" s="3">
-        <v>116400</v>
+        <v>78100</v>
       </c>
       <c r="H41" s="3">
-        <v>410700</v>
+        <v>112100</v>
       </c>
       <c r="I41" s="3">
-        <v>407000</v>
+        <v>395600</v>
       </c>
       <c r="J41" s="3">
+        <v>392000</v>
+      </c>
+      <c r="K41" s="3">
         <v>242500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>359600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1887600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1128400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>178200</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>380700</v>
+        <v>961200</v>
       </c>
       <c r="E42" s="3">
-        <v>7500</v>
+        <v>366700</v>
       </c>
       <c r="F42" s="3">
-        <v>58600</v>
+        <v>7200</v>
       </c>
       <c r="G42" s="3">
-        <v>470000</v>
+        <v>56400</v>
       </c>
       <c r="H42" s="3">
-        <v>47300</v>
+        <v>452700</v>
       </c>
       <c r="I42" s="3">
-        <v>2386200</v>
+        <v>45600</v>
       </c>
       <c r="J42" s="3">
+        <v>2298400</v>
+      </c>
+      <c r="K42" s="3">
         <v>2839800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>333600</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>618000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>202000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2557400</v>
+        <v>2308500</v>
       </c>
       <c r="E43" s="3">
-        <v>1042200</v>
+        <v>2463300</v>
       </c>
       <c r="F43" s="3">
-        <v>1131500</v>
+        <v>1003800</v>
       </c>
       <c r="G43" s="3">
-        <v>895800</v>
+        <v>1089900</v>
       </c>
       <c r="H43" s="3">
-        <v>1377100</v>
+        <v>862800</v>
       </c>
       <c r="I43" s="3">
-        <v>1289200</v>
+        <v>1326400</v>
       </c>
       <c r="J43" s="3">
+        <v>1241800</v>
+      </c>
+      <c r="K43" s="3">
         <v>890500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1263900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1454200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2459400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1053200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2942600</v>
+        <v>3118500</v>
       </c>
       <c r="E44" s="3">
-        <v>817700</v>
+        <v>2834300</v>
       </c>
       <c r="F44" s="3">
-        <v>1150300</v>
+        <v>787600</v>
       </c>
       <c r="G44" s="3">
-        <v>760600</v>
+        <v>1108000</v>
       </c>
       <c r="H44" s="3">
-        <v>1042900</v>
+        <v>732600</v>
       </c>
       <c r="I44" s="3">
-        <v>928800</v>
+        <v>1004600</v>
       </c>
       <c r="J44" s="3">
+        <v>894600</v>
+      </c>
+      <c r="K44" s="3">
         <v>608200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>960900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>969200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1917400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>991800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1344000</v>
+        <v>290700</v>
       </c>
       <c r="E45" s="3">
-        <v>90900</v>
+        <v>1294600</v>
       </c>
       <c r="F45" s="3">
-        <v>44300</v>
+        <v>87500</v>
       </c>
       <c r="G45" s="3">
-        <v>156200</v>
+        <v>42700</v>
       </c>
       <c r="H45" s="3">
-        <v>882300</v>
+        <v>150400</v>
       </c>
       <c r="I45" s="3">
-        <v>111100</v>
+        <v>849800</v>
       </c>
       <c r="J45" s="3">
+        <v>107000</v>
+      </c>
+      <c r="K45" s="3">
         <v>279300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>375300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>536000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>579200</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9001300</v>
+        <v>8989600</v>
       </c>
       <c r="E46" s="3">
-        <v>2234600</v>
+        <v>8670000</v>
       </c>
       <c r="F46" s="3">
-        <v>2465800</v>
+        <v>2152300</v>
       </c>
       <c r="G46" s="3">
-        <v>2399000</v>
+        <v>2375100</v>
       </c>
       <c r="H46" s="3">
-        <v>3760300</v>
+        <v>2310700</v>
       </c>
       <c r="I46" s="3">
-        <v>5122400</v>
+        <v>3621900</v>
       </c>
       <c r="J46" s="3">
+        <v>4933800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4860300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3293300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4318700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3447000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3004500</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>483600</v>
+        <v>453500</v>
       </c>
       <c r="E47" s="3">
-        <v>168200</v>
+        <v>465800</v>
       </c>
       <c r="F47" s="3">
-        <v>77300</v>
+        <v>162000</v>
       </c>
       <c r="G47" s="3">
-        <v>162200</v>
+        <v>74500</v>
       </c>
       <c r="H47" s="3">
-        <v>280100</v>
+        <v>156200</v>
       </c>
       <c r="I47" s="3">
-        <v>131400</v>
+        <v>269800</v>
       </c>
       <c r="J47" s="3">
+        <v>126600</v>
+      </c>
+      <c r="K47" s="3">
         <v>119400</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="L47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>1069000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1413500</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>27748000</v>
+        <v>28226600</v>
       </c>
       <c r="E48" s="3">
-        <v>20403100</v>
+        <v>26726600</v>
       </c>
       <c r="F48" s="3">
-        <v>22485300</v>
+        <v>19652100</v>
       </c>
       <c r="G48" s="3">
-        <v>22137600</v>
+        <v>21657500</v>
       </c>
       <c r="H48" s="3">
-        <v>24980400</v>
+        <v>21322700</v>
       </c>
       <c r="I48" s="3">
-        <v>13523700</v>
+        <v>24060800</v>
       </c>
       <c r="J48" s="3">
+        <v>13025900</v>
+      </c>
+      <c r="K48" s="3">
         <v>14198800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15848600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14478000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26252800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11680200</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2666300</v>
+        <v>2127700</v>
       </c>
       <c r="E49" s="3">
-        <v>1772800</v>
+        <v>2568200</v>
       </c>
       <c r="F49" s="3">
-        <v>1781800</v>
+        <v>1707500</v>
       </c>
       <c r="G49" s="3">
-        <v>1706000</v>
+        <v>1716200</v>
       </c>
       <c r="H49" s="3">
-        <v>1706000</v>
+        <v>1643200</v>
       </c>
       <c r="I49" s="3">
+        <v>1643200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K49" s="3">
         <v>181700</v>
       </c>
-      <c r="J49" s="3">
-        <v>181700</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>190000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>568900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>556300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>869600</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>725300</v>
+        <v>608200</v>
       </c>
       <c r="E52" s="3">
-        <v>27000</v>
+        <v>698600</v>
       </c>
       <c r="F52" s="3">
+        <v>26000</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K52" s="3">
         <v>5300</v>
       </c>
-      <c r="G52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>5300</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>55000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>53400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>82200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40624500</v>
+        <v>40405600</v>
       </c>
       <c r="E54" s="3">
-        <v>24605700</v>
+        <v>39129100</v>
       </c>
       <c r="F54" s="3">
-        <v>26815500</v>
+        <v>23699900</v>
       </c>
       <c r="G54" s="3">
-        <v>26410700</v>
+        <v>25828400</v>
       </c>
       <c r="H54" s="3">
-        <v>30735000</v>
+        <v>25438500</v>
       </c>
       <c r="I54" s="3">
-        <v>18965200</v>
+        <v>29603600</v>
       </c>
       <c r="J54" s="3">
+        <v>18267100</v>
+      </c>
+      <c r="K54" s="3">
         <v>19365400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19386800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>19417900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18229600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17050100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1917700</v>
+        <v>1685800</v>
       </c>
       <c r="E57" s="3">
-        <v>456500</v>
+        <v>1847100</v>
       </c>
       <c r="F57" s="3">
-        <v>705100</v>
+        <v>439700</v>
       </c>
       <c r="G57" s="3">
-        <v>575900</v>
+        <v>679100</v>
       </c>
       <c r="H57" s="3">
-        <v>253000</v>
+        <v>554700</v>
       </c>
       <c r="I57" s="3">
-        <v>78800</v>
+        <v>243700</v>
       </c>
       <c r="J57" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K57" s="3">
         <v>51100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>78500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>609000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>606100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>263600</v>
+        <v>305900</v>
       </c>
       <c r="E58" s="3">
-        <v>229000</v>
+        <v>253900</v>
       </c>
       <c r="F58" s="3">
-        <v>147200</v>
+        <v>220600</v>
       </c>
       <c r="G58" s="3">
-        <v>512100</v>
-      </c>
-      <c r="H58" s="3" t="s">
+        <v>141800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>493200</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>337200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>290600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>285800</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3303800</v>
+        <v>3809200</v>
       </c>
       <c r="E59" s="3">
-        <v>1085700</v>
+        <v>3182200</v>
       </c>
       <c r="F59" s="3">
-        <v>1040700</v>
+        <v>1045800</v>
       </c>
       <c r="G59" s="3">
-        <v>864200</v>
+        <v>1002400</v>
       </c>
       <c r="H59" s="3">
-        <v>3077800</v>
+        <v>832400</v>
       </c>
       <c r="I59" s="3">
-        <v>1926700</v>
+        <v>2964500</v>
       </c>
       <c r="J59" s="3">
+        <v>1855800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1344000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2281400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2493400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3556900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1710800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5485000</v>
+        <v>5800900</v>
       </c>
       <c r="E60" s="3">
-        <v>1771300</v>
+        <v>5283100</v>
       </c>
       <c r="F60" s="3">
-        <v>1892900</v>
+        <v>1706100</v>
       </c>
       <c r="G60" s="3">
-        <v>1952200</v>
+        <v>1823200</v>
       </c>
       <c r="H60" s="3">
-        <v>3330800</v>
+        <v>1880400</v>
       </c>
       <c r="I60" s="3">
-        <v>2005500</v>
+        <v>3208200</v>
       </c>
       <c r="J60" s="3">
+        <v>1931700</v>
+      </c>
+      <c r="K60" s="3">
         <v>1395100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2321400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2909100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2461600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2602800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11315500</v>
+        <v>8113800</v>
       </c>
       <c r="E61" s="3">
-        <v>6768300</v>
+        <v>10898900</v>
       </c>
       <c r="F61" s="3">
-        <v>6321500</v>
+        <v>6519100</v>
       </c>
       <c r="G61" s="3">
-        <v>6368800</v>
+        <v>6088800</v>
       </c>
       <c r="H61" s="3">
-        <v>7142900</v>
+        <v>6134400</v>
       </c>
       <c r="I61" s="3">
-        <v>4754400</v>
+        <v>6880000</v>
       </c>
       <c r="J61" s="3">
+        <v>4579400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4899400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4284800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4683600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4595800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4133100</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6097700</v>
+        <v>6537900</v>
       </c>
       <c r="E62" s="3">
-        <v>3521500</v>
+        <v>5873300</v>
       </c>
       <c r="F62" s="3">
-        <v>4183800</v>
+        <v>3391900</v>
       </c>
       <c r="G62" s="3">
-        <v>4973700</v>
+        <v>4029800</v>
       </c>
       <c r="H62" s="3">
-        <v>5258300</v>
+        <v>4790600</v>
       </c>
       <c r="I62" s="3">
-        <v>3502800</v>
+        <v>5064700</v>
       </c>
       <c r="J62" s="3">
+        <v>3373800</v>
+      </c>
+      <c r="K62" s="3">
         <v>3767100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4784100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4168600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5643700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3088300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22907200</v>
+        <v>20462100</v>
       </c>
       <c r="E66" s="3">
-        <v>12061100</v>
+        <v>22064000</v>
       </c>
       <c r="F66" s="3">
-        <v>12398200</v>
+        <v>11617100</v>
       </c>
       <c r="G66" s="3">
-        <v>13294700</v>
+        <v>11941800</v>
       </c>
       <c r="H66" s="3">
-        <v>15732000</v>
+        <v>12805300</v>
       </c>
       <c r="I66" s="3">
-        <v>10262800</v>
+        <v>15152900</v>
       </c>
       <c r="J66" s="3">
+        <v>9885000</v>
+      </c>
+      <c r="K66" s="3">
         <v>10061500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11390300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11761300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10865800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9824100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,17 +3046,20 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>389700</v>
+        <v>375400</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>375400</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>820700</v>
+        <v>4755900</v>
       </c>
       <c r="E72" s="3">
-        <v>376200</v>
+        <v>790500</v>
       </c>
       <c r="F72" s="3">
-        <v>2220300</v>
+        <v>362300</v>
       </c>
       <c r="G72" s="3">
-        <v>768100</v>
+        <v>2138600</v>
       </c>
       <c r="H72" s="3">
-        <v>2956100</v>
+        <v>739900</v>
       </c>
       <c r="I72" s="3">
-        <v>597700</v>
+        <v>2847300</v>
       </c>
       <c r="J72" s="3">
+        <v>575700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1131500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1255300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1277900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2603100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1075500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17327600</v>
+        <v>19568100</v>
       </c>
       <c r="E76" s="3">
-        <v>12544600</v>
+        <v>16689700</v>
       </c>
       <c r="F76" s="3">
-        <v>14417300</v>
+        <v>12082800</v>
       </c>
       <c r="G76" s="3">
-        <v>13116000</v>
+        <v>13886500</v>
       </c>
       <c r="H76" s="3">
-        <v>15002900</v>
+        <v>12633200</v>
       </c>
       <c r="I76" s="3">
-        <v>8702500</v>
+        <v>14450700</v>
       </c>
       <c r="J76" s="3">
+        <v>8382100</v>
+      </c>
+      <c r="K76" s="3">
         <v>9303900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7996500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7656600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7363800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7226000</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>415200</v>
+        <v>4639500</v>
       </c>
       <c r="E81" s="3">
-        <v>-1786300</v>
+        <v>399900</v>
       </c>
       <c r="F81" s="3">
-        <v>1647400</v>
+        <v>-1720500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2004000</v>
+        <v>1586700</v>
       </c>
       <c r="H81" s="3">
-        <v>2527400</v>
+        <v>-1930300</v>
       </c>
       <c r="I81" s="3">
-        <v>-409200</v>
+        <v>2434400</v>
       </c>
       <c r="J81" s="3">
+        <v>-394200</v>
+      </c>
+      <c r="K81" s="3">
         <v>464000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>584100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>509600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>749000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1135400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4419600</v>
+        <v>3383900</v>
       </c>
       <c r="E83" s="3">
-        <v>2601000</v>
+        <v>4256900</v>
       </c>
       <c r="F83" s="3">
-        <v>1688700</v>
+        <v>2505200</v>
       </c>
       <c r="G83" s="3">
-        <v>1600100</v>
+        <v>1626500</v>
       </c>
       <c r="H83" s="3">
-        <v>1524200</v>
+        <v>1541200</v>
       </c>
       <c r="I83" s="3">
-        <v>1124800</v>
+        <v>1468100</v>
       </c>
       <c r="J83" s="3">
+        <v>1083400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1587300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1527700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1411100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1193200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>994900</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4444300</v>
+        <v>8246900</v>
       </c>
       <c r="E89" s="3">
-        <v>205000</v>
+        <v>4280700</v>
       </c>
       <c r="F89" s="3">
-        <v>2466600</v>
+        <v>197400</v>
       </c>
       <c r="G89" s="3">
-        <v>1617400</v>
+        <v>2375800</v>
       </c>
       <c r="H89" s="3">
-        <v>2296900</v>
+        <v>1557800</v>
       </c>
       <c r="I89" s="3">
-        <v>646500</v>
+        <v>2212300</v>
       </c>
       <c r="J89" s="3">
+        <v>622700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1106800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2768100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2724400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2574500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2514400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1924500</v>
+        <v>-2681700</v>
       </c>
       <c r="E91" s="3">
-        <v>-645000</v>
+        <v>-1853600</v>
       </c>
       <c r="F91" s="3">
-        <v>-888300</v>
+        <v>-621200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1033900</v>
+        <v>-855600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1253900</v>
+        <v>-995900</v>
       </c>
       <c r="I91" s="3">
-        <v>-776400</v>
+        <v>-1207800</v>
       </c>
       <c r="J91" s="3">
+        <v>-747800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1287000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2400700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2516500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2596400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2144900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-707300</v>
+        <v>-1673500</v>
       </c>
       <c r="E94" s="3">
-        <v>-648000</v>
+        <v>-681300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1075200</v>
+        <v>-624100</v>
       </c>
       <c r="G94" s="3">
-        <v>-460300</v>
+        <v>-1035700</v>
       </c>
       <c r="H94" s="3">
-        <v>-9660600</v>
+        <v>-443300</v>
       </c>
       <c r="I94" s="3">
-        <v>-810200</v>
+        <v>-9304900</v>
       </c>
       <c r="J94" s="3">
+        <v>-780400</v>
+      </c>
+      <c r="K94" s="3">
         <v>666800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3415000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1169400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2511300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1943600</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-157700</v>
+        <v>-670400</v>
       </c>
       <c r="E96" s="3">
-        <v>-57800</v>
+        <v>-151900</v>
       </c>
       <c r="F96" s="3">
-        <v>-195200</v>
+        <v>-55700</v>
       </c>
       <c r="G96" s="3">
-        <v>-184000</v>
+        <v>-188000</v>
       </c>
       <c r="H96" s="3">
-        <v>-168900</v>
+        <v>-177200</v>
       </c>
       <c r="I96" s="3">
-        <v>-124600</v>
+        <v>-162700</v>
       </c>
       <c r="J96" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-396500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-632000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-563500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-500600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-463200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1882400</v>
+        <v>-5551400</v>
       </c>
       <c r="E100" s="3">
-        <v>628500</v>
+        <v>-1813100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1811800</v>
+        <v>605300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1058700</v>
+        <v>-1745100</v>
       </c>
       <c r="H100" s="3">
-        <v>4891900</v>
+        <v>-1019700</v>
       </c>
       <c r="I100" s="3">
-        <v>-126100</v>
+        <v>4711800</v>
       </c>
       <c r="J100" s="3">
+        <v>-121500</v>
+      </c>
+      <c r="K100" s="3">
         <v>671300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-625700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-558900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>445700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-428700</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>18800</v>
+        <v>172100</v>
       </c>
       <c r="E101" s="3">
-        <v>-41300</v>
+        <v>18100</v>
       </c>
       <c r="F101" s="3">
-        <v>-26300</v>
+        <v>-39800</v>
       </c>
       <c r="G101" s="3">
-        <v>30000</v>
+        <v>-25300</v>
       </c>
       <c r="H101" s="3">
-        <v>136700</v>
+        <v>28900</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>131600</v>
       </c>
       <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-25500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>40800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7700</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1873400</v>
+        <v>1194000</v>
       </c>
       <c r="E102" s="3">
-        <v>144200</v>
+        <v>1804400</v>
       </c>
       <c r="F102" s="3">
-        <v>-446800</v>
+        <v>138900</v>
       </c>
       <c r="G102" s="3">
-        <v>128400</v>
+        <v>-430300</v>
       </c>
       <c r="H102" s="3">
-        <v>-2335200</v>
+        <v>123700</v>
       </c>
       <c r="I102" s="3">
-        <v>-289100</v>
+        <v>-2249200</v>
       </c>
       <c r="J102" s="3">
+        <v>-278400</v>
+      </c>
+      <c r="K102" s="3">
         <v>2419300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1231700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>994600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>149800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>48381200</v>
+        <v>49553300</v>
       </c>
       <c r="E8" s="3">
-        <v>33526300</v>
+        <v>34338500</v>
       </c>
       <c r="F8" s="3">
-        <v>9566000</v>
+        <v>9797800</v>
       </c>
       <c r="G8" s="3">
-        <v>14595300</v>
+        <v>14948900</v>
       </c>
       <c r="H8" s="3">
-        <v>15074800</v>
+        <v>15440000</v>
       </c>
       <c r="I8" s="3">
-        <v>12325800</v>
+        <v>12624400</v>
       </c>
       <c r="J8" s="3">
-        <v>7959800</v>
+        <v>8152600</v>
       </c>
       <c r="K8" s="3">
         <v>8656700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>24445600</v>
+        <v>25037800</v>
       </c>
       <c r="E9" s="3">
-        <v>16981900</v>
+        <v>17393300</v>
       </c>
       <c r="F9" s="3">
-        <v>3702200</v>
+        <v>3791800</v>
       </c>
       <c r="G9" s="3">
-        <v>6095300</v>
+        <v>6243000</v>
       </c>
       <c r="H9" s="3">
-        <v>6324600</v>
+        <v>6477800</v>
       </c>
       <c r="I9" s="3">
-        <v>5810300</v>
+        <v>5951100</v>
       </c>
       <c r="J9" s="3">
-        <v>5046600</v>
+        <v>5168900</v>
       </c>
       <c r="K9" s="3">
         <v>5537600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>23935700</v>
+        <v>24515500</v>
       </c>
       <c r="E10" s="3">
-        <v>16544400</v>
+        <v>16945200</v>
       </c>
       <c r="F10" s="3">
-        <v>5863900</v>
+        <v>6005900</v>
       </c>
       <c r="G10" s="3">
-        <v>8500000</v>
+        <v>8705900</v>
       </c>
       <c r="H10" s="3">
-        <v>8750200</v>
+        <v>8962200</v>
       </c>
       <c r="I10" s="3">
-        <v>6515500</v>
+        <v>6673300</v>
       </c>
       <c r="J10" s="3">
-        <v>2913100</v>
+        <v>2983700</v>
       </c>
       <c r="K10" s="3">
         <v>3119100</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>73000</v>
+        <v>74800</v>
       </c>
       <c r="E12" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="F12" s="3">
-        <v>65800</v>
+        <v>67400</v>
       </c>
       <c r="G12" s="3">
-        <v>73800</v>
+        <v>75600</v>
       </c>
       <c r="H12" s="3">
-        <v>1553500</v>
+        <v>1591100</v>
       </c>
       <c r="I12" s="3">
-        <v>668300</v>
+        <v>684400</v>
       </c>
       <c r="J12" s="3">
-        <v>27500</v>
+        <v>28100</v>
       </c>
       <c r="K12" s="3">
         <v>70600</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>109900</v>
+        <v>112600</v>
       </c>
       <c r="E14" s="3">
-        <v>1217900</v>
+        <v>1247400</v>
       </c>
       <c r="F14" s="3">
-        <v>1139100</v>
+        <v>1166700</v>
       </c>
       <c r="G14" s="3">
-        <v>26800</v>
+        <v>27400</v>
       </c>
       <c r="H14" s="3">
-        <v>601700</v>
+        <v>616300</v>
       </c>
       <c r="I14" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="J14" s="3">
-        <v>34700</v>
+        <v>35600</v>
       </c>
       <c r="K14" s="3">
         <v>-1763800</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3156100</v>
+        <v>3232600</v>
       </c>
       <c r="E15" s="3">
-        <v>3125800</v>
+        <v>3201500</v>
       </c>
       <c r="F15" s="3">
-        <v>1701000</v>
+        <v>1742200</v>
       </c>
       <c r="G15" s="3">
-        <v>1602700</v>
+        <v>1641500</v>
       </c>
       <c r="H15" s="3">
-        <v>1560000</v>
+        <v>1597800</v>
       </c>
       <c r="I15" s="3">
-        <v>1329300</v>
+        <v>1361500</v>
       </c>
       <c r="J15" s="3">
-        <v>1740100</v>
+        <v>1782200</v>
       </c>
       <c r="K15" s="3">
         <v>745600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40509000</v>
+        <v>41490300</v>
       </c>
       <c r="E17" s="3">
-        <v>31256800</v>
+        <v>32014000</v>
       </c>
       <c r="F17" s="3">
-        <v>11429000</v>
+        <v>11705900</v>
       </c>
       <c r="G17" s="3">
-        <v>13403400</v>
+        <v>13728100</v>
       </c>
       <c r="H17" s="3">
-        <v>16636200</v>
+        <v>17039200</v>
       </c>
       <c r="I17" s="3">
-        <v>12088600</v>
+        <v>12381500</v>
       </c>
       <c r="J17" s="3">
-        <v>8148500</v>
+        <v>8345900</v>
       </c>
       <c r="K17" s="3">
         <v>7134700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7872200</v>
+        <v>8063000</v>
       </c>
       <c r="E18" s="3">
-        <v>2269500</v>
+        <v>2324400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1863000</v>
+        <v>-1908100</v>
       </c>
       <c r="G18" s="3">
-        <v>1191900</v>
+        <v>1220700</v>
       </c>
       <c r="H18" s="3">
-        <v>-1561400</v>
+        <v>-1599300</v>
       </c>
       <c r="I18" s="3">
-        <v>237200</v>
+        <v>243000</v>
       </c>
       <c r="J18" s="3">
-        <v>-188800</v>
+        <v>-193300</v>
       </c>
       <c r="K18" s="3">
         <v>1522000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1097800</v>
+        <v>-1124400</v>
       </c>
       <c r="E20" s="3">
-        <v>-791900</v>
+        <v>-811100</v>
       </c>
       <c r="F20" s="3">
-        <v>-126600</v>
+        <v>-129600</v>
       </c>
       <c r="G20" s="3">
-        <v>172100</v>
+        <v>176300</v>
       </c>
       <c r="H20" s="3">
-        <v>-892500</v>
+        <v>-914100</v>
       </c>
       <c r="I20" s="3">
-        <v>1778400</v>
+        <v>1821500</v>
       </c>
       <c r="J20" s="3">
-        <v>-144600</v>
+        <v>-148100</v>
       </c>
       <c r="K20" s="3">
         <v>-607400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10164000</v>
+        <v>10417100</v>
       </c>
       <c r="E21" s="3">
-        <v>5741500</v>
+        <v>5889200</v>
       </c>
       <c r="F21" s="3">
-        <v>519800</v>
+        <v>537500</v>
       </c>
       <c r="G21" s="3">
-        <v>2993200</v>
+        <v>3069000</v>
       </c>
       <c r="H21" s="3">
-        <v>-910100</v>
+        <v>-929100</v>
       </c>
       <c r="I21" s="3">
-        <v>3486200</v>
+        <v>3573600</v>
       </c>
       <c r="J21" s="3">
-        <v>751800</v>
+        <v>772200</v>
       </c>
       <c r="K21" s="3">
         <v>2477500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>460000</v>
+        <v>471100</v>
       </c>
       <c r="E22" s="3">
-        <v>526500</v>
+        <v>539300</v>
       </c>
       <c r="F22" s="3">
-        <v>346400</v>
+        <v>354800</v>
       </c>
       <c r="G22" s="3">
-        <v>353700</v>
+        <v>362200</v>
       </c>
       <c r="H22" s="3">
-        <v>385500</v>
+        <v>394800</v>
       </c>
       <c r="I22" s="3">
-        <v>413000</v>
+        <v>423000</v>
       </c>
       <c r="J22" s="3">
-        <v>246600</v>
+        <v>252600</v>
       </c>
       <c r="K22" s="3">
         <v>246300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6314400</v>
+        <v>6467400</v>
       </c>
       <c r="E23" s="3">
-        <v>951000</v>
+        <v>974100</v>
       </c>
       <c r="F23" s="3">
-        <v>-2336000</v>
+        <v>-2392600</v>
       </c>
       <c r="G23" s="3">
-        <v>1010300</v>
+        <v>1034800</v>
       </c>
       <c r="H23" s="3">
-        <v>-2839400</v>
+        <v>-2908100</v>
       </c>
       <c r="I23" s="3">
-        <v>1602700</v>
+        <v>1641500</v>
       </c>
       <c r="J23" s="3">
-        <v>-580000</v>
+        <v>-594100</v>
       </c>
       <c r="K23" s="3">
         <v>668300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1649700</v>
+        <v>1689600</v>
       </c>
       <c r="E24" s="3">
-        <v>526500</v>
+        <v>539300</v>
       </c>
       <c r="F24" s="3">
-        <v>-615500</v>
+        <v>-630400</v>
       </c>
       <c r="G24" s="3">
-        <v>-576400</v>
+        <v>-590400</v>
       </c>
       <c r="H24" s="3">
-        <v>-730500</v>
+        <v>-748100</v>
       </c>
       <c r="I24" s="3">
-        <v>-37600</v>
+        <v>-38500</v>
       </c>
       <c r="J24" s="3">
-        <v>-248100</v>
+        <v>-254100</v>
       </c>
       <c r="K24" s="3">
         <v>-18000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4664800</v>
+        <v>4777800</v>
       </c>
       <c r="E26" s="3">
-        <v>424500</v>
+        <v>434800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1720500</v>
+        <v>-1762200</v>
       </c>
       <c r="G26" s="3">
-        <v>1586700</v>
+        <v>1625200</v>
       </c>
       <c r="H26" s="3">
-        <v>-2108900</v>
+        <v>-2160000</v>
       </c>
       <c r="I26" s="3">
-        <v>1640300</v>
+        <v>1680000</v>
       </c>
       <c r="J26" s="3">
-        <v>-332000</v>
+        <v>-340000</v>
       </c>
       <c r="K26" s="3">
         <v>686300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4639500</v>
+        <v>4751800</v>
       </c>
       <c r="E27" s="3">
-        <v>399900</v>
+        <v>409600</v>
       </c>
       <c r="F27" s="3">
-        <v>-1720500</v>
+        <v>-1762200</v>
       </c>
       <c r="G27" s="3">
-        <v>1586700</v>
+        <v>1625200</v>
       </c>
       <c r="H27" s="3">
-        <v>-2108900</v>
+        <v>-2160000</v>
       </c>
       <c r="I27" s="3">
-        <v>1640300</v>
+        <v>1680000</v>
       </c>
       <c r="J27" s="3">
-        <v>-332000</v>
+        <v>-340000</v>
       </c>
       <c r="K27" s="3">
         <v>686300</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>178600</v>
+        <v>183000</v>
       </c>
       <c r="I29" s="3">
-        <v>794100</v>
+        <v>813300</v>
       </c>
       <c r="J29" s="3">
-        <v>-62200</v>
+        <v>-63700</v>
       </c>
       <c r="K29" s="3">
         <v>-222300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1097800</v>
+        <v>1124400</v>
       </c>
       <c r="E32" s="3">
-        <v>791900</v>
+        <v>811100</v>
       </c>
       <c r="F32" s="3">
-        <v>126600</v>
+        <v>129600</v>
       </c>
       <c r="G32" s="3">
-        <v>-172100</v>
+        <v>-176300</v>
       </c>
       <c r="H32" s="3">
-        <v>892500</v>
+        <v>914100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1778400</v>
+        <v>-1821500</v>
       </c>
       <c r="J32" s="3">
-        <v>144600</v>
+        <v>148100</v>
       </c>
       <c r="K32" s="3">
         <v>607400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4639500</v>
+        <v>4751800</v>
       </c>
       <c r="E33" s="3">
-        <v>399900</v>
+        <v>409600</v>
       </c>
       <c r="F33" s="3">
-        <v>-1720500</v>
+        <v>-1762200</v>
       </c>
       <c r="G33" s="3">
-        <v>1586700</v>
+        <v>1625200</v>
       </c>
       <c r="H33" s="3">
-        <v>-1930300</v>
+        <v>-1977000</v>
       </c>
       <c r="I33" s="3">
-        <v>2434400</v>
+        <v>2493300</v>
       </c>
       <c r="J33" s="3">
-        <v>-394200</v>
+        <v>-403700</v>
       </c>
       <c r="K33" s="3">
         <v>464000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4639500</v>
+        <v>4751800</v>
       </c>
       <c r="E35" s="3">
-        <v>399900</v>
+        <v>409600</v>
       </c>
       <c r="F35" s="3">
-        <v>-1720500</v>
+        <v>-1762200</v>
       </c>
       <c r="G35" s="3">
-        <v>1586700</v>
+        <v>1625200</v>
       </c>
       <c r="H35" s="3">
-        <v>-1930300</v>
+        <v>-1977000</v>
       </c>
       <c r="I35" s="3">
-        <v>2434400</v>
+        <v>2493300</v>
       </c>
       <c r="J35" s="3">
-        <v>-394200</v>
+        <v>-403700</v>
       </c>
       <c r="K35" s="3">
         <v>464000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2310700</v>
+        <v>2366700</v>
       </c>
       <c r="E41" s="3">
-        <v>1711100</v>
+        <v>1752600</v>
       </c>
       <c r="F41" s="3">
-        <v>266100</v>
+        <v>272600</v>
       </c>
       <c r="G41" s="3">
-        <v>78100</v>
+        <v>80000</v>
       </c>
       <c r="H41" s="3">
-        <v>112100</v>
+        <v>114800</v>
       </c>
       <c r="I41" s="3">
-        <v>395600</v>
+        <v>405200</v>
       </c>
       <c r="J41" s="3">
-        <v>392000</v>
+        <v>401500</v>
       </c>
       <c r="K41" s="3">
         <v>242500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>961200</v>
+        <v>984400</v>
       </c>
       <c r="E42" s="3">
-        <v>366700</v>
+        <v>375600</v>
       </c>
       <c r="F42" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="G42" s="3">
-        <v>56400</v>
+        <v>57800</v>
       </c>
       <c r="H42" s="3">
-        <v>452700</v>
+        <v>463700</v>
       </c>
       <c r="I42" s="3">
-        <v>45600</v>
+        <v>46700</v>
       </c>
       <c r="J42" s="3">
-        <v>2298400</v>
+        <v>2354100</v>
       </c>
       <c r="K42" s="3">
         <v>2839800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2308500</v>
+        <v>2364400</v>
       </c>
       <c r="E43" s="3">
-        <v>2463300</v>
+        <v>2523000</v>
       </c>
       <c r="F43" s="3">
-        <v>1003800</v>
+        <v>1028100</v>
       </c>
       <c r="G43" s="3">
-        <v>1089900</v>
+        <v>1116300</v>
       </c>
       <c r="H43" s="3">
-        <v>862800</v>
+        <v>883700</v>
       </c>
       <c r="I43" s="3">
-        <v>1326400</v>
+        <v>1358500</v>
       </c>
       <c r="J43" s="3">
-        <v>1241800</v>
+        <v>1271900</v>
       </c>
       <c r="K43" s="3">
         <v>890500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3118500</v>
+        <v>3194100</v>
       </c>
       <c r="E44" s="3">
-        <v>2834300</v>
+        <v>2903000</v>
       </c>
       <c r="F44" s="3">
-        <v>787600</v>
+        <v>806700</v>
       </c>
       <c r="G44" s="3">
-        <v>1108000</v>
+        <v>1134800</v>
       </c>
       <c r="H44" s="3">
-        <v>732600</v>
+        <v>750400</v>
       </c>
       <c r="I44" s="3">
-        <v>1004600</v>
+        <v>1028900</v>
       </c>
       <c r="J44" s="3">
-        <v>894600</v>
+        <v>916300</v>
       </c>
       <c r="K44" s="3">
         <v>608200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>290700</v>
+        <v>297800</v>
       </c>
       <c r="E45" s="3">
-        <v>1294600</v>
+        <v>1325900</v>
       </c>
       <c r="F45" s="3">
-        <v>87500</v>
+        <v>89600</v>
       </c>
       <c r="G45" s="3">
-        <v>42700</v>
+        <v>43700</v>
       </c>
       <c r="H45" s="3">
-        <v>150400</v>
+        <v>154100</v>
       </c>
       <c r="I45" s="3">
-        <v>849800</v>
+        <v>870400</v>
       </c>
       <c r="J45" s="3">
-        <v>107000</v>
+        <v>109600</v>
       </c>
       <c r="K45" s="3">
         <v>279300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8989600</v>
+        <v>9207400</v>
       </c>
       <c r="E46" s="3">
-        <v>8670000</v>
+        <v>8880000</v>
       </c>
       <c r="F46" s="3">
-        <v>2152300</v>
+        <v>2204400</v>
       </c>
       <c r="G46" s="3">
-        <v>2375100</v>
+        <v>2432600</v>
       </c>
       <c r="H46" s="3">
-        <v>2310700</v>
+        <v>2366700</v>
       </c>
       <c r="I46" s="3">
-        <v>3621900</v>
+        <v>3709600</v>
       </c>
       <c r="J46" s="3">
-        <v>4933800</v>
+        <v>5053300</v>
       </c>
       <c r="K46" s="3">
         <v>4860300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>453500</v>
+        <v>464400</v>
       </c>
       <c r="E47" s="3">
-        <v>465800</v>
+        <v>477000</v>
       </c>
       <c r="F47" s="3">
-        <v>162000</v>
+        <v>165900</v>
       </c>
       <c r="G47" s="3">
-        <v>74500</v>
+        <v>76300</v>
       </c>
       <c r="H47" s="3">
-        <v>156200</v>
+        <v>160000</v>
       </c>
       <c r="I47" s="3">
-        <v>269800</v>
+        <v>276300</v>
       </c>
       <c r="J47" s="3">
-        <v>126600</v>
+        <v>129600</v>
       </c>
       <c r="K47" s="3">
         <v>119400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28226600</v>
+        <v>28910300</v>
       </c>
       <c r="E48" s="3">
-        <v>26726600</v>
+        <v>27374000</v>
       </c>
       <c r="F48" s="3">
-        <v>19652100</v>
+        <v>20128100</v>
       </c>
       <c r="G48" s="3">
-        <v>21657500</v>
+        <v>22182200</v>
       </c>
       <c r="H48" s="3">
-        <v>21322700</v>
+        <v>21839200</v>
       </c>
       <c r="I48" s="3">
-        <v>24060800</v>
+        <v>24643700</v>
       </c>
       <c r="J48" s="3">
-        <v>13025900</v>
+        <v>13341500</v>
       </c>
       <c r="K48" s="3">
         <v>14198800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2127700</v>
+        <v>2179300</v>
       </c>
       <c r="E49" s="3">
-        <v>2568200</v>
+        <v>2630400</v>
       </c>
       <c r="F49" s="3">
-        <v>1707500</v>
+        <v>1748900</v>
       </c>
       <c r="G49" s="3">
-        <v>1716200</v>
+        <v>1757800</v>
       </c>
       <c r="H49" s="3">
-        <v>1643200</v>
+        <v>1683000</v>
       </c>
       <c r="I49" s="3">
-        <v>1643200</v>
+        <v>1683000</v>
       </c>
       <c r="J49" s="3">
-        <v>175000</v>
+        <v>179300</v>
       </c>
       <c r="K49" s="3">
         <v>181700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>608200</v>
+        <v>623000</v>
       </c>
       <c r="E52" s="3">
-        <v>698600</v>
+        <v>715600</v>
       </c>
       <c r="F52" s="3">
-        <v>26000</v>
+        <v>26700</v>
       </c>
       <c r="G52" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="H52" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I52" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="J52" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K52" s="3">
         <v>5300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>40405600</v>
+        <v>41384400</v>
       </c>
       <c r="E54" s="3">
-        <v>39129100</v>
+        <v>40077000</v>
       </c>
       <c r="F54" s="3">
-        <v>23699900</v>
+        <v>24274000</v>
       </c>
       <c r="G54" s="3">
-        <v>25828400</v>
+        <v>26454000</v>
       </c>
       <c r="H54" s="3">
-        <v>25438500</v>
+        <v>26054800</v>
       </c>
       <c r="I54" s="3">
-        <v>29603600</v>
+        <v>30320700</v>
       </c>
       <c r="J54" s="3">
-        <v>18267100</v>
+        <v>18709600</v>
       </c>
       <c r="K54" s="3">
         <v>19365400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1685800</v>
+        <v>1726700</v>
       </c>
       <c r="E57" s="3">
-        <v>1847100</v>
+        <v>1891800</v>
       </c>
       <c r="F57" s="3">
-        <v>439700</v>
+        <v>450400</v>
       </c>
       <c r="G57" s="3">
-        <v>679100</v>
+        <v>695600</v>
       </c>
       <c r="H57" s="3">
-        <v>554700</v>
+        <v>568100</v>
       </c>
       <c r="I57" s="3">
-        <v>243700</v>
+        <v>249600</v>
       </c>
       <c r="J57" s="3">
-        <v>75900</v>
+        <v>77800</v>
       </c>
       <c r="K57" s="3">
         <v>51100</v>
@@ -2576,19 +2576,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>305900</v>
+        <v>313300</v>
       </c>
       <c r="E58" s="3">
-        <v>253900</v>
+        <v>260000</v>
       </c>
       <c r="F58" s="3">
-        <v>220600</v>
+        <v>225900</v>
       </c>
       <c r="G58" s="3">
-        <v>141800</v>
+        <v>145200</v>
       </c>
       <c r="H58" s="3">
-        <v>493200</v>
+        <v>505200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3809200</v>
+        <v>3901500</v>
       </c>
       <c r="E59" s="3">
-        <v>3182200</v>
+        <v>3259300</v>
       </c>
       <c r="F59" s="3">
-        <v>1045800</v>
+        <v>1071100</v>
       </c>
       <c r="G59" s="3">
-        <v>1002400</v>
+        <v>1026700</v>
       </c>
       <c r="H59" s="3">
-        <v>832400</v>
+        <v>852600</v>
       </c>
       <c r="I59" s="3">
-        <v>2964500</v>
+        <v>3036300</v>
       </c>
       <c r="J59" s="3">
-        <v>1855800</v>
+        <v>1900700</v>
       </c>
       <c r="K59" s="3">
         <v>1344000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5800900</v>
+        <v>5941500</v>
       </c>
       <c r="E60" s="3">
-        <v>5283100</v>
+        <v>5411100</v>
       </c>
       <c r="F60" s="3">
-        <v>1706100</v>
+        <v>1747400</v>
       </c>
       <c r="G60" s="3">
-        <v>1823200</v>
+        <v>1867400</v>
       </c>
       <c r="H60" s="3">
-        <v>1880400</v>
+        <v>1925900</v>
       </c>
       <c r="I60" s="3">
-        <v>3208200</v>
+        <v>3285900</v>
       </c>
       <c r="J60" s="3">
-        <v>1931700</v>
+        <v>1978500</v>
       </c>
       <c r="K60" s="3">
         <v>1395100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8113800</v>
+        <v>8310400</v>
       </c>
       <c r="E61" s="3">
-        <v>10898900</v>
+        <v>11163000</v>
       </c>
       <c r="F61" s="3">
-        <v>6519100</v>
+        <v>6677000</v>
       </c>
       <c r="G61" s="3">
-        <v>6088800</v>
+        <v>6236300</v>
       </c>
       <c r="H61" s="3">
-        <v>6134400</v>
+        <v>6283000</v>
       </c>
       <c r="I61" s="3">
-        <v>6880000</v>
+        <v>7046700</v>
       </c>
       <c r="J61" s="3">
-        <v>4579400</v>
+        <v>4690400</v>
       </c>
       <c r="K61" s="3">
         <v>4899400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6537900</v>
+        <v>6696300</v>
       </c>
       <c r="E62" s="3">
-        <v>5873300</v>
+        <v>6015500</v>
       </c>
       <c r="F62" s="3">
-        <v>3391900</v>
+        <v>3474100</v>
       </c>
       <c r="G62" s="3">
-        <v>4029800</v>
+        <v>4127400</v>
       </c>
       <c r="H62" s="3">
-        <v>4790600</v>
+        <v>4906700</v>
       </c>
       <c r="I62" s="3">
-        <v>5064700</v>
+        <v>5187400</v>
       </c>
       <c r="J62" s="3">
-        <v>3373800</v>
+        <v>3455600</v>
       </c>
       <c r="K62" s="3">
         <v>3767100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20462100</v>
+        <v>20957800</v>
       </c>
       <c r="E66" s="3">
-        <v>22064000</v>
+        <v>22598500</v>
       </c>
       <c r="F66" s="3">
-        <v>11617100</v>
+        <v>11898500</v>
       </c>
       <c r="G66" s="3">
-        <v>11941800</v>
+        <v>12231100</v>
       </c>
       <c r="H66" s="3">
-        <v>12805300</v>
+        <v>13115500</v>
       </c>
       <c r="I66" s="3">
-        <v>15152900</v>
+        <v>15520000</v>
       </c>
       <c r="J66" s="3">
-        <v>9885000</v>
+        <v>10124400</v>
       </c>
       <c r="K66" s="3">
         <v>10061500</v>
@@ -3056,10 +3056,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>375400</v>
+        <v>384400</v>
       </c>
       <c r="E70" s="3">
-        <v>375400</v>
+        <v>384400</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4755900</v>
+        <v>4871100</v>
       </c>
       <c r="E72" s="3">
-        <v>790500</v>
+        <v>809600</v>
       </c>
       <c r="F72" s="3">
-        <v>362300</v>
+        <v>371100</v>
       </c>
       <c r="G72" s="3">
-        <v>2138600</v>
+        <v>2190400</v>
       </c>
       <c r="H72" s="3">
-        <v>739900</v>
+        <v>757800</v>
       </c>
       <c r="I72" s="3">
-        <v>2847300</v>
+        <v>2916300</v>
       </c>
       <c r="J72" s="3">
-        <v>575700</v>
+        <v>589600</v>
       </c>
       <c r="K72" s="3">
         <v>1131500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19568100</v>
+        <v>20042200</v>
       </c>
       <c r="E76" s="3">
-        <v>16689700</v>
+        <v>17094100</v>
       </c>
       <c r="F76" s="3">
-        <v>12082800</v>
+        <v>12375500</v>
       </c>
       <c r="G76" s="3">
-        <v>13886500</v>
+        <v>14222900</v>
       </c>
       <c r="H76" s="3">
-        <v>12633200</v>
+        <v>12939200</v>
       </c>
       <c r="I76" s="3">
-        <v>14450700</v>
+        <v>14800700</v>
       </c>
       <c r="J76" s="3">
-        <v>8382100</v>
+        <v>8585200</v>
       </c>
       <c r="K76" s="3">
         <v>9303900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4639500</v>
+        <v>4751800</v>
       </c>
       <c r="E81" s="3">
-        <v>399900</v>
+        <v>409600</v>
       </c>
       <c r="F81" s="3">
-        <v>-1720500</v>
+        <v>-1762200</v>
       </c>
       <c r="G81" s="3">
-        <v>1586700</v>
+        <v>1625200</v>
       </c>
       <c r="H81" s="3">
-        <v>-1930300</v>
+        <v>-1977000</v>
       </c>
       <c r="I81" s="3">
-        <v>2434400</v>
+        <v>2493300</v>
       </c>
       <c r="J81" s="3">
-        <v>-394200</v>
+        <v>-403700</v>
       </c>
       <c r="K81" s="3">
         <v>464000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3383900</v>
+        <v>3465900</v>
       </c>
       <c r="E83" s="3">
-        <v>4256900</v>
+        <v>4360000</v>
       </c>
       <c r="F83" s="3">
-        <v>2505200</v>
+        <v>2565900</v>
       </c>
       <c r="G83" s="3">
-        <v>1626500</v>
+        <v>1665900</v>
       </c>
       <c r="H83" s="3">
-        <v>1541200</v>
+        <v>1578500</v>
       </c>
       <c r="I83" s="3">
-        <v>1468100</v>
+        <v>1503700</v>
       </c>
       <c r="J83" s="3">
-        <v>1083400</v>
+        <v>1109600</v>
       </c>
       <c r="K83" s="3">
         <v>1587300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8246900</v>
+        <v>8446700</v>
       </c>
       <c r="E89" s="3">
-        <v>4280700</v>
+        <v>4384400</v>
       </c>
       <c r="F89" s="3">
-        <v>197400</v>
+        <v>202200</v>
       </c>
       <c r="G89" s="3">
-        <v>2375800</v>
+        <v>2433300</v>
       </c>
       <c r="H89" s="3">
-        <v>1557800</v>
+        <v>1595600</v>
       </c>
       <c r="I89" s="3">
-        <v>2212300</v>
+        <v>2265900</v>
       </c>
       <c r="J89" s="3">
-        <v>622700</v>
+        <v>637800</v>
       </c>
       <c r="K89" s="3">
         <v>1106800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2681700</v>
+        <v>-2746700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1853600</v>
+        <v>-1898500</v>
       </c>
       <c r="F91" s="3">
-        <v>-621200</v>
+        <v>-636300</v>
       </c>
       <c r="G91" s="3">
-        <v>-855600</v>
+        <v>-876300</v>
       </c>
       <c r="H91" s="3">
-        <v>-995900</v>
+        <v>-1020000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1207800</v>
+        <v>-1237000</v>
       </c>
       <c r="J91" s="3">
-        <v>-747800</v>
+        <v>-765900</v>
       </c>
       <c r="K91" s="3">
         <v>-1287000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1673500</v>
+        <v>-1714100</v>
       </c>
       <c r="E94" s="3">
-        <v>-681300</v>
+        <v>-697800</v>
       </c>
       <c r="F94" s="3">
-        <v>-624100</v>
+        <v>-639300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1035700</v>
+        <v>-1060700</v>
       </c>
       <c r="H94" s="3">
-        <v>-443300</v>
+        <v>-454100</v>
       </c>
       <c r="I94" s="3">
-        <v>-9304900</v>
+        <v>-9530400</v>
       </c>
       <c r="J94" s="3">
-        <v>-780400</v>
+        <v>-799300</v>
       </c>
       <c r="K94" s="3">
         <v>666800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-670400</v>
+        <v>-686700</v>
       </c>
       <c r="E96" s="3">
-        <v>-151900</v>
+        <v>-155600</v>
       </c>
       <c r="F96" s="3">
-        <v>-55700</v>
+        <v>-57000</v>
       </c>
       <c r="G96" s="3">
-        <v>-188000</v>
+        <v>-192600</v>
       </c>
       <c r="H96" s="3">
-        <v>-177200</v>
+        <v>-181500</v>
       </c>
       <c r="I96" s="3">
-        <v>-162700</v>
+        <v>-166700</v>
       </c>
       <c r="J96" s="3">
-        <v>-120100</v>
+        <v>-123000</v>
       </c>
       <c r="K96" s="3">
         <v>-396500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5551400</v>
+        <v>-5685900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1813100</v>
+        <v>-1857000</v>
       </c>
       <c r="F100" s="3">
-        <v>605300</v>
+        <v>620000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1745100</v>
+        <v>-1787400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1019700</v>
+        <v>-1044400</v>
       </c>
       <c r="I100" s="3">
-        <v>4711800</v>
+        <v>4825900</v>
       </c>
       <c r="J100" s="3">
-        <v>-121500</v>
+        <v>-124400</v>
       </c>
       <c r="K100" s="3">
         <v>671300</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>172100</v>
+        <v>176300</v>
       </c>
       <c r="E101" s="3">
-        <v>18100</v>
+        <v>18500</v>
       </c>
       <c r="F101" s="3">
-        <v>-39800</v>
+        <v>-40700</v>
       </c>
       <c r="G101" s="3">
-        <v>-25300</v>
+        <v>-25900</v>
       </c>
       <c r="H101" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="I101" s="3">
-        <v>131600</v>
+        <v>134800</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1194000</v>
+        <v>1223000</v>
       </c>
       <c r="E102" s="3">
-        <v>1804400</v>
+        <v>1848100</v>
       </c>
       <c r="F102" s="3">
-        <v>138900</v>
+        <v>142200</v>
       </c>
       <c r="G102" s="3">
-        <v>-430300</v>
+        <v>-440700</v>
       </c>
       <c r="H102" s="3">
-        <v>123700</v>
+        <v>126700</v>
       </c>
       <c r="I102" s="3">
-        <v>-2249200</v>
+        <v>-2303700</v>
       </c>
       <c r="J102" s="3">
-        <v>-278400</v>
+        <v>-285200</v>
       </c>
       <c r="K102" s="3">
         <v>2419300</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49553300</v>
+        <v>49527900</v>
       </c>
       <c r="E8" s="3">
-        <v>34338500</v>
+        <v>34320900</v>
       </c>
       <c r="F8" s="3">
-        <v>9797800</v>
+        <v>9792700</v>
       </c>
       <c r="G8" s="3">
-        <v>14948900</v>
+        <v>14941200</v>
       </c>
       <c r="H8" s="3">
-        <v>15440000</v>
+        <v>15432100</v>
       </c>
       <c r="I8" s="3">
-        <v>12624400</v>
+        <v>12618000</v>
       </c>
       <c r="J8" s="3">
-        <v>8152600</v>
+        <v>8148400</v>
       </c>
       <c r="K8" s="3">
         <v>8656700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25037800</v>
+        <v>25024900</v>
       </c>
       <c r="E9" s="3">
-        <v>17393300</v>
+        <v>17384400</v>
       </c>
       <c r="F9" s="3">
-        <v>3791800</v>
+        <v>3789900</v>
       </c>
       <c r="G9" s="3">
-        <v>6243000</v>
+        <v>6239800</v>
       </c>
       <c r="H9" s="3">
-        <v>6477800</v>
+        <v>6474400</v>
       </c>
       <c r="I9" s="3">
-        <v>5951100</v>
+        <v>5948100</v>
       </c>
       <c r="J9" s="3">
-        <v>5168900</v>
+        <v>5166200</v>
       </c>
       <c r="K9" s="3">
         <v>5537600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24515500</v>
+        <v>24503000</v>
       </c>
       <c r="E10" s="3">
-        <v>16945200</v>
+        <v>16936500</v>
       </c>
       <c r="F10" s="3">
-        <v>6005900</v>
+        <v>6002800</v>
       </c>
       <c r="G10" s="3">
-        <v>8705900</v>
+        <v>8701500</v>
       </c>
       <c r="H10" s="3">
-        <v>8962200</v>
+        <v>8957600</v>
       </c>
       <c r="I10" s="3">
-        <v>6673300</v>
+        <v>6669900</v>
       </c>
       <c r="J10" s="3">
-        <v>2983700</v>
+        <v>2982200</v>
       </c>
       <c r="K10" s="3">
         <v>3119100</v>
@@ -879,13 +879,13 @@
         <v>67400</v>
       </c>
       <c r="G12" s="3">
-        <v>75600</v>
+        <v>75500</v>
       </c>
       <c r="H12" s="3">
-        <v>1591100</v>
+        <v>1590300</v>
       </c>
       <c r="I12" s="3">
-        <v>684400</v>
+        <v>684100</v>
       </c>
       <c r="J12" s="3">
         <v>28100</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>112600</v>
+        <v>112500</v>
       </c>
       <c r="E14" s="3">
-        <v>1247400</v>
+        <v>1246800</v>
       </c>
       <c r="F14" s="3">
-        <v>1166700</v>
+        <v>1166100</v>
       </c>
       <c r="G14" s="3">
         <v>27400</v>
       </c>
       <c r="H14" s="3">
-        <v>616300</v>
+        <v>616000</v>
       </c>
       <c r="I14" s="3">
         <v>14800</v>
       </c>
       <c r="J14" s="3">
-        <v>35600</v>
+        <v>35500</v>
       </c>
       <c r="K14" s="3">
         <v>-1763800</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3232600</v>
+        <v>3230900</v>
       </c>
       <c r="E15" s="3">
-        <v>3201500</v>
+        <v>3199800</v>
       </c>
       <c r="F15" s="3">
-        <v>1742200</v>
+        <v>1741300</v>
       </c>
       <c r="G15" s="3">
-        <v>1641500</v>
+        <v>1640600</v>
       </c>
       <c r="H15" s="3">
-        <v>1597800</v>
+        <v>1597000</v>
       </c>
       <c r="I15" s="3">
-        <v>1361500</v>
+        <v>1360800</v>
       </c>
       <c r="J15" s="3">
-        <v>1782200</v>
+        <v>1781300</v>
       </c>
       <c r="K15" s="3">
         <v>745600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41490300</v>
+        <v>41469000</v>
       </c>
       <c r="E17" s="3">
-        <v>32014000</v>
+        <v>31997600</v>
       </c>
       <c r="F17" s="3">
-        <v>11705900</v>
+        <v>11699900</v>
       </c>
       <c r="G17" s="3">
-        <v>13728100</v>
+        <v>13721100</v>
       </c>
       <c r="H17" s="3">
-        <v>17039200</v>
+        <v>17030500</v>
       </c>
       <c r="I17" s="3">
-        <v>12381500</v>
+        <v>12375100</v>
       </c>
       <c r="J17" s="3">
-        <v>8345900</v>
+        <v>8341600</v>
       </c>
       <c r="K17" s="3">
         <v>7134700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8063000</v>
+        <v>8058800</v>
       </c>
       <c r="E18" s="3">
-        <v>2324400</v>
+        <v>2323200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1908100</v>
+        <v>-1907200</v>
       </c>
       <c r="G18" s="3">
-        <v>1220700</v>
+        <v>1220100</v>
       </c>
       <c r="H18" s="3">
-        <v>-1599300</v>
+        <v>-1598400</v>
       </c>
       <c r="I18" s="3">
-        <v>243000</v>
+        <v>242800</v>
       </c>
       <c r="J18" s="3">
-        <v>-193300</v>
+        <v>-193200</v>
       </c>
       <c r="K18" s="3">
         <v>1522000</v>
@@ -1155,22 +1155,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1124400</v>
+        <v>-1123900</v>
       </c>
       <c r="E20" s="3">
-        <v>-811100</v>
+        <v>-810700</v>
       </c>
       <c r="F20" s="3">
         <v>-129600</v>
       </c>
       <c r="G20" s="3">
-        <v>176300</v>
+        <v>176200</v>
       </c>
       <c r="H20" s="3">
-        <v>-914100</v>
+        <v>-913600</v>
       </c>
       <c r="I20" s="3">
-        <v>1821500</v>
+        <v>1820500</v>
       </c>
       <c r="J20" s="3">
         <v>-148100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10417100</v>
+        <v>10399100</v>
       </c>
       <c r="E21" s="3">
-        <v>5889200</v>
+        <v>5870300</v>
       </c>
       <c r="F21" s="3">
-        <v>537500</v>
+        <v>527900</v>
       </c>
       <c r="G21" s="3">
-        <v>3069000</v>
+        <v>3061400</v>
       </c>
       <c r="H21" s="3">
-        <v>-929100</v>
+        <v>-934300</v>
       </c>
       <c r="I21" s="3">
-        <v>3573600</v>
+        <v>3566300</v>
       </c>
       <c r="J21" s="3">
-        <v>772200</v>
+        <v>767800</v>
       </c>
       <c r="K21" s="3">
         <v>2477500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>471100</v>
+        <v>470900</v>
       </c>
       <c r="E22" s="3">
-        <v>539300</v>
+        <v>539000</v>
       </c>
       <c r="F22" s="3">
-        <v>354800</v>
+        <v>354600</v>
       </c>
       <c r="G22" s="3">
-        <v>362200</v>
+        <v>362000</v>
       </c>
       <c r="H22" s="3">
-        <v>394800</v>
+        <v>394600</v>
       </c>
       <c r="I22" s="3">
-        <v>423000</v>
+        <v>422700</v>
       </c>
       <c r="J22" s="3">
-        <v>252600</v>
+        <v>252500</v>
       </c>
       <c r="K22" s="3">
         <v>246300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6467400</v>
+        <v>6464100</v>
       </c>
       <c r="E23" s="3">
-        <v>974100</v>
+        <v>973600</v>
       </c>
       <c r="F23" s="3">
-        <v>-2392600</v>
+        <v>-2391400</v>
       </c>
       <c r="G23" s="3">
-        <v>1034800</v>
+        <v>1034300</v>
       </c>
       <c r="H23" s="3">
-        <v>-2908100</v>
+        <v>-2906700</v>
       </c>
       <c r="I23" s="3">
-        <v>1641500</v>
+        <v>1640600</v>
       </c>
       <c r="J23" s="3">
-        <v>-594100</v>
+        <v>-593800</v>
       </c>
       <c r="K23" s="3">
         <v>668300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1689600</v>
+        <v>1688800</v>
       </c>
       <c r="E24" s="3">
-        <v>539300</v>
+        <v>539000</v>
       </c>
       <c r="F24" s="3">
-        <v>-630400</v>
+        <v>-630000</v>
       </c>
       <c r="G24" s="3">
-        <v>-590400</v>
+        <v>-590100</v>
       </c>
       <c r="H24" s="3">
-        <v>-748100</v>
+        <v>-747800</v>
       </c>
       <c r="I24" s="3">
         <v>-38500</v>
       </c>
       <c r="J24" s="3">
-        <v>-254100</v>
+        <v>-253900</v>
       </c>
       <c r="K24" s="3">
         <v>-18000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4777800</v>
+        <v>4775300</v>
       </c>
       <c r="E26" s="3">
-        <v>434800</v>
+        <v>434600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1762200</v>
+        <v>-1761300</v>
       </c>
       <c r="G26" s="3">
-        <v>1625200</v>
+        <v>1624300</v>
       </c>
       <c r="H26" s="3">
-        <v>-2160000</v>
+        <v>-2158900</v>
       </c>
       <c r="I26" s="3">
-        <v>1680000</v>
+        <v>1679100</v>
       </c>
       <c r="J26" s="3">
-        <v>-340000</v>
+        <v>-339800</v>
       </c>
       <c r="K26" s="3">
         <v>686300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4751800</v>
+        <v>4749400</v>
       </c>
       <c r="E27" s="3">
-        <v>409600</v>
+        <v>409400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1762200</v>
+        <v>-1761300</v>
       </c>
       <c r="G27" s="3">
-        <v>1625200</v>
+        <v>1624300</v>
       </c>
       <c r="H27" s="3">
-        <v>-2160000</v>
+        <v>-2158900</v>
       </c>
       <c r="I27" s="3">
-        <v>1680000</v>
+        <v>1679100</v>
       </c>
       <c r="J27" s="3">
-        <v>-340000</v>
+        <v>-339800</v>
       </c>
       <c r="K27" s="3">
         <v>686300</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>183000</v>
+        <v>182900</v>
       </c>
       <c r="I29" s="3">
-        <v>813300</v>
+        <v>812900</v>
       </c>
       <c r="J29" s="3">
         <v>-63700</v>
@@ -1659,22 +1659,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1124400</v>
+        <v>1123900</v>
       </c>
       <c r="E32" s="3">
-        <v>811100</v>
+        <v>810700</v>
       </c>
       <c r="F32" s="3">
         <v>129600</v>
       </c>
       <c r="G32" s="3">
-        <v>-176300</v>
+        <v>-176200</v>
       </c>
       <c r="H32" s="3">
-        <v>914100</v>
+        <v>913600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1821500</v>
+        <v>-1820500</v>
       </c>
       <c r="J32" s="3">
         <v>148100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4751800</v>
+        <v>4749400</v>
       </c>
       <c r="E33" s="3">
-        <v>409600</v>
+        <v>409400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1762200</v>
+        <v>-1761300</v>
       </c>
       <c r="G33" s="3">
-        <v>1625200</v>
+        <v>1624300</v>
       </c>
       <c r="H33" s="3">
-        <v>-1977000</v>
+        <v>-1976000</v>
       </c>
       <c r="I33" s="3">
-        <v>2493300</v>
+        <v>2492100</v>
       </c>
       <c r="J33" s="3">
-        <v>-403700</v>
+        <v>-403500</v>
       </c>
       <c r="K33" s="3">
         <v>464000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4751800</v>
+        <v>4749400</v>
       </c>
       <c r="E35" s="3">
-        <v>409600</v>
+        <v>409400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1762200</v>
+        <v>-1761300</v>
       </c>
       <c r="G35" s="3">
-        <v>1625200</v>
+        <v>1624300</v>
       </c>
       <c r="H35" s="3">
-        <v>-1977000</v>
+        <v>-1976000</v>
       </c>
       <c r="I35" s="3">
-        <v>2493300</v>
+        <v>2492100</v>
       </c>
       <c r="J35" s="3">
-        <v>-403700</v>
+        <v>-403500</v>
       </c>
       <c r="K35" s="3">
         <v>464000</v>
@@ -1910,13 +1910,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2366700</v>
+        <v>2365500</v>
       </c>
       <c r="E41" s="3">
-        <v>1752600</v>
+        <v>1751700</v>
       </c>
       <c r="F41" s="3">
-        <v>272600</v>
+        <v>272500</v>
       </c>
       <c r="G41" s="3">
         <v>80000</v>
@@ -1925,10 +1925,10 @@
         <v>114800</v>
       </c>
       <c r="I41" s="3">
-        <v>405200</v>
+        <v>405000</v>
       </c>
       <c r="J41" s="3">
-        <v>401500</v>
+        <v>401300</v>
       </c>
       <c r="K41" s="3">
         <v>242500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>984400</v>
+        <v>983900</v>
       </c>
       <c r="E42" s="3">
-        <v>375600</v>
+        <v>375400</v>
       </c>
       <c r="F42" s="3">
         <v>7400</v>
       </c>
       <c r="G42" s="3">
-        <v>57800</v>
+        <v>57700</v>
       </c>
       <c r="H42" s="3">
-        <v>463700</v>
+        <v>463500</v>
       </c>
       <c r="I42" s="3">
-        <v>46700</v>
+        <v>46600</v>
       </c>
       <c r="J42" s="3">
-        <v>2354100</v>
+        <v>2352900</v>
       </c>
       <c r="K42" s="3">
         <v>2839800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2364400</v>
+        <v>2363200</v>
       </c>
       <c r="E43" s="3">
-        <v>2523000</v>
+        <v>2521700</v>
       </c>
       <c r="F43" s="3">
-        <v>1028100</v>
+        <v>1027600</v>
       </c>
       <c r="G43" s="3">
-        <v>1116300</v>
+        <v>1115700</v>
       </c>
       <c r="H43" s="3">
-        <v>883700</v>
+        <v>883200</v>
       </c>
       <c r="I43" s="3">
-        <v>1358500</v>
+        <v>1357800</v>
       </c>
       <c r="J43" s="3">
-        <v>1271900</v>
+        <v>1271200</v>
       </c>
       <c r="K43" s="3">
         <v>890500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3194100</v>
+        <v>3192400</v>
       </c>
       <c r="E44" s="3">
-        <v>2903000</v>
+        <v>2901500</v>
       </c>
       <c r="F44" s="3">
-        <v>806700</v>
+        <v>806300</v>
       </c>
       <c r="G44" s="3">
-        <v>1134800</v>
+        <v>1134200</v>
       </c>
       <c r="H44" s="3">
-        <v>750400</v>
+        <v>750000</v>
       </c>
       <c r="I44" s="3">
-        <v>1028900</v>
+        <v>1028400</v>
       </c>
       <c r="J44" s="3">
-        <v>916300</v>
+        <v>915800</v>
       </c>
       <c r="K44" s="3">
         <v>608200</v>
@@ -2078,10 +2078,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>297800</v>
+        <v>297600</v>
       </c>
       <c r="E45" s="3">
-        <v>1325900</v>
+        <v>1325200</v>
       </c>
       <c r="F45" s="3">
         <v>89600</v>
@@ -2090,10 +2090,10 @@
         <v>43700</v>
       </c>
       <c r="H45" s="3">
-        <v>154100</v>
+        <v>154000</v>
       </c>
       <c r="I45" s="3">
-        <v>870400</v>
+        <v>869900</v>
       </c>
       <c r="J45" s="3">
         <v>109600</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9207400</v>
+        <v>9202700</v>
       </c>
       <c r="E46" s="3">
-        <v>8880000</v>
+        <v>8875400</v>
       </c>
       <c r="F46" s="3">
-        <v>2204400</v>
+        <v>2203300</v>
       </c>
       <c r="G46" s="3">
-        <v>2432600</v>
+        <v>2431300</v>
       </c>
       <c r="H46" s="3">
-        <v>2366700</v>
+        <v>2365500</v>
       </c>
       <c r="I46" s="3">
-        <v>3709600</v>
+        <v>3707700</v>
       </c>
       <c r="J46" s="3">
-        <v>5053300</v>
+        <v>5050700</v>
       </c>
       <c r="K46" s="3">
         <v>4860300</v>
@@ -2162,22 +2162,22 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>464400</v>
+        <v>464200</v>
       </c>
       <c r="E47" s="3">
-        <v>477000</v>
+        <v>476800</v>
       </c>
       <c r="F47" s="3">
-        <v>165900</v>
+        <v>165800</v>
       </c>
       <c r="G47" s="3">
         <v>76300</v>
       </c>
       <c r="H47" s="3">
-        <v>160000</v>
+        <v>159900</v>
       </c>
       <c r="I47" s="3">
-        <v>276300</v>
+        <v>276200</v>
       </c>
       <c r="J47" s="3">
         <v>129600</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28910300</v>
+        <v>28895500</v>
       </c>
       <c r="E48" s="3">
-        <v>27374000</v>
+        <v>27360000</v>
       </c>
       <c r="F48" s="3">
-        <v>20128100</v>
+        <v>20117800</v>
       </c>
       <c r="G48" s="3">
-        <v>22182200</v>
+        <v>22170800</v>
       </c>
       <c r="H48" s="3">
-        <v>21839200</v>
+        <v>21828000</v>
       </c>
       <c r="I48" s="3">
-        <v>24643700</v>
+        <v>24631000</v>
       </c>
       <c r="J48" s="3">
-        <v>13341500</v>
+        <v>13334600</v>
       </c>
       <c r="K48" s="3">
         <v>14198800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2179300</v>
+        <v>2178100</v>
       </c>
       <c r="E49" s="3">
-        <v>2630400</v>
+        <v>2629000</v>
       </c>
       <c r="F49" s="3">
-        <v>1748900</v>
+        <v>1748000</v>
       </c>
       <c r="G49" s="3">
-        <v>1757800</v>
+        <v>1756900</v>
       </c>
       <c r="H49" s="3">
-        <v>1683000</v>
+        <v>1682100</v>
       </c>
       <c r="I49" s="3">
-        <v>1683000</v>
+        <v>1682100</v>
       </c>
       <c r="J49" s="3">
-        <v>179300</v>
+        <v>179200</v>
       </c>
       <c r="K49" s="3">
         <v>181700</v>
@@ -2372,10 +2372,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>623000</v>
+        <v>622600</v>
       </c>
       <c r="E52" s="3">
-        <v>715600</v>
+        <v>715200</v>
       </c>
       <c r="F52" s="3">
         <v>26700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41384400</v>
+        <v>41363200</v>
       </c>
       <c r="E54" s="3">
-        <v>40077000</v>
+        <v>40056400</v>
       </c>
       <c r="F54" s="3">
-        <v>24274000</v>
+        <v>24261600</v>
       </c>
       <c r="G54" s="3">
-        <v>26454000</v>
+        <v>26440500</v>
       </c>
       <c r="H54" s="3">
-        <v>26054800</v>
+        <v>26041400</v>
       </c>
       <c r="I54" s="3">
-        <v>30320700</v>
+        <v>30305200</v>
       </c>
       <c r="J54" s="3">
-        <v>18709600</v>
+        <v>18700000</v>
       </c>
       <c r="K54" s="3">
         <v>19365400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1726700</v>
+        <v>1725800</v>
       </c>
       <c r="E57" s="3">
-        <v>1891800</v>
+        <v>1890900</v>
       </c>
       <c r="F57" s="3">
-        <v>450400</v>
+        <v>450100</v>
       </c>
       <c r="G57" s="3">
-        <v>695600</v>
+        <v>695200</v>
       </c>
       <c r="H57" s="3">
-        <v>568100</v>
+        <v>567900</v>
       </c>
       <c r="I57" s="3">
-        <v>249600</v>
+        <v>249500</v>
       </c>
       <c r="J57" s="3">
-        <v>77800</v>
+        <v>77700</v>
       </c>
       <c r="K57" s="3">
         <v>51100</v>
@@ -2576,19 +2576,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>313300</v>
+        <v>313200</v>
       </c>
       <c r="E58" s="3">
-        <v>260000</v>
+        <v>259900</v>
       </c>
       <c r="F58" s="3">
-        <v>225900</v>
+        <v>225800</v>
       </c>
       <c r="G58" s="3">
-        <v>145200</v>
+        <v>145100</v>
       </c>
       <c r="H58" s="3">
-        <v>505200</v>
+        <v>504900</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3901500</v>
+        <v>3899500</v>
       </c>
       <c r="E59" s="3">
-        <v>3259300</v>
+        <v>3257600</v>
       </c>
       <c r="F59" s="3">
-        <v>1071100</v>
+        <v>1070600</v>
       </c>
       <c r="G59" s="3">
-        <v>1026700</v>
+        <v>1026100</v>
       </c>
       <c r="H59" s="3">
-        <v>852600</v>
+        <v>852200</v>
       </c>
       <c r="I59" s="3">
-        <v>3036300</v>
+        <v>3034700</v>
       </c>
       <c r="J59" s="3">
-        <v>1900700</v>
+        <v>1899800</v>
       </c>
       <c r="K59" s="3">
         <v>1344000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5941500</v>
+        <v>5938400</v>
       </c>
       <c r="E60" s="3">
-        <v>5411100</v>
+        <v>5408300</v>
       </c>
       <c r="F60" s="3">
-        <v>1747400</v>
+        <v>1746500</v>
       </c>
       <c r="G60" s="3">
-        <v>1867400</v>
+        <v>1866400</v>
       </c>
       <c r="H60" s="3">
-        <v>1925900</v>
+        <v>1924900</v>
       </c>
       <c r="I60" s="3">
-        <v>3285900</v>
+        <v>3284200</v>
       </c>
       <c r="J60" s="3">
-        <v>1978500</v>
+        <v>1977500</v>
       </c>
       <c r="K60" s="3">
         <v>1395100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8310400</v>
+        <v>8306100</v>
       </c>
       <c r="E61" s="3">
-        <v>11163000</v>
+        <v>11157200</v>
       </c>
       <c r="F61" s="3">
-        <v>6677000</v>
+        <v>6673600</v>
       </c>
       <c r="G61" s="3">
-        <v>6236300</v>
+        <v>6233100</v>
       </c>
       <c r="H61" s="3">
-        <v>6283000</v>
+        <v>6279700</v>
       </c>
       <c r="I61" s="3">
-        <v>7046700</v>
+        <v>7043000</v>
       </c>
       <c r="J61" s="3">
-        <v>4690400</v>
+        <v>4688000</v>
       </c>
       <c r="K61" s="3">
         <v>4899400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6696300</v>
+        <v>6692900</v>
       </c>
       <c r="E62" s="3">
-        <v>6015500</v>
+        <v>6012500</v>
       </c>
       <c r="F62" s="3">
-        <v>3474100</v>
+        <v>3472300</v>
       </c>
       <c r="G62" s="3">
-        <v>4127400</v>
+        <v>4125300</v>
       </c>
       <c r="H62" s="3">
-        <v>4906700</v>
+        <v>4904100</v>
       </c>
       <c r="I62" s="3">
-        <v>5187400</v>
+        <v>5184700</v>
       </c>
       <c r="J62" s="3">
-        <v>3455600</v>
+        <v>3453800</v>
       </c>
       <c r="K62" s="3">
         <v>3767100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20957800</v>
+        <v>20947000</v>
       </c>
       <c r="E66" s="3">
-        <v>22598500</v>
+        <v>22586900</v>
       </c>
       <c r="F66" s="3">
-        <v>11898500</v>
+        <v>11892400</v>
       </c>
       <c r="G66" s="3">
-        <v>12231100</v>
+        <v>12224800</v>
       </c>
       <c r="H66" s="3">
-        <v>13115500</v>
+        <v>13108800</v>
       </c>
       <c r="I66" s="3">
-        <v>15520000</v>
+        <v>15512000</v>
       </c>
       <c r="J66" s="3">
-        <v>10124400</v>
+        <v>10119200</v>
       </c>
       <c r="K66" s="3">
         <v>10061500</v>
@@ -3056,10 +3056,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>384400</v>
+        <v>384200</v>
       </c>
       <c r="E70" s="3">
-        <v>384400</v>
+        <v>384200</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4871100</v>
+        <v>4868600</v>
       </c>
       <c r="E72" s="3">
-        <v>809600</v>
+        <v>809200</v>
       </c>
       <c r="F72" s="3">
-        <v>371100</v>
+        <v>370900</v>
       </c>
       <c r="G72" s="3">
-        <v>2190400</v>
+        <v>2189200</v>
       </c>
       <c r="H72" s="3">
-        <v>757800</v>
+        <v>757400</v>
       </c>
       <c r="I72" s="3">
-        <v>2916300</v>
+        <v>2914800</v>
       </c>
       <c r="J72" s="3">
-        <v>589600</v>
+        <v>589300</v>
       </c>
       <c r="K72" s="3">
         <v>1131500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20042200</v>
+        <v>20032000</v>
       </c>
       <c r="E76" s="3">
-        <v>17094100</v>
+        <v>17085300</v>
       </c>
       <c r="F76" s="3">
-        <v>12375500</v>
+        <v>12369200</v>
       </c>
       <c r="G76" s="3">
-        <v>14222900</v>
+        <v>14215700</v>
       </c>
       <c r="H76" s="3">
-        <v>12939200</v>
+        <v>12932600</v>
       </c>
       <c r="I76" s="3">
-        <v>14800700</v>
+        <v>14793100</v>
       </c>
       <c r="J76" s="3">
-        <v>8585200</v>
+        <v>8580800</v>
       </c>
       <c r="K76" s="3">
         <v>9303900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4751800</v>
+        <v>4749400</v>
       </c>
       <c r="E81" s="3">
-        <v>409600</v>
+        <v>409400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1762200</v>
+        <v>-1761300</v>
       </c>
       <c r="G81" s="3">
-        <v>1625200</v>
+        <v>1624300</v>
       </c>
       <c r="H81" s="3">
-        <v>-1977000</v>
+        <v>-1976000</v>
       </c>
       <c r="I81" s="3">
-        <v>2493300</v>
+        <v>2492100</v>
       </c>
       <c r="J81" s="3">
-        <v>-403700</v>
+        <v>-403500</v>
       </c>
       <c r="K81" s="3">
         <v>464000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3465900</v>
+        <v>3464100</v>
       </c>
       <c r="E83" s="3">
-        <v>4360000</v>
+        <v>4357800</v>
       </c>
       <c r="F83" s="3">
-        <v>2565900</v>
+        <v>2564600</v>
       </c>
       <c r="G83" s="3">
-        <v>1665900</v>
+        <v>1665100</v>
       </c>
       <c r="H83" s="3">
-        <v>1578500</v>
+        <v>1577700</v>
       </c>
       <c r="I83" s="3">
-        <v>1503700</v>
+        <v>1502900</v>
       </c>
       <c r="J83" s="3">
-        <v>1109600</v>
+        <v>1109100</v>
       </c>
       <c r="K83" s="3">
         <v>1587300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8446700</v>
+        <v>8442300</v>
       </c>
       <c r="E89" s="3">
-        <v>4384400</v>
+        <v>4382200</v>
       </c>
       <c r="F89" s="3">
-        <v>202200</v>
+        <v>202100</v>
       </c>
       <c r="G89" s="3">
-        <v>2433300</v>
+        <v>2432100</v>
       </c>
       <c r="H89" s="3">
-        <v>1595600</v>
+        <v>1594700</v>
       </c>
       <c r="I89" s="3">
-        <v>2265900</v>
+        <v>2264800</v>
       </c>
       <c r="J89" s="3">
-        <v>637800</v>
+        <v>637400</v>
       </c>
       <c r="K89" s="3">
         <v>1106800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2746700</v>
+        <v>-2745300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1898500</v>
+        <v>-1897500</v>
       </c>
       <c r="F91" s="3">
-        <v>-636300</v>
+        <v>-636000</v>
       </c>
       <c r="G91" s="3">
-        <v>-876300</v>
+        <v>-875800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1020000</v>
+        <v>-1019500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1237000</v>
+        <v>-1236400</v>
       </c>
       <c r="J91" s="3">
-        <v>-765900</v>
+        <v>-765500</v>
       </c>
       <c r="K91" s="3">
         <v>-1287000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1714100</v>
+        <v>-1713200</v>
       </c>
       <c r="E94" s="3">
-        <v>-697800</v>
+        <v>-697400</v>
       </c>
       <c r="F94" s="3">
-        <v>-639300</v>
+        <v>-638900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1060700</v>
+        <v>-1060200</v>
       </c>
       <c r="H94" s="3">
-        <v>-454100</v>
+        <v>-453800</v>
       </c>
       <c r="I94" s="3">
-        <v>-9530400</v>
+        <v>-9525500</v>
       </c>
       <c r="J94" s="3">
-        <v>-799300</v>
+        <v>-798800</v>
       </c>
       <c r="K94" s="3">
         <v>666800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-686700</v>
+        <v>-686300</v>
       </c>
       <c r="E96" s="3">
-        <v>-155600</v>
+        <v>-155500</v>
       </c>
       <c r="F96" s="3">
         <v>-57000</v>
       </c>
       <c r="G96" s="3">
-        <v>-192600</v>
+        <v>-192500</v>
       </c>
       <c r="H96" s="3">
-        <v>-181500</v>
+        <v>-181400</v>
       </c>
       <c r="I96" s="3">
-        <v>-166700</v>
+        <v>-166600</v>
       </c>
       <c r="J96" s="3">
-        <v>-123000</v>
+        <v>-122900</v>
       </c>
       <c r="K96" s="3">
         <v>-396500</v>
@@ -4165,22 +4165,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5685900</v>
+        <v>-5683000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1857000</v>
+        <v>-1856100</v>
       </c>
       <c r="F100" s="3">
-        <v>620000</v>
+        <v>619700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1787400</v>
+        <v>-1786500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1044400</v>
+        <v>-1043900</v>
       </c>
       <c r="I100" s="3">
-        <v>4825900</v>
+        <v>4823400</v>
       </c>
       <c r="J100" s="3">
         <v>-124400</v>
@@ -4207,7 +4207,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>176300</v>
+        <v>176200</v>
       </c>
       <c r="E101" s="3">
         <v>18500</v>
@@ -4222,7 +4222,7 @@
         <v>29600</v>
       </c>
       <c r="I101" s="3">
-        <v>134800</v>
+        <v>134700</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1223000</v>
+        <v>1222300</v>
       </c>
       <c r="E102" s="3">
-        <v>1848100</v>
+        <v>1847200</v>
       </c>
       <c r="F102" s="3">
-        <v>142200</v>
+        <v>142100</v>
       </c>
       <c r="G102" s="3">
-        <v>-440700</v>
+        <v>-440500</v>
       </c>
       <c r="H102" s="3">
-        <v>126700</v>
+        <v>126600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2303700</v>
+        <v>-2302500</v>
       </c>
       <c r="J102" s="3">
-        <v>-285200</v>
+        <v>-285000</v>
       </c>
       <c r="K102" s="3">
         <v>2419300</v>

--- a/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVE_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>49527900</v>
+        <v>48634800</v>
       </c>
       <c r="E8" s="3">
-        <v>34320900</v>
+        <v>33702000</v>
       </c>
       <c r="F8" s="3">
-        <v>9792700</v>
+        <v>9616200</v>
       </c>
       <c r="G8" s="3">
-        <v>14941200</v>
+        <v>14671800</v>
       </c>
       <c r="H8" s="3">
-        <v>15432100</v>
+        <v>15153800</v>
       </c>
       <c r="I8" s="3">
-        <v>12618000</v>
+        <v>12390400</v>
       </c>
       <c r="J8" s="3">
-        <v>8148400</v>
+        <v>8001500</v>
       </c>
       <c r="K8" s="3">
         <v>8656700</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>25024900</v>
+        <v>24573700</v>
       </c>
       <c r="E9" s="3">
-        <v>17384400</v>
+        <v>17070900</v>
       </c>
       <c r="F9" s="3">
-        <v>3789900</v>
+        <v>3721600</v>
       </c>
       <c r="G9" s="3">
-        <v>6239800</v>
+        <v>6127200</v>
       </c>
       <c r="H9" s="3">
-        <v>6474400</v>
+        <v>6357700</v>
       </c>
       <c r="I9" s="3">
-        <v>5948100</v>
+        <v>5840800</v>
       </c>
       <c r="J9" s="3">
-        <v>5166200</v>
+        <v>5073100</v>
       </c>
       <c r="K9" s="3">
         <v>5537600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24503000</v>
+        <v>24061100</v>
       </c>
       <c r="E10" s="3">
-        <v>16936500</v>
+        <v>16631100</v>
       </c>
       <c r="F10" s="3">
-        <v>6002800</v>
+        <v>5894600</v>
       </c>
       <c r="G10" s="3">
-        <v>8701500</v>
+        <v>8544500</v>
       </c>
       <c r="H10" s="3">
-        <v>8957600</v>
+        <v>8796100</v>
       </c>
       <c r="I10" s="3">
-        <v>6669900</v>
+        <v>6549600</v>
       </c>
       <c r="J10" s="3">
-        <v>2982200</v>
+        <v>2928400</v>
       </c>
       <c r="K10" s="3">
         <v>3119100</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>74800</v>
+        <v>73400</v>
       </c>
       <c r="E12" s="3">
-        <v>13300</v>
+        <v>13100</v>
       </c>
       <c r="F12" s="3">
-        <v>67400</v>
+        <v>66200</v>
       </c>
       <c r="G12" s="3">
-        <v>75500</v>
+        <v>74200</v>
       </c>
       <c r="H12" s="3">
-        <v>1590300</v>
+        <v>1561600</v>
       </c>
       <c r="I12" s="3">
-        <v>684100</v>
+        <v>671800</v>
       </c>
       <c r="J12" s="3">
-        <v>28100</v>
+        <v>27600</v>
       </c>
       <c r="K12" s="3">
         <v>70600</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>112500</v>
+        <v>110500</v>
       </c>
       <c r="E14" s="3">
-        <v>1246800</v>
+        <v>1224300</v>
       </c>
       <c r="F14" s="3">
-        <v>1166100</v>
+        <v>1145000</v>
       </c>
       <c r="G14" s="3">
-        <v>27400</v>
+        <v>26900</v>
       </c>
       <c r="H14" s="3">
-        <v>616000</v>
+        <v>604900</v>
       </c>
       <c r="I14" s="3">
-        <v>14800</v>
+        <v>14500</v>
       </c>
       <c r="J14" s="3">
-        <v>35500</v>
+        <v>34900</v>
       </c>
       <c r="K14" s="3">
         <v>-1763800</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3230900</v>
+        <v>3172700</v>
       </c>
       <c r="E15" s="3">
-        <v>3199800</v>
+        <v>3142100</v>
       </c>
       <c r="F15" s="3">
-        <v>1741300</v>
+        <v>1709900</v>
       </c>
       <c r="G15" s="3">
-        <v>1640600</v>
+        <v>1611100</v>
       </c>
       <c r="H15" s="3">
-        <v>1597000</v>
+        <v>1568200</v>
       </c>
       <c r="I15" s="3">
-        <v>1360800</v>
+        <v>1336200</v>
       </c>
       <c r="J15" s="3">
-        <v>1781300</v>
+        <v>1749200</v>
       </c>
       <c r="K15" s="3">
         <v>745600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>41469000</v>
+        <v>40721300</v>
       </c>
       <c r="E17" s="3">
-        <v>31997600</v>
+        <v>31420600</v>
       </c>
       <c r="F17" s="3">
-        <v>11699900</v>
+        <v>11488900</v>
       </c>
       <c r="G17" s="3">
-        <v>13721100</v>
+        <v>13473700</v>
       </c>
       <c r="H17" s="3">
-        <v>17030500</v>
+        <v>16723400</v>
       </c>
       <c r="I17" s="3">
-        <v>12375100</v>
+        <v>12152000</v>
       </c>
       <c r="J17" s="3">
-        <v>8341600</v>
+        <v>8191200</v>
       </c>
       <c r="K17" s="3">
         <v>7134700</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>8058800</v>
+        <v>7913500</v>
       </c>
       <c r="E18" s="3">
-        <v>2323200</v>
+        <v>2281400</v>
       </c>
       <c r="F18" s="3">
-        <v>-1907200</v>
+        <v>-1872800</v>
       </c>
       <c r="G18" s="3">
-        <v>1220100</v>
+        <v>1198100</v>
       </c>
       <c r="H18" s="3">
-        <v>-1598400</v>
+        <v>-1569600</v>
       </c>
       <c r="I18" s="3">
-        <v>242800</v>
+        <v>238500</v>
       </c>
       <c r="J18" s="3">
-        <v>-193200</v>
+        <v>-189700</v>
       </c>
       <c r="K18" s="3">
         <v>1522000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1123900</v>
+        <v>-1103600</v>
       </c>
       <c r="E20" s="3">
-        <v>-810700</v>
+        <v>-796100</v>
       </c>
       <c r="F20" s="3">
-        <v>-129600</v>
+        <v>-127200</v>
       </c>
       <c r="G20" s="3">
-        <v>176200</v>
+        <v>173000</v>
       </c>
       <c r="H20" s="3">
-        <v>-913600</v>
+        <v>-897100</v>
       </c>
       <c r="I20" s="3">
-        <v>1820500</v>
+        <v>1787700</v>
       </c>
       <c r="J20" s="3">
-        <v>-148100</v>
+        <v>-145400</v>
       </c>
       <c r="K20" s="3">
         <v>-607400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10399100</v>
+        <v>10230700</v>
       </c>
       <c r="E21" s="3">
-        <v>5870300</v>
+        <v>5788500</v>
       </c>
       <c r="F21" s="3">
-        <v>527900</v>
+        <v>532500</v>
       </c>
       <c r="G21" s="3">
-        <v>3061400</v>
+        <v>3015400</v>
       </c>
       <c r="H21" s="3">
-        <v>-934300</v>
+        <v>-908800</v>
       </c>
       <c r="I21" s="3">
-        <v>3566300</v>
+        <v>3510300</v>
       </c>
       <c r="J21" s="3">
-        <v>767800</v>
+        <v>760000</v>
       </c>
       <c r="K21" s="3">
         <v>2477500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>470900</v>
+        <v>462400</v>
       </c>
       <c r="E22" s="3">
-        <v>539000</v>
+        <v>529300</v>
       </c>
       <c r="F22" s="3">
-        <v>354600</v>
+        <v>348200</v>
       </c>
       <c r="G22" s="3">
-        <v>362000</v>
+        <v>355500</v>
       </c>
       <c r="H22" s="3">
-        <v>394600</v>
+        <v>387500</v>
       </c>
       <c r="I22" s="3">
-        <v>422700</v>
+        <v>415100</v>
       </c>
       <c r="J22" s="3">
-        <v>252500</v>
+        <v>247900</v>
       </c>
       <c r="K22" s="3">
         <v>246300</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6464100</v>
+        <v>6347500</v>
       </c>
       <c r="E23" s="3">
-        <v>973600</v>
+        <v>956000</v>
       </c>
       <c r="F23" s="3">
-        <v>-2391400</v>
+        <v>-2348200</v>
       </c>
       <c r="G23" s="3">
-        <v>1034300</v>
+        <v>1015600</v>
       </c>
       <c r="H23" s="3">
-        <v>-2906700</v>
+        <v>-2854200</v>
       </c>
       <c r="I23" s="3">
-        <v>1640600</v>
+        <v>1611100</v>
       </c>
       <c r="J23" s="3">
-        <v>-593800</v>
+        <v>-583100</v>
       </c>
       <c r="K23" s="3">
         <v>668300</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1688800</v>
+        <v>1658300</v>
       </c>
       <c r="E24" s="3">
-        <v>539000</v>
+        <v>529300</v>
       </c>
       <c r="F24" s="3">
-        <v>-630000</v>
+        <v>-618700</v>
       </c>
       <c r="G24" s="3">
-        <v>-590100</v>
+        <v>-579400</v>
       </c>
       <c r="H24" s="3">
-        <v>-747800</v>
+        <v>-734300</v>
       </c>
       <c r="I24" s="3">
-        <v>-38500</v>
+        <v>-37800</v>
       </c>
       <c r="J24" s="3">
-        <v>-253900</v>
+        <v>-249400</v>
       </c>
       <c r="K24" s="3">
         <v>-18000</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>4775300</v>
+        <v>4689200</v>
       </c>
       <c r="E26" s="3">
-        <v>434600</v>
+        <v>426800</v>
       </c>
       <c r="F26" s="3">
-        <v>-1761300</v>
+        <v>-1729600</v>
       </c>
       <c r="G26" s="3">
-        <v>1624300</v>
+        <v>1595100</v>
       </c>
       <c r="H26" s="3">
-        <v>-2158900</v>
+        <v>-2120000</v>
       </c>
       <c r="I26" s="3">
-        <v>1679100</v>
+        <v>1648900</v>
       </c>
       <c r="J26" s="3">
-        <v>-339800</v>
+        <v>-333700</v>
       </c>
       <c r="K26" s="3">
         <v>686300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4749400</v>
+        <v>4663800</v>
       </c>
       <c r="E27" s="3">
-        <v>409400</v>
+        <v>402000</v>
       </c>
       <c r="F27" s="3">
-        <v>-1761300</v>
+        <v>-1729600</v>
       </c>
       <c r="G27" s="3">
-        <v>1624300</v>
+        <v>1595100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2158900</v>
+        <v>-2120000</v>
       </c>
       <c r="I27" s="3">
-        <v>1679100</v>
+        <v>1648900</v>
       </c>
       <c r="J27" s="3">
-        <v>-339800</v>
+        <v>-333700</v>
       </c>
       <c r="K27" s="3">
         <v>686300</v>
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>182900</v>
+        <v>179600</v>
       </c>
       <c r="I29" s="3">
-        <v>812900</v>
+        <v>798300</v>
       </c>
       <c r="J29" s="3">
-        <v>-63700</v>
+        <v>-62500</v>
       </c>
       <c r="K29" s="3">
         <v>-222300</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1123900</v>
+        <v>1103600</v>
       </c>
       <c r="E32" s="3">
-        <v>810700</v>
+        <v>796100</v>
       </c>
       <c r="F32" s="3">
-        <v>129600</v>
+        <v>127200</v>
       </c>
       <c r="G32" s="3">
-        <v>-176200</v>
+        <v>-173000</v>
       </c>
       <c r="H32" s="3">
-        <v>913600</v>
+        <v>897100</v>
       </c>
       <c r="I32" s="3">
-        <v>-1820500</v>
+        <v>-1787700</v>
       </c>
       <c r="J32" s="3">
-        <v>148100</v>
+        <v>145400</v>
       </c>
       <c r="K32" s="3">
         <v>607400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4749400</v>
+        <v>4663800</v>
       </c>
       <c r="E33" s="3">
-        <v>409400</v>
+        <v>402000</v>
       </c>
       <c r="F33" s="3">
-        <v>-1761300</v>
+        <v>-1729600</v>
       </c>
       <c r="G33" s="3">
-        <v>1624300</v>
+        <v>1595100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1976000</v>
+        <v>-1940400</v>
       </c>
       <c r="I33" s="3">
-        <v>2492100</v>
+        <v>2447100</v>
       </c>
       <c r="J33" s="3">
-        <v>-403500</v>
+        <v>-396200</v>
       </c>
       <c r="K33" s="3">
         <v>464000</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4749400</v>
+        <v>4663800</v>
       </c>
       <c r="E35" s="3">
-        <v>409400</v>
+        <v>402000</v>
       </c>
       <c r="F35" s="3">
-        <v>-1761300</v>
+        <v>-1729600</v>
       </c>
       <c r="G35" s="3">
-        <v>1624300</v>
+        <v>1595100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1976000</v>
+        <v>-1940400</v>
       </c>
       <c r="I35" s="3">
-        <v>2492100</v>
+        <v>2447100</v>
       </c>
       <c r="J35" s="3">
-        <v>-403500</v>
+        <v>-396200</v>
       </c>
       <c r="K35" s="3">
         <v>464000</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2365500</v>
+        <v>2322800</v>
       </c>
       <c r="E41" s="3">
-        <v>1751700</v>
+        <v>1720100</v>
       </c>
       <c r="F41" s="3">
-        <v>272500</v>
+        <v>267500</v>
       </c>
       <c r="G41" s="3">
-        <v>80000</v>
+        <v>78500</v>
       </c>
       <c r="H41" s="3">
-        <v>114800</v>
+        <v>112700</v>
       </c>
       <c r="I41" s="3">
-        <v>405000</v>
+        <v>397700</v>
       </c>
       <c r="J41" s="3">
-        <v>401300</v>
+        <v>394000</v>
       </c>
       <c r="K41" s="3">
         <v>242500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>983900</v>
+        <v>966200</v>
       </c>
       <c r="E42" s="3">
-        <v>375400</v>
+        <v>368600</v>
       </c>
       <c r="F42" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="G42" s="3">
-        <v>57700</v>
+        <v>56700</v>
       </c>
       <c r="H42" s="3">
-        <v>463500</v>
+        <v>455100</v>
       </c>
       <c r="I42" s="3">
-        <v>46600</v>
+        <v>45800</v>
       </c>
       <c r="J42" s="3">
-        <v>2352900</v>
+        <v>2310400</v>
       </c>
       <c r="K42" s="3">
         <v>2839800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2363200</v>
+        <v>2320600</v>
       </c>
       <c r="E43" s="3">
-        <v>2521700</v>
+        <v>2476200</v>
       </c>
       <c r="F43" s="3">
-        <v>1027600</v>
+        <v>1009100</v>
       </c>
       <c r="G43" s="3">
-        <v>1115700</v>
+        <v>1095600</v>
       </c>
       <c r="H43" s="3">
-        <v>883200</v>
+        <v>867300</v>
       </c>
       <c r="I43" s="3">
-        <v>1357800</v>
+        <v>1333300</v>
       </c>
       <c r="J43" s="3">
-        <v>1271200</v>
+        <v>1248300</v>
       </c>
       <c r="K43" s="3">
         <v>890500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3192400</v>
+        <v>3134900</v>
       </c>
       <c r="E44" s="3">
-        <v>2901500</v>
+        <v>2849200</v>
       </c>
       <c r="F44" s="3">
-        <v>806300</v>
+        <v>791700</v>
       </c>
       <c r="G44" s="3">
-        <v>1134200</v>
+        <v>1113800</v>
       </c>
       <c r="H44" s="3">
-        <v>750000</v>
+        <v>736500</v>
       </c>
       <c r="I44" s="3">
-        <v>1028400</v>
+        <v>1009800</v>
       </c>
       <c r="J44" s="3">
-        <v>915800</v>
+        <v>899300</v>
       </c>
       <c r="K44" s="3">
         <v>608200</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>297600</v>
+        <v>292300</v>
       </c>
       <c r="E45" s="3">
-        <v>1325200</v>
+        <v>1301300</v>
       </c>
       <c r="F45" s="3">
-        <v>89600</v>
+        <v>88000</v>
       </c>
       <c r="G45" s="3">
-        <v>43700</v>
+        <v>42900</v>
       </c>
       <c r="H45" s="3">
-        <v>154000</v>
+        <v>151200</v>
       </c>
       <c r="I45" s="3">
-        <v>869900</v>
+        <v>854200</v>
       </c>
       <c r="J45" s="3">
-        <v>109600</v>
+        <v>107600</v>
       </c>
       <c r="K45" s="3">
         <v>279300</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9202700</v>
+        <v>9036700</v>
       </c>
       <c r="E46" s="3">
-        <v>8875400</v>
+        <v>8715400</v>
       </c>
       <c r="F46" s="3">
-        <v>2203300</v>
+        <v>2163600</v>
       </c>
       <c r="G46" s="3">
-        <v>2431300</v>
+        <v>2387500</v>
       </c>
       <c r="H46" s="3">
-        <v>2365500</v>
+        <v>2322800</v>
       </c>
       <c r="I46" s="3">
-        <v>3707700</v>
+        <v>3640900</v>
       </c>
       <c r="J46" s="3">
-        <v>5050700</v>
+        <v>4959700</v>
       </c>
       <c r="K46" s="3">
         <v>4860300</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>464200</v>
+        <v>455800</v>
       </c>
       <c r="E47" s="3">
-        <v>476800</v>
+        <v>468200</v>
       </c>
       <c r="F47" s="3">
-        <v>165800</v>
+        <v>162900</v>
       </c>
       <c r="G47" s="3">
-        <v>76300</v>
+        <v>74900</v>
       </c>
       <c r="H47" s="3">
-        <v>159900</v>
+        <v>157000</v>
       </c>
       <c r="I47" s="3">
-        <v>276200</v>
+        <v>271200</v>
       </c>
       <c r="J47" s="3">
-        <v>129600</v>
+        <v>127200</v>
       </c>
       <c r="K47" s="3">
         <v>119400</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28895500</v>
+        <v>28374500</v>
       </c>
       <c r="E48" s="3">
-        <v>27360000</v>
+        <v>26866700</v>
       </c>
       <c r="F48" s="3">
-        <v>20117800</v>
+        <v>19755000</v>
       </c>
       <c r="G48" s="3">
-        <v>22170800</v>
+        <v>21771000</v>
       </c>
       <c r="H48" s="3">
-        <v>21828000</v>
+        <v>21434400</v>
       </c>
       <c r="I48" s="3">
-        <v>24631000</v>
+        <v>24186900</v>
       </c>
       <c r="J48" s="3">
-        <v>13334600</v>
+        <v>13094200</v>
       </c>
       <c r="K48" s="3">
         <v>14198800</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2178100</v>
+        <v>2138900</v>
       </c>
       <c r="E49" s="3">
-        <v>2629000</v>
+        <v>2581600</v>
       </c>
       <c r="F49" s="3">
-        <v>1748000</v>
+        <v>1716500</v>
       </c>
       <c r="G49" s="3">
-        <v>1756900</v>
+        <v>1725200</v>
       </c>
       <c r="H49" s="3">
-        <v>1682100</v>
+        <v>1651800</v>
       </c>
       <c r="I49" s="3">
-        <v>1682100</v>
+        <v>1651800</v>
       </c>
       <c r="J49" s="3">
-        <v>179200</v>
+        <v>175900</v>
       </c>
       <c r="K49" s="3">
         <v>181700</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>622600</v>
+        <v>611400</v>
       </c>
       <c r="E52" s="3">
-        <v>715200</v>
+        <v>702300</v>
       </c>
       <c r="F52" s="3">
-        <v>26700</v>
+        <v>26200</v>
       </c>
       <c r="G52" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="H52" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I52" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="J52" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="K52" s="3">
         <v>5300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41363200</v>
+        <v>40617300</v>
       </c>
       <c r="E54" s="3">
-        <v>40056400</v>
+        <v>39334100</v>
       </c>
       <c r="F54" s="3">
-        <v>24261600</v>
+        <v>23824100</v>
       </c>
       <c r="G54" s="3">
-        <v>26440500</v>
+        <v>25963700</v>
       </c>
       <c r="H54" s="3">
-        <v>26041400</v>
+        <v>25571800</v>
       </c>
       <c r="I54" s="3">
-        <v>30305200</v>
+        <v>29758700</v>
       </c>
       <c r="J54" s="3">
-        <v>18700000</v>
+        <v>18362800</v>
       </c>
       <c r="K54" s="3">
         <v>19365400</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1725800</v>
+        <v>1694700</v>
       </c>
       <c r="E57" s="3">
-        <v>1890900</v>
+        <v>1856800</v>
       </c>
       <c r="F57" s="3">
-        <v>450100</v>
+        <v>442000</v>
       </c>
       <c r="G57" s="3">
-        <v>695200</v>
+        <v>682700</v>
       </c>
       <c r="H57" s="3">
-        <v>567900</v>
+        <v>557600</v>
       </c>
       <c r="I57" s="3">
-        <v>249500</v>
+        <v>245000</v>
       </c>
       <c r="J57" s="3">
-        <v>77700</v>
+        <v>76300</v>
       </c>
       <c r="K57" s="3">
         <v>51100</v>
@@ -2576,19 +2576,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>313200</v>
+        <v>307500</v>
       </c>
       <c r="E58" s="3">
-        <v>259900</v>
+        <v>255200</v>
       </c>
       <c r="F58" s="3">
-        <v>225800</v>
+        <v>221700</v>
       </c>
       <c r="G58" s="3">
-        <v>145100</v>
+        <v>142500</v>
       </c>
       <c r="H58" s="3">
-        <v>504900</v>
+        <v>495800</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3899500</v>
+        <v>3829200</v>
       </c>
       <c r="E59" s="3">
-        <v>3257600</v>
+        <v>3198800</v>
       </c>
       <c r="F59" s="3">
-        <v>1070600</v>
+        <v>1051300</v>
       </c>
       <c r="G59" s="3">
-        <v>1026100</v>
+        <v>1007600</v>
       </c>
       <c r="H59" s="3">
-        <v>852200</v>
+        <v>836800</v>
       </c>
       <c r="I59" s="3">
-        <v>3034700</v>
+        <v>2980000</v>
       </c>
       <c r="J59" s="3">
-        <v>1899800</v>
+        <v>1865500</v>
       </c>
       <c r="K59" s="3">
         <v>1344000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5938400</v>
+        <v>5831300</v>
       </c>
       <c r="E60" s="3">
-        <v>5408300</v>
+        <v>5310800</v>
       </c>
       <c r="F60" s="3">
-        <v>1746500</v>
+        <v>1715000</v>
       </c>
       <c r="G60" s="3">
-        <v>1866400</v>
+        <v>1832800</v>
       </c>
       <c r="H60" s="3">
-        <v>1924900</v>
+        <v>1890200</v>
       </c>
       <c r="I60" s="3">
-        <v>3284200</v>
+        <v>3225000</v>
       </c>
       <c r="J60" s="3">
-        <v>1977500</v>
+        <v>1941800</v>
       </c>
       <c r="K60" s="3">
         <v>1395100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8306100</v>
+        <v>8156300</v>
       </c>
       <c r="E61" s="3">
-        <v>11157200</v>
+        <v>10956000</v>
       </c>
       <c r="F61" s="3">
-        <v>6673600</v>
+        <v>6553300</v>
       </c>
       <c r="G61" s="3">
-        <v>6233100</v>
+        <v>6120700</v>
       </c>
       <c r="H61" s="3">
-        <v>6279700</v>
+        <v>6166500</v>
       </c>
       <c r="I61" s="3">
-        <v>7043000</v>
+        <v>6916000</v>
       </c>
       <c r="J61" s="3">
-        <v>4688000</v>
+        <v>4603400</v>
       </c>
       <c r="K61" s="3">
         <v>4899400</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6692900</v>
+        <v>6572200</v>
       </c>
       <c r="E62" s="3">
-        <v>6012500</v>
+        <v>5904000</v>
       </c>
       <c r="F62" s="3">
-        <v>3472300</v>
+        <v>3409700</v>
       </c>
       <c r="G62" s="3">
-        <v>4125300</v>
+        <v>4050900</v>
       </c>
       <c r="H62" s="3">
-        <v>4904100</v>
+        <v>4815700</v>
       </c>
       <c r="I62" s="3">
-        <v>5184700</v>
+        <v>5091300</v>
       </c>
       <c r="J62" s="3">
-        <v>3453800</v>
+        <v>3391500</v>
       </c>
       <c r="K62" s="3">
         <v>3767100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20947000</v>
+        <v>20569300</v>
       </c>
       <c r="E66" s="3">
-        <v>22586900</v>
+        <v>22179600</v>
       </c>
       <c r="F66" s="3">
-        <v>11892400</v>
+        <v>11678000</v>
       </c>
       <c r="G66" s="3">
-        <v>12224800</v>
+        <v>12004400</v>
       </c>
       <c r="H66" s="3">
-        <v>13108800</v>
+        <v>12872400</v>
       </c>
       <c r="I66" s="3">
-        <v>15512000</v>
+        <v>15232300</v>
       </c>
       <c r="J66" s="3">
-        <v>10119200</v>
+        <v>9936800</v>
       </c>
       <c r="K66" s="3">
         <v>10061500</v>
@@ -3056,10 +3056,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>384200</v>
+        <v>377300</v>
       </c>
       <c r="E70" s="3">
-        <v>384200</v>
+        <v>377300</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4868600</v>
+        <v>4780800</v>
       </c>
       <c r="E72" s="3">
-        <v>809200</v>
+        <v>794600</v>
       </c>
       <c r="F72" s="3">
-        <v>370900</v>
+        <v>364200</v>
       </c>
       <c r="G72" s="3">
-        <v>2189200</v>
+        <v>2149800</v>
       </c>
       <c r="H72" s="3">
-        <v>757400</v>
+        <v>743700</v>
       </c>
       <c r="I72" s="3">
-        <v>2914800</v>
+        <v>2862200</v>
       </c>
       <c r="J72" s="3">
-        <v>589300</v>
+        <v>578700</v>
       </c>
       <c r="K72" s="3">
         <v>1131500</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20032000</v>
+        <v>19670700</v>
       </c>
       <c r="E76" s="3">
-        <v>17085300</v>
+        <v>16777200</v>
       </c>
       <c r="F76" s="3">
-        <v>12369200</v>
+        <v>12146200</v>
       </c>
       <c r="G76" s="3">
-        <v>14215700</v>
+        <v>13959300</v>
       </c>
       <c r="H76" s="3">
-        <v>12932600</v>
+        <v>12699400</v>
       </c>
       <c r="I76" s="3">
-        <v>14793100</v>
+        <v>14526400</v>
       </c>
       <c r="J76" s="3">
-        <v>8580800</v>
+        <v>8426000</v>
       </c>
       <c r="K76" s="3">
         <v>9303900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4749400</v>
+        <v>4663800</v>
       </c>
       <c r="E81" s="3">
-        <v>409400</v>
+        <v>402000</v>
       </c>
       <c r="F81" s="3">
-        <v>-1761300</v>
+        <v>-1729600</v>
       </c>
       <c r="G81" s="3">
-        <v>1624300</v>
+        <v>1595100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1976000</v>
+        <v>-1940400</v>
       </c>
       <c r="I81" s="3">
-        <v>2492100</v>
+        <v>2447100</v>
       </c>
       <c r="J81" s="3">
-        <v>-403500</v>
+        <v>-396200</v>
       </c>
       <c r="K81" s="3">
         <v>464000</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3464100</v>
+        <v>3401700</v>
       </c>
       <c r="E83" s="3">
-        <v>4357800</v>
+        <v>4279200</v>
       </c>
       <c r="F83" s="3">
-        <v>2564600</v>
+        <v>2518400</v>
       </c>
       <c r="G83" s="3">
-        <v>1665100</v>
+        <v>1635000</v>
       </c>
       <c r="H83" s="3">
-        <v>1577700</v>
+        <v>1549300</v>
       </c>
       <c r="I83" s="3">
-        <v>1502900</v>
+        <v>1475800</v>
       </c>
       <c r="J83" s="3">
-        <v>1109100</v>
+        <v>1089100</v>
       </c>
       <c r="K83" s="3">
         <v>1587300</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8442300</v>
+        <v>8290100</v>
       </c>
       <c r="E89" s="3">
-        <v>4382200</v>
+        <v>4303200</v>
       </c>
       <c r="F89" s="3">
-        <v>202100</v>
+        <v>198500</v>
       </c>
       <c r="G89" s="3">
-        <v>2432100</v>
+        <v>2388200</v>
       </c>
       <c r="H89" s="3">
-        <v>1594700</v>
+        <v>1566000</v>
       </c>
       <c r="I89" s="3">
-        <v>2264800</v>
+        <v>2223900</v>
       </c>
       <c r="J89" s="3">
-        <v>637400</v>
+        <v>626000</v>
       </c>
       <c r="K89" s="3">
         <v>1106800</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2745300</v>
+        <v>-2695800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1897500</v>
+        <v>-1863300</v>
       </c>
       <c r="F91" s="3">
-        <v>-636000</v>
+        <v>-624500</v>
       </c>
       <c r="G91" s="3">
-        <v>-875800</v>
+        <v>-860100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1019500</v>
+        <v>-1001100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1236400</v>
+        <v>-1214100</v>
       </c>
       <c r="J91" s="3">
-        <v>-765500</v>
+        <v>-751700</v>
       </c>
       <c r="K91" s="3">
         <v>-1287000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1713200</v>
+        <v>-1682300</v>
       </c>
       <c r="E94" s="3">
-        <v>-697400</v>
+        <v>-684800</v>
       </c>
       <c r="F94" s="3">
-        <v>-638900</v>
+        <v>-627400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1060200</v>
+        <v>-1041100</v>
       </c>
       <c r="H94" s="3">
-        <v>-453800</v>
+        <v>-445700</v>
       </c>
       <c r="I94" s="3">
-        <v>-9525500</v>
+        <v>-9353700</v>
       </c>
       <c r="J94" s="3">
-        <v>-798800</v>
+        <v>-784400</v>
       </c>
       <c r="K94" s="3">
         <v>666800</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-686300</v>
+        <v>-673900</v>
       </c>
       <c r="E96" s="3">
-        <v>-155500</v>
+        <v>-152700</v>
       </c>
       <c r="F96" s="3">
-        <v>-57000</v>
+        <v>-56000</v>
       </c>
       <c r="G96" s="3">
-        <v>-192500</v>
+        <v>-189000</v>
       </c>
       <c r="H96" s="3">
-        <v>-181400</v>
+        <v>-178100</v>
       </c>
       <c r="I96" s="3">
-        <v>-166600</v>
+        <v>-163600</v>
       </c>
       <c r="J96" s="3">
-        <v>-122900</v>
+        <v>-120700</v>
       </c>
       <c r="K96" s="3">
         <v>-396500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5683000</v>
+        <v>-5580500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1856100</v>
+        <v>-1822600</v>
       </c>
       <c r="F100" s="3">
-        <v>619700</v>
+        <v>608500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1786500</v>
+        <v>-1754300</v>
       </c>
       <c r="H100" s="3">
-        <v>-1043900</v>
+        <v>-1025100</v>
       </c>
       <c r="I100" s="3">
-        <v>4823400</v>
+        <v>4736500</v>
       </c>
       <c r="J100" s="3">
-        <v>-124400</v>
+        <v>-122100</v>
       </c>
       <c r="K100" s="3">
         <v>671300</v>
@@ -4207,22 +4207,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>176200</v>
+        <v>173000</v>
       </c>
       <c r="E101" s="3">
-        <v>18500</v>
+        <v>18200</v>
       </c>
       <c r="F101" s="3">
-        <v>-40700</v>
+        <v>-40000</v>
       </c>
       <c r="G101" s="3">
-        <v>-25900</v>
+        <v>-25400</v>
       </c>
       <c r="H101" s="3">
-        <v>29600</v>
+        <v>29100</v>
       </c>
       <c r="I101" s="3">
-        <v>134700</v>
+        <v>132300</v>
       </c>
       <c r="J101" s="3">
         <v>700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1222300</v>
+        <v>1200300</v>
       </c>
       <c r="E102" s="3">
-        <v>1847200</v>
+        <v>1813900</v>
       </c>
       <c r="F102" s="3">
-        <v>142100</v>
+        <v>139600</v>
       </c>
       <c r="G102" s="3">
-        <v>-440500</v>
+        <v>-432600</v>
       </c>
       <c r="H102" s="3">
-        <v>126600</v>
+        <v>124300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2302500</v>
+        <v>-2261000</v>
       </c>
       <c r="J102" s="3">
-        <v>-285000</v>
+        <v>-279900</v>
       </c>
       <c r="K102" s="3">
         <v>2419300</v>
